--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:43:23+02:00</t>
+    <t>2023-04-28T21:13:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:13:26+02:00</t>
+    <t>2023-05-07T23:02:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:02:44+02:00</t>
+    <t>2023-05-09T23:50:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:50:17+02:00</t>
+    <t>2023-06-07T11:52:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="681">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.208.176.2.22</t>
+    <t>urn:oid#urn:oid:1.2.208.176.2.22</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-01T22:25:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -141,10 +141,10 @@
     <t>67b4ac73-dedf-4337-ad56-476b0a55ab03</t>
   </si>
   <si>
-    <t>Social indsats [Servicelov]</t>
-  </si>
-  <si>
-    <t>Indsats, der består af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud, og som skal forebygge eller tilgodese behov, som følger af en nedsat funktionsevne, og som gives med henblik på at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilværelse eller forbedre livskvaliteten.</t>
+    <t>Social indsats</t>
+  </si>
+  <si>
+    <t>En social indsats, er en indsats, der best�r af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud. En social indsats skal forebygge eller tilgodese behov, som f�lger af en nedsat funktionsevne. Indsatsen gives med henblik p� at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilv�relse eller forbedre livskvaliteten. I generelle vendinger er det tale om en social indsats, n�r 'nogen' leverer 'noget' til 'en modtager' med det beskrevne form�l. Mere konkret vil en social indsats best� af en eller flere specifikke ydelser, som typisk leveres til �n borger af �t tilbud. Det kan fx v�re n�r et ambulant behandlingstilbud til voksne leverer misbrugsbehandling til en stofmisbruger eller n�r et socialp�dagogisk opholdssted leverer socialp�dagogisk behandling til et barn. Der vil typisk v�re en eller flere bestemte faglige tilgange til leveringen af den sociale indsats, der kan leveres efter en eller flere metoder. En social indsats vil almindeligvis...</t>
   </si>
   <si>
     <t>2</t>
@@ -156,7 +156,7 @@
     <t>Ydelse</t>
   </si>
   <si>
-    <t>Tjeneste, genstand eller beløb, der gives eller modtages</t>
+    <t>En ydelse er en tjeneste, genstand eller et bel�b, der gives eller modtages. En ydelse p� socialomr�det kan i visse tilf�lde ogs� best� af en sanktion, som fx for�ldrep�l�g.</t>
   </si>
   <si>
     <t>3</t>
@@ -168,7 +168,7 @@
     <t>Afklaring</t>
   </si>
   <si>
-    <t>Ydelse, der har til formål at afdække en persons situation</t>
+    <t>Afklaring er en ydelse, der har til form�l at afd�kke en borgers situation.</t>
   </si>
   <si>
     <t>4</t>
@@ -177,10 +177,10 @@
     <t>35b593cf-724f-4058-9f31-fe1b3e8df124</t>
   </si>
   <si>
-    <t>Pædagogisk udredning</t>
-  </si>
-  <si>
-    <t>Udredning, hvor en leverandør afdækker en persons funktionsevne i relation til daglige aktiviteter</t>
+    <t>P�dagogisk udredning</t>
+  </si>
+  <si>
+    <t>P�dagogisk udredning er en aktivitet, hvor en leverand�r afd�kker en borgers funktionsevne i relation til daglige aktiviteter. Et centralt aspekt i afd�kningen af funktionsevnen er borgerens mestringsevne, som har betydning for, hvordan man begriber, h�ndterer og handler i forskellige situationer. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>a1eaa022-9e5c-493c-83d3-7cc40b9df9e9</t>
@@ -189,16 +189,16 @@
     <t>Ophold</t>
   </si>
   <si>
-    <t>Ydelse, der har til formål at huse en person.</t>
+    <t>Ophold er en ydelse, der har til form�l at huse en borger. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilf�lde �n ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et till�g til disse andre ydelser. Det prim�re fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan v�re egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask.</t>
   </si>
   <si>
     <t>5af56051-8413-4115-aaa2-83a0767e1137</t>
   </si>
   <si>
-    <t>Længerevarende ophold</t>
-  </si>
-  <si>
-    <t>Ophold, der er tilkendt for en ikke-midlertidig periode.</t>
+    <t>L�ngerevarende ophold</t>
+  </si>
+  <si>
+    <t>L�ngerevarende ophold er en ydelse, der har til form�l at huse en borger, og som er tilkendt for en ikke-midlertidig periode. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilf�lde �n ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et till�g til disse andre ydelser. Det prim�re fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan v�re egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf: Serviceloven � 108, Almenboligloven � 54, Friplejeboligloven, �ldreboligloven m.fl.</t>
   </si>
   <si>
     <t>80aa8ea7-4ad8-405f-876a-4c0f89fde06a</t>
@@ -207,7 +207,7 @@
     <t>Midlertidigt ophold</t>
   </si>
   <si>
-    <t>Ophold, der er tilkendt midlertidigt.</t>
+    <t>Midlertidigt ophold er en ydelse, der har til form�l at huse en borger, og som tilkendes midlertidigt. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilf�lde �n ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et till�g til disse andre ydelser. Det prim�re fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan v�re egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf p� B�rn- og ungeomr�det: Serviceloven �� 52, 58, 66. Vejledende visitationsparagraf p� Voksen-omr�det: Serviceloven �� 107, 109, 110.</t>
   </si>
   <si>
     <t>a81a3fa9-6601-4d1e-a11e-f7444dfd3828</t>
@@ -216,16 +216,16 @@
     <t>Akut ophold</t>
   </si>
   <si>
-    <t>Akut ophold leveres til en persone med et pludseligt opstået behov for husning. Akut ophold leveres typisk på en type af botilbud eller andeet overnatningssted fx vandrehjem. Akut ophold kan være én af flere ydelser, der leveres til personen. Det kan være egenbetaling for personens ophold.</t>
+    <t>Akut ophold leveres til en persone med et pludseligt opst�et behov for husning. Akut ophold leveres typisk p� en type af botilbud eller andeet overnatningssted fx vandrehjem. Akut ophold kan v�re �n af flere ydelser, der leveres til personen. Det kan v�re egenbetaling for personens ophold.</t>
   </si>
   <si>
     <t>a2256d86-1cf8-4da5-be49-1f49f4335ecb</t>
   </si>
   <si>
-    <t>Aktivitet og samvær</t>
-  </si>
-  <si>
-    <t>Ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til formål at fremme socialt samvær eller tilbyde et miljøskift.</t>
+    <t>Aktivitet og samv�r</t>
+  </si>
+  <si>
+    <t>Aktivitet- og samv�r er en ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til form�l at fremme socialt samv�r eller at tilbyde et milj�skift. I aktivitet og samv�r kan der ogs� indg� individuel vejledning, st�tte, omsorg og hj�lp til at deltage i aktiviteterne. Lovhjemmel: Serviceloven � 104.</t>
   </si>
   <si>
     <t>299af83f-586c-4c17-8af6-c8c47a847d6d</t>
@@ -234,7 +234,7 @@
     <t>Sansestimulerende aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person får stimuleret sine sanser med henblik på evnen til at kunne sortere, organisere og bearbejde sanseindtryk.</t>
+    <t>Sansestimulerende aktiviteter er aktivitet og samv�r, hvor en borger f�r stimuleret sine sanser med henblik p� evnen til at kunne sortere, organisere og bearbejde sanseindtryk. Sansestimulerende aktiviteter kan fx v�re massage, gyngeture, kuglebad og -dyne, sansehave og brug af musik-, lyd- og lysstimuli. Visitationsparagraf: Serviceloven � 104.</t>
   </si>
   <si>
     <t>2c1944be-fe87-4c42-b08e-9cc075c9ef18</t>
@@ -243,7 +243,7 @@
     <t>Oplevelsesaktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person har individuelle oplevelser eller oplevelser sammen med andre personer.</t>
+    <t>Oplevelsesaktiviteter er aktivitet og samv�r, hvor en borger har individuelle oplevelser eller oplevelser sammen med andre borgere eller personale. Oplevelser kan fx v�re natur- og kulturoplevelser. Visitationsparagraf: Serviceloven � 104.</t>
   </si>
   <si>
     <t>66e23d66-1c5f-4070-bed1-8827cc863dcd</t>
@@ -252,7 +252,7 @@
     <t>Fysisk aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, der gennem fysiske bevægelser giver en person mulighed for at bruge sin krop.</t>
+    <t>Fysiske aktiviteter er aktivitet og samv�r, der gennem fysiske bev�gelser giver en borger mulighed for at bruge sin krop. Det omfatter fx idr�ts- og motionsaktiviteter og forskellige former for bev�gelse, hvor samv�ret kan v�re i centrum. Visitationsparagraf: Serviceloven � 104.</t>
   </si>
   <si>
     <t>7e419926-bb04-4829-99c9-95ea20403c2c</t>
@@ -261,7 +261,7 @@
     <t>Social aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, som ved at få en person ind i et fællesskab med andre forebygger eller bryder med social isolation og vedligeholder de sociale relationer.</t>
+    <t>Social aktivitet er aktivitet og samv�r, som ved at f� en borger ind i et f�llesskab med andre, forebygger eller bryder med social isolation og vedligeholder de sociale relationer. Social aktivitet kan fx v�re at spise, spille spil eller h�re musik sammen med andre. Visitationsparagraf: Serviceloven � 104.</t>
   </si>
   <si>
     <t>be5d5058-ef06-42a9-b894-51e44513e717</t>
@@ -270,7 +270,7 @@
     <t>Kreativ aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person kan udfolde sig kreativt.</t>
+    <t>Kreative aktiviteter er aktivitet og samv�r, hvor en borger kan udfolde sig kreativt. Aktiviteterne kan foretages alene eller sammen med andre borgere eller personale. Kreative aktiviteter kan fx v�re madlavning; musik, sang og drama; h�ndarbejde; maleri eller v�rkstedsaktiviteter. Visitationsparagraf: Serviceloven � 104.</t>
   </si>
   <si>
     <t>f25674bf-3162-45c3-bde4-6d542bf9629b</t>
@@ -279,16 +279,16 @@
     <t>Kompetenceudviklende aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person eller gruppe af personer undervises i bestemte færdigheder eller kompetencer.</t>
+    <t>Kompetenceudviklende aktiviteter er aktivitet og samv�r, hvor en borger eller gruppe af borgere undervises i bestemte f�rdigheder eller kompetencer. Kompetenceudviklende aktiviteter kan s�ledes b�de sigte p� at opn� helt konkrete f�rdigheder fx i forhold til brug af IT og mobiltelefon eller p� at lave mad, eller p� mere brede kompetencel�ft, der sigter mod evnen til at varetage egen sundhed og livsf�relse. Visitationsparagraf: Serviceloven � 104.</t>
   </si>
   <si>
     <t>d8505298-6ea5-4ca8-923d-6e4451cc9a48</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelse</t>
-  </si>
-  <si>
-    <t>Ydelse, der gennem arbejdslignende, lønnede aktiviteter har til formål at afdække, oparbejde, udvikle eller bevare en persons arbejdsevne og beskæftigelsesrelevante kompetencer.</t>
+    <t>Beskyttet besk�ftigelse</t>
+  </si>
+  <si>
+    <t>Beskyttet besk�ftigelse er en ydelse, der gennem arbejdslignende, l�nnede aktiviteter har til form�l at afd�kke, oparbejde, udvikle eller bevare en borgers arbejdsevne og besk�ftigelsesrelevante kompetencer. I beskyttet besk�ftigelse kan der ogs� indg� individuel vejledning, st�tte og hj�lp til at deltage i aktiviteterne. Beskyttet besk�ftigelse er rettet mod borgere, der ikke kan opn� eller fastholde besk�ftigelse p� normale vilk�r p� arbejdsmarkedet, og som ikke kan f� indsatser efter anden lovgivning. Lovhjemmel: Serviceloven � 103.</t>
   </si>
   <si>
     <t>55b77d7c-afce-4269-9232-7731ab1ef4fc</t>
@@ -297,43 +297,43 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af servicerende, understøttende arbejdsfunktioner.</t>
+    <t>Service og tjenesteydelser er beskyttet besk�ftigelse, der er centreret omkring udf�relse af servicerende, underst�ttende arbejdsfunktioner. I en service og tjenesteydelse vil der ofte indg� kontakt med andre, hvorfor der typisk vil v�re fokus p� at tr�ne dette. Eksempler p� service og tjenesteydelser er kantine- og caf�drift, pedel- og reng�ringsopgaver samt kontor- og piccolineopgaver, butik- og kundebetjening og vedligeholdelse af gr�nne omr�der. Visitationsparagraf: Serviceloven � 103.</t>
   </si>
   <si>
     <t>c429b7a9-5085-472b-b118-a21ca90f769f</t>
   </si>
   <si>
-    <t>Praktikforløb</t>
-  </si>
-  <si>
-    <t>Beskyttet beskæftigelse, der har til formål, at en person kan afprøve ressourcer og kompetencer i forhold til et specifikt arbejdsområde eller en given arbejdsplads i en afgrænset periode.</t>
+    <t>Praktikforl�b</t>
+  </si>
+  <si>
+    <t>Praktikforl�b er beskyttet besk�ftigelse, der har til form�l, at en borger kan afpr�ve ressourcer og kompetencer i forhold til et specifikt arbejdsomr�de eller en given arbejdsplads i en afgr�nset periode. Praktikforl�b kan ogs� foreg� i en ekstern virksomhed, fx en dagligvareforretning eller en produktionsvirksomhed. Visitationsparagraf: Serviceloven � 103.</t>
   </si>
   <si>
     <t>fb3d8722-90e0-4a80-ba65-490617ffeb0f</t>
   </si>
   <si>
-    <t>Produktion og værksted</t>
-  </si>
-  <si>
-    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af enkle, afgrænsede arbejdsopgaver som led i en samlet produktion af konkrete produkter.</t>
+    <t>Produktion og v�rksted</t>
+  </si>
+  <si>
+    <t>Produktion og v�rksted er beskyttet besk�ftigelse, der er centreret omkring udf�relse af enkle, afgr�nsede arbejdsopgaver som led i en samlet produktion af konkrete produkter. De konkrete arbejdsopgaver kan fx v�re fremstilling af produkter, herunder fx kunsth�ndv�rk, opt�ndingsbr�nde, gr�ntsager, produktion af avis og medier. Opgaverne kan eksempelvis omfatte montering, sortering, opt�lling og pakning og kontrol af produkter. Visitationsparagraf: Serviceloven � 103.</t>
   </si>
   <si>
     <t>1f0ff82b-3243-422f-9651-1d00fd2dcd61</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte</t>
-  </si>
-  <si>
-    <t>Ydelse, der gennem motivation, vejledning og støtte har til formål at udvikle eller fastholde en persons funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til personens situation.</t>
+    <t>Socialp�dagogisk st�tte</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte er en ydelse, der gennem motivation, vejledning og st�tte har til form�l at udvikle eller fastholde en borgers funktionsevne og muligheder for selvst�ndighed og selvbestemmelse i forhold til borgerens situation. Socialp�dagogisk st�tte retter sig blandt andet mod udvikling og vedligeholdelse af f�rdigheder i forbindelse med almindelig daglig livsf�relse, herunder at skabe struktur i hverdagen og underst�tte deltagelse i samfundets almene f�llesskaber, eksempelvis uddannelse, besk�ftigelse og foreningsliv. Socialp�dagogisk st�tte kan ogs� ydes med det form�l at begr�nse tabet af funktionsevne og at yde kompensation, omsorg og pleje. Lovhjemmel: Serviceloven � 85.</t>
   </si>
   <si>
     <t>309b778e-52ed-448a-91ae-0650a6cd8b1b</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse</t>
-  </si>
-  <si>
-    <t>Socialpædagogisk støtte, der retter sig mod aktiviteter, der er en forudsætning for at kunne deltage i samfundslivet.</t>
+    <t>St�tte til samfundsdeltagelse</t>
+  </si>
+  <si>
+    <t>St�tte til samfundsdeltagelse er socialp�dagogisk st�tte, der retter sig mod aktiviteter, der er en foruds�tning for at kunne deltage i samfundslivet. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>5</t>
@@ -342,217 +342,217 @@
     <t>0886a1b6-4a3a-47e5-9c97-066270529e4f</t>
   </si>
   <si>
-    <t>Støtte til transport</t>
-  </si>
-  <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons mulighed for selvstændigt at færdes uden for hjemmet.</t>
+    <t>St�tte til transport</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til transport er motivation, vejledning og st�tte til samfundsdeltagelse, der retter sig mod en borgers mulighed for selvst�ndigt at f�rdes uden for hjemmet. St�tte til transport omfatter eksempelvis tr�ning i at anvende offentlige transportmidler, fx at tage med bussen til og fra arbejde og uddannelse, behandling og l�gebes�g eller aktiviteter af social karakter. St�tte til transport er ikke ledsagelse, men er rettet mod personens evne til at f�rdes selvst�ndigt. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>1a2daf63-0510-4bf3-8578-662d4300c965</t>
   </si>
   <si>
-    <t>Støtte til uddannelse</t>
-  </si>
-  <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage en uddannelse.</t>
+    <t>St�tte til uddannelse</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til uddannelse er motivation, vejledning og st�tte til samfundsdeltagelse, der retter sig mod en borgersmuligheder for at varetage en uddannelse. St�tte til uddannelse kan fx v�re at afd�kke �nsker og muligheder i forbindelse med uddannelse, etablering af hensigtsm�ssige rutiner og struktur i forhold til at varetage en uddannelse samt at fastholde motivation og engagement. Herved adskiller st�tte til uddannelse sig fra specialp�dagogisk st�tte under uddannelse efter Lov om specialp�dagogisk st�tte. St�tte til uddannelse er helt eller delvist sammenfaldende med mentorst�tte efter Lov om aktiv besk�ftigelsesindsats � 31.b Med uddannelse menes b�de ordin�r uddannelse s�vel som uddannelse p� s�rlige vilk�r. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>cb1169ee-8969-46d3-813d-f0dd555bd838</t>
   </si>
   <si>
-    <t>Støtte til beskæftigelse</t>
-  </si>
-  <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage et arbejde.</t>
+    <t>St�tte til besk�ftigelse</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til besk�ftigelse er motivation, vejledning og st�tte til samfundsdeltagelse, der retter sig mod en borgers muligheder for at varetage et arbejde. St�tte til besk�ftigelse kan fx v�re etablering af hensigtsm�ssige rutiner og struktur i forhold til at varetage et arbejde samt at fastholde motivation og engagement. St�tte til besk�ftigelse er helt eller delvist sammenfaldende med mentorst�tte efter Lov om aktiv besk�ftigelsesindsats � 31.b. Med besk�ftigelse menes b�de ordin�r besk�ftigelse og besk�ftigelse p� s�rlige vilk�r. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>e2631dec-fd8b-420e-94db-53fd80e82766</t>
   </si>
   <si>
-    <t>Støtte til kontakt til offentlige og private instanser</t>
-  </si>
-  <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod gennemførsel af besøg hos og kontakt til offentlige og private instanser med et specifikt formål.</t>
+    <t>St�tte til kontakt til offentlige og private instanser</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til kontakt til offentlige og private instanser er motivation, vejledning og st�tte til samfundsdeltagelse, der retter sig mod gennemf�rsel af bes�g hos og kontakt til offentlige og private instanser med et specifikt form�l. St�tte til kontakt til offentlige og private instanser kan fx v�re rettet mod at henvende sig hos banken, foreninger, organisationer og offentlige myndigheder. Det kan ogs� v�re st�tte til at gennemf�re bes�g fx hos l�gen eller tandl�gen. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>329782cf-a740-4eb7-aa7e-aaaa9a53c99e</t>
   </si>
   <si>
-    <t>Støtte til sundhed</t>
-  </si>
-  <si>
-    <t>Socialpædagogisk støtte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme.</t>
+    <t>St�tte til sundhed</t>
+  </si>
+  <si>
+    <t>St�tte til sundhed er socialp�dagogisk st�tte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme. Sundhed omfatter b�de fysisk og mental trivsel. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>3c1639d0-e486-43c6-8add-448b8aff4b8f</t>
   </si>
   <si>
-    <t>Støtte til sund levevis</t>
-  </si>
-  <si>
-    <t>Støtte til sundhed, der retter sig mod livsstilsbetingede forhold.</t>
+    <t>St�tte til sund levevis</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til sund levevis er motivation, vejledning og st�tte til sundhed, der retter sig mod livsstilsbetingede forhold. St�tte til sund levevis kan fx v�re at dyrke motion, etablere en sund d�gnrytme, stoppe med at ryge eller motivere borgeren til at spise sundt og hensigtsm�ssigt, herunder st�tte til m�ltider. Vejledende visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>72272d03-1774-4a14-b598-5f19b5eac83f</t>
   </si>
   <si>
-    <t>Støtte til personlig hygiejne</t>
-  </si>
-  <si>
-    <t>Støtte til sundhed, der retter sig mod hygiejnemæssige opgaver i relation til personen selv.</t>
+    <t>St�tte til personlig hygiejne</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til personlig hygiejne er motivation, vejledning og st�tte til sundhed, der retter sig mod hygiejnem�ssige opgaver i relation til borgeren selv. St�tte til personlig hygiejne kan fx v�re rettet mod etablering af struktur og rutiner i forbindelse med af- og p�kl�dning og bad. Herved adskiller st�tte til personlig hygiejne sig fra personlig hj�lp efter serviceloven � 83. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>ad7755d2-11bf-468d-958b-2f0c8d9c3742</t>
   </si>
   <si>
-    <t>Støtte til psykisk trivsel</t>
-  </si>
-  <si>
-    <t>Støtte til sundhed, der retter sig mod en persons psykiske velbefindende.</t>
+    <t>St�tte til psykisk trivsel</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til psykisk trivsel er motivation, vejledning og st�tte til sundhed, der retter sig mod en borgers psykiske velbefindende. St�tte til psykisk trivsel kan fx v�re rettet mod en borgers f�lelsesregulering og handlem�nstre, indsigt i og forst�else af egen situation, opbygning af positivt selvv�rd og identitet. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>bd5fea9a-16ed-4e63-b6a1-8e83caaf9b0b</t>
   </si>
   <si>
-    <t>Støtte til seksualitet</t>
-  </si>
-  <si>
-    <t>Støtte til sundhed, der retter sig mod den måde, som en persons seksualitet kommer til udtryk på.</t>
+    <t>St�tte til seksualitet</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til seksualitet er motivation, vejledning og st�tte til sundhed, der retter sig mod den m�de, som en borgers seksualitet kommer til udtryk p�. St�tte til seksualitet kan fx v�re st�tte til at udtrykke sin seksualitet hensigtsm�ssigt eller s�tte gr�nser. Det kan ogs� v�re st�tte til at ops�ge specialiseret r�dgivning og vejledning i forhold til seksualitet og funktionsneds�ttelser. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>e7c8b42e-b882-4629-8e03-65e44b1aa3e3</t>
   </si>
   <si>
-    <t>Støtte til behandling</t>
-  </si>
-  <si>
-    <t>Støtte til sundhed, der retter sig mod en persons behandling.</t>
+    <t>St�tte til behandling</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til behandling er motivation, vejledning og st�tte til sundhed, der retter sig mod en borgers behandling. St�tte til behandling kan fx v�re rettet mod, at borgeren fastholder beslutningen om at p�begynde behandling eller opretholder igangv�rende behandling, herunder fx misbrugsbehandling, psykologisk behandling og medicinsk behandling, Herved adskiller st�tte til behandling sig fra ydelser efter Sundhedsloven � 138. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>4ff4a2d4-4cde-4a22-bb37-ecfbd3fd9650</t>
   </si>
   <si>
-    <t>Støtte til relationer og fællesskaber</t>
-  </si>
-  <si>
-    <t>Socialpædagogisk støtte, der retter sig mod relationer og fællesskaber, hvor samspillet med andre er et centralt element.</t>
+    <t>St�tte til relationer og f�llesskaber</t>
+  </si>
+  <si>
+    <t>St�tte til relationer og f�llesskaber er socialp�dagogisk st�tte, der retter sig mod relationer og f�llesskaber, hvor samspillet med andre er et centralt element. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>05cd5e81-1a3a-4bdd-901b-7ec96c12d990</t>
   </si>
   <si>
-    <t>Støtte til sociale relationer</t>
-  </si>
-  <si>
-    <t>Støtte til relationer og fællesskaber, der retter sig mod at udvikle, indgå i og bevare relationer til andre mennesker.</t>
+    <t>St�tte til sociale relationer</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til sociale relationer er motivation, vejledning og st�tte til relationer og f�llesskaber, der retter sig mod at udvikle, indg� i og bevare relationer til andre mennesker. St�tte til sociale relationer kan b�de v�re rettet mod en borgers relationer til enkeltpersoner eller p�, hvordan en borger indg�r i et st�rre f�llesskab. St�tte til sociale relationer kan b�de v�re hj�lp til at h�ndtere de f�lelsesm�ssige og sociale aspekter ved samv�ret, fx at h�ndtere f�lelser og problemstillinger i sociale sammenh�nge, at skabe og fastholde netv�rk og at holde kontakt med venner og familie eller deltage i og gennemf�re aktiviteter sammen med andre. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>ea47a198-7e24-472d-ba5d-132b8b744710</t>
   </si>
   <si>
-    <t>Støtte til varetagelse af forældrerollen</t>
-  </si>
-  <si>
-    <t>Støtte til relationer og fællesskaber, der retter sig mod strukturering og håndtering af opgaver, som er en almindelig del af forældreansvaret, og hvor samværet mellem barn og forælder er centralt.</t>
+    <t>St�tte til varetagelse af for�ldrerollen</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til varetagelse af for�ldrerollen er motivation, vejledning og st�tte til relationer og f�llesskaber, der retter sig mod strukturering og h�ndtering af opgaver, som er en almindelig del af for�ldreansvaret, og hvor samv�ret mellem barn og for�lder er centralt. St�tten tildeles p� baggrund af borgerens nedsatte funktionsevne i forhold til at gennemf�re de opgaver, der indg�r i varetagelse af for�ldrerollen og ikke grundet manglende for�ldreevne. Herved adskiller st�tte til varetagelse af for�ldrerollen sig fra foranstaltninger efter Serviceloven � 52, hvor fokus er p� barnets trivsel. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>a63f7092-63d9-4cb5-ace5-655b552fdacc</t>
   </si>
   <si>
-    <t>Støtte til praktiske opgaver</t>
-  </si>
-  <si>
-    <t>Socialpædagogisk støtte, der retter sig imod almindelige praktiske opgaver.</t>
+    <t>St�tte til praktiske opgaver</t>
+  </si>
+  <si>
+    <t>St�tte til praktiske opgaver er socialp�dagogisk st�tte, der retter sig imod almindelige praktiske opgaver. St�tte til praktiske opgaver best�r af motivation, vejledning og st�tte til udf�relsen af de praktiske opgaver, herunder udvikling og vedligeholdelse af kompetencer til at strukturere, planl�gge og udf�re de konkrete aktiviteter. Herved adskiller st�tte til praktiske opgaver sig fra praktisk hj�lp efter � 83. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>638f44df-6bf2-47f8-9935-b8fdc83e5bf5</t>
   </si>
   <si>
-    <t>Støtte til daglige opgaver i hjemmet</t>
-  </si>
-  <si>
-    <t>Støtte til praktiske opgaver, der har hverdagskarakter og retter sig mod en persons hjem.</t>
+    <t>St�tte til daglige opgaver i hjemmet</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til daglige opgaver i hjemmet er motivation, vejledning og st�tte til praktiske opgaver, der har hverdagskarakter og retter sig mod borgerens hjem. St�tte til daglige opgaver i hjemmet kan eksempelvis v�re st�tte til oprydning, t�jvask, reng�ring eller indk�b og madlavning. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>c56634ca-6847-4c50-b5c1-c528c1ffc1d8</t>
   </si>
   <si>
-    <t>Støtte til etablering i bolig</t>
-  </si>
-  <si>
-    <t>Støtte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i bolig.</t>
+    <t>St�tte til etablering i bolig</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til etablering i bolig er motivation, vejledning og st�tte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i borgerens bolig. Et eksempel p� st�tte til etablering i bolig er at s�ge efter en bolig eller at guide og motivere i forbindelse med ind- og udflytning fx i forbindelse med planl�gning, strukturering og gennemf�rsel af praktiske opgaver og indretning af boligen til borgerens behov. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>d473dea2-4f6d-4f36-a8f0-260f0213f50a</t>
   </si>
   <si>
-    <t>Støtte til administration</t>
-  </si>
-  <si>
-    <t>Støtte til praktiske opgaver af administrativ eller økonomisk karakter.</t>
+    <t>St�tte til administration</t>
+  </si>
+  <si>
+    <t>Socialp�dagogisk st�tte til administration er motivation, vejledning og st�tte til praktiske opgaver af administrativ eller �konomisk karakter. St�tte til administration kan fx v�re rettet mod borgerens h�ndtering og forst�else af post, herunder digital post og selvbetjeningsl�sninger, personlig �konomi, herunder budget, opsparing og regninger, samt opdatering og anvendelse af software eller apps, herunder digitaliserede hj�lpemidler. Visitationsparagraf: Serviceloven � 85.</t>
   </si>
   <si>
     <t>21dca9cf-c238-465b-9f12-15351f51b038</t>
   </si>
   <si>
-    <t>Forebyggende hjælp og støtte</t>
-  </si>
-  <si>
-    <t>Forebyggende hjælp og støtte er en ydelse til voksne, der retter sig mod personer med lettere fysisk elle psykisk funktionsnedsættelse eller lettere sociale problemer og personer, der er i risiko for at udvikle funktionsnedsættelse eller sociale problemer. Forebyggende hjælp og støtte har til formål at forbedre personens aktuelle funktionsniveau eller den sociale problematik, eller forebygge at funktionsnedsættelsen eller de sociale problemer udvikles eller forværres.</t>
+    <t>Forebyggende hj�lp og st�tte</t>
+  </si>
+  <si>
+    <t>Forebyggende hj�lp og st�tte er en ydelse til voksne, der retter sig mod personer med lettere fysisk elle psykisk funktionsneds�ttelse eller lettere sociale problemer og personer, der er i risiko for at udvikle funktionsneds�ttelse eller sociale problemer. Forebyggende hj�lp og st�tte har til form�l at forbedre personens aktuelle funktionsniveau eller den sociale problematik, eller forebygge at funktionsneds�ttelsen eller de sociale problemer udvikles eller forv�rres.</t>
   </si>
   <si>
     <t>3459f530-7334-48c4-9037-53bf80df8851</t>
   </si>
   <si>
-    <t>Gruppebaseret hjælp og støtte</t>
-  </si>
-  <si>
-    <t>Gruppebaseret hjælp og støtte er forebyggende hjælp og støtte, der leveres til en gruppe af personer og kan fx bestå i træning, hjælp og støtte til udvikling af færdigheder, mestringskurser eller gruppesamtaler.</t>
+    <t>Gruppebaseret hj�lp og st�tte</t>
+  </si>
+  <si>
+    <t>Gruppebaseret hj�lp og st�tte er forebyggende hj�lp og st�tte, der leveres til en gruppe af personer og kan fx best� i tr�ning, hj�lp og st�tte til udvikling af f�rdigheder, mestringskurser eller gruppesamtaler.</t>
   </si>
   <si>
     <t>f3edac43-d0d6-4cc3-96c7-4658a557257a</t>
   </si>
   <si>
-    <t>Akut rådgivning, omsorg og støtte</t>
-  </si>
-  <si>
-    <t>Akut rådgivning, omsorg eller støtte er forebyggende hjælp og støtte, der retter sig mod personer med psykiske vanskeligheder, der akut har brug for rådgivning, omsorg eller støtte. Ved akut forstås, at behovet er opstået pludseligt, og at det kræver øjeblikkelig levering af en given ydelse, der kan hindre forværring af eller stabilisere personens funktionsevne eller hindre, at sociale problemer forværres. Akut rådgivning, omsorg eller støtte kan fx leveres som telefonisk kontakt eller ved fremmøde, når en person møder op på et tilbud ved akut opstået behov.</t>
+    <t>Akut r�dgivning, omsorg og st�tte</t>
+  </si>
+  <si>
+    <t>Akut r�dgivning, omsorg eller st�tte er forebyggende hj�lp og st�tte, der retter sig mod personer med psykiske vanskeligheder, der akut har brug for r�dgivning, omsorg eller st�tte. Ved akut forst�s, at behovet er opst�et pludseligt, og at det kr�ver �jeblikkelig levering af en given ydelse, der kan hindre forv�rring af eller stabilisere personens funktionsevne eller hindre, at sociale problemer forv�rres. Akut r�dgivning, omsorg eller st�tte kan fx leveres som telefonisk kontakt eller ved fremm�de, n�r en person m�der op p� et tilbud ved akut opst�et behov.</t>
   </si>
   <si>
     <t>fe42f8f4-d516-4bab-b006-12b0cd186603</t>
   </si>
   <si>
-    <t>Individuel tidsbegrænset socialpædagogisk hjælp og støtte</t>
-  </si>
-  <si>
-    <t>Individuel, tidsbegrænset socialpædagogisk hjælp og støtte er forebyggende hjælp og støtte, der leveres i en på forhånd afgrænset periode til enkeltpersoner. Individuel tidsbegrænset socialpædagogisk hjælp og støtte kan gives i en periode på op til seks måneder med det formål at udvikle, forbedre eller forebygge tab af personens funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til personens situation.</t>
+    <t>Individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte</t>
+  </si>
+  <si>
+    <t>Individuel, tidsbegr�nset socialp�dagogisk hj�lp og st�tte er forebyggende hj�lp og st�tte, der leveres i en p� forh�nd afgr�nset periode til enkeltpersoner. Individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte kan gives i en periode p� op til seks m�neder med det form�l at udvikle, forbedre eller forebygge tab af personens funktionsevne og muligheder for selvst�ndighed og selvbestemmelse i forhold til personens situation.</t>
   </si>
   <si>
     <t>794ebc42-0639-46eb-aca2-40e996568578</t>
   </si>
   <si>
-    <t>Hjælp og støtte etableret i samarbejde med frivillige</t>
-  </si>
-  <si>
-    <t>Hjælp og støtte etableret i samarbejde med frivillige er forebyggende hjælp og støtte, der leveres i samarbejde med frivillige sociale organisationer eller foreninger. Hjælp og støtte etableret i samarbejde med frivillige kan konkret leveres som henholdsvis gruppebaseret hjælp og støtte efter § 82a og individuel tidsbegrænset socialpædagogisk hjælp og støtte efter § 82 b.</t>
+    <t>Hj�lp og st�tte etableret i samarbejde med frivillige</t>
+  </si>
+  <si>
+    <t>Hj�lp og st�tte etableret i samarbejde med frivillige er forebyggende hj�lp og st�tte, der leveres i samarbejde med frivillige sociale organisationer eller foreninger. Hj�lp og st�tte etableret i samarbejde med frivillige kan konkret leveres som henholdsvis gruppebaseret hj�lp og st�tte efter � 82a og individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte efter � 82 b.</t>
   </si>
   <si>
     <t>b6e1f331-fccf-4a33-8bb6-566546edc405</t>
   </si>
   <si>
-    <t>Gruppebaseret hjælp og støtte etableret i samarbejde med frivillige</t>
-  </si>
-  <si>
-    <t>Hjælp og støtte etableret i samarbejde med frivillige der konkret leveres som gruppebaseret hjælp og støtte efter § 82a</t>
+    <t>Gruppebaseret hj�lp og st�tte etableret i samarbejde med frivillige</t>
+  </si>
+  <si>
+    <t>Hj�lp og st�tte etableret i samarbejde med frivillige der konkret leveres som gruppebaseret hj�lp og st�tte efter � 82a</t>
   </si>
   <si>
     <t>d580bcb7-145a-4346-8e99-d387bbf08a40</t>
   </si>
   <si>
-    <t>Individuel tidsbegrænset socialpædagogisk hjælp og støtte leveret i samarbejde med frivillige</t>
-  </si>
-  <si>
-    <t>Hjælp og støtte etableret i samarbejde med frivillige der konkret leveres som individuel tidsbegrænset socialpædagogisk hjælp og støtte efter § 82 b.</t>
+    <t>Individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte leveret i samarbejde med frivillige</t>
+  </si>
+  <si>
+    <t>Hj�lp og st�tte etableret i samarbejde med frivillige der konkret leveres som individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte efter � 82 b.</t>
   </si>
   <si>
     <t>f708aea3-66bd-46c6-af11-7bf28942fa47</t>
@@ -570,7 +570,7 @@
     <t>Socialt akuttilbud</t>
   </si>
   <si>
-    <t>Et socialt akuttilbud er et tilbud til voksne, der retter sig mod personer med psykiske vanskeligheder, herunder psykisk sårbare, der oplever et akut behov for rådgivning, omsorg, støtte eller akut ophold, men som ikke har umiddelbart behov for psykiatrisk behandling. Ved akut behov forstås almindeligvis et behov, der er pludseligt opstået, og som fordrer øjeblikkelig levering af en given ydelse, der kan hindre forværring af eller stabilisere personens funktionsevne eller hindre, at sociale problemer forværres. Personen kan henvende sig anonymt og uanset aktuel boform.</t>
+    <t>Et socialt akuttilbud er et tilbud til voksne, der retter sig mod personer med psykiske vanskeligheder, herunder psykisk s�rbare, der oplever et akut behov for r�dgivning, omsorg, st�tte eller akut ophold, men som ikke har umiddelbart behov for psykiatrisk behandling. Ved akut behov forst�s almindeligvis et behov, der er pludseligt opst�et, og som fordrer �jeblikkelig levering af en given ydelse, der kan hindre forv�rring af eller stabilisere personens funktionsevne eller hindre, at sociale problemer forv�rres. Personen kan henvende sig anonymt og uanset aktuel boform.</t>
   </si>
   <si>
     <t>d90f4da6-f87a-43b5-833f-646b4baf16d6</t>
@@ -579,7 +579,7 @@
     <t>Mobilt tilbud</t>
   </si>
   <si>
-    <t>Et mobilt tilbud er et tilbud, der ikke leverer ydelser til en borger på en bestemt matrikel, men flyttes ud, der hvor borgeren opholder sig. Det kan eksempelvis være i borgerens eget hjem, på et dagtilbud, et frivilligt tilbud eller i det offentlige rum, fx i forhold til hjemløse. Et mobilt tilbud leverer ydelser til borgere med nedsat fysisk eller psykisk funktionsevne eller sociale problemer, men som ikke har behov for et midlertidigt eller længerevarende ophold. Vejledende lovhjemmel: Serviceloven § 82a, § 82b, §82d, § 85</t>
+    <t>Et mobilt tilbud er et tilbud, der ikke leverer ydelser til en borger p� en bestemt matrikel, men flyttes ud, der hvor borgeren opholder sig. Det kan eksempelvis v�re i borgerens eget hjem, p� et dagtilbud, et frivilligt tilbud eller i det offentlige rum, fx i forhold til hjeml�se. Et mobilt tilbud leverer ydelser til borgere med nedsat fysisk eller psykisk funktionsevne eller sociale problemer, men som ikke har behov for et midlertidigt eller l�ngerevarende ophold. Vejledende lovhjemmel: Serviceloven � 82a, � 82b, �82d, � 85</t>
   </si>
   <si>
     <t>7fec7d14-addb-4684-9637-403739de6228</t>
@@ -588,25 +588,25 @@
     <t>Dagtilbud til voksne</t>
   </si>
   <si>
-    <t>Et dagtilbud til voksne er et tilbud, der udelukkende leverer ydelser til en borger i dagtimerne. Dagtilbud adskiller sig fra ambulante tilbud ved varigheden af de ydelser, som leveres i tilbuddet, dvs. borgeren opholder sig i længere tid på dagtilbuddet. Et dagtilbud til voksne kan fx være et aktivitets- og samværstilbud eller et beskyttet beskæftigelsestilbud.</t>
+    <t>Et dagtilbud til voksne er et tilbud, der udelukkende leverer ydelser til en borger i dagtimerne. Dagtilbud adskiller sig fra ambulante tilbud ved varigheden af de ydelser, som leveres i tilbuddet, dvs. borgeren opholder sig i l�ngere tid p� dagtilbuddet. Et dagtilbud til voksne kan fx v�re et aktivitets- og samv�rstilbud eller et beskyttet besk�ftigelsestilbud.</t>
   </si>
   <si>
     <t>9401777d-bdc5-4f52-9804-63c8cae9a792</t>
   </si>
   <si>
-    <t>Aktivitets- og samværstilbud</t>
-  </si>
-  <si>
-    <t>Et aktivitets- og samværstilbud er et dagtilbud til voksne, der gennem aktivitets- og samværsydelser fremmer socialt samvær eller tilbyder et miljøskift. Et aktivitets- og samværstilbud kan også levere andre ydelser ud over aktivitets- og samværsydelser. Begrebet dækker også uvisiterede væresteder og varmestuer. Lovhjemmel: Serviceloven § 104</t>
+    <t>Aktivitets- og samv�rstilbud</t>
+  </si>
+  <si>
+    <t>Et aktivitets- og samv�rstilbud er et dagtilbud til voksne, der gennem aktivitets- og samv�rsydelser fremmer socialt samv�r eller tilbyder et milj�skift. Et aktivitets- og samv�rstilbud kan ogs� levere andre ydelser ud over aktivitets- og samv�rsydelser. Begrebet d�kker ogs� uvisiterede v�resteder og varmestuer. Lovhjemmel: Serviceloven � 104</t>
   </si>
   <si>
     <t>a0fb02a2-367c-48bc-bacd-92e49a861a4c</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelsestilbud</t>
-  </si>
-  <si>
-    <t>Et beskyttet beskæftigelsestilbud er et dagtilbud til voksne, der leverer beskyttet beskæftigelses-ydelser med fokus på arbejdsevne og beskæftigelsesrelevante kompetencer til borgere, der ikke kan opnå eller fastholde beskæftigelse på normale vilkår på arbejdsmarkedet eller benytte arbejdsmarkedsrelaterede indsatser efter anden lovgivning. Lovhjemmel: Serviceloven § 103</t>
+    <t>Beskyttet besk�ftigelsestilbud</t>
+  </si>
+  <si>
+    <t>Et beskyttet besk�ftigelsestilbud er et dagtilbud til voksne, der leverer beskyttet besk�ftigelses-ydelser med fokus p� arbejdsevne og besk�ftigelsesrelevante kompetencer til borgere, der ikke kan opn� eller fastholde besk�ftigelse p� normale vilk�r p� arbejdsmarkedet eller benytte arbejdsmarkedsrelaterede indsatser efter anden lovgivning. Lovhjemmel: Serviceloven � 103</t>
   </si>
   <si>
     <t>d23e3e8a-7fcf-4603-9d75-481b6e47e0eb</t>
@@ -615,16 +615,16 @@
     <t>Botilbudslignende tilbud</t>
   </si>
   <si>
-    <t>Et botilbudslignende tilbud er et tilbud, der ligner botilbud efter servicelovens § 107 eller § 108, men som er etableret efter anden lovgivning og opfylder betingelserne i socialtilsynsloven § 4, stk. 3. Den borger, der bor i et botilbudslignende tilbud, har lejeforhold efter den almene lejelov og bor i boligen på grund af nedsat fysisk eller psykisk funktionsevne eller særlige sociale problemer. De botilbudslignende tilbud adskiller sig desuden fra udgående tilbud efter servicelovens § 85 ved, at der er knyttet et serviceareal til boligen med fast personale, der overvejende leverer socialpædagogisk støtte. Begrebet omfatter ikke friplejeboliger. Vejledende lovhjemmel: Socialtilsynsloven § 4, stk. 1, nr. 3.</t>
+    <t>Et botilbudslignende tilbud er et tilbud, der ligner botilbud efter servicelovens � 107 eller � 108, men som er etableret efter anden lovgivning og opfylder betingelserne i socialtilsynsloven � 4, stk. 3. Den borger, der bor i et botilbudslignende tilbud, har lejeforhold efter den almene lejelov og bor i boligen p� grund af nedsat fysisk eller psykisk funktionsevne eller s�rlige sociale problemer. De botilbudslignende tilbud adskiller sig desuden fra udg�ende tilbud efter servicelovens � 85 ved, at der er knyttet et serviceareal til boligen med fast personale, der overvejende leverer socialp�dagogisk st�tte. Begrebet omfatter ikke friplejeboliger. Vejledende lovhjemmel: Socialtilsynsloven � 4, stk. 1, nr. 3.</t>
   </si>
   <si>
     <t>a7cbf55b-6906-4b2a-872e-c48b4d728837</t>
   </si>
   <si>
-    <t>Almen ældre- og handicapvenlig bolig</t>
-  </si>
-  <si>
-    <t>En almen ældre- og handicapvenlig bolig er et botilbudslignende tilbud, der er oprettet som almennyttig bolig, og som retter sig mod ældre borgere og borgere med fysisk eller psykisk funktionsnedsættelse. I lovgivningen og vejledninger omtales de som "almene ældreboliger", men de kan rette sig både mod ældre borgere og mod borgere med nedsat fysisk eller psykisk funktionsevne. Lovhjemmel: Almenboligloven § 105</t>
+    <t>Almen �ldre- og handicapvenlig bolig</t>
+  </si>
+  <si>
+    <t>En almen �ldre- og handicapvenlig bolig er et botilbudslignende tilbud, der er oprettet som almennyttig bolig, og som retter sig mod �ldre borgere og borgere med fysisk eller psykisk funktionsneds�ttelse. I lovgivningen og vejledninger omtales de som "almene �ldreboliger", men de kan rette sig b�de mod �ldre borgere og mod borgere med nedsat fysisk eller psykisk funktionsevne. Lovhjemmel: Almenboligloven � 105</t>
   </si>
   <si>
     <t>2ecfcfe5-10ed-4934-a744-f18ce30b1619</t>
@@ -642,43 +642,43 @@
     <t>Midlertidigt botilbud til voksne</t>
   </si>
   <si>
-    <t>Et midlertidigt botilbud til voksne er et botilbud til voksne, der retter sig mod borgere, som har midlertidig behov for støtte og hjælp, og som på sigt forventeligt kan få disse behov dækket på anden vis. Lovhjemmel: Serviceloven § 107</t>
+    <t>Et midlertidigt botilbud til voksne er et botilbud til voksne, der retter sig mod borgere, som har midlertidig behov for st�tte og hj�lp, og som p� sigt forventeligt kan f� disse behov d�kket p� anden vis. Lovhjemmel: Serviceloven � 107</t>
   </si>
   <si>
     <t>96c97f55-a11b-47f8-aa52-6fdae4e804c2</t>
   </si>
   <si>
-    <t>Længerevarende botilbud til voksne</t>
-  </si>
-  <si>
-    <t>Et længerevarende botilbud til voksne er et botilbud til voksne, der retter sig imod borgere, som har længerevarende behov for omfattende støtte og ophold, og som ikke kan få dækket disse behov på anden vis. Lovhjemmel: Serviceloven § 108</t>
+    <t>L�ngerevarende botilbud til voksne</t>
+  </si>
+  <si>
+    <t>Et l�ngerevarende botilbud til voksne er et botilbud til voksne, der retter sig imod borgere, som har l�ngerevarende behov for omfattende st�tte og ophold, og som ikke kan f� d�kket disse behov p� anden vis. Lovhjemmel: Serviceloven � 108</t>
   </si>
   <si>
     <t>070016aa-e164-4813-aca5-b75acab89d63</t>
   </si>
   <si>
-    <t>Sikret længerevarende botilbud til voksne</t>
-  </si>
-  <si>
-    <t>Et sikret botilbud er et længerevarende botilbud til voksne, som har længerevarende behov for omfattende støtte og ophold, og som ikke kan få dækket disse behov på anden vis. Et sikret botilbud omfatter mindst én afdeling eller lejlighed, som er godkendt til at have yderdøre og vinduer aflåst, og det modtager borgere i henhold til dom eller retskendelse. Lovhjemmel: Serviceloven § 108, stk. 7, nr. 1-3</t>
+    <t>Sikret l�ngerevarende botilbud til voksne</t>
+  </si>
+  <si>
+    <t>Et sikret botilbud er et l�ngerevarende botilbud til voksne, som har l�ngerevarende behov for omfattende st�tte og ophold, og som ikke kan f� d�kket disse behov p� anden vis. Et sikret botilbud omfatter mindst �n afdeling eller lejlighed, som er godkendt til at have yderd�re og vinduer afl�st, og det modtager borgere i henhold til dom eller retskendelse. Lovhjemmel: Serviceloven � 108, stk. 7, nr. 1-3</t>
   </si>
   <si>
     <t>498fe92c-d7f7-41cd-9404-5b38fe113be0</t>
   </si>
   <si>
-    <t>Almindeligt længerevarende botilbud til voksne</t>
-  </si>
-  <si>
-    <t>Et almindeligt længerevarende botilbud til voksne er et ikke-sikret, længerevarende botilbud til voksne, der retter sig mod borgere, som har længerevarende behov for omfattende støtte og ophold, og som ikke kan få dækket disse behov på anden vis. Lovhjemmel: Servicelovens § 108 stk. 1</t>
+    <t>Almindeligt l�ngerevarende botilbud til voksne</t>
+  </si>
+  <si>
+    <t>Et almindeligt l�ngerevarende botilbud til voksne er et ikke-sikret, l�ngerevarende botilbud til voksne, der retter sig mod borgere, som har l�ngerevarende behov for omfattende st�tte og ophold, og som ikke kan f� d�kket disse behov p� anden vis. Lovhjemmel: Servicelovens � 108 stk. 1</t>
   </si>
   <si>
     <t>cda90d67-f65a-4a34-b8d8-168ee9ff0949</t>
   </si>
   <si>
-    <t>Målgruppe</t>
-  </si>
-  <si>
-    <t>En målgruppe er en gruppe, hvis medlemmer en indsats er rettet imod.</t>
+    <t>M�lgruppe</t>
+  </si>
+  <si>
+    <t>En m�lgruppe er en gruppe, hvis medlemmer en indsats er rettet imod.</t>
   </si>
   <si>
     <t>0919515d-9975-4743-a16f-edb45374b0da</t>
@@ -687,7 +687,7 @@
     <t>Socialt problem</t>
   </si>
   <si>
-    <t>Et socialt problem er en tilstand, som er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Ligesom det gør sig gældende for funktionsevnenedsættelse er også karakteren og rækkevidden af et socialt problem relativ til både personen selv og det omkringliggende samfund (dvs. personlige og omgivelsesmæssige faktorer). Socialt problem udgør sammen med nedsat fysisk og psykisk funktionsevne de tre overordnede målgrupper, som kan modtage ydelser efter Serviceloven.</t>
+    <t>Et socialt problem er en tilstand, som er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Ligesom det g�r sig g�ldende for funktionsevneneds�ttelse er ogs� karakteren og r�kkevidden af et socialt problem relativ til b�de personen selv og det omkringliggende samfund (dvs. personlige og omgivelsesm�ssige faktorer). Socialt problem udg�r sammen med nedsat fysisk og psykisk funktionsevne de tre overordnede m�lgrupper, som kan modtage ydelser efter Serviceloven.</t>
   </si>
   <si>
     <t>122f3f8e-84a0-476f-b9c5-0e40b1dcf113</t>
@@ -696,7 +696,7 @@
     <t>Prostitution</t>
   </si>
   <si>
-    <t>Prostitution er en handling, hvor mindst to handlende personer på markedsmæssige betingelser henholdsvis køber og sælger en prostitutionsydelse mod betaling. Prostitution som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Den tankemæssige forestilling om fænomenet prostitution er værdineutral. Inden for Servicelovens område er prostitution benævnt som type af socialt problem, men hvorvidt prostitution udgør et problem for den enkelte må afgøres på individniveau. Begrebet omfatter ikke forhold, der falder under de strafferetlige regler, fx køb af seksuelle ydelser, der sælges af unge under 18 år, eller det fænomen, at personer tvinges af andre til at sælge seksuelle ydelser.</t>
+    <t>Prostitution er en handling, hvor mindst to handlende personer p� markedsm�ssige betingelser henholdsvis k�ber og s�lger en prostitutionsydelse mod betaling. Prostitution som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Den tankem�ssige forestilling om f�nomenet prostitution er v�rdineutral. Inden for Servicelovens omr�de er prostitution ben�vnt som type af socialt problem, men hvorvidt prostitution udg�r et problem for den enkelte m� afg�res p� individniveau. Begrebet omfatter ikke forhold, der falder under de strafferetlige regler, fx k�b af seksuelle ydelser, der s�lges af unge under 18 �r, eller det f�nomen, at personer tvinges af andre til at s�lge seksuelle ydelser.</t>
   </si>
   <si>
     <t>16075f99-3694-4878-a48d-b2f4b515cb76</t>
@@ -705,43 +705,43 @@
     <t>Social isolation</t>
   </si>
   <si>
-    <t>Social isolation er en tilstand, hvor en person føler sig afsondret fra omverdenen.</t>
+    <t>Social isolation er en tilstand, hvor en person f�ler sig afsondret fra omverdenen.</t>
   </si>
   <si>
     <t>293bf940-c075-4e3d-b5ef-6e331202e556</t>
   </si>
   <si>
-    <t>Hjemløshed</t>
-  </si>
-  <si>
-    <t>Hjemløshed er tilstand, hvor en person ikke har en bolig. Hjemløshed som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Begrebet dækker både husvilde, dvs. personer, der ikke har en bolig, og funktionelt hjemløse, dvs. personer, der har en bolig, men af den ene eller anden grund ikke kan opholde sig i den.</t>
+    <t>Hjeml�shed</t>
+  </si>
+  <si>
+    <t>Hjeml�shed er tilstand, hvor en person ikke har en bolig. Hjeml�shed som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Begrebet d�kker b�de husvilde, dvs. personer, der ikke har en bolig, og funktionelt hjeml�se, dvs. personer, der har en bolig, men af den ene eller anden grund ikke kan opholde sig i den.</t>
   </si>
   <si>
     <t>3b166cb0-df17-4002-a4c4-69e9a943645c</t>
   </si>
   <si>
-    <t>Indadreagerende adfærd</t>
-  </si>
-  <si>
-    <t>Indadreagerende er en adfærd, hvor en person er præget af en lukket og indadrettet opførsel. Indadreagerende adfærd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
+    <t>Indadreagerende adf�rd</t>
+  </si>
+  <si>
+    <t>Indadreagerende er en adf�rd, hvor en person er pr�get af en lukket og indadrettet opf�rsel. Indadreagerende adf�rd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
   </si>
   <si>
     <t>3e3f5ebf-82c1-401b-ab5e-e6138a31da3a</t>
   </si>
   <si>
-    <t>Selvskadende adfærd</t>
-  </si>
-  <si>
-    <t>Selvskadende adfærd er adfærd, hvor en person intentionelt påfører eller kan påføre sig selv fysisk eller psykisk skade. Selvskadende adfærd som socialt problem, er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
+    <t>Selvskadende adf�rd</t>
+  </si>
+  <si>
+    <t>Selvskadende adf�rd er adf�rd, hvor en person intentionelt p�f�rer eller kan p�f�re sig selv fysisk eller psykisk skade. Selvskadende adf�rd som socialt problem, er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
   </si>
   <si>
     <t>5e95db73-4d16-4084-93a3-595c0650b160</t>
   </si>
   <si>
-    <t>Selvmordstanker eller -forsøg</t>
-  </si>
-  <si>
-    <t>Selvmordstanker eller -forsøg er en tilstand, hvor en person har tanker om at tage sit eget liv eller har forsøgt at begå selvmord.</t>
+    <t>Selvmordstanker eller -fors�g</t>
+  </si>
+  <si>
+    <t>Selvmordstanker eller -fors�g er en tilstand, hvor en person har tanker om at tage sit eget liv eller har fors�gt at beg� selvmord.</t>
   </si>
   <si>
     <t>66fac925-3488-43b3-8e50-4510d3821b37</t>
@@ -750,25 +750,25 @@
     <t>Andet socialt problem</t>
   </si>
   <si>
-    <t>socialt problem, der ikke er omfattet af en af de øvrige kategorier under socialt problem</t>
+    <t>socialt problem, der ikke er omfattet af en af de �vrige kategorier under socialt problem</t>
   </si>
   <si>
     <t>6fd0f315-2297-4d66-b638-3f867a0900e0</t>
   </si>
   <si>
-    <t>Seksuelt krænkende adfærd</t>
-  </si>
-  <si>
-    <t>Seksuelt krænkende adfærd, er adfærd, hvor en person udsætter andre for grænseoverskridende seksuelle handlinger eller seksuelt overgreb. Seksuelt krænkende adfærd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
+    <t>Seksuelt kr�nkende adf�rd</t>
+  </si>
+  <si>
+    <t>Seksuelt kr�nkende adf�rd, er adf�rd, hvor en person uds�tter andre for gr�nseoverskridende seksuelle handlinger eller seksuelt overgreb. Seksuelt kr�nkende adf�rd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
   </si>
   <si>
     <t>e1b59a4a-9cc2-4113-a5f1-84af588b02a2</t>
   </si>
   <si>
-    <t>Udadreagerende adfærd</t>
-  </si>
-  <si>
-    <t>Udadreagerende adfærd er adfærd, der opleves aggressiv eller voldsom af omgivelserne. Udadreagerende adfærd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
+    <t>Udadreagerende adf�rd</t>
+  </si>
+  <si>
+    <t>Udadreagerende adf�rd er adf�rd, der opleves aggressiv eller voldsom af omgivelserne. Udadreagerende adf�rd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
   </si>
   <si>
     <t>f1f4d709-19d2-48cc-8942-231bf912323d</t>
@@ -777,7 +777,7 @@
     <t>Omsorgssvigt</t>
   </si>
   <si>
-    <t>Omsorgssvigt er en tilstand, hvor en person, der er afhængig af andre personer, ikke får den omsorg og hjælp, som denne har brug for. Omsorgssvigt som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Omsorgssvigt kan omfatte fysisk omsorgssvigt, fx utilstrækkelig ernæring, beklædning og hygiejne og psykisk omsorgssvigt, fx manglende følelsesmæssig eller intellektuel stimulation eller der kan skelnes mellem passivt omsorgssvigt, fx manglende imødekommelse af basale behov og aktivt omsorgssvigt, fx direkte skade.</t>
+    <t>Omsorgssvigt er en tilstand, hvor en person, der er afh�ngig af andre personer, ikke f�r den omsorg og hj�lp, som denne har brug for. Omsorgssvigt som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Omsorgssvigt kan omfatte fysisk omsorgssvigt, fx utilstr�kkelig ern�ring, bekl�dning og hygiejne og psykisk omsorgssvigt, fx manglende f�lelsesm�ssig eller intellektuel stimulation eller der kan skelnes mellem passivt omsorgssvigt, fx manglende im�dekommelse af basale behov og aktivt omsorgssvigt, fx direkte skade.</t>
   </si>
   <si>
     <t>5c6bc9a0-a955-4168-9692-cdcd691ff866</t>
@@ -786,7 +786,7 @@
     <t>Overgreb</t>
   </si>
   <si>
-    <t>Overgreb er en handling, hvor en person eller dennes rettigheder krænkes af en stærkere part. Overgreb som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Overgreb dækker bredt og er delvist overlappende med begrebet magtmisbrug, idet der er tale om en uretmæssig brug af en ikke-ligeværdig relation. Den ene persons stærkere position kan fx bero på alder, fysik, organisatoriske forhold, tradition m.v. Ligeledes begrænser krænkelsen af en person eller dennes rettigheder sig ikke til lovbrud, men kan fx også være latterliggørelse, manglende honorering af aftaler, tilbageholdelse af midler mv.</t>
+    <t>Overgreb er en handling, hvor en person eller dennes rettigheder kr�nkes af en st�rkere part. Overgreb som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Overgreb d�kker bredt og er delvist overlappende med begrebet magtmisbrug, idet der er tale om en uretm�ssig brug af en ikke-ligev�rdig relation. Den ene persons st�rkere position kan fx bero p� alder, fysik, organisatoriske forhold, tradition m.v. Ligeledes begr�nser kr�nkelsen af en person eller dennes rettigheder sig ikke til lovbrud, men kan fx ogs� v�re latterligg�relse, manglende honorering af aftaler, tilbageholdelse af midler mv.</t>
   </si>
   <si>
     <t>3412d671-22bf-456c-b963-c4e05c2725a0</t>
@@ -795,7 +795,7 @@
     <t>Voldeligt overgreb</t>
   </si>
   <si>
-    <t>Voldeligt overgreb er, når en person eller dennes rettigheder krænkes af en stærkere part, og hvor personen krænkes med fysisk eller psykisk vold. For at brugen af fysisk eller psykisk magt kan betegnes som vold, skal der være tale om en bevidst intention om at såre eller beskadige. For børn og unge omfatter voldeligt overgreb også at være vidne til fysisk eller psykisk vold i de nære relationer.</t>
+    <t>Voldeligt overgreb er, n�r en person eller dennes rettigheder kr�nkes af en st�rkere part, og hvor personen kr�nkes med fysisk eller psykisk vold. For at brugen af fysisk eller psykisk magt kan betegnes som vold, skal der v�re tale om en bevidst intention om at s�re eller beskadige. For b�rn og unge omfatter voldeligt overgreb ogs� at v�re vidne til fysisk eller psykisk vold i de n�re relationer.</t>
   </si>
   <si>
     <t>905caa77-2b98-48ce-b0e1-35dc4c1cc4bd</t>
@@ -804,7 +804,7 @@
     <t>Andet overgreb</t>
   </si>
   <si>
-    <t>overgreb, der ikke er omfattet af en af de øvrige kategorier under overgreb</t>
+    <t>overgreb, der ikke er omfattet af en af de �vrige kategorier under overgreb</t>
   </si>
   <si>
     <t>c47fd846-f1e0-4786-89a4-88d00e7a86c0</t>
@@ -813,7 +813,7 @@
     <t>Seksuelt overgreb</t>
   </si>
   <si>
-    <t>Seksuelt overgreb er, når en person eller dennes rettigheder krænkes af en stærkere part, og hvor personen udsættes for en seksuel krænkelse.</t>
+    <t>Seksuelt overgreb er, n�r en person eller dennes rettigheder kr�nkes af en st�rkere part, og hvor personen uds�ttes for en seksuel kr�nkelse.</t>
   </si>
   <si>
     <t>be53dafc-1fc2-4b9f-8ab3-9d468ff03e6e</t>
@@ -831,7 +831,7 @@
     <t>Ikke-personfarlig kriminalitet</t>
   </si>
   <si>
-    <t>Ikke-personfarlig kriminalitet er en handling, der er strafbar, men som ikke påfører eller risikerer at påføre en person fysisk eller psykisk skade.</t>
+    <t>Ikke-personfarlig kriminalitet er en handling, der er strafbar, men som ikke p�f�rer eller risikerer at p�f�re en person fysisk eller psykisk skade.</t>
   </si>
   <si>
     <t>df42d472-06f6-4c5f-9dcf-64aa6cc20925</t>
@@ -840,7 +840,7 @@
     <t>Personfarlig kriminalitet</t>
   </si>
   <si>
-    <t>Personfarlig kriminalitet er en handling, der er strafbar og som påfører eller risikerer at påføre en person fysisk eller psykisk skade.</t>
+    <t>Personfarlig kriminalitet er en handling, der er strafbar og som p�f�rer eller risikerer at p�f�re en person fysisk eller psykisk skade.</t>
   </si>
   <si>
     <t>e2ecc751-21b9-4aab-a20f-2f3dd9701c97</t>
@@ -849,7 +849,7 @@
     <t>Misbrug</t>
   </si>
   <si>
-    <t>Misbrug er en adfærd, der er kendetegnet ved et brugsmønster af rusmiddel eller lægemiddel, som medfører fysisk, psykisk eller social skade. Som socialt problem er misbrug kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afhængighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilhører også gruppen, men er ikke medtaget i denne sammenhæng). En fysisk afhængighed er ikke det samme som et misbrug. Man kan godt være afhængig af et middel uden at være misbruger, fx kan en person være afhængig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har forårsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret på de lovgivningsmæssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
+    <t>Misbrug er en adf�rd, der er kendetegnet ved et brugsm�nster af rusmiddel eller l�gemiddel, som medf�rer fysisk, psykisk eller social skade. Som socialt problem er misbrug kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afh�ngighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilh�rer ogs� gruppen, men er ikke medtaget i denne sammenh�ng). En fysisk afh�ngighed er ikke det samme som et misbrug. Man kan godt v�re afh�ngig af et middel uden at v�re misbruger, fx kan en person v�re afh�ngig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har for�rsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret p� de lovgivningsm�ssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
   </si>
   <si>
     <t>0e25a2ec-4f04-4d14-a5ad-a6519a7d1d5f</t>
@@ -858,7 +858,7 @@
     <t>Stofmisbrug</t>
   </si>
   <si>
-    <t>Stofmisbrug er misbrug, hvor rusmidlet ikke er alkohol. Misbrug er en adfærd, der der kendetegnet ved et brugsmønster af rusmiddel eller lægemiddel, som medfører fysisk, psykisk eller social skade. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afhængighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilhører også gruppen, men er ikke medtaget i denne sammenhæng). En fysisk afhængighed er ikke det samme som et misbrug. Man kan godt være afhængig af et middel uden at være misbruger, fx kan en person være afhængig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har forårsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret på de lovgivningsmæssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
+    <t>Stofmisbrug er misbrug, hvor rusmidlet ikke er alkohol. Misbrug er en adf�rd, der der kendetegnet ved et brugsm�nster af rusmiddel eller l�gemiddel, som medf�rer fysisk, psykisk eller social skade. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afh�ngighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilh�rer ogs� gruppen, men er ikke medtaget i denne sammenh�ng). En fysisk afh�ngighed er ikke det samme som et misbrug. Man kan godt v�re afh�ngig af et middel uden at v�re misbruger, fx kan en person v�re afh�ngig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har for�rsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret p� de lovgivningsm�ssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
   </si>
   <si>
     <t>ab4413f0-fa81-41c0-ad8c-21782c12a0fa</t>
@@ -867,97 +867,97 @@
     <t>Alkoholmisbrug</t>
   </si>
   <si>
-    <t>Alkoholmisbrug er misbrug, hvor rusmidlet er alkohol. Misbrug er en adfærd, der er kendetegnet ved et brugsmønster af rusmiddel eller lægemiddel, som medfører fysisk, psykisk eller social skade. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afhængighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilhører også gruppen, men er ikke medtaget i denne sammenhæng). En fysisk afhængighed er ikke det samme som et misbrug. Man kan godt være afhængig af et middel uden at være misbruger, fx kan en person være afhængig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har forårsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret på de lovgivningsmæssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
+    <t>Alkoholmisbrug er misbrug, hvor rusmidlet er alkohol. Misbrug er en adf�rd, der er kendetegnet ved et brugsm�nster af rusmiddel eller l�gemiddel, som medf�rer fysisk, psykisk eller social skade. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afh�ngighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilh�rer ogs� gruppen, men er ikke medtaget i denne sammenh�ng). En fysisk afh�ngighed er ikke det samme som et misbrug. Man kan godt v�re afh�ngig af et middel uden at v�re misbruger, fx kan en person v�re afh�ngig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har for�rsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret p� de lovgivningsm�ssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
   </si>
   <si>
     <t>f3ec0ccd-2b0c-4a60-85fc-3cdd0ca73cef</t>
   </si>
   <si>
-    <t>Funktionsnedsættelse</t>
-  </si>
-  <si>
-    <t>En funktionsnedsættelse er en funktionsevnenedsættelse, der vedrører kroppens anatomi eller kroppens funktion, herunder også mentale funktioner. Funktionsnedsættelse relaterer sig til kropslige begrænsninger, både begrænsninger i kroppens anatomi og begrænsninger i kroppens funktioner. Til sidstnævnte hører også begrænsninger i mentale funktioner.</t>
+    <t>Funktionsneds�ttelse</t>
+  </si>
+  <si>
+    <t>En funktionsneds�ttelse er en funktionsevneneds�ttelse, der vedr�rer kroppens anatomi eller kroppens funktion, herunder ogs� mentale funktioner. Funktionsneds�ttelse relaterer sig til kropslige begr�nsninger, b�de begr�nsninger i kroppens anatomi og begr�nsninger i kroppens funktioner. Til sidstn�vnte h�rer ogs� begr�nsninger i mentale funktioner.</t>
   </si>
   <si>
     <t>1f23325e-c9c9-455b-bfe7-b4dcd1bb63e5</t>
   </si>
   <si>
-    <t>Sjældent forekommende funktionsnedsættelse</t>
-  </si>
-  <si>
-    <t>En sjældent forekommende funktionsnedsættelse er en funktionsnedsættelse i kroppens anatomi eller kroppens funktion, herunder også mentale funktioner, som er sjældent forekommende. For at en funktionsnedsættelse kan karakteriseres som sjælden, må den have en forekomst på mindre end ca. 1.000 diagnosticerede tilfælde i Danmark. Begrebet rummer syndromer, der medfører udtalt fysisk og/eller psykisk funktionsnedsættelse, og som typisk er medfødte og arvelige.</t>
+    <t>Sj�ldent forekommende funktionsneds�ttelse</t>
+  </si>
+  <si>
+    <t>En sj�ldent forekommende funktionsneds�ttelse er en funktionsneds�ttelse i kroppens anatomi eller kroppens funktion, herunder ogs� mentale funktioner, som er sj�ldent forekommende. For at en funktionsneds�ttelse kan karakteriseres som sj�lden, m� den have en forekomst p� mindre end ca. 1.000 diagnosticerede tilf�lde i Danmark. Begrebet rummer syndromer, der medf�rer udtalt fysisk og/eller psykisk funktionsneds�ttelse, og som typisk er medf�dte og arvelige.</t>
   </si>
   <si>
     <t>f1c7ee41-21b4-4dba-9424-c874bf72b5e7</t>
   </si>
   <si>
-    <t>Multipel funktionsnedsættelse</t>
-  </si>
-  <si>
-    <t>En multipel funktionsnedsættelse er en funktionsnedsættelse i kroppens anatomi eller kroppens funktion, herunder også mentale funktioner, som er kendetegnet ved et manglende talesprog. Multipel funktionsnedsættelse er mere end blot en flerhed af problemstillinger. Det er kendetegnende for personer med multiple funktionsnedsættelser, at de ikke har et talesprog, og at de lever med mobilitetsnedsættelse og eventuelt syns- og hørenedsættelse og øvrige sansefunktionsnedsættelser i forskellige kombinationer samt en dårlig helbredstilstand, der bl.a. kommer til udtryk i store spise- og trivselsvanskeligheder, kropsspændinger, kramper og smerter. Gruppen har store medfødte eller tidligt erhvervede neurologiske og kortikale skader og har mellem 2 og 10 diagnoser, med et gennemsnit på 5. De hyppigste diagnoser er cerebral parese og muskelsygdom, mental retardering, synshandicap, medfødte misdannelser og epilepsi.</t>
+    <t>Multipel funktionsneds�ttelse</t>
+  </si>
+  <si>
+    <t>En multipel funktionsneds�ttelse er en funktionsneds�ttelse i kroppens anatomi eller kroppens funktion, herunder ogs� mentale funktioner, som er kendetegnet ved et manglende talesprog. Multipel funktionsneds�ttelse er mere end blot en flerhed af problemstillinger. Det er kendetegnende for personer med multiple funktionsneds�ttelser, at de ikke har et talesprog, og at de lever med mobilitetsneds�ttelse og eventuelt syns- og h�reneds�ttelse og �vrige sansefunktionsneds�ttelser i forskellige kombinationer samt en d�rlig helbredstilstand, der bl.a. kommer til udtryk i store spise- og trivselsvanskeligheder, kropssp�ndinger, kramper og smerter. Gruppen har store medf�dte eller tidligt erhvervede neurologiske og kortikale skader og har mellem 2 og 10 diagnoser, med et gennemsnit p� 5. De hyppigste diagnoser er cerebral parese og muskelsygdom, mental retardering, synshandicap, medf�dte misdannelser og epilepsi.</t>
   </si>
   <si>
     <t>112cc0ba-9953-476c-a971-2671697d7639</t>
   </si>
   <si>
-    <t>Fysisk funktionsnedsættelse</t>
-  </si>
-  <si>
-    <t>En fysisk funktionsnedsættelse er en funktionsnedsættelse i kroppens anatomi eller kroppens funktioner, eksklusiv de mentale funktioner. Fysisk funktionsnedsættelse svarer til Servicelovens 'nedsat fysisk funktionsevne' og udgør sammen med nedsat psykisk funktionsevne og socialt problem de tre overordnede målgrupper, som kan modtage ydelser efter Serviceloven.</t>
+    <t>Fysisk funktionsneds�ttelse</t>
+  </si>
+  <si>
+    <t>En fysisk funktionsneds�ttelse er en funktionsneds�ttelse i kroppens anatomi eller kroppens funktioner, eksklusiv de mentale funktioner. Fysisk funktionsneds�ttelse svarer til Servicelovens 'nedsat fysisk funktionsevne' og udg�r sammen med nedsat psykisk funktionsevne og socialt problem de tre overordnede m�lgrupper, som kan modtage ydelser efter Serviceloven.</t>
   </si>
   <si>
     <t>5cb8997c-eb10-477f-b653-b2a5ff11ce7d</t>
   </si>
   <si>
-    <t>Kommunikationsnedsættelse</t>
-  </si>
-  <si>
-    <t>En kommunikationsnedsættelse er en begrænsning i en persons evne til at frembringe meddelelser som resultat af en funktionsnedsættelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begrænsning dækker hele spektret fra let nedsat til fuldstændig ophævet funktion. Kommunikationsnedsættelse omfatter ikke manglende evne til at forstå meddelelser, der ofte vil være del af en psykisk funktionsnedsættelse.</t>
+    <t>Kommunikationsneds�ttelse</t>
+  </si>
+  <si>
+    <t>En kommunikationsneds�ttelse er en begr�nsning i en persons evne til at frembringe meddelelser som resultat af en funktionsneds�ttelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begr�nsning d�kker hele spektret fra let nedsat til fuldst�ndig oph�vet funktion. Kommunikationsneds�ttelse omfatter ikke manglende evne til at forst� meddelelser, der ofte vil v�re del af en psykisk funktionsneds�ttelse.</t>
   </si>
   <si>
     <t>615310e8-f702-4455-910b-9d6d8aa684fb</t>
   </si>
   <si>
-    <t>Synsnedsættelse</t>
-  </si>
-  <si>
-    <t>En synsnedsættelse er en begrænsning i en persons evne til at se som resultat af en funktionsnedsættelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner Evnen til at se omfatter fx synsskarphed, synsfelt eller synskvalitet. Begrænsning dækker hele spektret fra betydeligt nedsat til fuldstændig ophævet funktion. Synsnedsættelse udgør kun en funktionsevnenedsættelse for så vidt som nedsættelsen rækker ud over det, der almindeligvis kan korrigeres for.</t>
+    <t>Synsneds�ttelse</t>
+  </si>
+  <si>
+    <t>En synsneds�ttelse er en begr�nsning i en persons evne til at se som resultat af en funktionsneds�ttelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner Evnen til at se omfatter fx synsskarphed, synsfelt eller synskvalitet. Begr�nsning d�kker hele spektret fra betydeligt nedsat til fuldst�ndig oph�vet funktion. Synsneds�ttelse udg�r kun en funktionsevneneds�ttelse for s� vidt som neds�ttelsen r�kker ud over det, der almindeligvis kan korrigeres for.</t>
   </si>
   <si>
     <t>6e155207-db12-419a-8d9c-d67756533056</t>
   </si>
   <si>
-    <t>Mobilitetsnedsættelse</t>
-  </si>
-  <si>
-    <t>En mobilitetsnedsættelse er en begrænsning i en persons mulighed for at bevæge sig som resultat af en funktionsnedsættelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begrænsning dækker hele spektret fra let nedsat til fuldstændig ophævet funktion.</t>
+    <t>Mobilitetsneds�ttelse</t>
+  </si>
+  <si>
+    <t>En mobilitetsneds�ttelse er en begr�nsning i en persons mulighed for at bev�ge sig som resultat af en funktionsneds�ttelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begr�nsning d�kker hele spektret fra let nedsat til fuldst�ndig oph�vet funktion.</t>
   </si>
   <si>
     <t>7ef8be83-90d1-4375-b1cb-24710bea21c7</t>
   </si>
   <si>
-    <t>Hørenedsættelse</t>
-  </si>
-  <si>
-    <t>En hørenedsættelse er en begrænsning i en persons opfattelse af lyd som resultat af en funktionsnedsættelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begrænsning dækker hele spektret fra betydeligt nedsat til fuldstændig ophævet funktion. Hørenedsættelse udgør kun en funktionsevnenedsættelse for så vidt som nedsættelsen rækker ud over det, der almindeligvis kan korrigeres for.</t>
+    <t>H�reneds�ttelse</t>
+  </si>
+  <si>
+    <t>En h�reneds�ttelse er en begr�nsning i en persons opfattelse af lyd som resultat af en funktionsneds�ttelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begr�nsning d�kker hele spektret fra betydeligt nedsat til fuldst�ndig oph�vet funktion. H�reneds�ttelse udg�r kun en funktionsevneneds�ttelse for s� vidt som neds�ttelsen r�kker ud over det, der almindeligvis kan korrigeres for.</t>
   </si>
   <si>
     <t>da298aec-cd7d-436c-9927-d88d00066881</t>
   </si>
   <si>
-    <t>Anden fysisk funktionsnedsættelse</t>
-  </si>
-  <si>
-    <t>fysisk funktionsnedsættelse, der ikke er omfattet af en af de øvrige kategorier under fysisk funktionsnedsættelse</t>
+    <t>Anden fysisk funktionsneds�ttelse</t>
+  </si>
+  <si>
+    <t>fysisk funktionsneds�ttelse, der ikke er omfattet af en af de �vrige kategorier under fysisk funktionsneds�ttelse</t>
   </si>
   <si>
     <t>04a2ecdd-cdc6-4000-91d3-4e21958126ec</t>
   </si>
   <si>
-    <t>Døvblindhed</t>
-  </si>
-  <si>
-    <t>Døvblindhed er en fysisk funktionsnedsættelse, der består af en kombineret syns- og hørenedsættelse i alvorlig grad.</t>
+    <t>D�vblindhed</t>
+  </si>
+  <si>
+    <t>D�vblindhed er en fysisk funktionsneds�ttelse, der best�r af en kombineret syns- og h�reneds�ttelse i alvorlig grad.</t>
   </si>
   <si>
     <t>6</t>
@@ -966,28 +966,28 @@
     <t>0d66b364-958e-48cf-a18b-744fab284194</t>
   </si>
   <si>
-    <t>Erhvervet døvblindhed</t>
-  </si>
-  <si>
-    <t>Erhvervet døvblindhed er en fysisk funktionsnedsættelse, der består af en kombineret syns- og hørenedsættelse i alvorlig grad, som er opstået efter et sprog er udviklet.</t>
+    <t>Erhvervet d�vblindhed</t>
+  </si>
+  <si>
+    <t>Erhvervet d�vblindhed er en fysisk funktionsneds�ttelse, der best�r af en kombineret syns- og h�reneds�ttelse i alvorlig grad, som er opst�et efter et sprog er udviklet.</t>
   </si>
   <si>
     <t>ab7b7d7b-b7bb-4b8c-99d9-5c98a302b771</t>
   </si>
   <si>
-    <t>Medfødt døvblindhed</t>
-  </si>
-  <si>
-    <t>Medfødt døvblindhed er en fysisk funktionsnedsættelse, der består af en kombineret syns- og hørenedsættelse i alvorlig grad, som er opstået inden et sprog er udviklet.</t>
+    <t>Medf�dt d�vblindhed</t>
+  </si>
+  <si>
+    <t>Medf�dt d�vblindhed er en fysisk funktionsneds�ttelse, der best�r af en kombineret syns- og h�reneds�ttelse i alvorlig grad, som er opst�et inden et sprog er udviklet.</t>
   </si>
   <si>
     <t>9ed67228-b934-4677-9f7e-ebb0d80de44b</t>
   </si>
   <si>
-    <t>Psykisk funktionsnedsættelse</t>
-  </si>
-  <si>
-    <t>En psykisk funktionsnedsættelse er en funktionsnedsættelse i de mentale funktioner. Psykisk funktionsnedsættelse svarer til Servicelovens 'nedsat psykisk funktionsevne' og udgør sammen med nedsat fysisk funktionsevne og socialt problem de tre overordnede målgrupper, som kan modtage ydelser efter Serviceloven.</t>
+    <t>Psykisk funktionsneds�ttelse</t>
+  </si>
+  <si>
+    <t>En psykisk funktionsneds�ttelse er en funktionsneds�ttelse i de mentale funktioner. Psykisk funktionsneds�ttelse svarer til Servicelovens 'nedsat psykisk funktionsevne' og udg�r sammen med nedsat fysisk funktionsevne og socialt problem de tre overordnede m�lgrupper, som kan modtage ydelser efter Serviceloven.</t>
   </si>
   <si>
     <t>a78fb31e-b30a-4815-af85-932859fd06b9</t>
@@ -996,7 +996,7 @@
     <t>Psykiske vanskeligheder</t>
   </si>
   <si>
-    <t>Psykiske vanskeligheder er en psykisk funktionsnedsættelse, der er kendetegnet ved forstyrrelser i adfærd og tanke-, følelses-, stemnings- og fantasilivet.</t>
+    <t>Psykiske vanskeligheder er en psykisk funktionsneds�ttelse, der er kendetegnet ved forstyrrelser i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet.</t>
   </si>
   <si>
     <t>192b7d79-415c-4f4f-9223-607938ecbe97</t>
@@ -1005,7 +1005,7 @@
     <t>Spiseforstyrrelse</t>
   </si>
   <si>
-    <t>Spiseforstyrrelse er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved et afvigende spisemønster. Som eksempel på spiseforstyrrelser kan nævnes anoreksi, bulimi og tvangsspisning.</t>
+    <t>Spiseforstyrrelse er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved et afvigende spisem�nster. Som eksempel p� spiseforstyrrelser kan n�vnes anoreksi, bulimi og tvangsspisning.</t>
   </si>
   <si>
     <t>303deb9b-84f0-49d2-ab7a-f8b98eed40a2</t>
@@ -1014,7 +1014,7 @@
     <t>Angst</t>
   </si>
   <si>
-    <t>Angst er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved en følelse af frygt, anspændthed og uro, uden at det er muligt at identificere en umiddelbar årsag.</t>
+    <t>Angst er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved en f�lelse af frygt, ansp�ndthed og uro, uden at det er muligt at identificere en umiddelbar �rsag.</t>
   </si>
   <si>
     <t>6aac5ae6-ef06-4866-9c66-16d51ebbc83b</t>
@@ -1023,7 +1023,7 @@
     <t>Personlighedsforstyrrelse</t>
   </si>
   <si>
-    <t>Personlighedsforstyrrelse er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved en forstyrrelse i evnen til at forholde sig til andre mennesker. Begrebet dækker over borderline, psykopati og karakterafvigelser.</t>
+    <t>Personlighedsforstyrrelse er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved en forstyrrelse i evnen til at forholde sig til andre mennesker. Begrebet d�kker over borderline, psykopati og karakterafvigelser.</t>
   </si>
   <si>
     <t>851b2a9d-cde2-4d5d-8f33-d03789022cbb</t>
@@ -1032,7 +1032,7 @@
     <t>Anden psykisk vanskelighed</t>
   </si>
   <si>
-    <t>psykiske vanskeligheder, der ikke er omfattet af en af de øvrige kategorier under psykiske vanskeligheder</t>
+    <t>psykiske vanskeligheder, der ikke er omfattet af en af de �vrige kategorier under psykiske vanskeligheder</t>
   </si>
   <si>
     <t>afaa7e31-2b5d-4a49-9008-56aa8df8dc13</t>
@@ -1041,7 +1041,7 @@
     <t>Stressbelastning</t>
   </si>
   <si>
-    <t>Stressbelastning er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, hvor en person gennem længere tid befinder sig i en tilstand af konstant forhøjet fysisk og psykisk beredskab. Begrebet dækker et bredt spektrum af belastende tilstande gående fra konstant anspændthed, magtesløshed, uoverskuelighed eller vanskelighed ved at fortsætte i den forhåndenværende situation, eller nedsat evne til at gennemføre dagligdags gøremål, til posttraumatisk belastningsreaktion på baggrund af traumatiske begivenheder af exceptionelt truende eller katastrofal natur.</t>
+    <t>Stressbelastning er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, hvor en person gennem l�ngere tid befinder sig i en tilstand af konstant forh�jet fysisk og psykisk beredskab. Begrebet d�kker et bredt spektrum af belastende tilstande g�ende fra konstant ansp�ndthed, magtesl�shed, uoverskuelighed eller vanskelighed ved at forts�tte i den forh�ndenv�rende situation, eller nedsat evne til at gennemf�re dagligdags g�rem�l, til posttraumatisk belastningsreaktion p� baggrund af traumatiske begivenheder af exceptionelt truende eller katastrofal natur.</t>
   </si>
   <si>
     <t>d42d8f41-2d07-4391-a687-bad51172d0c9</t>
@@ -1050,7 +1050,7 @@
     <t>Tilknytningsforstyrrelse</t>
   </si>
   <si>
-    <t>Tilknytningsforstyrrelse er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved, at en person i en tidlig alder har oplevet omsorgssvigt og nu har svært ved at danne følelsesmæssige relationer til andre mennesker.</t>
+    <t>Tilknytningsforstyrrelse er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved, at en person i en tidlig alder har oplevet omsorgssvigt og nu har sv�rt ved at danne f�lelsesm�ssige relationer til andre mennesker.</t>
   </si>
   <si>
     <t>ee5b52bd-b839-4e69-ad04-c8b33eabfbde</t>
@@ -1059,7 +1059,7 @@
     <t>Depression</t>
   </si>
   <si>
-    <t>Depression er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved en markant, vedvarende følelse af tristhed, håbløshed og handlingslammelse.</t>
+    <t>Depression er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved en markant, vedvarende f�lelse af tristhed, h�bl�shed og handlingslammelse.</t>
   </si>
   <si>
     <t>f2ccc0c0-2a0a-49c9-9d6a-741a7cd220a3</t>
@@ -1068,7 +1068,7 @@
     <t>Forandret virkelighedsopfattelse</t>
   </si>
   <si>
-    <t>Forandret virkelighedsopfattelse er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved en virkelighedsopfattelse, der udgør en væsentlig afvigelse fra accepterede statistiske normer. Begrebet dækker over skizoide/psykotiske tilstande.</t>
+    <t>Forandret virkelighedsopfattelse er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved en virkelighedsopfattelse, der udg�r en v�sentlig afvigelse fra accepterede statistiske normer. Begrebet d�kker over skizoide/psykotiske tilstande.</t>
   </si>
   <si>
     <t>01da9924-f4b4-4265-8594-0e892fa60676</t>
@@ -1077,7 +1077,7 @@
     <t>Intellektuel/kognitiv forstyrrelse</t>
   </si>
   <si>
-    <t>Intellektuel/kognitiv forstyrrelse er en psykisk funktionsnedsættelse, der er kendetegnet ved forstyrrelser i overordnede mentale funktioner.</t>
+    <t>Intellektuel/kognitiv forstyrrelse er en psykisk funktionsneds�ttelse, der er kendetegnet ved forstyrrelser i overordnede mentale funktioner.</t>
   </si>
   <si>
     <t>17ce646b-4469-4a73-82a9-9628436f6c70</t>
@@ -1086,7 +1086,7 @@
     <t>Anden intellektuel/kognitiv forstyrrelse</t>
   </si>
   <si>
-    <t>Intellektuel/kognitiv forstyrrelse, der ikke er omfattet af en af de øvrige kategorier under intellektuel/kognitiv forstyrrelse</t>
+    <t>Intellektuel/kognitiv forstyrrelse, der ikke er omfattet af en af de �vrige kategorier under intellektuel/kognitiv forstyrrelse</t>
   </si>
   <si>
     <t>7b48f1a0-579b-4976-ae7c-4074b5981449</t>
@@ -1095,16 +1095,16 @@
     <t>Demens</t>
   </si>
   <si>
-    <t>Demens er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved en fremadskridende nedsættelse af en persons intellektuelle og kognitive færdigheder, heriblandt hukommelsesfunktionen. Som eksempel på demens kan nævnes Alzheimers sygdom og vaskulær demens.</t>
+    <t>Demens er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved en fremadskridende neds�ttelse af en persons intellektuelle og kognitive f�rdigheder, heriblandt hukommelsesfunktionen. Som eksempel p� demens kan n�vnes Alzheimers sygdom og vaskul�r demens.</t>
   </si>
   <si>
     <t>97c355cc-84e3-46d0-ac1b-00bc627d089f</t>
   </si>
   <si>
-    <t>Udviklingshæmning</t>
-  </si>
-  <si>
-    <t>Udviklingshæmning er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved en forsinket eller manglende udvikling inden for bestemte områder af psyken eller mere generel mental retardering. Begrebet omfatter også Down's syndrom.</t>
+    <t>Udviklingsh�mning</t>
+  </si>
+  <si>
+    <t>Udviklingsh�mning er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved en forsinket eller manglende udvikling inden for bestemte omr�der af psyken eller mere generel mental retardering. Begrebet omfatter ogs� Down's syndrom.</t>
   </si>
   <si>
     <t>34449052-1150-4900-9d69-c56eb9b26793</t>
@@ -1125,7 +1125,7 @@
     <t>Anden udviklingsforstyrrelse</t>
   </si>
   <si>
-    <t>udviklingsforstyrrelse, der ikke er omfattet af en af de øvrige kategorier under udviklingsforstyrrelse</t>
+    <t>udviklingsforstyrrelse, der ikke er omfattet af en af de �vrige kategorier under udviklingsforstyrrelse</t>
   </si>
   <si>
     <t>71dfe6d1-ebc1-4414-8527-edf8e605c356</t>
@@ -1134,16 +1134,16 @@
     <t>Udviklingsforstyrrelse af tale og sprog</t>
   </si>
   <si>
-    <t>Udviklingsforstyrrelse af tale og sprog er en udviklingsforstyrrelse, hvor normale mønstre for sprogerhvervelse er påvirkede fra de tidligste udviklingstrin. Som eksempel på udviklingsforstyrrelser af tale og sprog kan nævnes specifik sprogartikulationsforstyrrelse (dysartri), sprogudtryksforstyrrelse (ekspressiv dysfasi) og sprogopfattelsesforstyrrelse (impressiv dysfasi).</t>
+    <t>Udviklingsforstyrrelse af tale og sprog er en udviklingsforstyrrelse, hvor normale m�nstre for sprogerhvervelse er p�virkede fra de tidligste udviklingstrin. Som eksempel p� udviklingsforstyrrelser af tale og sprog kan n�vnes specifik sprogartikulationsforstyrrelse (dysartri), sprogudtryksforstyrrelse (ekspressiv dysfasi) og sprogopfattelsesforstyrrelse (impressiv dysfasi).</t>
   </si>
   <si>
     <t>93d52b11-faa7-4ff7-b552-11a84cce8bf1</t>
   </si>
   <si>
-    <t>Udviklingsforstyrrelse af skolefærdigheder</t>
-  </si>
-  <si>
-    <t>Udviklingsforstyrrelse af skolefærdigheder er en udviklingsforstyrrelse, hvor normale mønstre for udviklingen af intellektuelle skolefærdigheder er tilbagestående fra de tidligste udviklingstrin. Som eksempel på udviklingsforstyrrelse af skolefærdigheder kan nævnes specifik læseforstyrrelse (dysleksi), specifik staveforstyrrelse og specifik regnevanskelighed (dyskalkuli).</t>
+    <t>Udviklingsforstyrrelse af skolef�rdigheder</t>
+  </si>
+  <si>
+    <t>Udviklingsforstyrrelse af skolef�rdigheder er en udviklingsforstyrrelse, hvor normale m�nstre for udviklingen af intellektuelle skolef�rdigheder er tilbagest�ende fra de tidligste udviklingstrin. Som eksempel p� udviklingsforstyrrelse af skolef�rdigheder kan n�vnes specifik l�seforstyrrelse (dysleksi), specifik staveforstyrrelse og specifik regnevanskelighed (dyskalkuli).</t>
   </si>
   <si>
     <t>9b3fd322-a75a-4ed8-9b74-425fa1e01c95</t>
@@ -1152,25 +1152,25 @@
     <t>Autismespektrum</t>
   </si>
   <si>
-    <t>Autismespektrum er en dysfunktion eller nedsat funktion i hjernen, der er kendetegnet ved en mangelfuld udvikling af sociale og kommunikative færdigheder samt repetitiv og stereotyp adfærd.</t>
+    <t>Autismespektrum er en dysfunktion eller nedsat funktion i hjernen, der er kendetegnet ved en mangelfuld udvikling af sociale og kommunikative f�rdigheder samt repetitiv og stereotyp adf�rd.</t>
   </si>
   <si>
     <t>cc6a58cf-d3d2-4e5f-b7fe-98b009647eac</t>
   </si>
   <si>
-    <t>Opmærksomhedsforstyrrelse</t>
-  </si>
-  <si>
-    <t>En opmærksomhedsforstyrrelse er en dysfunktion eller nedsat funktion i hjernen, der er kendetegnet ved betydelige opmærksomheds- og koncentrationsproblemer. Begrebet omfatter ADHD og ADD.</t>
+    <t>Opm�rksomhedsforstyrrelse</t>
+  </si>
+  <si>
+    <t>En opm�rksomhedsforstyrrelse er en dysfunktion eller nedsat funktion i hjernen, der er kendetegnet ved betydelige opm�rksomheds- og koncentrationsproblemer. Begrebet omfatter ADHD og ADD.</t>
   </si>
   <si>
     <t>e6a269f5-944a-4ff8-b4d8-6dc2134d9167</t>
   </si>
   <si>
-    <t>Udviklingsforstyrrelse af sansemotoriske færdigheder</t>
-  </si>
-  <si>
-    <t>Udviklingsforstyrrelse af sansemotoriske færdigheder er en udviklingsforstyrrelse, der er karakteriseret ved alvorlige forstyrrelser i udviklingen af motorisk koordination. Som eksempel på udviklingsforstyrrelse af motoriske færdigheder kan nævnes fumler-tumlersyndromet, udviklingsmæssig koordinationsforstyrrelse og udviklingsmæssig dyspraksi.</t>
+    <t>Udviklingsforstyrrelse af sansemotoriske f�rdigheder</t>
+  </si>
+  <si>
+    <t>Udviklingsforstyrrelse af sansemotoriske f�rdigheder er en udviklingsforstyrrelse, der er karakteriseret ved alvorlige forstyrrelser i udviklingen af motorisk koordination. Som eksempel p� udviklingsforstyrrelse af motoriske f�rdigheder kan n�vnes fumler-tumlersyndromet, udviklingsm�ssig koordinationsforstyrrelse og udviklingsm�ssig dyspraksi.</t>
   </si>
   <si>
     <t>59254ffb-8efb-4023-84f8-73e5bcba0bc7</t>
@@ -1179,16 +1179,16 @@
     <t>Hjerneskade</t>
   </si>
   <si>
-    <t>Hjerneskade er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved misdannet eller ødelagt hjernevæv.</t>
+    <t>Hjerneskade er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved misdannet eller �delagt hjernev�v.</t>
   </si>
   <si>
     <t>1097d07f-1dba-4cc2-ae3a-399a501c2eb6</t>
   </si>
   <si>
-    <t>Medfødt hjerneskade</t>
-  </si>
-  <si>
-    <t>En medfødt hjerneskade er misdannet eller ødelagt hjernevæv, som er opstået før eller under fødslen.</t>
+    <t>Medf�dt hjerneskade</t>
+  </si>
+  <si>
+    <t>En medf�dt hjerneskade er misdannet eller �delagt hjernev�v, som er opst�et f�r eller under f�dslen.</t>
   </si>
   <si>
     <t>d26f97e8-99ed-46a9-94db-93340f77a950</t>
@@ -1197,16 +1197,16 @@
     <t>Erhvervet hjerneskade</t>
   </si>
   <si>
-    <t>En erhvervet hjerneskade er misdannet eller ødelagt hjernevæv, som er kommet til efter fødslen.</t>
+    <t>En erhvervet hjerneskade er misdannet eller �delagt hjernev�v, som er kommet til efter f�dslen.</t>
   </si>
   <si>
     <t>7ac451dc-773b-4877-baaf-1e6b1d5c8e28</t>
   </si>
   <si>
-    <t>Støttebehovsniveau</t>
-  </si>
-  <si>
-    <t>Støttebehov er omfanget af en persons behov for udefrakommende støtte vurderet på baggrund af personens funktionsevne inden for forskellige livsområder. Omfanget vurderes ud fra, hvor ofte og hvor megen støtte personen skal have for at kunne overskue og udføre de aktiviteter, der er relevante for personen. Støttebehovet siger ikke noget om, hvilken specifik indsats personen har brug for, men det siger noget om omfanget af indsatsen, fordi den skal modsvare behovets omfang.</t>
+    <t>St�ttebehovsniveau</t>
+  </si>
+  <si>
+    <t>St�ttebehov er omfanget af en persons behov for udefrakommende st�tte vurderet p� baggrund af personens funktionsevne inden for forskellige livsomr�der. Omfanget vurderes ud fra, hvor ofte og hvor megen st�tte personen skal have for at kunne overskue og udf�re de aktiviteter, der er relevante for personen. St�ttebehovet siger ikke noget om, hvilken specifik indsats personen har brug for, men det siger noget om omfanget af indsatsen, fordi den skal modsvare behovets omfang.</t>
   </si>
   <si>
     <t>2254dac8-8aa3-4334-8502-9720194f49ad</t>
@@ -1218,55 +1218,55 @@
     <t>401a397b-b3aa-4ca3-8b23-bd8f99dd3f76</t>
   </si>
   <si>
-    <t>Moderat støttebehov</t>
+    <t>Moderat st�ttebehov</t>
   </si>
   <si>
     <t>ae9f388a-91c3-46cf-af55-f81952f2977c</t>
   </si>
   <si>
-    <t>Intet støttebehov</t>
+    <t>Intet st�ttebehov</t>
   </si>
   <si>
     <t>b99a0790-4d70-4152-b149-3fe58b745583</t>
   </si>
   <si>
-    <t>Højt støttebehov</t>
+    <t>H�jt st�ttebehov</t>
   </si>
   <si>
     <t>dd628e73-d6c9-4837-a2b8-aa62d73bd6ae</t>
   </si>
   <si>
-    <t>Let støttebehov</t>
+    <t>Let st�ttebehov</t>
   </si>
   <si>
     <t>e99763d6-6c43-4969-ad52-2b1a7055f9dc</t>
   </si>
   <si>
-    <t>Fuldstændigt støttebehov</t>
+    <t>Fuldst�ndigt st�ttebehov</t>
   </si>
   <si>
     <t>90479ffa-bf46-4b3a-a172-91f2798e2a43</t>
   </si>
   <si>
-    <t>Status på indsats</t>
+    <t>Status p� indsats</t>
   </si>
   <si>
     <t>1e971d84-10a4-4ef8-a8b3-0daa4c7d088a</t>
   </si>
   <si>
-    <t>Træf afgørelse om fortsættelse af indsats</t>
+    <t>Tr�f afg�relse om forts�ttelse af indsats</t>
   </si>
   <si>
     <t>b4c01aa8-82fd-44e4-83ff-ca19ec02c779</t>
   </si>
   <si>
-    <t>Træf afgørelse om afslutning af indsats og visiter til ny</t>
+    <t>Tr�f afg�relse om afslutning af indsats og visiter til ny</t>
   </si>
   <si>
     <t>d7d03656-4c87-4e67-9146-aa5990460f16</t>
   </si>
   <si>
-    <t>Træf afgørelse om afslutning af indsats</t>
+    <t>Tr�f afg�relse om afslutning af indsats</t>
   </si>
   <si>
     <t>b3ddc7d7-f6c1-4d47-8280-456992cbe0a6</t>
@@ -1275,12 +1275,6 @@
     <t>FFB tilstande</t>
   </si>
   <si>
-    <t>FFB tilstande
-Mapset: 58000024148 (FFB tilstande mappet til SNOMED)
-Mapset: 338000019145 (OmrHierarkiFFB)
-Mapset: 68000024145 (TilstandsrelationerFFB)</t>
-  </si>
-  <si>
     <t>740934cd-002b-4b96-b92e-b3562eed9448</t>
   </si>
   <si>
@@ -1293,16 +1287,16 @@
     <t>Mentale funktioner</t>
   </si>
   <si>
-    <t>Mentale funktioner er hjernens funktioner - både overordnede mentale funktioner som bevidsthed, energi og handlekraft og specifikke mentale funktioner som hukommelse, sprog og regning.</t>
+    <t>Mentale funktioner er hjernens funktioner - b�de overordnede mentale funktioner som bevidsthed, energi og handlekraft og specifikke mentale funktioner som hukommelse, sprog og regning.</t>
   </si>
   <si>
     <t>17c35058-eb88-4a7a-8727-74cd12be42c7</t>
   </si>
   <si>
-    <t>Opmærksomhed og koncentrationsevne</t>
-  </si>
-  <si>
-    <t>Opmærksomhed og koncentrationsevne er en mental funktion, der er bestemmende for fokusering på eksterne stimuli eller indre oplevelser så længe som nødvendigt. Begrebet omfatter fx en persons evne til at fastholde opmærksomhed, skift i opmærksomhed, opdeling af opmærksomhed, hvor der fokuseres på to eller flere stimuli på samme tid, samt deltagende opmærksomhed, hvor to eller flere personer fokuserer på det samme.</t>
+    <t>Opm�rksomhed og koncentrationsevne</t>
+  </si>
+  <si>
+    <t>Opm�rksomhed og koncentrationsevne er en mental funktion, der er bestemmende for fokusering p� eksterne stimuli eller indre oplevelser s� l�nge som n�dvendigt. Begrebet omfatter fx en persons evne til at fastholde opm�rksomhed, skift i opm�rksomhed, opdeling af opm�rksomhed, hvor der fokuseres p� to eller flere stimuli p� samme tid, samt deltagende opm�rksomhed, hvor to eller flere personer fokuserer p� det samme.</t>
   </si>
   <si>
     <t>3591c972-5b15-4bbd-86c7-91622cda56e8</t>
@@ -1311,7 +1305,7 @@
     <t>Virkelighedsopfattelse</t>
   </si>
   <si>
-    <t>Virkelighedsopfattelse er den mentale funktion, der er bestemmende for genkendelse og fortolkning af sanseindtryk. Virkelighedsopfattelse adskiller sig fra de fysiske funktioner vedrørende sanserne ved at have fokus på, hvordan en person genkender og fortolker sanseindtrykkene og ikke, hvorvidt de sanses eller ej. Begrebet omfatter fx hallucinationer og vrangforestillinger.</t>
+    <t>Virkelighedsopfattelse er den mentale funktion, der er bestemmende for genkendelse og fortolkning af sanseindtryk. Virkelighedsopfattelse adskiller sig fra de fysiske funktioner vedr�rende sanserne ved at have fokus p�, hvordan en person genkender og fortolker sanseindtrykkene og ikke, hvorvidt de sanses eller ej. Begrebet omfatter fx hallucinationer og vrangforestillinger.</t>
   </si>
   <si>
     <t>4934e45a-0f93-4c23-a767-2b681378700b</t>
@@ -1320,7 +1314,7 @@
     <t>Bevidsthedstilstand</t>
   </si>
   <si>
-    <t>Bevidsthedstilstand er en mental funktion, der er bestemmende for vågenhed. Eksempler på bevidsthedstilstand kan være, at en person er vågen i perioder, men i andre perioder er i en vegetativ tilstand. Relevante aspekter af bevidsthedstilstand er fx hyppigheden eller varigheden af vågenhed, hvorvidt personen er i koma eller trance eller taber bevidstheden. Begrebet omfatter ikke, hvorvidt en person handler bevidst eller intentionelt og skal heller ikke forveksles med begrebet 'virkelighedsopfattelse' eller 'indsigt i egen situation'.</t>
+    <t>Bevidsthedstilstand er en mental funktion, der er bestemmende for v�genhed. Eksempler p� bevidsthedstilstand kan v�re, at en person er v�gen i perioder, men i andre perioder er i en vegetativ tilstand. Relevante aspekter af bevidsthedstilstand er fx hyppigheden eller varigheden af v�genhed, hvorvidt personen er i koma eller trance eller taber bevidstheden. Begrebet omfatter ikke, hvorvidt en person handler bevidst eller intentionelt og skal heller ikke forveksles med begrebet 'virkelighedsopfattelse' eller 'indsigt i egen situation'.</t>
   </si>
   <si>
     <t>52e0b8dd-f5fa-4e1a-b66e-f5e4a41bd313</t>
@@ -1329,7 +1323,7 @@
     <t>Psykosociale funktioner</t>
   </si>
   <si>
-    <t>De psykosociale funktioner er en mental funktion, som udvikles gennem livet, og som er nødvendig for at danne, indgå i og fastholde relationer med andre mennesker. De psykosociale funktioner danner dermed baggrund for en persons sociale og mellemmenneskelige færdigheder. De omfatter fx evnen til at aflæse andres følelser eller sociale normer. De omfatter også psykologiske funktioner, som er en forudsætning for at indgå i relationer, fx selvværd og identitetsdannelse.</t>
+    <t>De psykosociale funktioner er en mental funktion, som udvikles gennem livet, og som er n�dvendig for at danne, indg� i og fastholde relationer med andre mennesker. De psykosociale funktioner danner dermed baggrund for en persons sociale og mellemmenneskelige f�rdigheder. De omfatter fx evnen til at afl�se andres f�lelser eller sociale normer. De omfatter ogs� psykologiske funktioner, som er en foruds�tning for at indg� i relationer, fx selvv�rd og identitetsdannelse.</t>
   </si>
   <si>
     <t>61452fe5-cea2-4d92-b2f1-406e9a5d31cb</t>
@@ -1338,7 +1332,7 @@
     <t>Hukommelse</t>
   </si>
   <si>
-    <t>Hukommelse er en mental funktion, der er bestemmende for registrering, lagring og genkaldelse af information efter behov. Hukommelse er fx korttidshukommelse og langtidshukommelse, herunder genkaldelse af information, der er gemt i langtidshukommelsen og bringes frem i bevidstheden. Eksempler på hukommelse kan være evnen til at huske aftaler, steder og personer, ligesom der kan skelnes mellem fx auditiv, visuel, taktil eller følelsesmæssig hukommelse.</t>
+    <t>Hukommelse er en mental funktion, der er bestemmende for registrering, lagring og genkaldelse af information efter behov. Hukommelse er fx korttidshukommelse og langtidshukommelse, herunder genkaldelse af information, der er gemt i langtidshukommelsen og bringes frem i bevidstheden. Eksempler p� hukommelse kan v�re evnen til at huske aftaler, steder og personer, ligesom der kan skelnes mellem fx auditiv, visuel, taktil eller f�lelsesm�ssig hukommelse.</t>
   </si>
   <si>
     <t>6279a3dc-7085-4157-809c-f96922242b1b</t>
@@ -1347,43 +1341,43 @@
     <t>Indsigt i egen situation</t>
   </si>
   <si>
-    <t>Indsigt i egen situation er en mental funktion, der vedrører bevidsthed om og forståelse af en selv og egen adfærd. Indsigt i egen situation er fx en persons indsigt i en eventuel funktionsnedsættelse eller socialt problem og konsekvenserne heraf.</t>
+    <t>Indsigt i egen situation er en mental funktion, der vedr�rer bevidsthed om og forst�else af en selv og egen adf�rd. Indsigt i egen situation er fx en persons indsigt i en eventuel funktionsneds�ttelse eller socialt problem og konsekvenserne heraf.</t>
   </si>
   <si>
     <t>8028b034-cad2-42df-b51c-aaba9c0bba61</t>
   </si>
   <si>
-    <t>Igangsætning og motivation</t>
-  </si>
-  <si>
-    <t>Igangsætning og motivation er en mental funktion, som får en person til at opnå tilfredsstillelse af specifikke behov og overordnede mål på en vedholdende måde. Igangsætning og motivation er fx en persons energiniveau, motivation, appetit og trang samt impulskontrol. Begrebet omfatter dermed en persons evne til at omsætte en tanke eller følelse i handling, hvor man tager initiativ til at igangsætte en aktivitet og afslutte den. Det at opnå eller bevare håb som vigtig motivationsfaktor er også omfattet af begrebet.</t>
+    <t>Igangs�tning og motivation</t>
+  </si>
+  <si>
+    <t>Igangs�tning og motivation er en mental funktion, som f�r en person til at opn� tilfredsstillelse af specifikke behov og overordnede m�l p� en vedholdende m�de. Igangs�tning og motivation er fx en persons energiniveau, motivation, appetit og trang samt impulskontrol. Begrebet omfatter dermed en persons evne til at oms�tte en tanke eller f�lelse i handling, hvor man tager initiativ til at igangs�tte en aktivitet og afslutte den. Det at opn� eller bevare h�b som vigtig motivationsfaktor er ogs� omfattet af begrebet.</t>
   </si>
   <si>
     <t>9c2173e6-6465-44d3-af16-7c44059193b2</t>
   </si>
   <si>
-    <t>Organisering og planlægning</t>
-  </si>
-  <si>
-    <t>Organisering og planlægning er en mental funktion, der vedrører helhedsdannelse, systematisering og udvikling af metode til fremgangsmåde eller handling.</t>
+    <t>Organisering og planl�gning</t>
+  </si>
+  <si>
+    <t>Organisering og planl�gning er en mental funktion, der vedr�rer helhedsdannelse, systematisering og udvikling af metode til fremgangsm�de eller handling.</t>
   </si>
   <si>
     <t>b93216fa-3843-4a7e-85bc-e3ef35a1967f</t>
   </si>
   <si>
-    <t>Problemløsning</t>
-  </si>
-  <si>
-    <t>Problemløsning er en mental funktion, der er bestemmende for identifikation, analyse og integrering af uoverensstemmende eller modstridende informationer til en løsning. Problemløsning er dermed en persons evne til at løse problemer, herunder at identificere, at der er et problem, analysere det og fremkomme med en løsning.</t>
+    <t>Probleml�sning</t>
+  </si>
+  <si>
+    <t>Probleml�sning er en mental funktion, der er bestemmende for identifikation, analyse og integrering af uoverensstemmende eller modstridende informationer til en l�sning. Probleml�sning er dermed en persons evne til at l�se problemer, herunder at identificere, at der er et problem, analysere det og fremkomme med en l�sning.</t>
   </si>
   <si>
     <t>dccaa419-0bcd-4056-a11a-2e385e23edc6</t>
   </si>
   <si>
-    <t>Følelser og adfærd</t>
-  </si>
-  <si>
-    <t>Følelser og adfærd er en mental funktion, der er forbundet med følelser og en persons tilbøjelighed til at reagere på bestemte måder i forskellige situationer. Følelser og adfærd er fx, hvorvidt en person har følelser, der er afstemt eller passer til den situation, personen er i, og kan regulere sine følelser. Begrebet vedrører også personens følelsesmæssige spændvidde. Følelser kan komme til udtryk gennem adfærd. Eksempler på adfærd er ind- og udadreagerende adfærd, seksuelt krænkende adfærd, selvskadende adfærd eller selvmordsforsøg.</t>
+    <t>F�lelser og adf�rd</t>
+  </si>
+  <si>
+    <t>F�lelser og adf�rd er en mental funktion, der er forbundet med f�lelser og en persons tilb�jelighed til at reagere p� bestemte m�der i forskellige situationer. F�lelser og adf�rd er fx, hvorvidt en person har f�lelser, der er afstemt eller passer til den situation, personen er i, og kan regulere sine f�lelser. Begrebet vedr�rer ogs� personens f�lelsesm�ssige sp�ndvidde. F�lelser kan komme til udtryk gennem adf�rd. Eksempler p� adf�rd er ind- og udadreagerende adf�rd, seksuelt kr�nkende adf�rd, selvskadende adf�rd eller selvmordsfors�g.</t>
   </si>
   <si>
     <t>ef4271c4-f942-4194-a2b0-e9a7045eab22</t>
@@ -1392,7 +1386,7 @@
     <t>Intellektuelle funktioner</t>
   </si>
   <si>
-    <t>Den intellektuelle funktion er en overordnet mental funktion, som kræves til forståelse og integrering af forskellige mentale funktioner og deres udvikling over et livsløb. Begrebet har betydning i forhold til fx indlæringsevne og intellektuel formåen, herunder en persons skolefærdigheder. Begrebet omfatter ikke de eksekutive funktioner, så som organisering og planlægning, problemløsning og indsigt i egen situation.</t>
+    <t>Den intellektuelle funktion er en overordnet mental funktion, som kr�ves til forst�else og integrering af forskellige mentale funktioner og deres udvikling over et livsl�b. Begrebet har betydning i forhold til fx indl�ringsevne og intellektuel form�en, herunder en persons skolef�rdigheder. Begrebet omfatter ikke de eksekutive funktioner, s� som organisering og planl�gning, probleml�sning og indsigt i egen situation.</t>
   </si>
   <si>
     <t>f7c0ef6c-18ba-4d38-9df5-4c891f154a08</t>
@@ -1401,7 +1395,7 @@
     <t>Orienteringsevne</t>
   </si>
   <si>
-    <t>Orienteringsevne en en mental funktion, der er bestemmende for kendskab til og konstatering af relationerne til en selv, til andre, til tid, sted og andre omgivelser. Orienteringsevne er fx en persons evne til at orientere sig i tid og sted, rum og retning og forstå egen identitet og identiteten af personer i personens umiddelbare nærhed.</t>
+    <t>Orienteringsevne en en mental funktion, der er bestemmende for kendskab til og konstatering af relationerne til en selv, til andre, til tid, sted og andre omgivelser. Orienteringsevne er fx en persons evne til at orientere sig i tid og sted, rum og retning og forst� egen identitet og identiteten af personer i personens umiddelbare n�rhed.</t>
   </si>
   <si>
     <t>4fb78b88-d3af-4cfb-84d7-f06daf423317</t>
@@ -1410,16 +1404,16 @@
     <t>Sundhedsforhold</t>
   </si>
   <si>
-    <t>Sundhedsforhold er forhold, der påvirker en persons sundhed.</t>
+    <t>Sundhedsforhold er forhold, der p�virker en persons sundhed.</t>
   </si>
   <si>
     <t>081ab1be-7dc1-41fa-803c-12a146eb0b74</t>
   </si>
   <si>
-    <t>Sundhedsfaglig behandling og træning</t>
-  </si>
-  <si>
-    <t>Sundhedsfaglig behandling og træning er forhold vedrørende behandling og træning, som er bevilget efter sundhedsloven. Begrebet omfatter tidligere og nuværende behandling og træning, der er bevilget efter sundhedsloven, herunder medicinsk behandling. Begrebet omfatter ikke bevillinger efter serviceloven eller alternativ, uautoriseret behandling.</t>
+    <t>Sundhedsfaglig behandling og tr�ning</t>
+  </si>
+  <si>
+    <t>Sundhedsfaglig behandling og tr�ning er forhold vedr�rende behandling og tr�ning, som er bevilget efter sundhedsloven. Begrebet omfatter tidligere og nuv�rende behandling og tr�ning, der er bevilget efter sundhedsloven, herunder medicinsk behandling. Begrebet omfatter ikke bevillinger efter serviceloven eller alternativ, uautoriseret behandling.</t>
   </si>
   <si>
     <t>0b650369-258a-4d01-a811-42b306c2f89d</t>
@@ -1428,7 +1422,7 @@
     <t>Motion</t>
   </si>
   <si>
-    <t>Motion er en handling, hvor en person udfører regelmæssige, fysiske aktiviteter med henblik på at bevare et godt helbred og holde kroppen i form.</t>
+    <t>Motion er en handling, hvor en person udf�rer regelm�ssige, fysiske aktiviteter med henblik p� at bevare et godt helbred og holde kroppen i form.</t>
   </si>
   <si>
     <t>69dbfad7-859a-4596-8737-8054f6b4948f</t>
@@ -1443,10 +1437,10 @@
     <t>83376fdb-f55d-4dd9-944e-b49631a9836f</t>
   </si>
   <si>
-    <t>Søvn</t>
-  </si>
-  <si>
-    <t>Søvn er en tilstand, hvis kvalitet afgøres af søvnmængden og forhold omkring indsovning og gennemsovning, og hvorvidt der er tale om en naturlig søvn med optimal fysisk og psykisk hvile og afslapning.</t>
+    <t>S�vn</t>
+  </si>
+  <si>
+    <t>S�vn er en tilstand, hvis kvalitet afg�res af s�vnm�ngden og forhold omkring indsovning og gennemsovning, og hvorvidt der er tale om en naturlig s�vn med optimal fysisk og psykisk hvile og afslapning.</t>
   </si>
   <si>
     <t>c67aed23-d4f3-4ae6-8886-156c99048e5b</t>
@@ -1455,7 +1449,7 @@
     <t>Kost</t>
   </si>
   <si>
-    <t>Kost er en persons indtagelse af fødemidler og deres sammensætning. Et relevant aspekt af kost er også, hvorvidt en person spiser og drikker tilstrækkeligt eller for lidt eller for meget.</t>
+    <t>Kost er en persons indtagelse af f�demidler og deres sammens�tning. Et relevant aspekt af kost er ogs�, hvorvidt en person spiser og drikker tilstr�kkeligt eller for lidt eller for meget.</t>
   </si>
   <si>
     <t>c8f4475a-8de3-4920-ad0c-eea78c49a68d</t>
@@ -1464,16 +1458,16 @@
     <t>Rusmidler</t>
   </si>
   <si>
-    <t>En persons situation vedrørende rusmidler er den samlede mængde af forhold, der har at gøre med en persons brug af rusmidler. Et eksempel på en situation vedrørende rusmidler kan være en bekymrende hyppig brug af rusmidler eller selvmedicinering med hash. Eksempler på problematikker vedrørende rusmidler kan være alkohol- og stofmisbrug eller misbrug af lægemidler. Et eksempel på ressourcer vedrørende rusmidler kan være et gennemført behandlingsforløb.</t>
+    <t>En persons situation vedr�rende rusmidler er den samlede m�ngde af forhold, der har at g�re med en persons brug af rusmidler. Et eksempel p� en situation vedr�rende rusmidler kan v�re en bekymrende hyppig brug af rusmidler eller selvmedicinering med hash. Eksempler p� problematikker vedr�rende rusmidler kan v�re alkohol- og stofmisbrug eller misbrug af l�gemidler. Et eksempel p� ressourcer vedr�rende rusmidler kan v�re et gennemf�rt behandlingsforl�b.</t>
   </si>
   <si>
     <t>e6f82424-da5a-41d1-bd1a-5796aa79d5f2</t>
   </si>
   <si>
-    <t>Døgnrytme</t>
-  </si>
-  <si>
-    <t>Døgnrytme er den struktur, som en person inddeler døgnets forskellige aktiviteter i. Døgnrytmen opstår fx ved at spise, arbejde og sove på mere eller mindre fastlagte tidspunkter.</t>
+    <t>D�gnrytme</t>
+  </si>
+  <si>
+    <t>D�gnrytme er den struktur, som en person inddeler d�gnets forskellige aktiviteter i. D�gnrytmen opst�r fx ved at spise, arbejde og sove p� mere eller mindre fastlagte tidspunkter.</t>
   </si>
   <si>
     <t>f5b8e809-7689-4952-838c-a069c99408b3</t>
@@ -1482,7 +1476,7 @@
     <t>Tobak</t>
   </si>
   <si>
-    <t>Tobak omfatter både cigaretter, pibe, vandpibe, e-cigaretter, snus mv.</t>
+    <t>Tobak omfatter b�de cigaretter, pibe, vandpibe, e-cigaretter, snus mv.</t>
   </si>
   <si>
     <t>a134c31d-d316-46d4-935e-e500874dbbe1</t>
@@ -1500,16 +1494,16 @@
     <t>Stemme og tale</t>
   </si>
   <si>
-    <t>Stemme og tale er en fysisk funktion, der vedrører frembringelse af lyd og tale.</t>
+    <t>Stemme og tale er en fysisk funktion, der vedr�rer frembringelse af lyd og tale.</t>
   </si>
   <si>
     <t>3b4bcb40-f761-46a5-bc5f-b30ac37c88ed</t>
   </si>
   <si>
-    <t>Bevægelse</t>
-  </si>
-  <si>
-    <t>Bevægelse er en fysisk funktion, der vedrører bevægelse af kroppen. Bevægelse spænder bredt fra en persons reflekser, ufrivillige og viljesbestemte bevægelser til gang, løb eller andre bevægelser, som inddrager hele kroppen.</t>
+    <t>Bev�gelse</t>
+  </si>
+  <si>
+    <t>Bev�gelse er en fysisk funktion, der vedr�rer bev�gelse af kroppen. Bev�gelse sp�nder bredt fra en persons reflekser, ufrivillige og viljesbestemte bev�gelser til gang, l�b eller andre bev�gelser, som inddrager hele kroppen.</t>
   </si>
   <si>
     <t>9959e779-e8ee-47e8-989b-bbff4aae2883</t>
@@ -1518,7 +1512,7 @@
     <t>Syn</t>
   </si>
   <si>
-    <t>Syn er en fysisk funktion, der vedrører opfattelse af lys og af form, størrelse og farve af visuelle stimuli.</t>
+    <t>Syn er en fysisk funktion, der vedr�rer opfattelse af lys og af form, st�rrelse og farve af visuelle stimuli.</t>
   </si>
   <si>
     <t>b37419b3-c5f2-43e9-9e9d-4037b06b3fa5</t>
@@ -1527,16 +1521,16 @@
     <t>Smerte og sansefunktioner</t>
   </si>
   <si>
-    <t>Smerte og sansefunktioner er en fysisk funktion, der vedrører opfattelsen af sanseindtryk samt ubehagelige fornemmelser som tegn på potentiel eller aktuel skade eller tilstand på dele af kroppen. Sanseindtryk omfatter fx berøringssans, temperatursans, lugt- og smagssans samt opfattelsen af kropsdeles position i forhold til hinanden. Smerter omfatter også fantomsmerter.</t>
+    <t>Smerte og sansefunktioner er en fysisk funktion, der vedr�rer opfattelsen af sanseindtryk samt ubehagelige fornemmelser som tegn p� potentiel eller aktuel skade eller tilstand p� dele af kroppen. Sanseindtryk omfatter fx ber�ringssans, temperatursans, lugt- og smagssans samt opfattelsen af kropsdeles position i forhold til hinanden. Smerter omfatter ogs� fantomsmerter.</t>
   </si>
   <si>
     <t>eb3599bc-c0bb-4281-8a1c-bf6eab8ffde3</t>
   </si>
   <si>
-    <t>Hørelse</t>
-  </si>
-  <si>
-    <t>Hørelse er en fysisk funktion, der vedrører opfattelse af lyde og skelnen af lokalisation, tone, styrke og kvalitet af lyde.</t>
+    <t>H�relse</t>
+  </si>
+  <si>
+    <t>H�relse er en fysisk funktion, der vedr�rer opfattelse af lyde og skelnen af lokalisation, tone, styrke og kvalitet af lyde.</t>
   </si>
   <si>
     <t>e1836145-0c20-4e20-971e-d62dfe4ea1a0</t>
@@ -1545,16 +1539,16 @@
     <t>Sociale forhold</t>
   </si>
   <si>
-    <t>Sociale forhold er tilstande, vilkår, hændelser eller andre personlige faktorer, som relaterer til en persons baggrund og historie, er af social karakter og har betydning for en persons funktionsevne. Sociale forhold kan enten beskytte mod eller føre til, at et socialt problem opstår.</t>
+    <t>Sociale forhold er tilstande, vilk�r, h�ndelser eller andre personlige faktorer, som relaterer til en persons baggrund og historie, er af social karakter og har betydning for en persons funktionsevne. Sociale forhold kan enten beskytte mod eller f�re til, at et socialt problem opst�r.</t>
   </si>
   <si>
     <t>08aa68ce-acd6-4e03-b6b5-091811324345</t>
   </si>
   <si>
-    <t>Økonomisk situation</t>
-  </si>
-  <si>
-    <t>En persons økonomiske situation er den samlede mængde af forhold, der bestemmer, hvordan en person er stillet finansielt. Et eksempel på økonomisk situation kan være, at man er på kontanthjælp eller har fast indtægt, lever af opsparing, har mistet sin indtægt eller låner penge af sit netværk. Problematikker omkring den økonomiske situation kan fx omfatte utilstrækkelige økonomiske ressourcer eller gæld. Ressourcer i forhold til den økonomiske situation kan fx være, at man er trygt stillet økonomisk.</t>
+    <t>�konomisk situation</t>
+  </si>
+  <si>
+    <t>En persons �konomiske situation er den samlede m�ngde af forhold, der bestemmer, hvordan en person er stillet finansielt. Et eksempel p� �konomisk situation kan v�re, at man er p� kontanthj�lp eller har fast indt�gt, lever af opsparing, har mistet sin indt�gt eller l�ner penge af sit netv�rk. Problematikker omkring den �konomiske situation kan fx omfatte utilstr�kkelige �konomiske ressourcer eller g�ld. Ressourcer i forhold til den �konomiske situation kan fx v�re, at man er trygt stillet �konomisk.</t>
   </si>
   <si>
     <t>35c56275-0093-4901-9fd8-d06fdb5cb8f3</t>
@@ -1563,7 +1557,7 @@
     <t>Boligsituation</t>
   </si>
   <si>
-    <t>En persons boligsituation er den samlede mængde af forhold, der bestemmer, hvordan en person er stillet med hensyn til bolig. Et eksempel på boligsituation kan fx være, at man bor til leje eller er opsagt, bor ude eller hjemme, mangler egen bolig og pt. bor hos personer i netværket osv. Problematikker i forhold til boligsituationen kan være uhensigtsmæssig indretning i forhold til beboerens behov, uhensigtsmæssig brug af boligen eller hjemløshed, hvor en person ikke har eller ikke kan opholde sig i egen bolig. Ressourcer i forhold til boligsituationen kan være, at ens bolig er indrettet hensigtsmæssigt i forhold til ens funktionsnedsættelse, eller at man kan blive boende i sin bolig, selvom en funktionsnedsættelse eller et socialt problem har betydet ændringer i ens indtægtsforhold.</t>
+    <t>En persons boligsituation er den samlede m�ngde af forhold, der bestemmer, hvordan en person er stillet med hensyn til bolig. Et eksempel p� boligsituation kan fx v�re, at man bor til leje eller er opsagt, bor ude eller hjemme, mangler egen bolig og pt. bor hos personer i netv�rket osv. Problematikker i forhold til boligsituationen kan v�re uhensigtsm�ssig indretning i forhold til beboerens behov, uhensigtsm�ssig brug af boligen eller hjeml�shed, hvor en person ikke har eller ikke kan opholde sig i egen bolig. Ressourcer i forhold til boligsituationen kan v�re, at ens bolig er indrettet hensigtsm�ssigt i forhold til ens funktionsneds�ttelse, eller at man kan blive boende i sin bolig, selvom en funktionsneds�ttelse eller et socialt problem har betydet �ndringer i ens indt�gtsforhold.</t>
   </si>
   <si>
     <t>52efa2e9-e0dc-41eb-8c01-9865e2fdebae</t>
@@ -1572,7 +1566,7 @@
     <t>Interesser</t>
   </si>
   <si>
-    <t>Interesser er de aktiviteter eller objekter, som en person beskæftiger sig indgående med og er optaget af. Interesser kan spænde over alle tænkelige forhold. Eksempler på problematikker vedrørende interesser kan være, at interessen tager overhånd og bliver for tidskrævende eller på anden vis er uhensigtsmæssig. Eksempler på ressourcer vedrørende interesser kan være, at interessen virker afstressende eller motiverende eller på anden vis bidrager positivt til livskvaliteten.</t>
+    <t>Interesser er de aktiviteter eller objekter, som en person besk�ftiger sig indg�ende med og er optaget af. Interesser kan sp�nde over alle t�nkelige forhold. Eksempler p� problematikker vedr�rende interesser kan v�re, at interessen tager overh�nd og bliver for tidskr�vende eller p� anden vis er uhensigtsm�ssig. Eksempler p� ressourcer vedr�rende interesser kan v�re, at interessen virker afstressende eller motiverende eller p� anden vis bidrager positivt til livskvaliteten.</t>
   </si>
   <si>
     <t>7a8f247b-baf8-4552-95bb-acf8ef004b74</t>
@@ -1581,7 +1575,7 @@
     <t>Familiesituation</t>
   </si>
   <si>
-    <t>En persons familiesituation er den samlede mængde af forhold, der bestemmer, hvordan en person er stillet med hensyn til familie. Et eksempel på familiesituation kan være, at man er gift eller samlevende, lever alene eller sammen med andre eller har børn. Problematikker vedrørende familiesituation kan fx være skilsmisse, uønsket social isolation, ufrivillig barnløshed eller en syg partner. Ressourcer vedrørende familiesituation kan være, at ens familiesituation er i overensstemmelse med ens egne ønsker og behov.</t>
+    <t>En persons familiesituation er den samlede m�ngde af forhold, der bestemmer, hvordan en person er stillet med hensyn til familie. Et eksempel p� familiesituation kan v�re, at man er gift eller samlevende, lever alene eller sammen med andre eller har b�rn. Problematikker vedr�rende familiesituation kan fx v�re skilsmisse, u�nsket social isolation, ufrivillig barnl�shed eller en syg partner. Ressourcer vedr�rende familiesituation kan v�re, at ens familiesituation er i overensstemmelse med ens egne �nsker og behov.</t>
   </si>
   <si>
     <t>83cf43f1-6d71-477c-8583-2e28755b41d3</t>
@@ -1593,7 +1587,7 @@
     <t>Traumatiske oplevelser</t>
   </si>
   <si>
-    <t>Traumatiske oplevelser er konkrete oplevelser, der har belastende følger for en person. Eksempler på traumatiske oplevelser er omsorgssvigt, ulykker og overgreb.</t>
+    <t>Traumatiske oplevelser er konkrete oplevelser, der har belastende f�lger for en person. Eksempler p� traumatiske oplevelser er omsorgssvigt, ulykker og overgreb.</t>
   </si>
   <si>
     <t>e993d8c3-b7d7-4d72-9be2-937e5ba38b5a</t>
@@ -1605,7 +1599,7 @@
     <t>Uddannelse og job</t>
   </si>
   <si>
-    <t>En persons uddannelses og job er den samlede mængde af forhold, der bestemmer, hvordan en person er stillet med hensyn til uddannelsesniveau og arbejde. Arbejde dækker bredt, fx både ordinært arbejde, frivilligt arbejde eller beskæftigelsestilbud. Et eksempel på uddannelses- og jobsituation kan være en gennemført ungdomsuddannelse, igangværende enkeltfagskurser, ledighed, fast arbejde eller frivilligt arbejde. Problematikker i relation til uddannelse og job kan være ledighed eller højt fravær fra studierne. Ressourcer i relation til uddannelse og job kan fx være, at man har en uddannelse eller gode erfaringer med job og beskæftigelse.</t>
+    <t>En persons uddannelses og job er den samlede m�ngde af forhold, der bestemmer, hvordan en person er stillet med hensyn til uddannelsesniveau og arbejde. Arbejde d�kker bredt, fx b�de ordin�rt arbejde, frivilligt arbejde eller besk�ftigelsestilbud. Et eksempel p� uddannelses- og jobsituation kan v�re en gennemf�rt ungdomsuddannelse, igangv�rende enkeltfagskurser, ledighed, fast arbejde eller frivilligt arbejde. Problematikker i relation til uddannelse og job kan v�re ledighed eller h�jt frav�r fra studierne. Ressourcer i relation til uddannelse og job kan fx v�re, at man har en uddannelse eller gode erfaringer med job og besk�ftigelse.</t>
   </si>
   <si>
     <t>93433530-b85c-4d04-a4fb-5ae26cf16f1c</t>
@@ -1620,34 +1614,34 @@
     <t>Relationer</t>
   </si>
   <si>
-    <t>Relationer vedrører en persons relationer til og interaktion med andre mennesker. Relationer til andre dækker både over evnen til at indgå og bevare relationer til andre mennesker, såvel som deltagelse i organiseret socialt liv uden for familien, i lokalsamfundet i det sociale liv og som medborger.</t>
+    <t>Relationer vedr�rer en persons relationer til og interaktion med andre mennesker. Relationer til andre d�kker b�de over evnen til at indg� og bevare relationer til andre mennesker, s�vel som deltagelse i organiseret socialt liv uden for familien, i lokalsamfundet i det sociale liv og som medborger.</t>
   </si>
   <si>
     <t>3f9da5ac-9686-4eeb-b517-b46e17fcb1d7</t>
   </si>
   <si>
-    <t>Indgå i samspil og kontakt</t>
-  </si>
-  <si>
-    <t>At indgå i samspil og kontakt er en aktivitet, som består i at indgå i enkle eller komplekse relationer med mennesker på en måde, der er kontekstuelt og socialt passende. Begrebet har fokus på evnen til at indgå i relationer. Det vil fx sige at kunne vise hensyn og respekt, når det er passende eller reagere på andres følelser og indgå i samspil med andre mennesker (fremmede, venner, slægtninge, familiemedlemmer og kærester) fx ved at kunne give og modtage kritik, reagere på sociale signaler, anvende passende fysisk kontakt i sammenhængen, styre følelser og impulser, styre verbale og fysiske aggressioner og handle i overensstemmelse med sociale regler og konventioner.</t>
+    <t>Indg� i samspil og kontakt</t>
+  </si>
+  <si>
+    <t>At indg� i samspil og kontakt er en aktivitet, som best�r i at indg� i enkle eller komplekse relationer med mennesker p� en m�de, der er kontekstuelt og socialt passende. Begrebet har fokus p� evnen til at indg� i relationer. Det vil fx sige at kunne vise hensyn og respekt, n�r det er passende eller reagere p� andres f�lelser og indg� i samspil med andre mennesker (fremmede, venner, sl�gtninge, familiemedlemmer og k�rester) fx ved at kunne give og modtage kritik, reagere p� sociale signaler, anvende passende fysisk kontakt i sammenh�ngen, styre f�lelser og impulser, styre verbale og fysiske aggressioner og handle i overensstemmelse med sociale regler og konventioner.</t>
   </si>
   <si>
     <t>4c082610-b122-4019-96f2-1061e287445e</t>
   </si>
   <si>
-    <t>Varetage relationer til netværk</t>
-  </si>
-  <si>
-    <t>At varetage relationer til netværk er en handling, der består i at skabe og opretholde et netværk. Relationerne til de enkelte personer i netværket kan både være af formel og uformel karakter, fx relationer til professionelle fagpersoner og relationer til venner, naboer, bekendte og ligesindede.</t>
+    <t>Varetage relationer til netv�rk</t>
+  </si>
+  <si>
+    <t>At varetage relationer til netv�rk er en handling, der best�r i at skabe og opretholde et netv�rk. Relationerne til de enkelte personer i netv�rket kan b�de v�re af formel og uformel karakter, fx relationer til professionelle fagpersoner og relationer til venner, naboer, bekendte og ligesindede.</t>
   </si>
   <si>
     <t>dcc6bb77-45af-4625-9c4d-7d7878307220</t>
   </si>
   <si>
-    <t>Deltage i sociale fællesskaber og fritidsaktiviteter</t>
-  </si>
-  <si>
-    <t>At deltage i sociale fællesskaber er en handling, der består i at deltage i organiseret socialt liv uden for familien, i lokalsamfundet, i det sociale liv og som medborger. Begrebet har fokus på en persons evne til og mulighed for at deltage i fællesskaber og frivilligt arbejde, herunder fx rekreative aktiviteter og fritidsaktiviteter, religiøse eller åndelige fællesskaber samt politisk liv.</t>
+    <t>Deltage i sociale f�llesskaber og fritidsaktiviteter</t>
+  </si>
+  <si>
+    <t>At deltage i sociale f�llesskaber er en handling, der best�r i at deltage i organiseret socialt liv uden for familien, i lokalsamfundet, i det sociale liv og som medborger. Begrebet har fokus p� en persons evne til og mulighed for at deltage i f�llesskaber og frivilligt arbejde, herunder fx rekreative aktiviteter og fritidsaktiviteter, religi�se eller �ndelige f�llesskaber samt politisk liv.</t>
   </si>
   <si>
     <t>c2b186f9-9c10-478e-8345-2d2c37ab4c46</t>
@@ -1656,7 +1650,7 @@
     <t>Kommunikation</t>
   </si>
   <si>
-    <t>Kommunikation er en proces, der består af en overførsel eller udveksling af information. Begrebet rummer almindelige og særlige forhold i kommunikation med sprog, tegn og symboler, inklusive modtagelse og fremstilling af meddelelser, føre en samtale og anvende kommunikationshjælpemidler og -teknikker.</t>
+    <t>Kommunikation er en proces, der best�r af en overf�rsel eller udveksling af information. Begrebet rummer almindelige og s�rlige forhold i kommunikation med sprog, tegn og symboler, inklusive modtagelse og fremstilling af meddelelser, f�re en samtale og anvende kommunikationshj�lpemidler og -teknikker.</t>
   </si>
   <si>
     <t>2ba29098-a527-43d5-b858-4c5353669f42</t>
@@ -1665,7 +1659,7 @@
     <t>Fremstille meddelelser</t>
   </si>
   <si>
-    <t>At fremstille meddelelser er en aktivitet, der består i at fremsætte meddelelser med bogstavelige og underforståede betydninger mundtligt eller ved at anvende fagter, tegn, tegninger eller formaliseret tegnsprog eller skrift. Med formidling af meddelelser menes fx at gøre rede for kendsgerninger eller fortælle en historie, udtrykke uenighed eller forklare kendsgerninger eller komplekse tanker, samt at kunne meddele sig ved hjælp af kropssprog, almindelige tegn, symboler og billeder.</t>
+    <t>At fremstille meddelelser er en aktivitet, der best�r i at frems�tte meddelelser med bogstavelige og underforst�ede betydninger mundtligt eller ved at anvende fagter, tegn, tegninger eller formaliseret tegnsprog eller skrift. Med formidling af meddelelser menes fx at g�re rede for kendsgerninger eller fort�lle en historie, udtrykke uenighed eller forklare kendsgerninger eller komplekse tanker, samt at kunne meddele sig ved hj�lp af kropssprog, almindelige tegn, symboler og billeder.</t>
   </si>
   <si>
     <t>986898d0-e2e5-4afa-9cb3-ee7aecaa0143</t>
@@ -1674,16 +1668,16 @@
     <t>Samtale</t>
   </si>
   <si>
-    <t>Samtale er en aktivitet, der består i at indlede, opretholde og afslutte udveksling af tanker og ideer frembragt enten i talesprog, tegnsprog eller med andre sprog mellem en eller flere personer.</t>
+    <t>Samtale er en aktivitet, der best�r i at indlede, opretholde og afslutte udveksling af tanker og ideer frembragt enten i talesprog, tegnsprog eller med andre sprog mellem en eller flere personer.</t>
   </si>
   <si>
     <t>9bbbffef-c404-4ea3-a927-cd22d8027e6d</t>
   </si>
   <si>
-    <t>Forstå meddelelser</t>
-  </si>
-  <si>
-    <t>At forstå meddelelser er en aktivitet, der består i at forstå bogstavelige og underforståede meninger i talesprog eller i meddelelser, som formidles med fagter, symboler og tegninger i formaliseret tegnsprog eller på skrift. Med forstå menes fx at skelne om en udtalelse udtrykker en kendsgerning eller er et billedligt udtryk, samt at kunne forstå betydningen af kropssprog, almindelige tegn, symboler og billeder.</t>
+    <t>Forst� meddelelser</t>
+  </si>
+  <si>
+    <t>At forst� meddelelser er en aktivitet, der best�r i at forst� bogstavelige og underforst�ede meninger i talesprog eller i meddelelser, som formidles med fagter, symboler og tegninger i formaliseret tegnsprog eller p� skrift. Med forst� menes fx at skelne om en udtalelse udtrykker en kendsgerning eller er et billedligt udtryk, samt at kunne forst� betydningen af kropssprog, almindelige tegn, symboler og billeder.</t>
   </si>
   <si>
     <t>a80e8f96-18ba-4ee4-9496-d3ce882c2f85</t>
@@ -1692,7 +1686,7 @@
     <t>Anvende kommunikationsudstyr- og teknikker</t>
   </si>
   <si>
-    <t>At anvende kommunikationsudstyr og -teknikker er en aktivitet, der består i at anvende udstyr og teknikker med kommunikationsformål. Kommunikationsudstyr omfatter også kommunikationshjælpemidler. Eksempler på udstyr er fx telefon, sms og computer, et eksempel på teknik er Braille og mundaflæsning.</t>
+    <t>At anvende kommunikationsudstyr og -teknikker er en aktivitet, der best�r i at anvende udstyr og teknikker med kommunikationsform�l. Kommunikationsudstyr omfatter ogs� kommunikationshj�lpemidler. Eksempler p� udstyr er fx telefon, sms og computer, et eksempel p� teknik er Braille og mundafl�sning.</t>
   </si>
   <si>
     <t>d1495b2c-1452-4e49-8dbe-8193af5d8823</t>
@@ -1701,43 +1695,43 @@
     <t>Mobilitet</t>
   </si>
   <si>
-    <t>Mobilitet er en aktivitet, der vedrører bevægelse og færden. Det kan fx være ændring eller opretholdelse af kropsstilling eller -placering eller bevægelse fra ét sted til et andet, flytning og håndtering af genstande, færden ved gang, løb eller klatring og ved anvendelse af forskellige transportmidler.</t>
+    <t>Mobilitet er en aktivitet, der vedr�rer bev�gelse og f�rden. Det kan fx v�re �ndring eller opretholdelse af kropsstilling eller -placering eller bev�gelse fra �t sted til et andet, flytning og h�ndtering af genstande, f�rden ved gang, l�b eller klatring og ved anvendelse af forskellige transportmidler.</t>
   </si>
   <si>
     <t>320c9aa6-630e-4695-bba2-29ea808fad24</t>
   </si>
   <si>
-    <t>Bære, flytte og håndtere genstande</t>
-  </si>
-  <si>
-    <t>At bære, flytte og håndtere genstande er en aktivitet, der består i at løfte en genstand op og flytte noget fra ét sted til et andet ved hjælp af hænder, arme eller ben.</t>
+    <t>B�re, flytte og h�ndtere genstande</t>
+  </si>
+  <si>
+    <t>At b�re, flytte og h�ndtere genstande er en aktivitet, der best�r i at l�fte en genstand op og flytte noget fra �t sted til et andet ved hj�lp af h�nder, arme eller ben.</t>
   </si>
   <si>
     <t>4977ce08-df4d-4c09-8e03-c2a563862e68</t>
   </si>
   <si>
-    <t>Gå og bevæge sig</t>
-  </si>
-  <si>
-    <t>At gå og bevæge sig er en aktivitet, der består i at bevæge sig fra et sted til et andet i forskellige omgivelser. Begrebet rummer også færden med brug af udstyr, fx kørestol eller gangstativ.</t>
+    <t>G� og bev�ge sig</t>
+  </si>
+  <si>
+    <t>At g� og bev�ge sig er en aktivitet, der best�r i at bev�ge sig fra et sted til et andet i forskellige omgivelser. Begrebet rummer ogs� f�rden med brug af udstyr, fx k�restol eller gangstativ.</t>
   </si>
   <si>
     <t>759ddc8e-57c0-4aa6-8d32-14d8eb51c5dd</t>
   </si>
   <si>
-    <t>Ændre og opretholde kropsstilling</t>
-  </si>
-  <si>
-    <t>At ændre og opretholde kropsstilling er en aktivitet, der består i at skifte kropsstilling eller holde kroppen i samme stilling efter behov. Begrebet rummer også at flytte sig fra et sted til et andet og skifte eller bevare kropsstilling undervejs.</t>
+    <t>�ndre og opretholde kropsstilling</t>
+  </si>
+  <si>
+    <t>At �ndre og opretholde kropsstilling er en aktivitet, der best�r i at skifte kropsstilling eller holde kroppen i samme stilling efter behov. Begrebet rummer ogs� at flytte sig fra et sted til et andet og skifte eller bevare kropsstilling undervejs.</t>
   </si>
   <si>
     <t>eff3385d-01fa-4c9c-9850-52e179243f21</t>
   </si>
   <si>
-    <t>Færdes med transportmidler</t>
-  </si>
-  <si>
-    <t>At færdes med transportmidler en en aktivitet, der består i at bruge transportmidler som passager eller chauffør til at komme omkring.</t>
+    <t>F�rdes med transportmidler</t>
+  </si>
+  <si>
+    <t>At f�rdes med transportmidler en en aktivitet, der best�r i at bruge transportmidler som passager eller chauff�r til at komme omkring.</t>
   </si>
   <si>
     <t>da3f488f-1742-4d00-b247-a7d47500b36b</t>
@@ -1746,7 +1740,7 @@
     <t>Egenomsorg</t>
   </si>
   <si>
-    <t>Egenomsorg er en aktivitet, der vedrører praktiske og hygiejnemæssige handlinger i relation til personen selv. Handlingerne kan fx være vaske og tørre sig, pleje af kroppen og kropsdele, påklædning, spise og drikke og tage vare på egen sundhed.</t>
+    <t>Egenomsorg er en aktivitet, der vedr�rer praktiske og hygiejnem�ssige handlinger i relation til personen selv. Handlingerne kan fx v�re vaske og t�rre sig, pleje af kroppen og kropsdele, p�kl�dning, spise og drikke og tage vare p� egen sundhed.</t>
   </si>
   <si>
     <t>14615a09-bd94-4602-b43a-f6d3d3f9801d</t>
@@ -1755,7 +1749,7 @@
     <t>Drikke</t>
   </si>
   <si>
-    <t>At drikke er en aktivitet, der består i at holde fast om en drik, tage drikken op til munden og drikke på en kulturelt accepteret måde. Begrebet rummer også at blande, omrøre og skænke drikke op, åbne flasker og dåser og bruge sugerør.</t>
+    <t>At drikke er en aktivitet, der best�r i at holde fast om en drik, tage drikken op til munden og drikke p� en kulturelt accepteret m�de. Begrebet rummer ogs� at blande, omr�re og sk�nke drikke op, �bne flasker og d�ser og bruge suger�r.</t>
   </si>
   <si>
     <t>28fbf17e-bca3-45e1-be35-553e3d91f1b7</t>
@@ -1764,16 +1758,16 @@
     <t>Varetage sin seksualitet</t>
   </si>
   <si>
-    <t>At varetage sin seksualitet handler om, hvorvidt en persons funktionsnedsættelse eller sociale problemer giver begrænsninger i forhold til at udleve ens seksualitet.</t>
+    <t>At varetage sin seksualitet handler om, hvorvidt en persons funktionsneds�ttelse eller sociale problemer giver begr�nsninger i forhold til at udleve ens seksualitet.</t>
   </si>
   <si>
     <t>347aa085-4fe2-411f-ac56-5693d164adc3</t>
   </si>
   <si>
-    <t>Klæde sig af og på</t>
-  </si>
-  <si>
-    <t>At klæde sig af og på er en aktivitet, der består i at tage tøj og sko af og på i rækkefølge og i overensstemmelse med den sociale sammenhæng og de klimatiske forhold.</t>
+    <t>Kl�de sig af og p�</t>
+  </si>
+  <si>
+    <t>At kl�de sig af og p� er en aktivitet, der best�r i at tage t�j og sko af og p� i r�kkef�lge og i overensstemmelse med den sociale sammenh�ng og de klimatiske forhold.</t>
   </si>
   <si>
     <t>3a748135-98a8-416a-808d-bff88a8e40ee</t>
@@ -1782,7 +1776,7 @@
     <t>Dyrke interesse</t>
   </si>
   <si>
-    <t>At dyrke en interesse er en handling, der består i at bruge tid og energi på en bestemt aktivitet eller ting, som man er optaget af. Det kan fx være at samle på bestemte ting, spille computerspil eller lave håndarbejde.</t>
+    <t>At dyrke en interesse er en handling, der best�r i at bruge tid og energi p� en bestemt aktivitet eller ting, som man er optaget af. Det kan fx v�re at samle p� bestemte ting, spille computerspil eller lave h�ndarbejde.</t>
   </si>
   <si>
     <t>464a2ab6-a7df-4b3a-b74d-7873f4cfe668</t>
@@ -1791,7 +1785,7 @@
     <t>Spise</t>
   </si>
   <si>
-    <t>At spise er en aktivitet af sammensat karakter i forbindelse med indtagelse af føde, som er serveret for en, herunder at få maden op til munden og spise på en kulturelt accepteret måde. Begrebet rummer også at skære eller bryde maden i stykker, åbne flasker og dåser, anvende spiseredskaber, deltage i måltider og i festligheder.</t>
+    <t>At spise er en aktivitet af sammensat karakter i forbindelse med indtagelse af f�de, som er serveret for en, herunder at f� maden op til munden og spise p� en kulturelt accepteret m�de. Begrebet rummer ogs� at sk�re eller bryde maden i stykker, �bne flasker og d�ser, anvende spiseredskaber, deltage i m�ltider og i festligheder.</t>
   </si>
   <si>
     <t>4a58417e-9a75-43f2-9763-66505050159f</t>
@@ -1800,7 +1794,7 @@
     <t>Varetage egen sundhed</t>
   </si>
   <si>
-    <t>At varetage egen sundhed er en handling, der består i at sikre sit velvære, helbred og fysiske og psykiske velbefindende. Varetagelse af egen sundhed omfatter fx at tage vare på sig selv ved at være opmærksom på, at man har brug for og skal gøre det, der er nødvendigt til varetagelse af egen sundhed, både ved at reagere på risikofaktorer og forebygge sygdom ved fx at opsøge professionel hjælp, følge medicinsk behandling og lægelige og andre råd om sundhed, undgå risikofaktorer som fysiske skader, smitsomme sygdomme, misbrug og seksuelt overførbare sygdomme.</t>
+    <t>At varetage egen sundhed er en handling, der best�r i at sikre sit velv�re, helbred og fysiske og psykiske velbefindende. Varetagelse af egen sundhed omfatter fx at tage vare p� sig selv ved at v�re opm�rksom p�, at man har brug for og skal g�re det, der er n�dvendigt til varetagelse af egen sundhed, b�de ved at reagere p� risikofaktorer og forebygge sygdom ved fx at ops�ge professionel hj�lp, f�lge medicinsk behandling og l�gelige og andre r�d om sundhed, undg� risikofaktorer som fysiske skader, smitsomme sygdomme, misbrug og seksuelt overf�rbare sygdomme.</t>
   </si>
   <si>
     <t>885400cc-dd71-479e-8993-3fc48fdd6710</t>
@@ -1809,16 +1803,16 @@
     <t>Vaske sig</t>
   </si>
   <si>
-    <t>At vaske sig er en aktivitet, der der består i at vaske og tørre sig på kroppen og kropsdele med anvendelse af vand og passende rensemidler. Eksempler på vask er bad, brusebad, vaske hænder og fødder, ansigt og hår og tørre sig med håndklæde.</t>
+    <t>At vaske sig er en aktivitet, der der best�r i at vaske og t�rre sig p� kroppen og kropsdele med anvendelse af vand og passende rensemidler. Eksempler p� vask er bad, brusebad, vaske h�nder og f�dder, ansigt og h�r og t�rre sig med h�ndkl�de.</t>
   </si>
   <si>
     <t>94fb3ea0-92cf-43b1-929b-c95e6fb739a1</t>
   </si>
   <si>
-    <t>Gå på toilettet</t>
-  </si>
-  <si>
-    <t>At gå på toilettet er en aktivitet, der består i at planlægge og udføre toiletbesøg til udskillelse af affaldsprodukter og efterfølgende rengøring.</t>
+    <t>G� p� toilettet</t>
+  </si>
+  <si>
+    <t>At g� p� toilettet er en aktivitet, der best�r i at planl�gge og udf�re toiletbes�g til udskillelse af affaldsprodukter og efterf�lgende reng�ring.</t>
   </si>
   <si>
     <t>b3939f0b-43d9-4e8c-bb2e-50ff8bb7ed03</t>
@@ -1827,7 +1821,7 @@
     <t>Pleje sin krop</t>
   </si>
   <si>
-    <t>At pleje sin krop er en aktivitet, der består i at pleje de dele af kroppen, som behøver anden pleje end vask og tørring. Begrebet rummer fx pleje af hud, ansigt, tænder, hår, negle og kønsdele.</t>
+    <t>At pleje sin krop er en aktivitet, der best�r i at pleje de dele af kroppen, som beh�ver anden pleje end vask og t�rring. Begrebet rummer fx pleje af hud, ansigt, t�nder, h�r, negle og k�nsdele.</t>
   </si>
   <si>
     <t>dfbe6ff6-223b-436a-b864-8ba29bda41e2</t>
@@ -1836,25 +1830,25 @@
     <t>Samfundsliv</t>
   </si>
   <si>
-    <t>Samfundsliv er forhold, der vedrører de opgaver og handlinger, som er nødvendige for at varetage uddannelse, beskæftigelse og økonomi.</t>
+    <t>Samfundsliv er forhold, der vedr�rer de opgaver og handlinger, som er n�dvendige for at varetage uddannelse, besk�ftigelse og �konomi.</t>
   </si>
   <si>
     <t>685e8517-2f5c-4ef8-a7c4-fa2d008fdd9d</t>
   </si>
   <si>
-    <t>Varetage beskæftigelse</t>
-  </si>
-  <si>
-    <t>Varetage beskæftigelse er en handling, der består i at deltage i alle aspekter af et arbejde, erhverv eller anden for for beskæftigelse som ansat på fuldtid eller deltid eller som selvstændig. Eksempler på aspekter er at søge et arbejde og få det, udføre de nødvendige opgaver i jobbet, møde på arbejde til tiden, lede andre arbejdere eller selv blive ledet samt at udføre de nødvendige opgaver alene eller i gruppe.</t>
+    <t>Varetage besk�ftigelse</t>
+  </si>
+  <si>
+    <t>Varetage besk�ftigelse er en handling, der best�r i at deltage i alle aspekter af et arbejde, erhverv eller anden for for besk�ftigelse som ansat p� fuldtid eller deltid eller som selvst�ndig. Eksempler p� aspekter er at s�ge et arbejde og f� det, udf�re de n�dvendige opgaver i jobbet, m�de p� arbejde til tiden, lede andre arbejdere eller selv blive ledet samt at udf�re de n�dvendige opgaver alene eller i gruppe.</t>
   </si>
   <si>
     <t>70443014-3faf-402d-abcf-396bfad32eb9</t>
   </si>
   <si>
-    <t>Varetage økonomi</t>
-  </si>
-  <si>
-    <t>At varetage økonomi er en handling, der består i at varetage opgaver i relation til ens økonomi. Begrebet omfatter varetagelse af basale økonomiske transaktioner som fx at betale for varer eller have overblik over faste udgifter, spare op eller benytte netbank.</t>
+    <t>Varetage �konomi</t>
+  </si>
+  <si>
+    <t>At varetage �konomi er en handling, der best�r i at varetage opgaver i relation til ens �konomi. Begrebet omfatter varetagelse af basale �konomiske transaktioner som fx at betale for varer eller have overblik over faste udgifter, spare op eller benytte netbank.</t>
   </si>
   <si>
     <t>8888edfa-642b-4329-9fe3-a9b180e6d3f4</t>
@@ -1863,16 +1857,16 @@
     <t>Varetage uddannelse</t>
   </si>
   <si>
-    <t>Varetage uddannelse er et struktureret kompetencegivende undervisningsforløb, der kvalificerer modtageren til fortsat uddannelse eller til at udøve et bestemt erhverv eller udføre en bestemt opgave. Begrebet rummer skolegang, erhvervsuddannelse og videregående uddannelse.</t>
+    <t>Varetage uddannelse er et struktureret kompetencegivende undervisningsforl�b, der kvalificerer modtageren til fortsat uddannelse eller til at ud�ve et bestemt erhverv eller udf�re en bestemt opgave. Begrebet rummer skolegang, erhvervsuddannelse og videreg�ende uddannelse.</t>
   </si>
   <si>
     <t>8bef71de-55b5-47fe-b438-18ac769106b3</t>
   </si>
   <si>
-    <t>Håndtere post</t>
-  </si>
-  <si>
-    <t>At håndtere post er en handling, der omfatter at tjekke, om der er fysisk eller digital post og at reagere på modtaget post og følge op herpå.</t>
+    <t>H�ndtere post</t>
+  </si>
+  <si>
+    <t>At h�ndtere post er en handling, der omfatter at tjekke, om der er fysisk eller digital post og at reagere p� modtaget post og f�lge op herp�.</t>
   </si>
   <si>
     <t>fd4b8dd3-5c4b-4257-8c13-ea045617d2f6</t>
@@ -1881,7 +1875,7 @@
     <t>Varetage bolig</t>
   </si>
   <si>
-    <t>At varetage bolig er en handling, der består i at leje eller købe, møblere, indrette og fastholde et hus, en lejlighed eller anden bolig. Fastholdelse af bolig kan eksempelvis være at efterleve en eventuel husorden eller deltage i fællesopgaver. At varetage bolig inkluderer også at flytte ud af en bolig igen.</t>
+    <t>At varetage bolig er en handling, der best�r i at leje eller k�be, m�blere, indrette og fastholde et hus, en lejlighed eller anden bolig. Fastholdelse af bolig kan eksempelvis v�re at efterleve en eventuel husorden eller deltage i f�llesopgaver. At varetage bolig inkluderer ogs� at flytte ud af en bolig igen.</t>
   </si>
   <si>
     <t>eef71492-65f5-4297-aa95-3c3a6866ddef</t>
@@ -1890,16 +1884,16 @@
     <t>Praktiske opgaver</t>
   </si>
   <si>
-    <t>Opgaver i hjemmet er en aktivitet, der vedrører huslige og andre dagligdags handlinger og opgaver i relation til husførelse.</t>
+    <t>Opgaver i hjemmet er en aktivitet, der vedr�rer huslige og andre dagligdags handlinger og opgaver i relation til husf�relse.</t>
   </si>
   <si>
     <t>01770afa-cd17-41fe-a966-b8895e4d55d8</t>
   </si>
   <si>
-    <t>Købe ind</t>
-  </si>
-  <si>
-    <t>Indkøb er en handling, der består i at købe varer og serviceydelser, som er nødvendige i dagligdagen. Begrebet inkluderer også at instruere og vejlede en anden person i at foretage indkøbene, som fx at vælge madvarer, drikke, rengøringsmidler, husholdningsartikler i en forretning, på et marked eller på nettet; sammenligne kvalitet og pris af varerne, forhandle og betale for de valgte varer eller ydelser og transportere varerne.</t>
+    <t>K�be ind</t>
+  </si>
+  <si>
+    <t>Indk�b er en handling, der best�r i at k�be varer og serviceydelser, som er n�dvendige i dagligdagen. Begrebet inkluderer ogs� at instruere og vejlede en anden person i at foretage indk�bene, som fx at v�lge madvarer, drikke, reng�ringsmidler, husholdningsartikler i en forretning, p� et marked eller p� nettet; sammenligne kvalitet og pris af varerne, forhandle og betale for de valgte varer eller ydelser og transportere varerne.</t>
   </si>
   <si>
     <t>4a51d7a7-61e7-48fa-a1d5-9d26337c6c38</t>
@@ -1908,25 +1902,25 @@
     <t>Passe ejendele</t>
   </si>
   <si>
-    <t>Udførsel af praktiske opgaver er en handling, der består i at vedligeholde og reparere personlige ejendele. Handlingen omfatter fx vedligehold og reparation af beklædning, bolig, indbo, køretøjer og hjælpemidler som fx ved at male og tapetsere, reparere møbler og installationer, sikre at køretøjer virker, passe og fodre kæledyr og husdyr samt vande planter.</t>
+    <t>Udf�rsel af praktiske opgaver er en handling, der best�r i at vedligeholde og reparere personlige ejendele. Handlingen omfatter fx vedligehold og reparation af bekl�dning, bolig, indbo, k�ret�jer og hj�lpemidler som fx ved at male og tapetsere, reparere m�bler og installationer, sikre at k�ret�jer virker, passe og fodre k�ledyr og husdyr samt vande planter.</t>
   </si>
   <si>
     <t>58ef570c-1c1e-47be-8bfd-26ed99825762</t>
   </si>
   <si>
-    <t>Udvise hjælp og omsorg for andre</t>
-  </si>
-  <si>
-    <t>At udvise hjælp og omsorg for andre er en handling, der består i at hjælpe medlemmer i husstanden og andre. Begrebet rummer også at hjælpe andre med indlæring, kommunikation, egenomsorg, færden inde og ude samt at være opmærksom på andres velbefindende. Et eksempel på at hjælpe og drage omsorg for andre er varetagelse af forældrerollen.</t>
+    <t>Udvise hj�lp og omsorg for andre</t>
+  </si>
+  <si>
+    <t>At udvise hj�lp og omsorg for andre er en handling, der best�r i at hj�lpe medlemmer i husstanden og andre. Begrebet rummer ogs� at hj�lpe andre med indl�ring, kommunikation, egenomsorg, f�rden inde og ude samt at v�re opm�rksom p� andres velbefindende. Et eksempel p� at hj�lpe og drage omsorg for andre er varetagelse af for�ldrerollen.</t>
   </si>
   <si>
     <t>8f32c948-41c4-49d7-8913-cdeede2e7fe1</t>
   </si>
   <si>
-    <t>Gøre rent</t>
-  </si>
-  <si>
-    <t>At gøre rent er en handling, der består i at holde ens nære fysiske omgivelser rene og hygiejniske. Rengøring kan fx ske ved at støvsuge, vaske gulv og støve af og omfatter typisk oprydning.</t>
+    <t>G�re rent</t>
+  </si>
+  <si>
+    <t>At g�re rent er en handling, der best�r i at holde ens n�re fysiske omgivelser rene og hygiejniske. Reng�ring kan fx ske ved at st�vsuge, vaske gulv og st�ve af og omfatter typisk oprydning.</t>
   </si>
   <si>
     <t>b947f321-7cdb-4b33-9653-f3ff800572b0</t>
@@ -1935,16 +1929,16 @@
     <t>Lave mad</t>
   </si>
   <si>
-    <t>At lave mad er en handling, der består i at planlægge, tilberede og servere enkle eller sammensatte måltider. Handlingen kan fx bestå i at sammensætte et måltid, udvælge appetitlig mad og drikke, fremskaffe ingredienser til tilberedning af måltider; forberede mad og drikke til tilberedning, lave varm og kold mad og drikke samt at servere maden til sig selv eller andre.</t>
+    <t>At lave mad er en handling, der best�r i at planl�gge, tilberede og servere enkle eller sammensatte m�ltider. Handlingen kan fx best� i at sammens�tte et m�ltid, udv�lge appetitlig mad og drikke, fremskaffe ingredienser til tilberedning af m�ltider; forberede mad og drikke til tilberedning, lave varm og kold mad og drikke samt at servere maden til sig selv eller andre.</t>
   </si>
   <si>
     <t>bd67597b-e80f-427f-8cf9-79d01eff91fc</t>
   </si>
   <si>
-    <t>Vaske tøj</t>
-  </si>
-  <si>
-    <t>At vaske tøj er en handling, der består i at holde ens tøj rent ved at vaske det, når det trænger. At vaske tøj omfatter fx at sortere vasketøj, sætte en vask over, tørre tøj og lægge det rene tøj sammen og på plads.</t>
+    <t>Vaske t�j</t>
+  </si>
+  <si>
+    <t>At vaske t�j er en handling, der best�r i at holde ens t�j rent ved at vaske det, n�r det tr�nger. At vaske t�j omfatter fx at sortere vasket�j, s�tte en vask over, t�rre t�j og l�gge det rene t�j sammen og p� plads.</t>
   </si>
   <si>
     <t>a56d59c0-c8fd-468c-85f9-b67f66561b90</t>
@@ -1959,7 +1953,7 @@
     <t>Omgivelser</t>
   </si>
   <si>
-    <t>Omgivelser er en kontekstuel faktor, der omfatter de fysiske, sociale og holdningsmæssige omgivelser, som en person bor og lever i. Omgivelsesfaktorer omfatter hele den omgivende verden, som danner rammen for en persons tilværelse, og som kan hæmme eller fremme personens funktionsevne. Omgivelsesfaktorer omfatter de fysiske omgivelser, de menneskeskabte omgivelser, de kulturelle omgivelser, som fx roller, holdninger og værdier samt sociale omgivelser, som fx politiske forhold, forordninger og formelle regler. På det personlige niveau kan omgivelsesfaktorer fx være hjem, arbejdsplads og skole og den personlige kontakt med fx familie, bekendte, kollegaer og fremmede. På det samfundsmæssige niveau kan omgivelsesfaktorer fx være sociale strukturer som organisationer og offentlige institutioner, tjenester, ydelser, fællesskabsaktiviteter, love og regler samt holdninger og ideologier.</t>
+    <t>Omgivelser er en kontekstuel faktor, der omfatter de fysiske, sociale og holdningsm�ssige omgivelser, som en person bor og lever i. Omgivelsesfaktorer omfatter hele den omgivende verden, som danner rammen for en persons tilv�relse, og som kan h�mme eller fremme personens funktionsevne. Omgivelsesfaktorer omfatter de fysiske omgivelser, de menneskeskabte omgivelser, de kulturelle omgivelser, som fx roller, holdninger og v�rdier samt sociale omgivelser, som fx politiske forhold, forordninger og formelle regler. P� det personlige niveau kan omgivelsesfaktorer fx v�re hjem, arbejdsplads og skole og den personlige kontakt med fx familie, bekendte, kollegaer og fremmede. P� det samfundsm�ssige niveau kan omgivelsesfaktorer fx v�re sociale strukturer som organisationer og offentlige institutioner, tjenester, ydelser, f�llesskabsaktiviteter, love og regler samt holdninger og ideologier.</t>
   </si>
   <si>
     <t>22eef871-6650-426f-8b79-8d40a6c62808</t>
@@ -1968,34 +1962,34 @@
     <t>Holdninger i omgivelserne</t>
   </si>
   <si>
-    <t>Holdninger i omgivelserne er ideologier, værdier, normer, faktuelle og religiøse overbevisninger i en persons omgivelser, der afføder vaner, praksisser og andre synlige konsekvenser, som kan påvirke den enkeltes adfærd og sociale liv på alle planer. En persons omgivelser er fx familie, slægtninge, venner, bekendte, omsorgsgivere, personlige hjælpere, fremmede, sundhedspersonale, andre professionelle, samfundet og sociale normer, konventioner og ideologier.</t>
+    <t>Holdninger i omgivelserne er ideologier, v�rdier, normer, faktuelle og religi�se overbevisninger i en persons omgivelser, der aff�der vaner, praksisser og andre synlige konsekvenser, som kan p�virke den enkeltes adf�rd og sociale liv p� alle planer. En persons omgivelser er fx familie, sl�gtninge, venner, bekendte, omsorgsgivere, personlige hj�lpere, fremmede, sundhedspersonale, andre professionelle, samfundet og sociale normer, konventioner og ideologier.</t>
   </si>
   <si>
     <t>83342ff3-5f2e-4914-b045-e98357685866</t>
   </si>
   <si>
-    <t>Boligområde</t>
-  </si>
-  <si>
-    <t>Et boligområde er en ramme, der udgør en persons nærmiljø, herunder art og betydning af socialgrupper, bebyggelse og infrastruktur i samme geografiske område.</t>
+    <t>Boligomr�de</t>
+  </si>
+  <si>
+    <t>Et boligomr�de er en ramme, der udg�r en persons n�rmilj�, herunder art og betydning af socialgrupper, bebyggelse og infrastruktur i samme geografiske omr�de.</t>
   </si>
   <si>
     <t>df194a84-6e4b-4f14-a194-d8d9d9a1fcad</t>
   </si>
   <si>
-    <t>Personer i netværk</t>
-  </si>
-  <si>
-    <t>Netværk er en eller flere personer, der giver praktisk eller følelsesmæssig støtte, omsorg, beskyttelse, hjælp og kontakt til andre mennesker. Begrebet har fokus på de personer, der udgør et netværk. Begrebet har fokus på de personer, der udgør et netværk. Et netværk kan være privat, professionelt eller bestå af frivilligt organiserede personer. Et professionelt netværk kan fx bestå af skolelærere, sagsbehandlere, personlige hjælpere, sundhedspersonale og andre professionelle. Et privat netværk er familie, slægtninge, venner eller bekendtskaber. Et netværk bestående af frivilligt organiserede personer kan fx udgøres af fodboldtrænere eller spejderlederer. Støtte mv. gives i hjemmet, på arbejdspladsen, i skolen, under leg eller i andre forhold i en persons daglige aktivitet. Et velfungerende netværk er en ressource for en person, hvor i mod et netværk også kan være uhensigtsmæssigt og dermed påvirke en person i negativ retning.</t>
+    <t>Personer i netv�rk</t>
+  </si>
+  <si>
+    <t>Netv�rk er en eller flere personer, der giver praktisk eller f�lelsesm�ssig st�tte, omsorg, beskyttelse, hj�lp og kontakt til andre mennesker. Begrebet har fokus p� de personer, der udg�r et netv�rk. Begrebet har fokus p� de personer, der udg�r et netv�rk. Et netv�rk kan v�re privat, professionelt eller best� af frivilligt organiserede personer. Et professionelt netv�rk kan fx best� af skolel�rere, sagsbehandlere, personlige hj�lpere, sundhedspersonale og andre professionelle. Et privat netv�rk er familie, sl�gtninge, venner eller bekendtskaber. Et netv�rk best�ende af frivilligt organiserede personer kan fx udg�res af fodboldtr�nere eller spejderlederer. St�tte mv. gives i hjemmet, p� arbejdspladsen, i skolen, under leg eller i andre forhold i en persons daglige aktivitet. Et velfungerende netv�rk er en ressource for en person, hvor i mod et netv�rk ogs� kan v�re uhensigtsm�ssigt og dermed p�virke en person i negativ retning.</t>
   </si>
   <si>
     <t>b5257b2d-0fbf-4d00-bf38-d298c8568116</t>
   </si>
   <si>
-    <t>Måltype</t>
-  </si>
-  <si>
-    <t>Måltype er en type af mål, der præciserer forventningen til den bevægelse, der er frem mod den ønskede tilstand, som målet er udtryk for. Måltypen bestemmes ud fra en vurdering af en persons mulighed for at udvikle, fastholde eller begrænse tab af funktionsevne. Måltypen siger ikke noget om, hvilket specifikt funktionsevneniveau personen vurderes at opnå. Måltype kan fx anvendes i forventningsafstemning mellem borger, myndighed og udfører i forbindelse med koordinering af den sociale indsats.</t>
+    <t>M�ltype</t>
+  </si>
+  <si>
+    <t>M�ltype er en type af m�l, der pr�ciserer forventningen til den bev�gelse, der er frem mod den �nskede tilstand, som m�let er udtryk for. M�ltypen bestemmes ud fra en vurdering af en persons mulighed for at udvikle, fastholde eller begr�nse tab af funktionsevne. M�ltypen siger ikke noget om, hvilket specifikt funktionsevneniveau personen vurderes at opn�. M�ltype kan fx anvendes i forventningsafstemning mellem borger, myndighed og udf�rer i forbindelse med koordinering af den sociale indsats.</t>
   </si>
   <si>
     <t>10752a63-00b4-4958-b7f4-9f3a18f74266</t>
@@ -2004,7 +1998,7 @@
     <t>Fastholde funktionsevne</t>
   </si>
   <si>
-    <t>Fastholde funktionsevne er en måltype, der er udtryk for en forventning om, at borgeren støttes i at fastholde sin funktionsevne i relation til målet. Fastholde funktionsevne i relation til målet indebærer, at borgeren fortsat kan udføre de samme aktiviteter og med samme hyppighed som hidtil.</t>
+    <t>Fastholde funktionsevne er en m�ltype, der er udtryk for en forventning om, at borgeren st�ttes i at fastholde sin funktionsevne i relation til m�let. Fastholde funktionsevne i relation til m�let indeb�rer, at borgeren fortsat kan udf�re de samme aktiviteter og med samme hyppighed som hidtil.</t>
   </si>
   <si>
     <t>d41c8072-52f8-42b5-9375-ddbea454d27f</t>
@@ -2013,16 +2007,16 @@
     <t>Udvikle funktionsevne</t>
   </si>
   <si>
-    <t>Udvikle funktionsevne er en måltype, der er udtryk for en forventning om, at borgeren støttes i at udvikle sin funktionsevne i relation til målet. Udvikle funktionsevne i relation til målet indebærer, at borgeren opnår at kunne udføre flere aktiviteter oftere end hidtil.</t>
+    <t>Udvikle funktionsevne er en m�ltype, der er udtryk for en forventning om, at borgeren st�ttes i at udvikle sin funktionsevne i relation til m�let. Udvikle funktionsevne i relation til m�let indeb�rer, at borgeren opn�r at kunne udf�re flere aktiviteter oftere end hidtil.</t>
   </si>
   <si>
     <t>e47c22bd-d88d-48ab-882b-419923e1f44e</t>
   </si>
   <si>
-    <t>Begrænse tab af funktionsevne</t>
-  </si>
-  <si>
-    <t>Begrænse tab af funktionsevne er en måltype, der er udtryk for en forventning om, at der vil være et tab af funktionsevne i relation til målet, men at borgeren støttes i at begrænse sit tab af funktionsevne i relation til målet mest muligt. Begrænse tab af funktionsevne i relation til målet indebærer, at borgeren i mindst mulig grad mister evnen til at udføre aktiviteter i samme omfang og med samme hyppighed som hidtil.</t>
+    <t>Begr�nse tab af funktionsevne</t>
+  </si>
+  <si>
+    <t>Begr�nse tab af funktionsevne er en m�ltype, der er udtryk for en forventning om, at der vil v�re et tab af funktionsevne i relation til m�let, men at borgeren st�ttes i at begr�nse sit tab af funktionsevne i relation til m�let mest muligt. Begr�nse tab af funktionsevne i relation til m�let indeb�rer, at borgeren i mindst mulig grad mister evnen til at udf�re aktiviteter i samme omfang og med samme hyppighed som hidtil.</t>
   </si>
   <si>
     <t>e89d317c-4657-4970-b614-ada2ed220595</t>
@@ -2049,7 +2043,7 @@
     <t>832ae90b-23b5-4063-80aa-0b81bdce680e</t>
   </si>
   <si>
-    <t>Fuldstændig nedsat funktionsevne</t>
+    <t>Fuldst�ndig nedsat funktionsevne</t>
   </si>
   <si>
     <t>b508ff66-6326-4862-a6d7-7bbf184c9823</t>
@@ -2061,7 +2055,7 @@
     <t>cae545f5-2813-4d79-98fc-0a7d770af3cd</t>
   </si>
   <si>
-    <t>Svært nedsat funktionsevne</t>
+    <t>Sv�rt nedsat funktionsevne</t>
   </si>
 </sst>
 </file>
@@ -4183,7 +4177,7 @@
         <v>419</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130">
@@ -4191,13 +4185,13 @@
         <v>44</v>
       </c>
       <c r="B130" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C130" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="D130" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131">
@@ -4205,13 +4199,13 @@
         <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C131" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="D131" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="D131" t="s" s="2">
-        <v>425</v>
       </c>
     </row>
     <row r="132">
@@ -4219,13 +4213,13 @@
         <v>52</v>
       </c>
       <c r="B132" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C132" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="D132" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="D132" t="s" s="2">
-        <v>428</v>
       </c>
     </row>
     <row r="133">
@@ -4233,13 +4227,13 @@
         <v>52</v>
       </c>
       <c r="B133" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C133" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="D133" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="D133" t="s" s="2">
-        <v>431</v>
       </c>
     </row>
     <row r="134">
@@ -4247,13 +4241,13 @@
         <v>52</v>
       </c>
       <c r="B134" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C134" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="D134" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="D134" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="135">
@@ -4261,13 +4255,13 @@
         <v>52</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="D135" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="136">
@@ -4275,13 +4269,13 @@
         <v>52</v>
       </c>
       <c r="B136" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C136" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="D136" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="D136" t="s" s="2">
-        <v>440</v>
       </c>
     </row>
     <row r="137">
@@ -4289,13 +4283,13 @@
         <v>52</v>
       </c>
       <c r="B137" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C137" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="D137" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="138">
@@ -4303,13 +4297,13 @@
         <v>52</v>
       </c>
       <c r="B138" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C138" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="D138" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="139">
@@ -4317,13 +4311,13 @@
         <v>52</v>
       </c>
       <c r="B139" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C139" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="D139" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="D139" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="140">
@@ -4331,13 +4325,13 @@
         <v>52</v>
       </c>
       <c r="B140" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C140" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="D140" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="D140" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="141">
@@ -4345,13 +4339,13 @@
         <v>52</v>
       </c>
       <c r="B141" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C141" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="D141" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="D141" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="142">
@@ -4359,13 +4353,13 @@
         <v>52</v>
       </c>
       <c r="B142" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C142" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="D142" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="D142" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="143">
@@ -4373,13 +4367,13 @@
         <v>52</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="D143" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="D143" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="144">
@@ -4387,13 +4381,13 @@
         <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C144" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="D144" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="D144" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="145">
@@ -4401,13 +4395,13 @@
         <v>52</v>
       </c>
       <c r="B145" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="D145" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="D145" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="146">
@@ -4415,13 +4409,13 @@
         <v>52</v>
       </c>
       <c r="B146" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C146" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="D146" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="147">
@@ -4429,13 +4423,13 @@
         <v>52</v>
       </c>
       <c r="B147" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C147" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="D147" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="D147" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="148">
@@ -4443,13 +4437,13 @@
         <v>52</v>
       </c>
       <c r="B148" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C148" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="D148" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="D148" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="149">
@@ -4457,13 +4451,13 @@
         <v>52</v>
       </c>
       <c r="B149" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C149" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="D149" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="D149" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="150">
@@ -4471,13 +4465,13 @@
         <v>52</v>
       </c>
       <c r="B150" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C150" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="D150" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="D150" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="151">
@@ -4485,13 +4479,13 @@
         <v>52</v>
       </c>
       <c r="B151" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C151" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="D151" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="D151" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="152">
@@ -4499,13 +4493,13 @@
         <v>52</v>
       </c>
       <c r="B152" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C152" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="D152" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="D152" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="153">
@@ -4513,13 +4507,13 @@
         <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C153" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="D153" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="D153" t="s" s="2">
-        <v>491</v>
       </c>
     </row>
     <row r="154">
@@ -4527,13 +4521,13 @@
         <v>52</v>
       </c>
       <c r="B154" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C154" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="D154" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="D154" t="s" s="2">
-        <v>494</v>
       </c>
     </row>
     <row r="155">
@@ -4541,13 +4535,13 @@
         <v>52</v>
       </c>
       <c r="B155" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C155" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="D155" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="D155" t="s" s="2">
-        <v>497</v>
       </c>
     </row>
     <row r="156">
@@ -4555,13 +4549,13 @@
         <v>52</v>
       </c>
       <c r="B156" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C156" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="D156" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="D156" t="s" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="157">
@@ -4569,13 +4563,13 @@
         <v>52</v>
       </c>
       <c r="B157" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C157" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="D157" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="D157" t="s" s="2">
-        <v>503</v>
       </c>
     </row>
     <row r="158">
@@ -4583,13 +4577,13 @@
         <v>52</v>
       </c>
       <c r="B158" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C158" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="D158" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="D158" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="159">
@@ -4597,13 +4591,13 @@
         <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C159" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="D159" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="D159" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
     <row r="160">
@@ -4611,13 +4605,13 @@
         <v>52</v>
       </c>
       <c r="B160" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C160" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="D160" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="D160" t="s" s="2">
-        <v>512</v>
       </c>
     </row>
     <row r="161">
@@ -4625,13 +4619,13 @@
         <v>52</v>
       </c>
       <c r="B161" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C161" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="D161" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="D161" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="162">
@@ -4639,13 +4633,13 @@
         <v>52</v>
       </c>
       <c r="B162" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C162" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="D162" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="D162" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="163">
@@ -4653,13 +4647,13 @@
         <v>52</v>
       </c>
       <c r="B163" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C163" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="D163" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="D163" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="164">
@@ -4667,7 +4661,7 @@
         <v>52</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>268</v>
@@ -4681,13 +4675,13 @@
         <v>52</v>
       </c>
       <c r="B165" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C165" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="D165" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="D165" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="166">
@@ -4695,7 +4689,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>226</v>
@@ -4709,13 +4703,13 @@
         <v>52</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="D167" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="D167" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="168">
@@ -4723,13 +4717,13 @@
         <v>44</v>
       </c>
       <c r="B168" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C168" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="D168" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169">
@@ -4737,13 +4731,13 @@
         <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="D169" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="D169" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="170">
@@ -4751,13 +4745,13 @@
         <v>52</v>
       </c>
       <c r="B170" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C170" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="D170" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="D170" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="171">
@@ -4765,13 +4759,13 @@
         <v>52</v>
       </c>
       <c r="B171" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C171" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="D171" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="D171" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="172">
@@ -4779,13 +4773,13 @@
         <v>52</v>
       </c>
       <c r="B172" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C172" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="D172" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="D172" t="s" s="2">
-        <v>543</v>
       </c>
     </row>
     <row r="173">
@@ -4793,13 +4787,13 @@
         <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C173" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="D173" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="D173" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="174">
@@ -4807,13 +4801,13 @@
         <v>52</v>
       </c>
       <c r="B174" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C174" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="D174" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="D174" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="175">
@@ -4821,13 +4815,13 @@
         <v>52</v>
       </c>
       <c r="B175" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C175" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="D175" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="D175" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="176">
@@ -4835,13 +4829,13 @@
         <v>52</v>
       </c>
       <c r="B176" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C176" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="D176" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="D176" t="s" s="2">
-        <v>555</v>
       </c>
     </row>
     <row r="177">
@@ -4849,13 +4843,13 @@
         <v>52</v>
       </c>
       <c r="B177" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C177" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="D177" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="D177" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="178">
@@ -4863,13 +4857,13 @@
         <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C178" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="D178" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="D178" t="s" s="2">
-        <v>561</v>
       </c>
     </row>
     <row r="179">
@@ -4877,13 +4871,13 @@
         <v>52</v>
       </c>
       <c r="B179" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C179" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="D179" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="D179" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="180">
@@ -4891,13 +4885,13 @@
         <v>52</v>
       </c>
       <c r="B180" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C180" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="D180" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="D180" t="s" s="2">
-        <v>567</v>
       </c>
     </row>
     <row r="181">
@@ -4905,13 +4899,13 @@
         <v>52</v>
       </c>
       <c r="B181" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C181" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="D181" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="D181" t="s" s="2">
-        <v>570</v>
       </c>
     </row>
     <row r="182">
@@ -4919,13 +4913,13 @@
         <v>52</v>
       </c>
       <c r="B182" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C182" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="D182" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="D182" t="s" s="2">
-        <v>573</v>
       </c>
     </row>
     <row r="183">
@@ -4933,13 +4927,13 @@
         <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C183" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="D183" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="D183" t="s" s="2">
-        <v>576</v>
       </c>
     </row>
     <row r="184">
@@ -4947,13 +4941,13 @@
         <v>52</v>
       </c>
       <c r="B184" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C184" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="D184" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="D184" t="s" s="2">
-        <v>579</v>
       </c>
     </row>
     <row r="185">
@@ -4961,13 +4955,13 @@
         <v>52</v>
       </c>
       <c r="B185" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C185" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="D185" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="D185" t="s" s="2">
-        <v>582</v>
       </c>
     </row>
     <row r="186">
@@ -4975,13 +4969,13 @@
         <v>52</v>
       </c>
       <c r="B186" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C186" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="D186" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>585</v>
       </c>
     </row>
     <row r="187">
@@ -4989,13 +4983,13 @@
         <v>52</v>
       </c>
       <c r="B187" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C187" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="D187" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="D187" t="s" s="2">
-        <v>588</v>
       </c>
     </row>
     <row r="188">
@@ -5003,13 +4997,13 @@
         <v>52</v>
       </c>
       <c r="B188" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C188" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="D188" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="D188" t="s" s="2">
-        <v>591</v>
       </c>
     </row>
     <row r="189">
@@ -5017,13 +5011,13 @@
         <v>52</v>
       </c>
       <c r="B189" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C189" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="D189" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="D189" t="s" s="2">
-        <v>594</v>
       </c>
     </row>
     <row r="190">
@@ -5031,13 +5025,13 @@
         <v>52</v>
       </c>
       <c r="B190" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C190" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="D190" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="D190" t="s" s="2">
-        <v>597</v>
       </c>
     </row>
     <row r="191">
@@ -5045,13 +5039,13 @@
         <v>52</v>
       </c>
       <c r="B191" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C191" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="D191" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="D191" t="s" s="2">
-        <v>600</v>
       </c>
     </row>
     <row r="192">
@@ -5059,13 +5053,13 @@
         <v>52</v>
       </c>
       <c r="B192" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C192" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="D192" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="D192" t="s" s="2">
-        <v>603</v>
       </c>
     </row>
     <row r="193">
@@ -5073,13 +5067,13 @@
         <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C193" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="D193" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="D193" t="s" s="2">
-        <v>606</v>
       </c>
     </row>
     <row r="194">
@@ -5087,13 +5081,13 @@
         <v>52</v>
       </c>
       <c r="B194" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C194" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="D194" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="D194" t="s" s="2">
-        <v>609</v>
       </c>
     </row>
     <row r="195">
@@ -5101,13 +5095,13 @@
         <v>52</v>
       </c>
       <c r="B195" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C195" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="D195" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="D195" t="s" s="2">
-        <v>612</v>
       </c>
     </row>
     <row r="196">
@@ -5115,13 +5109,13 @@
         <v>52</v>
       </c>
       <c r="B196" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C196" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="D196" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="D196" t="s" s="2">
-        <v>615</v>
       </c>
     </row>
     <row r="197">
@@ -5129,13 +5123,13 @@
         <v>52</v>
       </c>
       <c r="B197" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C197" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="D197" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="D197" t="s" s="2">
-        <v>618</v>
       </c>
     </row>
     <row r="198">
@@ -5143,13 +5137,13 @@
         <v>52</v>
       </c>
       <c r="B198" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C198" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="D198" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="D198" t="s" s="2">
-        <v>621</v>
       </c>
     </row>
     <row r="199">
@@ -5157,13 +5151,13 @@
         <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C199" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="D199" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="D199" t="s" s="2">
-        <v>624</v>
       </c>
     </row>
     <row r="200">
@@ -5171,13 +5165,13 @@
         <v>52</v>
       </c>
       <c r="B200" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C200" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="D200" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="D200" t="s" s="2">
-        <v>627</v>
       </c>
     </row>
     <row r="201">
@@ -5185,13 +5179,13 @@
         <v>52</v>
       </c>
       <c r="B201" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C201" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="D201" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="D201" t="s" s="2">
-        <v>630</v>
       </c>
     </row>
     <row r="202">
@@ -5199,13 +5193,13 @@
         <v>52</v>
       </c>
       <c r="B202" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C202" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="D202" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="D202" t="s" s="2">
-        <v>633</v>
       </c>
     </row>
     <row r="203">
@@ -5213,13 +5207,13 @@
         <v>52</v>
       </c>
       <c r="B203" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C203" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="D203" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="D203" t="s" s="2">
-        <v>636</v>
       </c>
     </row>
     <row r="204">
@@ -5227,13 +5221,13 @@
         <v>52</v>
       </c>
       <c r="B204" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C204" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="D204" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="D204" t="s" s="2">
-        <v>639</v>
       </c>
     </row>
     <row r="205">
@@ -5241,13 +5235,13 @@
         <v>52</v>
       </c>
       <c r="B205" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C205" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="D205" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="D205" t="s" s="2">
-        <v>642</v>
       </c>
     </row>
     <row r="206">
@@ -5255,13 +5249,13 @@
         <v>44</v>
       </c>
       <c r="B206" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C206" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="D206" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="207">
@@ -5269,13 +5263,13 @@
         <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C207" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="D207" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="D207" t="s" s="2">
-        <v>647</v>
       </c>
     </row>
     <row r="208">
@@ -5283,13 +5277,13 @@
         <v>52</v>
       </c>
       <c r="B208" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C208" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="D208" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="D208" t="s" s="2">
-        <v>650</v>
       </c>
     </row>
     <row r="209">
@@ -5297,13 +5291,13 @@
         <v>52</v>
       </c>
       <c r="B209" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C209" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="D209" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="D209" t="s" s="2">
-        <v>653</v>
       </c>
     </row>
     <row r="210">
@@ -5311,13 +5305,13 @@
         <v>52</v>
       </c>
       <c r="B210" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C210" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="D210" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="D210" t="s" s="2">
-        <v>656</v>
       </c>
     </row>
     <row r="211">
@@ -5325,13 +5319,13 @@
         <v>40</v>
       </c>
       <c r="B211" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C211" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="D211" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="D211" t="s" s="2">
-        <v>659</v>
       </c>
     </row>
     <row r="212">
@@ -5339,13 +5333,13 @@
         <v>44</v>
       </c>
       <c r="B212" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C212" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="D212" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="D212" t="s" s="2">
-        <v>662</v>
       </c>
     </row>
     <row r="213">
@@ -5353,13 +5347,13 @@
         <v>44</v>
       </c>
       <c r="B213" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C213" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="D213" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="D213" t="s" s="2">
-        <v>665</v>
       </c>
     </row>
     <row r="214">
@@ -5367,13 +5361,13 @@
         <v>44</v>
       </c>
       <c r="B214" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C214" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="D214" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="D214" t="s" s="2">
-        <v>668</v>
       </c>
     </row>
     <row r="215">
@@ -5381,13 +5375,13 @@
         <v>40</v>
       </c>
       <c r="B215" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C215" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>670</v>
-      </c>
       <c r="D215" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="216">
@@ -5395,7 +5389,7 @@
         <v>44</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C216" t="s" s="2">
         <v>399</v>
@@ -5409,13 +5403,13 @@
         <v>44</v>
       </c>
       <c r="B217" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C217" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="D217" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="218">
@@ -5423,13 +5417,13 @@
         <v>44</v>
       </c>
       <c r="B218" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C218" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>675</v>
-      </c>
       <c r="D218" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="219">
@@ -5437,13 +5431,13 @@
         <v>44</v>
       </c>
       <c r="B219" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="C219" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="D219" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="220">
@@ -5451,13 +5445,13 @@
         <v>44</v>
       </c>
       <c r="B220" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C220" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>679</v>
-      </c>
       <c r="D220" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="221">
@@ -5465,13 +5459,13 @@
         <v>44</v>
       </c>
       <c r="B221" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C221" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="D221" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="682">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>urn:oid#urn:oid:1.2.208.176.2.22</t>
+    <t>id: urn:oid:1.2.208.176.2.22</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T22:25:19+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -141,10 +141,10 @@
     <t>67b4ac73-dedf-4337-ad56-476b0a55ab03</t>
   </si>
   <si>
-    <t>Social indsats</t>
-  </si>
-  <si>
-    <t>En social indsats, er en indsats, der best�r af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud. En social indsats skal forebygge eller tilgodese behov, som f�lger af en nedsat funktionsevne. Indsatsen gives med henblik p� at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilv�relse eller forbedre livskvaliteten. I generelle vendinger er det tale om en social indsats, n�r 'nogen' leverer 'noget' til 'en modtager' med det beskrevne form�l. Mere konkret vil en social indsats best� af en eller flere specifikke ydelser, som typisk leveres til �n borger af �t tilbud. Det kan fx v�re n�r et ambulant behandlingstilbud til voksne leverer misbrugsbehandling til en stofmisbruger eller n�r et socialp�dagogisk opholdssted leverer socialp�dagogisk behandling til et barn. Der vil typisk v�re en eller flere bestemte faglige tilgange til leveringen af den sociale indsats, der kan leveres efter en eller flere metoder. En social indsats vil almindeligvis...</t>
+    <t>Social indsats [Servicelov]</t>
+  </si>
+  <si>
+    <t>Indsats, der består af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud, og som skal forebygge eller tilgodese behov, som følger af en nedsat funktionsevne, og som gives med henblik på at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilværelse eller forbedre livskvaliteten.</t>
   </si>
   <si>
     <t>2</t>
@@ -156,7 +156,7 @@
     <t>Ydelse</t>
   </si>
   <si>
-    <t>En ydelse er en tjeneste, genstand eller et bel�b, der gives eller modtages. En ydelse p� socialomr�det kan i visse tilf�lde ogs� best� af en sanktion, som fx for�ldrep�l�g.</t>
+    <t>Tjeneste, genstand eller beløb, der gives eller modtages</t>
   </si>
   <si>
     <t>3</t>
@@ -168,7 +168,7 @@
     <t>Afklaring</t>
   </si>
   <si>
-    <t>Afklaring er en ydelse, der har til form�l at afd�kke en borgers situation.</t>
+    <t>Ydelse, der har til formål at afdække en persons situation</t>
   </si>
   <si>
     <t>4</t>
@@ -177,10 +177,10 @@
     <t>35b593cf-724f-4058-9f31-fe1b3e8df124</t>
   </si>
   <si>
-    <t>P�dagogisk udredning</t>
-  </si>
-  <si>
-    <t>P�dagogisk udredning er en aktivitet, hvor en leverand�r afd�kker en borgers funktionsevne i relation til daglige aktiviteter. Et centralt aspekt i afd�kningen af funktionsevnen er borgerens mestringsevne, som har betydning for, hvordan man begriber, h�ndterer og handler i forskellige situationer. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Pædagogisk udredning</t>
+  </si>
+  <si>
+    <t>Udredning, hvor en leverandør afdækker en persons funktionsevne i relation til daglige aktiviteter</t>
   </si>
   <si>
     <t>a1eaa022-9e5c-493c-83d3-7cc40b9df9e9</t>
@@ -189,16 +189,16 @@
     <t>Ophold</t>
   </si>
   <si>
-    <t>Ophold er en ydelse, der har til form�l at huse en borger. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilf�lde �n ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et till�g til disse andre ydelser. Det prim�re fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan v�re egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask.</t>
+    <t>Ydelse, der har til formål at huse en person.</t>
   </si>
   <si>
     <t>5af56051-8413-4115-aaa2-83a0767e1137</t>
   </si>
   <si>
-    <t>L�ngerevarende ophold</t>
-  </si>
-  <si>
-    <t>L�ngerevarende ophold er en ydelse, der har til form�l at huse en borger, og som er tilkendt for en ikke-midlertidig periode. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilf�lde �n ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et till�g til disse andre ydelser. Det prim�re fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan v�re egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf: Serviceloven � 108, Almenboligloven � 54, Friplejeboligloven, �ldreboligloven m.fl.</t>
+    <t>Længerevarende ophold</t>
+  </si>
+  <si>
+    <t>Ophold, der er tilkendt for en ikke-midlertidig periode.</t>
   </si>
   <si>
     <t>80aa8ea7-4ad8-405f-876a-4c0f89fde06a</t>
@@ -207,7 +207,7 @@
     <t>Midlertidigt ophold</t>
   </si>
   <si>
-    <t>Midlertidigt ophold er en ydelse, der har til form�l at huse en borger, og som tilkendes midlertidigt. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilf�lde �n ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et till�g til disse andre ydelser. Det prim�re fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan v�re egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf p� B�rn- og ungeomr�det: Serviceloven �� 52, 58, 66. Vejledende visitationsparagraf p� Voksen-omr�det: Serviceloven �� 107, 109, 110.</t>
+    <t>Ophold, der er tilkendt midlertidigt.</t>
   </si>
   <si>
     <t>a81a3fa9-6601-4d1e-a11e-f7444dfd3828</t>
@@ -216,16 +216,16 @@
     <t>Akut ophold</t>
   </si>
   <si>
-    <t>Akut ophold leveres til en persone med et pludseligt opst�et behov for husning. Akut ophold leveres typisk p� en type af botilbud eller andeet overnatningssted fx vandrehjem. Akut ophold kan v�re �n af flere ydelser, der leveres til personen. Det kan v�re egenbetaling for personens ophold.</t>
+    <t>Akut ophold leveres til en persone med et pludseligt opstået behov for husning. Akut ophold leveres typisk på en type af botilbud eller andeet overnatningssted fx vandrehjem. Akut ophold kan være én af flere ydelser, der leveres til personen. Det kan være egenbetaling for personens ophold.</t>
   </si>
   <si>
     <t>a2256d86-1cf8-4da5-be49-1f49f4335ecb</t>
   </si>
   <si>
-    <t>Aktivitet og samv�r</t>
-  </si>
-  <si>
-    <t>Aktivitet- og samv�r er en ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til form�l at fremme socialt samv�r eller at tilbyde et milj�skift. I aktivitet og samv�r kan der ogs� indg� individuel vejledning, st�tte, omsorg og hj�lp til at deltage i aktiviteterne. Lovhjemmel: Serviceloven � 104.</t>
+    <t>Aktivitet og samvær</t>
+  </si>
+  <si>
+    <t>Ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til formål at fremme socialt samvær eller tilbyde et miljøskift.</t>
   </si>
   <si>
     <t>299af83f-586c-4c17-8af6-c8c47a847d6d</t>
@@ -234,7 +234,7 @@
     <t>Sansestimulerende aktivitet</t>
   </si>
   <si>
-    <t>Sansestimulerende aktiviteter er aktivitet og samv�r, hvor en borger f�r stimuleret sine sanser med henblik p� evnen til at kunne sortere, organisere og bearbejde sanseindtryk. Sansestimulerende aktiviteter kan fx v�re massage, gyngeture, kuglebad og -dyne, sansehave og brug af musik-, lyd- og lysstimuli. Visitationsparagraf: Serviceloven � 104.</t>
+    <t>Aktivitet og samvær, hvor en person får stimuleret sine sanser med henblik på evnen til at kunne sortere, organisere og bearbejde sanseindtryk.</t>
   </si>
   <si>
     <t>2c1944be-fe87-4c42-b08e-9cc075c9ef18</t>
@@ -243,7 +243,7 @@
     <t>Oplevelsesaktivitet</t>
   </si>
   <si>
-    <t>Oplevelsesaktiviteter er aktivitet og samv�r, hvor en borger har individuelle oplevelser eller oplevelser sammen med andre borgere eller personale. Oplevelser kan fx v�re natur- og kulturoplevelser. Visitationsparagraf: Serviceloven � 104.</t>
+    <t>Aktivitet og samvær, hvor en person har individuelle oplevelser eller oplevelser sammen med andre personer.</t>
   </si>
   <si>
     <t>66e23d66-1c5f-4070-bed1-8827cc863dcd</t>
@@ -252,7 +252,7 @@
     <t>Fysisk aktivitet</t>
   </si>
   <si>
-    <t>Fysiske aktiviteter er aktivitet og samv�r, der gennem fysiske bev�gelser giver en borger mulighed for at bruge sin krop. Det omfatter fx idr�ts- og motionsaktiviteter og forskellige former for bev�gelse, hvor samv�ret kan v�re i centrum. Visitationsparagraf: Serviceloven � 104.</t>
+    <t>Aktivitet og samvær, der gennem fysiske bevægelser giver en person mulighed for at bruge sin krop.</t>
   </si>
   <si>
     <t>7e419926-bb04-4829-99c9-95ea20403c2c</t>
@@ -261,7 +261,7 @@
     <t>Social aktivitet</t>
   </si>
   <si>
-    <t>Social aktivitet er aktivitet og samv�r, som ved at f� en borger ind i et f�llesskab med andre, forebygger eller bryder med social isolation og vedligeholder de sociale relationer. Social aktivitet kan fx v�re at spise, spille spil eller h�re musik sammen med andre. Visitationsparagraf: Serviceloven � 104.</t>
+    <t>Aktivitet og samvær, som ved at få en person ind i et fællesskab med andre forebygger eller bryder med social isolation og vedligeholder de sociale relationer.</t>
   </si>
   <si>
     <t>be5d5058-ef06-42a9-b894-51e44513e717</t>
@@ -270,7 +270,7 @@
     <t>Kreativ aktivitet</t>
   </si>
   <si>
-    <t>Kreative aktiviteter er aktivitet og samv�r, hvor en borger kan udfolde sig kreativt. Aktiviteterne kan foretages alene eller sammen med andre borgere eller personale. Kreative aktiviteter kan fx v�re madlavning; musik, sang og drama; h�ndarbejde; maleri eller v�rkstedsaktiviteter. Visitationsparagraf: Serviceloven � 104.</t>
+    <t>Aktivitet og samvær, hvor en person kan udfolde sig kreativt.</t>
   </si>
   <si>
     <t>f25674bf-3162-45c3-bde4-6d542bf9629b</t>
@@ -279,16 +279,16 @@
     <t>Kompetenceudviklende aktivitet</t>
   </si>
   <si>
-    <t>Kompetenceudviklende aktiviteter er aktivitet og samv�r, hvor en borger eller gruppe af borgere undervises i bestemte f�rdigheder eller kompetencer. Kompetenceudviklende aktiviteter kan s�ledes b�de sigte p� at opn� helt konkrete f�rdigheder fx i forhold til brug af IT og mobiltelefon eller p� at lave mad, eller p� mere brede kompetencel�ft, der sigter mod evnen til at varetage egen sundhed og livsf�relse. Visitationsparagraf: Serviceloven � 104.</t>
+    <t>Aktivitet og samvær, hvor en person eller gruppe af personer undervises i bestemte færdigheder eller kompetencer.</t>
   </si>
   <si>
     <t>d8505298-6ea5-4ca8-923d-6e4451cc9a48</t>
   </si>
   <si>
-    <t>Beskyttet besk�ftigelse</t>
-  </si>
-  <si>
-    <t>Beskyttet besk�ftigelse er en ydelse, der gennem arbejdslignende, l�nnede aktiviteter har til form�l at afd�kke, oparbejde, udvikle eller bevare en borgers arbejdsevne og besk�ftigelsesrelevante kompetencer. I beskyttet besk�ftigelse kan der ogs� indg� individuel vejledning, st�tte og hj�lp til at deltage i aktiviteterne. Beskyttet besk�ftigelse er rettet mod borgere, der ikke kan opn� eller fastholde besk�ftigelse p� normale vilk�r p� arbejdsmarkedet, og som ikke kan f� indsatser efter anden lovgivning. Lovhjemmel: Serviceloven � 103.</t>
+    <t>Beskyttet beskæftigelse</t>
+  </si>
+  <si>
+    <t>Ydelse, der gennem arbejdslignende, lønnede aktiviteter har til formål at afdække, oparbejde, udvikle eller bevare en persons arbejdsevne og beskæftigelsesrelevante kompetencer.</t>
   </si>
   <si>
     <t>55b77d7c-afce-4269-9232-7731ab1ef4fc</t>
@@ -297,43 +297,43 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Service og tjenesteydelser er beskyttet besk�ftigelse, der er centreret omkring udf�relse af servicerende, underst�ttende arbejdsfunktioner. I en service og tjenesteydelse vil der ofte indg� kontakt med andre, hvorfor der typisk vil v�re fokus p� at tr�ne dette. Eksempler p� service og tjenesteydelser er kantine- og caf�drift, pedel- og reng�ringsopgaver samt kontor- og piccolineopgaver, butik- og kundebetjening og vedligeholdelse af gr�nne omr�der. Visitationsparagraf: Serviceloven � 103.</t>
+    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af servicerende, understøttende arbejdsfunktioner.</t>
   </si>
   <si>
     <t>c429b7a9-5085-472b-b118-a21ca90f769f</t>
   </si>
   <si>
-    <t>Praktikforl�b</t>
-  </si>
-  <si>
-    <t>Praktikforl�b er beskyttet besk�ftigelse, der har til form�l, at en borger kan afpr�ve ressourcer og kompetencer i forhold til et specifikt arbejdsomr�de eller en given arbejdsplads i en afgr�nset periode. Praktikforl�b kan ogs� foreg� i en ekstern virksomhed, fx en dagligvareforretning eller en produktionsvirksomhed. Visitationsparagraf: Serviceloven � 103.</t>
+    <t>Praktikforløb</t>
+  </si>
+  <si>
+    <t>Beskyttet beskæftigelse, der har til formål, at en person kan afprøve ressourcer og kompetencer i forhold til et specifikt arbejdsområde eller en given arbejdsplads i en afgrænset periode.</t>
   </si>
   <si>
     <t>fb3d8722-90e0-4a80-ba65-490617ffeb0f</t>
   </si>
   <si>
-    <t>Produktion og v�rksted</t>
-  </si>
-  <si>
-    <t>Produktion og v�rksted er beskyttet besk�ftigelse, der er centreret omkring udf�relse af enkle, afgr�nsede arbejdsopgaver som led i en samlet produktion af konkrete produkter. De konkrete arbejdsopgaver kan fx v�re fremstilling af produkter, herunder fx kunsth�ndv�rk, opt�ndingsbr�nde, gr�ntsager, produktion af avis og medier. Opgaverne kan eksempelvis omfatte montering, sortering, opt�lling og pakning og kontrol af produkter. Visitationsparagraf: Serviceloven � 103.</t>
+    <t>Produktion og værksted</t>
+  </si>
+  <si>
+    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af enkle, afgrænsede arbejdsopgaver som led i en samlet produktion af konkrete produkter.</t>
   </si>
   <si>
     <t>1f0ff82b-3243-422f-9651-1d00fd2dcd61</t>
   </si>
   <si>
-    <t>Socialp�dagogisk st�tte</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte er en ydelse, der gennem motivation, vejledning og st�tte har til form�l at udvikle eller fastholde en borgers funktionsevne og muligheder for selvst�ndighed og selvbestemmelse i forhold til borgerens situation. Socialp�dagogisk st�tte retter sig blandt andet mod udvikling og vedligeholdelse af f�rdigheder i forbindelse med almindelig daglig livsf�relse, herunder at skabe struktur i hverdagen og underst�tte deltagelse i samfundets almene f�llesskaber, eksempelvis uddannelse, besk�ftigelse og foreningsliv. Socialp�dagogisk st�tte kan ogs� ydes med det form�l at begr�nse tabet af funktionsevne og at yde kompensation, omsorg og pleje. Lovhjemmel: Serviceloven � 85.</t>
+    <t>Socialpædagogisk støtte</t>
+  </si>
+  <si>
+    <t>Ydelse, der gennem motivation, vejledning og støtte har til formål at udvikle eller fastholde en persons funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til personens situation.</t>
   </si>
   <si>
     <t>309b778e-52ed-448a-91ae-0650a6cd8b1b</t>
   </si>
   <si>
-    <t>St�tte til samfundsdeltagelse</t>
-  </si>
-  <si>
-    <t>St�tte til samfundsdeltagelse er socialp�dagogisk st�tte, der retter sig mod aktiviteter, der er en foruds�tning for at kunne deltage i samfundslivet. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til samfundsdeltagelse</t>
+  </si>
+  <si>
+    <t>Socialpædagogisk støtte, der retter sig mod aktiviteter, der er en forudsætning for at kunne deltage i samfundslivet.</t>
   </si>
   <si>
     <t>5</t>
@@ -342,217 +342,217 @@
     <t>0886a1b6-4a3a-47e5-9c97-066270529e4f</t>
   </si>
   <si>
-    <t>St�tte til transport</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til transport er motivation, vejledning og st�tte til samfundsdeltagelse, der retter sig mod en borgers mulighed for selvst�ndigt at f�rdes uden for hjemmet. St�tte til transport omfatter eksempelvis tr�ning i at anvende offentlige transportmidler, fx at tage med bussen til og fra arbejde og uddannelse, behandling og l�gebes�g eller aktiviteter af social karakter. St�tte til transport er ikke ledsagelse, men er rettet mod personens evne til at f�rdes selvst�ndigt. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til transport</t>
+  </si>
+  <si>
+    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons mulighed for selvstændigt at færdes uden for hjemmet.</t>
   </si>
   <si>
     <t>1a2daf63-0510-4bf3-8578-662d4300c965</t>
   </si>
   <si>
-    <t>St�tte til uddannelse</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til uddannelse er motivation, vejledning og st�tte til samfundsdeltagelse, der retter sig mod en borgersmuligheder for at varetage en uddannelse. St�tte til uddannelse kan fx v�re at afd�kke �nsker og muligheder i forbindelse med uddannelse, etablering af hensigtsm�ssige rutiner og struktur i forhold til at varetage en uddannelse samt at fastholde motivation og engagement. Herved adskiller st�tte til uddannelse sig fra specialp�dagogisk st�tte under uddannelse efter Lov om specialp�dagogisk st�tte. St�tte til uddannelse er helt eller delvist sammenfaldende med mentorst�tte efter Lov om aktiv besk�ftigelsesindsats � 31.b Med uddannelse menes b�de ordin�r uddannelse s�vel som uddannelse p� s�rlige vilk�r. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til uddannelse</t>
+  </si>
+  <si>
+    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage en uddannelse.</t>
   </si>
   <si>
     <t>cb1169ee-8969-46d3-813d-f0dd555bd838</t>
   </si>
   <si>
-    <t>St�tte til besk�ftigelse</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til besk�ftigelse er motivation, vejledning og st�tte til samfundsdeltagelse, der retter sig mod en borgers muligheder for at varetage et arbejde. St�tte til besk�ftigelse kan fx v�re etablering af hensigtsm�ssige rutiner og struktur i forhold til at varetage et arbejde samt at fastholde motivation og engagement. St�tte til besk�ftigelse er helt eller delvist sammenfaldende med mentorst�tte efter Lov om aktiv besk�ftigelsesindsats � 31.b. Med besk�ftigelse menes b�de ordin�r besk�ftigelse og besk�ftigelse p� s�rlige vilk�r. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til beskæftigelse</t>
+  </si>
+  <si>
+    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage et arbejde.</t>
   </si>
   <si>
     <t>e2631dec-fd8b-420e-94db-53fd80e82766</t>
   </si>
   <si>
-    <t>St�tte til kontakt til offentlige og private instanser</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til kontakt til offentlige og private instanser er motivation, vejledning og st�tte til samfundsdeltagelse, der retter sig mod gennemf�rsel af bes�g hos og kontakt til offentlige og private instanser med et specifikt form�l. St�tte til kontakt til offentlige og private instanser kan fx v�re rettet mod at henvende sig hos banken, foreninger, organisationer og offentlige myndigheder. Det kan ogs� v�re st�tte til at gennemf�re bes�g fx hos l�gen eller tandl�gen. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til kontakt til offentlige og private instanser</t>
+  </si>
+  <si>
+    <t>Støtte til samfundsdeltagelse, der retter sig mod gennemførsel af besøg hos og kontakt til offentlige og private instanser med et specifikt formål.</t>
   </si>
   <si>
     <t>329782cf-a740-4eb7-aa7e-aaaa9a53c99e</t>
   </si>
   <si>
-    <t>St�tte til sundhed</t>
-  </si>
-  <si>
-    <t>St�tte til sundhed er socialp�dagogisk st�tte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme. Sundhed omfatter b�de fysisk og mental trivsel. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til sundhed</t>
+  </si>
+  <si>
+    <t>Socialpædagogisk støtte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme.</t>
   </si>
   <si>
     <t>3c1639d0-e486-43c6-8add-448b8aff4b8f</t>
   </si>
   <si>
-    <t>St�tte til sund levevis</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til sund levevis er motivation, vejledning og st�tte til sundhed, der retter sig mod livsstilsbetingede forhold. St�tte til sund levevis kan fx v�re at dyrke motion, etablere en sund d�gnrytme, stoppe med at ryge eller motivere borgeren til at spise sundt og hensigtsm�ssigt, herunder st�tte til m�ltider. Vejledende visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til sund levevis</t>
+  </si>
+  <si>
+    <t>Støtte til sundhed, der retter sig mod livsstilsbetingede forhold.</t>
   </si>
   <si>
     <t>72272d03-1774-4a14-b598-5f19b5eac83f</t>
   </si>
   <si>
-    <t>St�tte til personlig hygiejne</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til personlig hygiejne er motivation, vejledning og st�tte til sundhed, der retter sig mod hygiejnem�ssige opgaver i relation til borgeren selv. St�tte til personlig hygiejne kan fx v�re rettet mod etablering af struktur og rutiner i forbindelse med af- og p�kl�dning og bad. Herved adskiller st�tte til personlig hygiejne sig fra personlig hj�lp efter serviceloven � 83. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til personlig hygiejne</t>
+  </si>
+  <si>
+    <t>Støtte til sundhed, der retter sig mod hygiejnemæssige opgaver i relation til personen selv.</t>
   </si>
   <si>
     <t>ad7755d2-11bf-468d-958b-2f0c8d9c3742</t>
   </si>
   <si>
-    <t>St�tte til psykisk trivsel</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til psykisk trivsel er motivation, vejledning og st�tte til sundhed, der retter sig mod en borgers psykiske velbefindende. St�tte til psykisk trivsel kan fx v�re rettet mod en borgers f�lelsesregulering og handlem�nstre, indsigt i og forst�else af egen situation, opbygning af positivt selvv�rd og identitet. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til psykisk trivsel</t>
+  </si>
+  <si>
+    <t>Støtte til sundhed, der retter sig mod en persons psykiske velbefindende.</t>
   </si>
   <si>
     <t>bd5fea9a-16ed-4e63-b6a1-8e83caaf9b0b</t>
   </si>
   <si>
-    <t>St�tte til seksualitet</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til seksualitet er motivation, vejledning og st�tte til sundhed, der retter sig mod den m�de, som en borgers seksualitet kommer til udtryk p�. St�tte til seksualitet kan fx v�re st�tte til at udtrykke sin seksualitet hensigtsm�ssigt eller s�tte gr�nser. Det kan ogs� v�re st�tte til at ops�ge specialiseret r�dgivning og vejledning i forhold til seksualitet og funktionsneds�ttelser. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til seksualitet</t>
+  </si>
+  <si>
+    <t>Støtte til sundhed, der retter sig mod den måde, som en persons seksualitet kommer til udtryk på.</t>
   </si>
   <si>
     <t>e7c8b42e-b882-4629-8e03-65e44b1aa3e3</t>
   </si>
   <si>
-    <t>St�tte til behandling</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til behandling er motivation, vejledning og st�tte til sundhed, der retter sig mod en borgers behandling. St�tte til behandling kan fx v�re rettet mod, at borgeren fastholder beslutningen om at p�begynde behandling eller opretholder igangv�rende behandling, herunder fx misbrugsbehandling, psykologisk behandling og medicinsk behandling, Herved adskiller st�tte til behandling sig fra ydelser efter Sundhedsloven � 138. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til behandling</t>
+  </si>
+  <si>
+    <t>Støtte til sundhed, der retter sig mod en persons behandling.</t>
   </si>
   <si>
     <t>4ff4a2d4-4cde-4a22-bb37-ecfbd3fd9650</t>
   </si>
   <si>
-    <t>St�tte til relationer og f�llesskaber</t>
-  </si>
-  <si>
-    <t>St�tte til relationer og f�llesskaber er socialp�dagogisk st�tte, der retter sig mod relationer og f�llesskaber, hvor samspillet med andre er et centralt element. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til relationer og fællesskaber</t>
+  </si>
+  <si>
+    <t>Socialpædagogisk støtte, der retter sig mod relationer og fællesskaber, hvor samspillet med andre er et centralt element.</t>
   </si>
   <si>
     <t>05cd5e81-1a3a-4bdd-901b-7ec96c12d990</t>
   </si>
   <si>
-    <t>St�tte til sociale relationer</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til sociale relationer er motivation, vejledning og st�tte til relationer og f�llesskaber, der retter sig mod at udvikle, indg� i og bevare relationer til andre mennesker. St�tte til sociale relationer kan b�de v�re rettet mod en borgers relationer til enkeltpersoner eller p�, hvordan en borger indg�r i et st�rre f�llesskab. St�tte til sociale relationer kan b�de v�re hj�lp til at h�ndtere de f�lelsesm�ssige og sociale aspekter ved samv�ret, fx at h�ndtere f�lelser og problemstillinger i sociale sammenh�nge, at skabe og fastholde netv�rk og at holde kontakt med venner og familie eller deltage i og gennemf�re aktiviteter sammen med andre. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til sociale relationer</t>
+  </si>
+  <si>
+    <t>Støtte til relationer og fællesskaber, der retter sig mod at udvikle, indgå i og bevare relationer til andre mennesker.</t>
   </si>
   <si>
     <t>ea47a198-7e24-472d-ba5d-132b8b744710</t>
   </si>
   <si>
-    <t>St�tte til varetagelse af for�ldrerollen</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til varetagelse af for�ldrerollen er motivation, vejledning og st�tte til relationer og f�llesskaber, der retter sig mod strukturering og h�ndtering af opgaver, som er en almindelig del af for�ldreansvaret, og hvor samv�ret mellem barn og for�lder er centralt. St�tten tildeles p� baggrund af borgerens nedsatte funktionsevne i forhold til at gennemf�re de opgaver, der indg�r i varetagelse af for�ldrerollen og ikke grundet manglende for�ldreevne. Herved adskiller st�tte til varetagelse af for�ldrerollen sig fra foranstaltninger efter Serviceloven � 52, hvor fokus er p� barnets trivsel. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til varetagelse af forældrerollen</t>
+  </si>
+  <si>
+    <t>Støtte til relationer og fællesskaber, der retter sig mod strukturering og håndtering af opgaver, som er en almindelig del af forældreansvaret, og hvor samværet mellem barn og forælder er centralt.</t>
   </si>
   <si>
     <t>a63f7092-63d9-4cb5-ace5-655b552fdacc</t>
   </si>
   <si>
-    <t>St�tte til praktiske opgaver</t>
-  </si>
-  <si>
-    <t>St�tte til praktiske opgaver er socialp�dagogisk st�tte, der retter sig imod almindelige praktiske opgaver. St�tte til praktiske opgaver best�r af motivation, vejledning og st�tte til udf�relsen af de praktiske opgaver, herunder udvikling og vedligeholdelse af kompetencer til at strukturere, planl�gge og udf�re de konkrete aktiviteter. Herved adskiller st�tte til praktiske opgaver sig fra praktisk hj�lp efter � 83. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til praktiske opgaver</t>
+  </si>
+  <si>
+    <t>Socialpædagogisk støtte, der retter sig imod almindelige praktiske opgaver.</t>
   </si>
   <si>
     <t>638f44df-6bf2-47f8-9935-b8fdc83e5bf5</t>
   </si>
   <si>
-    <t>St�tte til daglige opgaver i hjemmet</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til daglige opgaver i hjemmet er motivation, vejledning og st�tte til praktiske opgaver, der har hverdagskarakter og retter sig mod borgerens hjem. St�tte til daglige opgaver i hjemmet kan eksempelvis v�re st�tte til oprydning, t�jvask, reng�ring eller indk�b og madlavning. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til daglige opgaver i hjemmet</t>
+  </si>
+  <si>
+    <t>Støtte til praktiske opgaver, der har hverdagskarakter og retter sig mod en persons hjem.</t>
   </si>
   <si>
     <t>c56634ca-6847-4c50-b5c1-c528c1ffc1d8</t>
   </si>
   <si>
-    <t>St�tte til etablering i bolig</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til etablering i bolig er motivation, vejledning og st�tte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i borgerens bolig. Et eksempel p� st�tte til etablering i bolig er at s�ge efter en bolig eller at guide og motivere i forbindelse med ind- og udflytning fx i forbindelse med planl�gning, strukturering og gennemf�rsel af praktiske opgaver og indretning af boligen til borgerens behov. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til etablering i bolig</t>
+  </si>
+  <si>
+    <t>Støtte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i bolig.</t>
   </si>
   <si>
     <t>d473dea2-4f6d-4f36-a8f0-260f0213f50a</t>
   </si>
   <si>
-    <t>St�tte til administration</t>
-  </si>
-  <si>
-    <t>Socialp�dagogisk st�tte til administration er motivation, vejledning og st�tte til praktiske opgaver af administrativ eller �konomisk karakter. St�tte til administration kan fx v�re rettet mod borgerens h�ndtering og forst�else af post, herunder digital post og selvbetjeningsl�sninger, personlig �konomi, herunder budget, opsparing og regninger, samt opdatering og anvendelse af software eller apps, herunder digitaliserede hj�lpemidler. Visitationsparagraf: Serviceloven � 85.</t>
+    <t>Støtte til administration</t>
+  </si>
+  <si>
+    <t>Støtte til praktiske opgaver af administrativ eller økonomisk karakter.</t>
   </si>
   <si>
     <t>21dca9cf-c238-465b-9f12-15351f51b038</t>
   </si>
   <si>
-    <t>Forebyggende hj�lp og st�tte</t>
-  </si>
-  <si>
-    <t>Forebyggende hj�lp og st�tte er en ydelse til voksne, der retter sig mod personer med lettere fysisk elle psykisk funktionsneds�ttelse eller lettere sociale problemer og personer, der er i risiko for at udvikle funktionsneds�ttelse eller sociale problemer. Forebyggende hj�lp og st�tte har til form�l at forbedre personens aktuelle funktionsniveau eller den sociale problematik, eller forebygge at funktionsneds�ttelsen eller de sociale problemer udvikles eller forv�rres.</t>
+    <t>Forebyggende hjælp og støtte</t>
+  </si>
+  <si>
+    <t>Forebyggende hjælp og støtte er en ydelse til voksne, der retter sig mod personer med lettere fysisk elle psykisk funktionsnedsættelse eller lettere sociale problemer og personer, der er i risiko for at udvikle funktionsnedsættelse eller sociale problemer. Forebyggende hjælp og støtte har til formål at forbedre personens aktuelle funktionsniveau eller den sociale problematik, eller forebygge at funktionsnedsættelsen eller de sociale problemer udvikles eller forværres.</t>
   </si>
   <si>
     <t>3459f530-7334-48c4-9037-53bf80df8851</t>
   </si>
   <si>
-    <t>Gruppebaseret hj�lp og st�tte</t>
-  </si>
-  <si>
-    <t>Gruppebaseret hj�lp og st�tte er forebyggende hj�lp og st�tte, der leveres til en gruppe af personer og kan fx best� i tr�ning, hj�lp og st�tte til udvikling af f�rdigheder, mestringskurser eller gruppesamtaler.</t>
+    <t>Gruppebaseret hjælp og støtte</t>
+  </si>
+  <si>
+    <t>Gruppebaseret hjælp og støtte er forebyggende hjælp og støtte, der leveres til en gruppe af personer og kan fx bestå i træning, hjælp og støtte til udvikling af færdigheder, mestringskurser eller gruppesamtaler.</t>
   </si>
   <si>
     <t>f3edac43-d0d6-4cc3-96c7-4658a557257a</t>
   </si>
   <si>
-    <t>Akut r�dgivning, omsorg og st�tte</t>
-  </si>
-  <si>
-    <t>Akut r�dgivning, omsorg eller st�tte er forebyggende hj�lp og st�tte, der retter sig mod personer med psykiske vanskeligheder, der akut har brug for r�dgivning, omsorg eller st�tte. Ved akut forst�s, at behovet er opst�et pludseligt, og at det kr�ver �jeblikkelig levering af en given ydelse, der kan hindre forv�rring af eller stabilisere personens funktionsevne eller hindre, at sociale problemer forv�rres. Akut r�dgivning, omsorg eller st�tte kan fx leveres som telefonisk kontakt eller ved fremm�de, n�r en person m�der op p� et tilbud ved akut opst�et behov.</t>
+    <t>Akut rådgivning, omsorg og støtte</t>
+  </si>
+  <si>
+    <t>Akut rådgivning, omsorg eller støtte er forebyggende hjælp og støtte, der retter sig mod personer med psykiske vanskeligheder, der akut har brug for rådgivning, omsorg eller støtte. Ved akut forstås, at behovet er opstået pludseligt, og at det kræver øjeblikkelig levering af en given ydelse, der kan hindre forværring af eller stabilisere personens funktionsevne eller hindre, at sociale problemer forværres. Akut rådgivning, omsorg eller støtte kan fx leveres som telefonisk kontakt eller ved fremmøde, når en person møder op på et tilbud ved akut opstået behov.</t>
   </si>
   <si>
     <t>fe42f8f4-d516-4bab-b006-12b0cd186603</t>
   </si>
   <si>
-    <t>Individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte</t>
-  </si>
-  <si>
-    <t>Individuel, tidsbegr�nset socialp�dagogisk hj�lp og st�tte er forebyggende hj�lp og st�tte, der leveres i en p� forh�nd afgr�nset periode til enkeltpersoner. Individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte kan gives i en periode p� op til seks m�neder med det form�l at udvikle, forbedre eller forebygge tab af personens funktionsevne og muligheder for selvst�ndighed og selvbestemmelse i forhold til personens situation.</t>
+    <t>Individuel tidsbegrænset socialpædagogisk hjælp og støtte</t>
+  </si>
+  <si>
+    <t>Individuel, tidsbegrænset socialpædagogisk hjælp og støtte er forebyggende hjælp og støtte, der leveres i en på forhånd afgrænset periode til enkeltpersoner. Individuel tidsbegrænset socialpædagogisk hjælp og støtte kan gives i en periode på op til seks måneder med det formål at udvikle, forbedre eller forebygge tab af personens funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til personens situation.</t>
   </si>
   <si>
     <t>794ebc42-0639-46eb-aca2-40e996568578</t>
   </si>
   <si>
-    <t>Hj�lp og st�tte etableret i samarbejde med frivillige</t>
-  </si>
-  <si>
-    <t>Hj�lp og st�tte etableret i samarbejde med frivillige er forebyggende hj�lp og st�tte, der leveres i samarbejde med frivillige sociale organisationer eller foreninger. Hj�lp og st�tte etableret i samarbejde med frivillige kan konkret leveres som henholdsvis gruppebaseret hj�lp og st�tte efter � 82a og individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte efter � 82 b.</t>
+    <t>Hjælp og støtte etableret i samarbejde med frivillige</t>
+  </si>
+  <si>
+    <t>Hjælp og støtte etableret i samarbejde med frivillige er forebyggende hjælp og støtte, der leveres i samarbejde med frivillige sociale organisationer eller foreninger. Hjælp og støtte etableret i samarbejde med frivillige kan konkret leveres som henholdsvis gruppebaseret hjælp og støtte efter § 82a og individuel tidsbegrænset socialpædagogisk hjælp og støtte efter § 82 b.</t>
   </si>
   <si>
     <t>b6e1f331-fccf-4a33-8bb6-566546edc405</t>
   </si>
   <si>
-    <t>Gruppebaseret hj�lp og st�tte etableret i samarbejde med frivillige</t>
-  </si>
-  <si>
-    <t>Hj�lp og st�tte etableret i samarbejde med frivillige der konkret leveres som gruppebaseret hj�lp og st�tte efter � 82a</t>
+    <t>Gruppebaseret hjælp og støtte etableret i samarbejde med frivillige</t>
+  </si>
+  <si>
+    <t>Hjælp og støtte etableret i samarbejde med frivillige der konkret leveres som gruppebaseret hjælp og støtte efter § 82a</t>
   </si>
   <si>
     <t>d580bcb7-145a-4346-8e99-d387bbf08a40</t>
   </si>
   <si>
-    <t>Individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte leveret i samarbejde med frivillige</t>
-  </si>
-  <si>
-    <t>Hj�lp og st�tte etableret i samarbejde med frivillige der konkret leveres som individuel tidsbegr�nset socialp�dagogisk hj�lp og st�tte efter � 82 b.</t>
+    <t>Individuel tidsbegrænset socialpædagogisk hjælp og støtte leveret i samarbejde med frivillige</t>
+  </si>
+  <si>
+    <t>Hjælp og støtte etableret i samarbejde med frivillige der konkret leveres som individuel tidsbegrænset socialpædagogisk hjælp og støtte efter § 82 b.</t>
   </si>
   <si>
     <t>f708aea3-66bd-46c6-af11-7bf28942fa47</t>
@@ -570,7 +570,7 @@
     <t>Socialt akuttilbud</t>
   </si>
   <si>
-    <t>Et socialt akuttilbud er et tilbud til voksne, der retter sig mod personer med psykiske vanskeligheder, herunder psykisk s�rbare, der oplever et akut behov for r�dgivning, omsorg, st�tte eller akut ophold, men som ikke har umiddelbart behov for psykiatrisk behandling. Ved akut behov forst�s almindeligvis et behov, der er pludseligt opst�et, og som fordrer �jeblikkelig levering af en given ydelse, der kan hindre forv�rring af eller stabilisere personens funktionsevne eller hindre, at sociale problemer forv�rres. Personen kan henvende sig anonymt og uanset aktuel boform.</t>
+    <t>Et socialt akuttilbud er et tilbud til voksne, der retter sig mod personer med psykiske vanskeligheder, herunder psykisk sårbare, der oplever et akut behov for rådgivning, omsorg, støtte eller akut ophold, men som ikke har umiddelbart behov for psykiatrisk behandling. Ved akut behov forstås almindeligvis et behov, der er pludseligt opstået, og som fordrer øjeblikkelig levering af en given ydelse, der kan hindre forværring af eller stabilisere personens funktionsevne eller hindre, at sociale problemer forværres. Personen kan henvende sig anonymt og uanset aktuel boform.</t>
   </si>
   <si>
     <t>d90f4da6-f87a-43b5-833f-646b4baf16d6</t>
@@ -579,7 +579,7 @@
     <t>Mobilt tilbud</t>
   </si>
   <si>
-    <t>Et mobilt tilbud er et tilbud, der ikke leverer ydelser til en borger p� en bestemt matrikel, men flyttes ud, der hvor borgeren opholder sig. Det kan eksempelvis v�re i borgerens eget hjem, p� et dagtilbud, et frivilligt tilbud eller i det offentlige rum, fx i forhold til hjeml�se. Et mobilt tilbud leverer ydelser til borgere med nedsat fysisk eller psykisk funktionsevne eller sociale problemer, men som ikke har behov for et midlertidigt eller l�ngerevarende ophold. Vejledende lovhjemmel: Serviceloven � 82a, � 82b, �82d, � 85</t>
+    <t>Et mobilt tilbud er et tilbud, der ikke leverer ydelser til en borger på en bestemt matrikel, men flyttes ud, der hvor borgeren opholder sig. Det kan eksempelvis være i borgerens eget hjem, på et dagtilbud, et frivilligt tilbud eller i det offentlige rum, fx i forhold til hjemløse. Et mobilt tilbud leverer ydelser til borgere med nedsat fysisk eller psykisk funktionsevne eller sociale problemer, men som ikke har behov for et midlertidigt eller længerevarende ophold. Vejledende lovhjemmel: Serviceloven § 82a, § 82b, §82d, § 85</t>
   </si>
   <si>
     <t>7fec7d14-addb-4684-9637-403739de6228</t>
@@ -588,25 +588,25 @@
     <t>Dagtilbud til voksne</t>
   </si>
   <si>
-    <t>Et dagtilbud til voksne er et tilbud, der udelukkende leverer ydelser til en borger i dagtimerne. Dagtilbud adskiller sig fra ambulante tilbud ved varigheden af de ydelser, som leveres i tilbuddet, dvs. borgeren opholder sig i l�ngere tid p� dagtilbuddet. Et dagtilbud til voksne kan fx v�re et aktivitets- og samv�rstilbud eller et beskyttet besk�ftigelsestilbud.</t>
+    <t>Et dagtilbud til voksne er et tilbud, der udelukkende leverer ydelser til en borger i dagtimerne. Dagtilbud adskiller sig fra ambulante tilbud ved varigheden af de ydelser, som leveres i tilbuddet, dvs. borgeren opholder sig i længere tid på dagtilbuddet. Et dagtilbud til voksne kan fx være et aktivitets- og samværstilbud eller et beskyttet beskæftigelsestilbud.</t>
   </si>
   <si>
     <t>9401777d-bdc5-4f52-9804-63c8cae9a792</t>
   </si>
   <si>
-    <t>Aktivitets- og samv�rstilbud</t>
-  </si>
-  <si>
-    <t>Et aktivitets- og samv�rstilbud er et dagtilbud til voksne, der gennem aktivitets- og samv�rsydelser fremmer socialt samv�r eller tilbyder et milj�skift. Et aktivitets- og samv�rstilbud kan ogs� levere andre ydelser ud over aktivitets- og samv�rsydelser. Begrebet d�kker ogs� uvisiterede v�resteder og varmestuer. Lovhjemmel: Serviceloven � 104</t>
+    <t>Aktivitets- og samværstilbud</t>
+  </si>
+  <si>
+    <t>Et aktivitets- og samværstilbud er et dagtilbud til voksne, der gennem aktivitets- og samværsydelser fremmer socialt samvær eller tilbyder et miljøskift. Et aktivitets- og samværstilbud kan også levere andre ydelser ud over aktivitets- og samværsydelser. Begrebet dækker også uvisiterede væresteder og varmestuer. Lovhjemmel: Serviceloven § 104</t>
   </si>
   <si>
     <t>a0fb02a2-367c-48bc-bacd-92e49a861a4c</t>
   </si>
   <si>
-    <t>Beskyttet besk�ftigelsestilbud</t>
-  </si>
-  <si>
-    <t>Et beskyttet besk�ftigelsestilbud er et dagtilbud til voksne, der leverer beskyttet besk�ftigelses-ydelser med fokus p� arbejdsevne og besk�ftigelsesrelevante kompetencer til borgere, der ikke kan opn� eller fastholde besk�ftigelse p� normale vilk�r p� arbejdsmarkedet eller benytte arbejdsmarkedsrelaterede indsatser efter anden lovgivning. Lovhjemmel: Serviceloven � 103</t>
+    <t>Beskyttet beskæftigelsestilbud</t>
+  </si>
+  <si>
+    <t>Et beskyttet beskæftigelsestilbud er et dagtilbud til voksne, der leverer beskyttet beskæftigelses-ydelser med fokus på arbejdsevne og beskæftigelsesrelevante kompetencer til borgere, der ikke kan opnå eller fastholde beskæftigelse på normale vilkår på arbejdsmarkedet eller benytte arbejdsmarkedsrelaterede indsatser efter anden lovgivning. Lovhjemmel: Serviceloven § 103</t>
   </si>
   <si>
     <t>d23e3e8a-7fcf-4603-9d75-481b6e47e0eb</t>
@@ -615,16 +615,16 @@
     <t>Botilbudslignende tilbud</t>
   </si>
   <si>
-    <t>Et botilbudslignende tilbud er et tilbud, der ligner botilbud efter servicelovens � 107 eller � 108, men som er etableret efter anden lovgivning og opfylder betingelserne i socialtilsynsloven � 4, stk. 3. Den borger, der bor i et botilbudslignende tilbud, har lejeforhold efter den almene lejelov og bor i boligen p� grund af nedsat fysisk eller psykisk funktionsevne eller s�rlige sociale problemer. De botilbudslignende tilbud adskiller sig desuden fra udg�ende tilbud efter servicelovens � 85 ved, at der er knyttet et serviceareal til boligen med fast personale, der overvejende leverer socialp�dagogisk st�tte. Begrebet omfatter ikke friplejeboliger. Vejledende lovhjemmel: Socialtilsynsloven � 4, stk. 1, nr. 3.</t>
+    <t>Et botilbudslignende tilbud er et tilbud, der ligner botilbud efter servicelovens § 107 eller § 108, men som er etableret efter anden lovgivning og opfylder betingelserne i socialtilsynsloven § 4, stk. 3. Den borger, der bor i et botilbudslignende tilbud, har lejeforhold efter den almene lejelov og bor i boligen på grund af nedsat fysisk eller psykisk funktionsevne eller særlige sociale problemer. De botilbudslignende tilbud adskiller sig desuden fra udgående tilbud efter servicelovens § 85 ved, at der er knyttet et serviceareal til boligen med fast personale, der overvejende leverer socialpædagogisk støtte. Begrebet omfatter ikke friplejeboliger. Vejledende lovhjemmel: Socialtilsynsloven § 4, stk. 1, nr. 3.</t>
   </si>
   <si>
     <t>a7cbf55b-6906-4b2a-872e-c48b4d728837</t>
   </si>
   <si>
-    <t>Almen �ldre- og handicapvenlig bolig</t>
-  </si>
-  <si>
-    <t>En almen �ldre- og handicapvenlig bolig er et botilbudslignende tilbud, der er oprettet som almennyttig bolig, og som retter sig mod �ldre borgere og borgere med fysisk eller psykisk funktionsneds�ttelse. I lovgivningen og vejledninger omtales de som "almene �ldreboliger", men de kan rette sig b�de mod �ldre borgere og mod borgere med nedsat fysisk eller psykisk funktionsevne. Lovhjemmel: Almenboligloven � 105</t>
+    <t>Almen ældre- og handicapvenlig bolig</t>
+  </si>
+  <si>
+    <t>En almen ældre- og handicapvenlig bolig er et botilbudslignende tilbud, der er oprettet som almennyttig bolig, og som retter sig mod ældre borgere og borgere med fysisk eller psykisk funktionsnedsættelse. I lovgivningen og vejledninger omtales de som "almene ældreboliger", men de kan rette sig både mod ældre borgere og mod borgere med nedsat fysisk eller psykisk funktionsevne. Lovhjemmel: Almenboligloven § 105</t>
   </si>
   <si>
     <t>2ecfcfe5-10ed-4934-a744-f18ce30b1619</t>
@@ -642,43 +642,43 @@
     <t>Midlertidigt botilbud til voksne</t>
   </si>
   <si>
-    <t>Et midlertidigt botilbud til voksne er et botilbud til voksne, der retter sig mod borgere, som har midlertidig behov for st�tte og hj�lp, og som p� sigt forventeligt kan f� disse behov d�kket p� anden vis. Lovhjemmel: Serviceloven � 107</t>
+    <t>Et midlertidigt botilbud til voksne er et botilbud til voksne, der retter sig mod borgere, som har midlertidig behov for støtte og hjælp, og som på sigt forventeligt kan få disse behov dækket på anden vis. Lovhjemmel: Serviceloven § 107</t>
   </si>
   <si>
     <t>96c97f55-a11b-47f8-aa52-6fdae4e804c2</t>
   </si>
   <si>
-    <t>L�ngerevarende botilbud til voksne</t>
-  </si>
-  <si>
-    <t>Et l�ngerevarende botilbud til voksne er et botilbud til voksne, der retter sig imod borgere, som har l�ngerevarende behov for omfattende st�tte og ophold, og som ikke kan f� d�kket disse behov p� anden vis. Lovhjemmel: Serviceloven � 108</t>
+    <t>Længerevarende botilbud til voksne</t>
+  </si>
+  <si>
+    <t>Et længerevarende botilbud til voksne er et botilbud til voksne, der retter sig imod borgere, som har længerevarende behov for omfattende støtte og ophold, og som ikke kan få dækket disse behov på anden vis. Lovhjemmel: Serviceloven § 108</t>
   </si>
   <si>
     <t>070016aa-e164-4813-aca5-b75acab89d63</t>
   </si>
   <si>
-    <t>Sikret l�ngerevarende botilbud til voksne</t>
-  </si>
-  <si>
-    <t>Et sikret botilbud er et l�ngerevarende botilbud til voksne, som har l�ngerevarende behov for omfattende st�tte og ophold, og som ikke kan f� d�kket disse behov p� anden vis. Et sikret botilbud omfatter mindst �n afdeling eller lejlighed, som er godkendt til at have yderd�re og vinduer afl�st, og det modtager borgere i henhold til dom eller retskendelse. Lovhjemmel: Serviceloven � 108, stk. 7, nr. 1-3</t>
+    <t>Sikret længerevarende botilbud til voksne</t>
+  </si>
+  <si>
+    <t>Et sikret botilbud er et længerevarende botilbud til voksne, som har længerevarende behov for omfattende støtte og ophold, og som ikke kan få dækket disse behov på anden vis. Et sikret botilbud omfatter mindst én afdeling eller lejlighed, som er godkendt til at have yderdøre og vinduer aflåst, og det modtager borgere i henhold til dom eller retskendelse. Lovhjemmel: Serviceloven § 108, stk. 7, nr. 1-3</t>
   </si>
   <si>
     <t>498fe92c-d7f7-41cd-9404-5b38fe113be0</t>
   </si>
   <si>
-    <t>Almindeligt l�ngerevarende botilbud til voksne</t>
-  </si>
-  <si>
-    <t>Et almindeligt l�ngerevarende botilbud til voksne er et ikke-sikret, l�ngerevarende botilbud til voksne, der retter sig mod borgere, som har l�ngerevarende behov for omfattende st�tte og ophold, og som ikke kan f� d�kket disse behov p� anden vis. Lovhjemmel: Servicelovens � 108 stk. 1</t>
+    <t>Almindeligt længerevarende botilbud til voksne</t>
+  </si>
+  <si>
+    <t>Et almindeligt længerevarende botilbud til voksne er et ikke-sikret, længerevarende botilbud til voksne, der retter sig mod borgere, som har længerevarende behov for omfattende støtte og ophold, og som ikke kan få dækket disse behov på anden vis. Lovhjemmel: Servicelovens § 108 stk. 1</t>
   </si>
   <si>
     <t>cda90d67-f65a-4a34-b8d8-168ee9ff0949</t>
   </si>
   <si>
-    <t>M�lgruppe</t>
-  </si>
-  <si>
-    <t>En m�lgruppe er en gruppe, hvis medlemmer en indsats er rettet imod.</t>
+    <t>Målgruppe</t>
+  </si>
+  <si>
+    <t>En målgruppe er en gruppe, hvis medlemmer en indsats er rettet imod.</t>
   </si>
   <si>
     <t>0919515d-9975-4743-a16f-edb45374b0da</t>
@@ -687,7 +687,7 @@
     <t>Socialt problem</t>
   </si>
   <si>
-    <t>Et socialt problem er en tilstand, som er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Ligesom det g�r sig g�ldende for funktionsevneneds�ttelse er ogs� karakteren og r�kkevidden af et socialt problem relativ til b�de personen selv og det omkringliggende samfund (dvs. personlige og omgivelsesm�ssige faktorer). Socialt problem udg�r sammen med nedsat fysisk og psykisk funktionsevne de tre overordnede m�lgrupper, som kan modtage ydelser efter Serviceloven.</t>
+    <t>Et socialt problem er en tilstand, som er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Ligesom det gør sig gældende for funktionsevnenedsættelse er også karakteren og rækkevidden af et socialt problem relativ til både personen selv og det omkringliggende samfund (dvs. personlige og omgivelsesmæssige faktorer). Socialt problem udgør sammen med nedsat fysisk og psykisk funktionsevne de tre overordnede målgrupper, som kan modtage ydelser efter Serviceloven.</t>
   </si>
   <si>
     <t>122f3f8e-84a0-476f-b9c5-0e40b1dcf113</t>
@@ -696,7 +696,7 @@
     <t>Prostitution</t>
   </si>
   <si>
-    <t>Prostitution er en handling, hvor mindst to handlende personer p� markedsm�ssige betingelser henholdsvis k�ber og s�lger en prostitutionsydelse mod betaling. Prostitution som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Den tankem�ssige forestilling om f�nomenet prostitution er v�rdineutral. Inden for Servicelovens omr�de er prostitution ben�vnt som type af socialt problem, men hvorvidt prostitution udg�r et problem for den enkelte m� afg�res p� individniveau. Begrebet omfatter ikke forhold, der falder under de strafferetlige regler, fx k�b af seksuelle ydelser, der s�lges af unge under 18 �r, eller det f�nomen, at personer tvinges af andre til at s�lge seksuelle ydelser.</t>
+    <t>Prostitution er en handling, hvor mindst to handlende personer på markedsmæssige betingelser henholdsvis køber og sælger en prostitutionsydelse mod betaling. Prostitution som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Den tankemæssige forestilling om fænomenet prostitution er værdineutral. Inden for Servicelovens område er prostitution benævnt som type af socialt problem, men hvorvidt prostitution udgør et problem for den enkelte må afgøres på individniveau. Begrebet omfatter ikke forhold, der falder under de strafferetlige regler, fx køb af seksuelle ydelser, der sælges af unge under 18 år, eller det fænomen, at personer tvinges af andre til at sælge seksuelle ydelser.</t>
   </si>
   <si>
     <t>16075f99-3694-4878-a48d-b2f4b515cb76</t>
@@ -705,43 +705,43 @@
     <t>Social isolation</t>
   </si>
   <si>
-    <t>Social isolation er en tilstand, hvor en person f�ler sig afsondret fra omverdenen.</t>
+    <t>Social isolation er en tilstand, hvor en person føler sig afsondret fra omverdenen.</t>
   </si>
   <si>
     <t>293bf940-c075-4e3d-b5ef-6e331202e556</t>
   </si>
   <si>
-    <t>Hjeml�shed</t>
-  </si>
-  <si>
-    <t>Hjeml�shed er tilstand, hvor en person ikke har en bolig. Hjeml�shed som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Begrebet d�kker b�de husvilde, dvs. personer, der ikke har en bolig, og funktionelt hjeml�se, dvs. personer, der har en bolig, men af den ene eller anden grund ikke kan opholde sig i den.</t>
+    <t>Hjemløshed</t>
+  </si>
+  <si>
+    <t>Hjemløshed er tilstand, hvor en person ikke har en bolig. Hjemløshed som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Begrebet dækker både husvilde, dvs. personer, der ikke har en bolig, og funktionelt hjemløse, dvs. personer, der har en bolig, men af den ene eller anden grund ikke kan opholde sig i den.</t>
   </si>
   <si>
     <t>3b166cb0-df17-4002-a4c4-69e9a943645c</t>
   </si>
   <si>
-    <t>Indadreagerende adf�rd</t>
-  </si>
-  <si>
-    <t>Indadreagerende er en adf�rd, hvor en person er pr�get af en lukket og indadrettet opf�rsel. Indadreagerende adf�rd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
+    <t>Indadreagerende adfærd</t>
+  </si>
+  <si>
+    <t>Indadreagerende er en adfærd, hvor en person er præget af en lukket og indadrettet opførsel. Indadreagerende adfærd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
   </si>
   <si>
     <t>3e3f5ebf-82c1-401b-ab5e-e6138a31da3a</t>
   </si>
   <si>
-    <t>Selvskadende adf�rd</t>
-  </si>
-  <si>
-    <t>Selvskadende adf�rd er adf�rd, hvor en person intentionelt p�f�rer eller kan p�f�re sig selv fysisk eller psykisk skade. Selvskadende adf�rd som socialt problem, er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
+    <t>Selvskadende adfærd</t>
+  </si>
+  <si>
+    <t>Selvskadende adfærd er adfærd, hvor en person intentionelt påfører eller kan påføre sig selv fysisk eller psykisk skade. Selvskadende adfærd som socialt problem, er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
   </si>
   <si>
     <t>5e95db73-4d16-4084-93a3-595c0650b160</t>
   </si>
   <si>
-    <t>Selvmordstanker eller -fors�g</t>
-  </si>
-  <si>
-    <t>Selvmordstanker eller -fors�g er en tilstand, hvor en person har tanker om at tage sit eget liv eller har fors�gt at beg� selvmord.</t>
+    <t>Selvmordstanker eller -forsøg</t>
+  </si>
+  <si>
+    <t>Selvmordstanker eller -forsøg er en tilstand, hvor en person har tanker om at tage sit eget liv eller har forsøgt at begå selvmord.</t>
   </si>
   <si>
     <t>66fac925-3488-43b3-8e50-4510d3821b37</t>
@@ -750,25 +750,25 @@
     <t>Andet socialt problem</t>
   </si>
   <si>
-    <t>socialt problem, der ikke er omfattet af en af de �vrige kategorier under socialt problem</t>
+    <t>socialt problem, der ikke er omfattet af en af de øvrige kategorier under socialt problem</t>
   </si>
   <si>
     <t>6fd0f315-2297-4d66-b638-3f867a0900e0</t>
   </si>
   <si>
-    <t>Seksuelt kr�nkende adf�rd</t>
-  </si>
-  <si>
-    <t>Seksuelt kr�nkende adf�rd, er adf�rd, hvor en person uds�tter andre for gr�nseoverskridende seksuelle handlinger eller seksuelt overgreb. Seksuelt kr�nkende adf�rd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
+    <t>Seksuelt krænkende adfærd</t>
+  </si>
+  <si>
+    <t>Seksuelt krænkende adfærd, er adfærd, hvor en person udsætter andre for grænseoverskridende seksuelle handlinger eller seksuelt overgreb. Seksuelt krænkende adfærd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
   </si>
   <si>
     <t>e1b59a4a-9cc2-4113-a5f1-84af588b02a2</t>
   </si>
   <si>
-    <t>Udadreagerende adf�rd</t>
-  </si>
-  <si>
-    <t>Udadreagerende adf�rd er adf�rd, der opleves aggressiv eller voldsom af omgivelserne. Udadreagerende adf�rd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
+    <t>Udadreagerende adfærd</t>
+  </si>
+  <si>
+    <t>Udadreagerende adfærd er adfærd, der opleves aggressiv eller voldsom af omgivelserne. Udadreagerende adfærd som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret.</t>
   </si>
   <si>
     <t>f1f4d709-19d2-48cc-8942-231bf912323d</t>
@@ -777,7 +777,7 @@
     <t>Omsorgssvigt</t>
   </si>
   <si>
-    <t>Omsorgssvigt er en tilstand, hvor en person, der er afh�ngig af andre personer, ikke f�r den omsorg og hj�lp, som denne har brug for. Omsorgssvigt som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Omsorgssvigt kan omfatte fysisk omsorgssvigt, fx utilstr�kkelig ern�ring, bekl�dning og hygiejne og psykisk omsorgssvigt, fx manglende f�lelsesm�ssig eller intellektuel stimulation eller der kan skelnes mellem passivt omsorgssvigt, fx manglende im�dekommelse af basale behov og aktivt omsorgssvigt, fx direkte skade.</t>
+    <t>Omsorgssvigt er en tilstand, hvor en person, der er afhængig af andre personer, ikke får den omsorg og hjælp, som denne har brug for. Omsorgssvigt som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Omsorgssvigt kan omfatte fysisk omsorgssvigt, fx utilstrækkelig ernæring, beklædning og hygiejne og psykisk omsorgssvigt, fx manglende følelsesmæssig eller intellektuel stimulation eller der kan skelnes mellem passivt omsorgssvigt, fx manglende imødekommelse af basale behov og aktivt omsorgssvigt, fx direkte skade.</t>
   </si>
   <si>
     <t>5c6bc9a0-a955-4168-9692-cdcd691ff866</t>
@@ -786,7 +786,7 @@
     <t>Overgreb</t>
   </si>
   <si>
-    <t>Overgreb er en handling, hvor en person eller dennes rettigheder kr�nkes af en st�rkere part. Overgreb som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Overgreb d�kker bredt og er delvist overlappende med begrebet magtmisbrug, idet der er tale om en uretm�ssig brug af en ikke-ligev�rdig relation. Den ene persons st�rkere position kan fx bero p� alder, fysik, organisatoriske forhold, tradition m.v. Ligeledes begr�nser kr�nkelsen af en person eller dennes rettigheder sig ikke til lovbrud, men kan fx ogs� v�re latterligg�relse, manglende honorering af aftaler, tilbageholdelse af midler mv.</t>
+    <t>Overgreb er en handling, hvor en person eller dennes rettigheder krænkes af en stærkere part. Overgreb som socialt problem er kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Overgreb dækker bredt og er delvist overlappende med begrebet magtmisbrug, idet der er tale om en uretmæssig brug af en ikke-ligeværdig relation. Den ene persons stærkere position kan fx bero på alder, fysik, organisatoriske forhold, tradition m.v. Ligeledes begrænser krænkelsen af en person eller dennes rettigheder sig ikke til lovbrud, men kan fx også være latterliggørelse, manglende honorering af aftaler, tilbageholdelse af midler mv.</t>
   </si>
   <si>
     <t>3412d671-22bf-456c-b963-c4e05c2725a0</t>
@@ -795,7 +795,7 @@
     <t>Voldeligt overgreb</t>
   </si>
   <si>
-    <t>Voldeligt overgreb er, n�r en person eller dennes rettigheder kr�nkes af en st�rkere part, og hvor personen kr�nkes med fysisk eller psykisk vold. For at brugen af fysisk eller psykisk magt kan betegnes som vold, skal der v�re tale om en bevidst intention om at s�re eller beskadige. For b�rn og unge omfatter voldeligt overgreb ogs� at v�re vidne til fysisk eller psykisk vold i de n�re relationer.</t>
+    <t>Voldeligt overgreb er, når en person eller dennes rettigheder krænkes af en stærkere part, og hvor personen krænkes med fysisk eller psykisk vold. For at brugen af fysisk eller psykisk magt kan betegnes som vold, skal der være tale om en bevidst intention om at såre eller beskadige. For børn og unge omfatter voldeligt overgreb også at være vidne til fysisk eller psykisk vold i de nære relationer.</t>
   </si>
   <si>
     <t>905caa77-2b98-48ce-b0e1-35dc4c1cc4bd</t>
@@ -804,7 +804,7 @@
     <t>Andet overgreb</t>
   </si>
   <si>
-    <t>overgreb, der ikke er omfattet af en af de �vrige kategorier under overgreb</t>
+    <t>overgreb, der ikke er omfattet af en af de øvrige kategorier under overgreb</t>
   </si>
   <si>
     <t>c47fd846-f1e0-4786-89a4-88d00e7a86c0</t>
@@ -813,7 +813,7 @@
     <t>Seksuelt overgreb</t>
   </si>
   <si>
-    <t>Seksuelt overgreb er, n�r en person eller dennes rettigheder kr�nkes af en st�rkere part, og hvor personen uds�ttes for en seksuel kr�nkelse.</t>
+    <t>Seksuelt overgreb er, når en person eller dennes rettigheder krænkes af en stærkere part, og hvor personen udsættes for en seksuel krænkelse.</t>
   </si>
   <si>
     <t>be53dafc-1fc2-4b9f-8ab3-9d468ff03e6e</t>
@@ -831,7 +831,7 @@
     <t>Ikke-personfarlig kriminalitet</t>
   </si>
   <si>
-    <t>Ikke-personfarlig kriminalitet er en handling, der er strafbar, men som ikke p�f�rer eller risikerer at p�f�re en person fysisk eller psykisk skade.</t>
+    <t>Ikke-personfarlig kriminalitet er en handling, der er strafbar, men som ikke påfører eller risikerer at påføre en person fysisk eller psykisk skade.</t>
   </si>
   <si>
     <t>df42d472-06f6-4c5f-9dcf-64aa6cc20925</t>
@@ -840,7 +840,7 @@
     <t>Personfarlig kriminalitet</t>
   </si>
   <si>
-    <t>Personfarlig kriminalitet er en handling, der er strafbar og som p�f�rer eller risikerer at p�f�re en person fysisk eller psykisk skade.</t>
+    <t>Personfarlig kriminalitet er en handling, der er strafbar og som påfører eller risikerer at påføre en person fysisk eller psykisk skade.</t>
   </si>
   <si>
     <t>e2ecc751-21b9-4aab-a20f-2f3dd9701c97</t>
@@ -849,7 +849,7 @@
     <t>Misbrug</t>
   </si>
   <si>
-    <t>Misbrug er en adf�rd, der er kendetegnet ved et brugsm�nster af rusmiddel eller l�gemiddel, som medf�rer fysisk, psykisk eller social skade. Som socialt problem er misbrug kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afh�ngighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilh�rer ogs� gruppen, men er ikke medtaget i denne sammenh�ng). En fysisk afh�ngighed er ikke det samme som et misbrug. Man kan godt v�re afh�ngig af et middel uden at v�re misbruger, fx kan en person v�re afh�ngig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har for�rsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret p� de lovgivningsm�ssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
+    <t>Misbrug er en adfærd, der er kendetegnet ved et brugsmønster af rusmiddel eller lægemiddel, som medfører fysisk, psykisk eller social skade. Som socialt problem er misbrug kendetegnet ved, at en person er, eller er i fare for at blive, marginaliseret. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afhængighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilhører også gruppen, men er ikke medtaget i denne sammenhæng). En fysisk afhængighed er ikke det samme som et misbrug. Man kan godt være afhængig af et middel uden at være misbruger, fx kan en person være afhængig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har forårsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret på de lovgivningsmæssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
   </si>
   <si>
     <t>0e25a2ec-4f04-4d14-a5ad-a6519a7d1d5f</t>
@@ -858,7 +858,7 @@
     <t>Stofmisbrug</t>
   </si>
   <si>
-    <t>Stofmisbrug er misbrug, hvor rusmidlet ikke er alkohol. Misbrug er en adf�rd, der der kendetegnet ved et brugsm�nster af rusmiddel eller l�gemiddel, som medf�rer fysisk, psykisk eller social skade. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afh�ngighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilh�rer ogs� gruppen, men er ikke medtaget i denne sammenh�ng). En fysisk afh�ngighed er ikke det samme som et misbrug. Man kan godt v�re afh�ngig af et middel uden at v�re misbruger, fx kan en person v�re afh�ngig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har for�rsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret p� de lovgivningsm�ssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
+    <t>Stofmisbrug er misbrug, hvor rusmidlet ikke er alkohol. Misbrug er en adfærd, der der kendetegnet ved et brugsmønster af rusmiddel eller lægemiddel, som medfører fysisk, psykisk eller social skade. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afhængighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilhører også gruppen, men er ikke medtaget i denne sammenhæng). En fysisk afhængighed er ikke det samme som et misbrug. Man kan godt være afhængig af et middel uden at være misbruger, fx kan en person være afhængig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har forårsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret på de lovgivningsmæssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
   </si>
   <si>
     <t>ab4413f0-fa81-41c0-ad8c-21782c12a0fa</t>
@@ -867,97 +867,97 @@
     <t>Alkoholmisbrug</t>
   </si>
   <si>
-    <t>Alkoholmisbrug er misbrug, hvor rusmidlet er alkohol. Misbrug er en adf�rd, der er kendetegnet ved et brugsm�nster af rusmiddel eller l�gemiddel, som medf�rer fysisk, psykisk eller social skade. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afh�ngighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilh�rer ogs� gruppen, men er ikke medtaget i denne sammenh�ng). En fysisk afh�ngighed er ikke det samme som et misbrug. Man kan godt v�re afh�ngig af et middel uden at v�re misbruger, fx kan en person v�re afh�ngig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har for�rsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret p� de lovgivningsm�ssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
+    <t>Alkoholmisbrug er misbrug, hvor rusmidlet er alkohol. Misbrug er en adfærd, der er kendetegnet ved et brugsmønster af rusmiddel eller lægemiddel, som medfører fysisk, psykisk eller social skade. Skaden ved misbrug er ofte en kombination af fysisk, psykisk og social skade. Misbrug er kendetegnet ved, at en person indtager rusmidler, som ved gentagen anvendelse kan fremkalde fysisk og/eller psykisk afhængighed. Rusmidler omfatter opioider, benzodiazepiner, centralstimulantia, hallucinogener, cannabis og alkohol. (Nikotin, kaffe og te tilhører også gruppen, men er ikke medtaget i denne sammenhæng). En fysisk afhængighed er ikke det samme som et misbrug. Man kan godt være afhængig af et middel uden at være misbruger, fx kan en person være afhængig af livsvigtig medicin uden dermed at have et misbrug. Mange brugere af psykoaktive stoffer tager mere end en type af stoffer. Undergrupper af misbrug er klassificeret efter det stof, som har forårsaget eller bidraget mest til den foreliggende problemstilling. Opdelingen i alkoholmisbrug og stofmisbrug er yderligere baseret på de lovgivningsmæssige og organisatoriske rammer for behandlingen samt forskellige klientgrupper.</t>
   </si>
   <si>
     <t>f3ec0ccd-2b0c-4a60-85fc-3cdd0ca73cef</t>
   </si>
   <si>
-    <t>Funktionsneds�ttelse</t>
-  </si>
-  <si>
-    <t>En funktionsneds�ttelse er en funktionsevneneds�ttelse, der vedr�rer kroppens anatomi eller kroppens funktion, herunder ogs� mentale funktioner. Funktionsneds�ttelse relaterer sig til kropslige begr�nsninger, b�de begr�nsninger i kroppens anatomi og begr�nsninger i kroppens funktioner. Til sidstn�vnte h�rer ogs� begr�nsninger i mentale funktioner.</t>
+    <t>Funktionsnedsættelse</t>
+  </si>
+  <si>
+    <t>En funktionsnedsættelse er en funktionsevnenedsættelse, der vedrører kroppens anatomi eller kroppens funktion, herunder også mentale funktioner. Funktionsnedsættelse relaterer sig til kropslige begrænsninger, både begrænsninger i kroppens anatomi og begrænsninger i kroppens funktioner. Til sidstnævnte hører også begrænsninger i mentale funktioner.</t>
   </si>
   <si>
     <t>1f23325e-c9c9-455b-bfe7-b4dcd1bb63e5</t>
   </si>
   <si>
-    <t>Sj�ldent forekommende funktionsneds�ttelse</t>
-  </si>
-  <si>
-    <t>En sj�ldent forekommende funktionsneds�ttelse er en funktionsneds�ttelse i kroppens anatomi eller kroppens funktion, herunder ogs� mentale funktioner, som er sj�ldent forekommende. For at en funktionsneds�ttelse kan karakteriseres som sj�lden, m� den have en forekomst p� mindre end ca. 1.000 diagnosticerede tilf�lde i Danmark. Begrebet rummer syndromer, der medf�rer udtalt fysisk og/eller psykisk funktionsneds�ttelse, og som typisk er medf�dte og arvelige.</t>
+    <t>Sjældent forekommende funktionsnedsættelse</t>
+  </si>
+  <si>
+    <t>En sjældent forekommende funktionsnedsættelse er en funktionsnedsættelse i kroppens anatomi eller kroppens funktion, herunder også mentale funktioner, som er sjældent forekommende. For at en funktionsnedsættelse kan karakteriseres som sjælden, må den have en forekomst på mindre end ca. 1.000 diagnosticerede tilfælde i Danmark. Begrebet rummer syndromer, der medfører udtalt fysisk og/eller psykisk funktionsnedsættelse, og som typisk er medfødte og arvelige.</t>
   </si>
   <si>
     <t>f1c7ee41-21b4-4dba-9424-c874bf72b5e7</t>
   </si>
   <si>
-    <t>Multipel funktionsneds�ttelse</t>
-  </si>
-  <si>
-    <t>En multipel funktionsneds�ttelse er en funktionsneds�ttelse i kroppens anatomi eller kroppens funktion, herunder ogs� mentale funktioner, som er kendetegnet ved et manglende talesprog. Multipel funktionsneds�ttelse er mere end blot en flerhed af problemstillinger. Det er kendetegnende for personer med multiple funktionsneds�ttelser, at de ikke har et talesprog, og at de lever med mobilitetsneds�ttelse og eventuelt syns- og h�reneds�ttelse og �vrige sansefunktionsneds�ttelser i forskellige kombinationer samt en d�rlig helbredstilstand, der bl.a. kommer til udtryk i store spise- og trivselsvanskeligheder, kropssp�ndinger, kramper og smerter. Gruppen har store medf�dte eller tidligt erhvervede neurologiske og kortikale skader og har mellem 2 og 10 diagnoser, med et gennemsnit p� 5. De hyppigste diagnoser er cerebral parese og muskelsygdom, mental retardering, synshandicap, medf�dte misdannelser og epilepsi.</t>
+    <t>Multipel funktionsnedsættelse</t>
+  </si>
+  <si>
+    <t>En multipel funktionsnedsættelse er en funktionsnedsættelse i kroppens anatomi eller kroppens funktion, herunder også mentale funktioner, som er kendetegnet ved et manglende talesprog. Multipel funktionsnedsættelse er mere end blot en flerhed af problemstillinger. Det er kendetegnende for personer med multiple funktionsnedsættelser, at de ikke har et talesprog, og at de lever med mobilitetsnedsættelse og eventuelt syns- og hørenedsættelse og øvrige sansefunktionsnedsættelser i forskellige kombinationer samt en dårlig helbredstilstand, der bl.a. kommer til udtryk i store spise- og trivselsvanskeligheder, kropsspændinger, kramper og smerter. Gruppen har store medfødte eller tidligt erhvervede neurologiske og kortikale skader og har mellem 2 og 10 diagnoser, med et gennemsnit på 5. De hyppigste diagnoser er cerebral parese og muskelsygdom, mental retardering, synshandicap, medfødte misdannelser og epilepsi.</t>
   </si>
   <si>
     <t>112cc0ba-9953-476c-a971-2671697d7639</t>
   </si>
   <si>
-    <t>Fysisk funktionsneds�ttelse</t>
-  </si>
-  <si>
-    <t>En fysisk funktionsneds�ttelse er en funktionsneds�ttelse i kroppens anatomi eller kroppens funktioner, eksklusiv de mentale funktioner. Fysisk funktionsneds�ttelse svarer til Servicelovens 'nedsat fysisk funktionsevne' og udg�r sammen med nedsat psykisk funktionsevne og socialt problem de tre overordnede m�lgrupper, som kan modtage ydelser efter Serviceloven.</t>
+    <t>Fysisk funktionsnedsættelse</t>
+  </si>
+  <si>
+    <t>En fysisk funktionsnedsættelse er en funktionsnedsættelse i kroppens anatomi eller kroppens funktioner, eksklusiv de mentale funktioner. Fysisk funktionsnedsættelse svarer til Servicelovens 'nedsat fysisk funktionsevne' og udgør sammen med nedsat psykisk funktionsevne og socialt problem de tre overordnede målgrupper, som kan modtage ydelser efter Serviceloven.</t>
   </si>
   <si>
     <t>5cb8997c-eb10-477f-b653-b2a5ff11ce7d</t>
   </si>
   <si>
-    <t>Kommunikationsneds�ttelse</t>
-  </si>
-  <si>
-    <t>En kommunikationsneds�ttelse er en begr�nsning i en persons evne til at frembringe meddelelser som resultat af en funktionsneds�ttelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begr�nsning d�kker hele spektret fra let nedsat til fuldst�ndig oph�vet funktion. Kommunikationsneds�ttelse omfatter ikke manglende evne til at forst� meddelelser, der ofte vil v�re del af en psykisk funktionsneds�ttelse.</t>
+    <t>Kommunikationsnedsættelse</t>
+  </si>
+  <si>
+    <t>En kommunikationsnedsættelse er en begrænsning i en persons evne til at frembringe meddelelser som resultat af en funktionsnedsættelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begrænsning dækker hele spektret fra let nedsat til fuldstændig ophævet funktion. Kommunikationsnedsættelse omfatter ikke manglende evne til at forstå meddelelser, der ofte vil være del af en psykisk funktionsnedsættelse.</t>
   </si>
   <si>
     <t>615310e8-f702-4455-910b-9d6d8aa684fb</t>
   </si>
   <si>
-    <t>Synsneds�ttelse</t>
-  </si>
-  <si>
-    <t>En synsneds�ttelse er en begr�nsning i en persons evne til at se som resultat af en funktionsneds�ttelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner Evnen til at se omfatter fx synsskarphed, synsfelt eller synskvalitet. Begr�nsning d�kker hele spektret fra betydeligt nedsat til fuldst�ndig oph�vet funktion. Synsneds�ttelse udg�r kun en funktionsevneneds�ttelse for s� vidt som neds�ttelsen r�kker ud over det, der almindeligvis kan korrigeres for.</t>
+    <t>Synsnedsættelse</t>
+  </si>
+  <si>
+    <t>En synsnedsættelse er en begrænsning i en persons evne til at se som resultat af en funktionsnedsættelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner Evnen til at se omfatter fx synsskarphed, synsfelt eller synskvalitet. Begrænsning dækker hele spektret fra betydeligt nedsat til fuldstændig ophævet funktion. Synsnedsættelse udgør kun en funktionsevnenedsættelse for så vidt som nedsættelsen rækker ud over det, der almindeligvis kan korrigeres for.</t>
   </si>
   <si>
     <t>6e155207-db12-419a-8d9c-d67756533056</t>
   </si>
   <si>
-    <t>Mobilitetsneds�ttelse</t>
-  </si>
-  <si>
-    <t>En mobilitetsneds�ttelse er en begr�nsning i en persons mulighed for at bev�ge sig som resultat af en funktionsneds�ttelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begr�nsning d�kker hele spektret fra let nedsat til fuldst�ndig oph�vet funktion.</t>
+    <t>Mobilitetsnedsættelse</t>
+  </si>
+  <si>
+    <t>En mobilitetsnedsættelse er en begrænsning i en persons mulighed for at bevæge sig som resultat af en funktionsnedsættelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begrænsning dækker hele spektret fra let nedsat til fuldstændig ophævet funktion.</t>
   </si>
   <si>
     <t>7ef8be83-90d1-4375-b1cb-24710bea21c7</t>
   </si>
   <si>
-    <t>H�reneds�ttelse</t>
-  </si>
-  <si>
-    <t>En h�reneds�ttelse er en begr�nsning i en persons opfattelse af lyd som resultat af en funktionsneds�ttelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begr�nsning d�kker hele spektret fra betydeligt nedsat til fuldst�ndig oph�vet funktion. H�reneds�ttelse udg�r kun en funktionsevneneds�ttelse for s� vidt som neds�ttelsen r�kker ud over det, der almindeligvis kan korrigeres for.</t>
+    <t>Hørenedsættelse</t>
+  </si>
+  <si>
+    <t>En hørenedsættelse er en begrænsning i en persons opfattelse af lyd som resultat af en funktionsnedsættelse i kroppens anatomi eller funktioner, eksklusiv de mentale funktioner. Begrænsning dækker hele spektret fra betydeligt nedsat til fuldstændig ophævet funktion. Hørenedsættelse udgør kun en funktionsevnenedsættelse for så vidt som nedsættelsen rækker ud over det, der almindeligvis kan korrigeres for.</t>
   </si>
   <si>
     <t>da298aec-cd7d-436c-9927-d88d00066881</t>
   </si>
   <si>
-    <t>Anden fysisk funktionsneds�ttelse</t>
-  </si>
-  <si>
-    <t>fysisk funktionsneds�ttelse, der ikke er omfattet af en af de �vrige kategorier under fysisk funktionsneds�ttelse</t>
+    <t>Anden fysisk funktionsnedsættelse</t>
+  </si>
+  <si>
+    <t>fysisk funktionsnedsættelse, der ikke er omfattet af en af de øvrige kategorier under fysisk funktionsnedsættelse</t>
   </si>
   <si>
     <t>04a2ecdd-cdc6-4000-91d3-4e21958126ec</t>
   </si>
   <si>
-    <t>D�vblindhed</t>
-  </si>
-  <si>
-    <t>D�vblindhed er en fysisk funktionsneds�ttelse, der best�r af en kombineret syns- og h�reneds�ttelse i alvorlig grad.</t>
+    <t>Døvblindhed</t>
+  </si>
+  <si>
+    <t>Døvblindhed er en fysisk funktionsnedsættelse, der består af en kombineret syns- og hørenedsættelse i alvorlig grad.</t>
   </si>
   <si>
     <t>6</t>
@@ -966,28 +966,28 @@
     <t>0d66b364-958e-48cf-a18b-744fab284194</t>
   </si>
   <si>
-    <t>Erhvervet d�vblindhed</t>
-  </si>
-  <si>
-    <t>Erhvervet d�vblindhed er en fysisk funktionsneds�ttelse, der best�r af en kombineret syns- og h�reneds�ttelse i alvorlig grad, som er opst�et efter et sprog er udviklet.</t>
+    <t>Erhvervet døvblindhed</t>
+  </si>
+  <si>
+    <t>Erhvervet døvblindhed er en fysisk funktionsnedsættelse, der består af en kombineret syns- og hørenedsættelse i alvorlig grad, som er opstået efter et sprog er udviklet.</t>
   </si>
   <si>
     <t>ab7b7d7b-b7bb-4b8c-99d9-5c98a302b771</t>
   </si>
   <si>
-    <t>Medf�dt d�vblindhed</t>
-  </si>
-  <si>
-    <t>Medf�dt d�vblindhed er en fysisk funktionsneds�ttelse, der best�r af en kombineret syns- og h�reneds�ttelse i alvorlig grad, som er opst�et inden et sprog er udviklet.</t>
+    <t>Medfødt døvblindhed</t>
+  </si>
+  <si>
+    <t>Medfødt døvblindhed er en fysisk funktionsnedsættelse, der består af en kombineret syns- og hørenedsættelse i alvorlig grad, som er opstået inden et sprog er udviklet.</t>
   </si>
   <si>
     <t>9ed67228-b934-4677-9f7e-ebb0d80de44b</t>
   </si>
   <si>
-    <t>Psykisk funktionsneds�ttelse</t>
-  </si>
-  <si>
-    <t>En psykisk funktionsneds�ttelse er en funktionsneds�ttelse i de mentale funktioner. Psykisk funktionsneds�ttelse svarer til Servicelovens 'nedsat psykisk funktionsevne' og udg�r sammen med nedsat fysisk funktionsevne og socialt problem de tre overordnede m�lgrupper, som kan modtage ydelser efter Serviceloven.</t>
+    <t>Psykisk funktionsnedsættelse</t>
+  </si>
+  <si>
+    <t>En psykisk funktionsnedsættelse er en funktionsnedsættelse i de mentale funktioner. Psykisk funktionsnedsættelse svarer til Servicelovens 'nedsat psykisk funktionsevne' og udgør sammen med nedsat fysisk funktionsevne og socialt problem de tre overordnede målgrupper, som kan modtage ydelser efter Serviceloven.</t>
   </si>
   <si>
     <t>a78fb31e-b30a-4815-af85-932859fd06b9</t>
@@ -996,7 +996,7 @@
     <t>Psykiske vanskeligheder</t>
   </si>
   <si>
-    <t>Psykiske vanskeligheder er en psykisk funktionsneds�ttelse, der er kendetegnet ved forstyrrelser i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet.</t>
+    <t>Psykiske vanskeligheder er en psykisk funktionsnedsættelse, der er kendetegnet ved forstyrrelser i adfærd og tanke-, følelses-, stemnings- og fantasilivet.</t>
   </si>
   <si>
     <t>192b7d79-415c-4f4f-9223-607938ecbe97</t>
@@ -1005,7 +1005,7 @@
     <t>Spiseforstyrrelse</t>
   </si>
   <si>
-    <t>Spiseforstyrrelse er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved et afvigende spisem�nster. Som eksempel p� spiseforstyrrelser kan n�vnes anoreksi, bulimi og tvangsspisning.</t>
+    <t>Spiseforstyrrelse er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved et afvigende spisemønster. Som eksempel på spiseforstyrrelser kan nævnes anoreksi, bulimi og tvangsspisning.</t>
   </si>
   <si>
     <t>303deb9b-84f0-49d2-ab7a-f8b98eed40a2</t>
@@ -1014,7 +1014,7 @@
     <t>Angst</t>
   </si>
   <si>
-    <t>Angst er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved en f�lelse af frygt, ansp�ndthed og uro, uden at det er muligt at identificere en umiddelbar �rsag.</t>
+    <t>Angst er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved en følelse af frygt, anspændthed og uro, uden at det er muligt at identificere en umiddelbar årsag.</t>
   </si>
   <si>
     <t>6aac5ae6-ef06-4866-9c66-16d51ebbc83b</t>
@@ -1023,7 +1023,7 @@
     <t>Personlighedsforstyrrelse</t>
   </si>
   <si>
-    <t>Personlighedsforstyrrelse er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved en forstyrrelse i evnen til at forholde sig til andre mennesker. Begrebet d�kker over borderline, psykopati og karakterafvigelser.</t>
+    <t>Personlighedsforstyrrelse er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved en forstyrrelse i evnen til at forholde sig til andre mennesker. Begrebet dækker over borderline, psykopati og karakterafvigelser.</t>
   </si>
   <si>
     <t>851b2a9d-cde2-4d5d-8f33-d03789022cbb</t>
@@ -1032,7 +1032,7 @@
     <t>Anden psykisk vanskelighed</t>
   </si>
   <si>
-    <t>psykiske vanskeligheder, der ikke er omfattet af en af de �vrige kategorier under psykiske vanskeligheder</t>
+    <t>psykiske vanskeligheder, der ikke er omfattet af en af de øvrige kategorier under psykiske vanskeligheder</t>
   </si>
   <si>
     <t>afaa7e31-2b5d-4a49-9008-56aa8df8dc13</t>
@@ -1041,7 +1041,7 @@
     <t>Stressbelastning</t>
   </si>
   <si>
-    <t>Stressbelastning er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, hvor en person gennem l�ngere tid befinder sig i en tilstand af konstant forh�jet fysisk og psykisk beredskab. Begrebet d�kker et bredt spektrum af belastende tilstande g�ende fra konstant ansp�ndthed, magtesl�shed, uoverskuelighed eller vanskelighed ved at forts�tte i den forh�ndenv�rende situation, eller nedsat evne til at gennemf�re dagligdags g�rem�l, til posttraumatisk belastningsreaktion p� baggrund af traumatiske begivenheder af exceptionelt truende eller katastrofal natur.</t>
+    <t>Stressbelastning er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, hvor en person gennem længere tid befinder sig i en tilstand af konstant forhøjet fysisk og psykisk beredskab. Begrebet dækker et bredt spektrum af belastende tilstande gående fra konstant anspændthed, magtesløshed, uoverskuelighed eller vanskelighed ved at fortsætte i den forhåndenværende situation, eller nedsat evne til at gennemføre dagligdags gøremål, til posttraumatisk belastningsreaktion på baggrund af traumatiske begivenheder af exceptionelt truende eller katastrofal natur.</t>
   </si>
   <si>
     <t>d42d8f41-2d07-4391-a687-bad51172d0c9</t>
@@ -1050,7 +1050,7 @@
     <t>Tilknytningsforstyrrelse</t>
   </si>
   <si>
-    <t>Tilknytningsforstyrrelse er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved, at en person i en tidlig alder har oplevet omsorgssvigt og nu har sv�rt ved at danne f�lelsesm�ssige relationer til andre mennesker.</t>
+    <t>Tilknytningsforstyrrelse er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved, at en person i en tidlig alder har oplevet omsorgssvigt og nu har svært ved at danne følelsesmæssige relationer til andre mennesker.</t>
   </si>
   <si>
     <t>ee5b52bd-b839-4e69-ad04-c8b33eabfbde</t>
@@ -1059,7 +1059,7 @@
     <t>Depression</t>
   </si>
   <si>
-    <t>Depression er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved en markant, vedvarende f�lelse af tristhed, h�bl�shed og handlingslammelse.</t>
+    <t>Depression er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved en markant, vedvarende følelse af tristhed, håbløshed og handlingslammelse.</t>
   </si>
   <si>
     <t>f2ccc0c0-2a0a-49c9-9d6a-741a7cd220a3</t>
@@ -1068,7 +1068,7 @@
     <t>Forandret virkelighedsopfattelse</t>
   </si>
   <si>
-    <t>Forandret virkelighedsopfattelse er en forstyrrelse i adf�rd og tanke-, f�lelses-, stemnings- og fantasilivet, der er kendetegnet ved en virkelighedsopfattelse, der udg�r en v�sentlig afvigelse fra accepterede statistiske normer. Begrebet d�kker over skizoide/psykotiske tilstande.</t>
+    <t>Forandret virkelighedsopfattelse er en forstyrrelse i adfærd og tanke-, følelses-, stemnings- og fantasilivet, der er kendetegnet ved en virkelighedsopfattelse, der udgør en væsentlig afvigelse fra accepterede statistiske normer. Begrebet dækker over skizoide/psykotiske tilstande.</t>
   </si>
   <si>
     <t>01da9924-f4b4-4265-8594-0e892fa60676</t>
@@ -1077,7 +1077,7 @@
     <t>Intellektuel/kognitiv forstyrrelse</t>
   </si>
   <si>
-    <t>Intellektuel/kognitiv forstyrrelse er en psykisk funktionsneds�ttelse, der er kendetegnet ved forstyrrelser i overordnede mentale funktioner.</t>
+    <t>Intellektuel/kognitiv forstyrrelse er en psykisk funktionsnedsættelse, der er kendetegnet ved forstyrrelser i overordnede mentale funktioner.</t>
   </si>
   <si>
     <t>17ce646b-4469-4a73-82a9-9628436f6c70</t>
@@ -1086,7 +1086,7 @@
     <t>Anden intellektuel/kognitiv forstyrrelse</t>
   </si>
   <si>
-    <t>Intellektuel/kognitiv forstyrrelse, der ikke er omfattet af en af de �vrige kategorier under intellektuel/kognitiv forstyrrelse</t>
+    <t>Intellektuel/kognitiv forstyrrelse, der ikke er omfattet af en af de øvrige kategorier under intellektuel/kognitiv forstyrrelse</t>
   </si>
   <si>
     <t>7b48f1a0-579b-4976-ae7c-4074b5981449</t>
@@ -1095,16 +1095,16 @@
     <t>Demens</t>
   </si>
   <si>
-    <t>Demens er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved en fremadskridende neds�ttelse af en persons intellektuelle og kognitive f�rdigheder, heriblandt hukommelsesfunktionen. Som eksempel p� demens kan n�vnes Alzheimers sygdom og vaskul�r demens.</t>
+    <t>Demens er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved en fremadskridende nedsættelse af en persons intellektuelle og kognitive færdigheder, heriblandt hukommelsesfunktionen. Som eksempel på demens kan nævnes Alzheimers sygdom og vaskulær demens.</t>
   </si>
   <si>
     <t>97c355cc-84e3-46d0-ac1b-00bc627d089f</t>
   </si>
   <si>
-    <t>Udviklingsh�mning</t>
-  </si>
-  <si>
-    <t>Udviklingsh�mning er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved en forsinket eller manglende udvikling inden for bestemte omr�der af psyken eller mere generel mental retardering. Begrebet omfatter ogs� Down's syndrom.</t>
+    <t>Udviklingshæmning</t>
+  </si>
+  <si>
+    <t>Udviklingshæmning er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved en forsinket eller manglende udvikling inden for bestemte områder af psyken eller mere generel mental retardering. Begrebet omfatter også Down's syndrom.</t>
   </si>
   <si>
     <t>34449052-1150-4900-9d69-c56eb9b26793</t>
@@ -1125,7 +1125,7 @@
     <t>Anden udviklingsforstyrrelse</t>
   </si>
   <si>
-    <t>udviklingsforstyrrelse, der ikke er omfattet af en af de �vrige kategorier under udviklingsforstyrrelse</t>
+    <t>udviklingsforstyrrelse, der ikke er omfattet af en af de øvrige kategorier under udviklingsforstyrrelse</t>
   </si>
   <si>
     <t>71dfe6d1-ebc1-4414-8527-edf8e605c356</t>
@@ -1134,16 +1134,16 @@
     <t>Udviklingsforstyrrelse af tale og sprog</t>
   </si>
   <si>
-    <t>Udviklingsforstyrrelse af tale og sprog er en udviklingsforstyrrelse, hvor normale m�nstre for sprogerhvervelse er p�virkede fra de tidligste udviklingstrin. Som eksempel p� udviklingsforstyrrelser af tale og sprog kan n�vnes specifik sprogartikulationsforstyrrelse (dysartri), sprogudtryksforstyrrelse (ekspressiv dysfasi) og sprogopfattelsesforstyrrelse (impressiv dysfasi).</t>
+    <t>Udviklingsforstyrrelse af tale og sprog er en udviklingsforstyrrelse, hvor normale mønstre for sprogerhvervelse er påvirkede fra de tidligste udviklingstrin. Som eksempel på udviklingsforstyrrelser af tale og sprog kan nævnes specifik sprogartikulationsforstyrrelse (dysartri), sprogudtryksforstyrrelse (ekspressiv dysfasi) og sprogopfattelsesforstyrrelse (impressiv dysfasi).</t>
   </si>
   <si>
     <t>93d52b11-faa7-4ff7-b552-11a84cce8bf1</t>
   </si>
   <si>
-    <t>Udviklingsforstyrrelse af skolef�rdigheder</t>
-  </si>
-  <si>
-    <t>Udviklingsforstyrrelse af skolef�rdigheder er en udviklingsforstyrrelse, hvor normale m�nstre for udviklingen af intellektuelle skolef�rdigheder er tilbagest�ende fra de tidligste udviklingstrin. Som eksempel p� udviklingsforstyrrelse af skolef�rdigheder kan n�vnes specifik l�seforstyrrelse (dysleksi), specifik staveforstyrrelse og specifik regnevanskelighed (dyskalkuli).</t>
+    <t>Udviklingsforstyrrelse af skolefærdigheder</t>
+  </si>
+  <si>
+    <t>Udviklingsforstyrrelse af skolefærdigheder er en udviklingsforstyrrelse, hvor normale mønstre for udviklingen af intellektuelle skolefærdigheder er tilbagestående fra de tidligste udviklingstrin. Som eksempel på udviklingsforstyrrelse af skolefærdigheder kan nævnes specifik læseforstyrrelse (dysleksi), specifik staveforstyrrelse og specifik regnevanskelighed (dyskalkuli).</t>
   </si>
   <si>
     <t>9b3fd322-a75a-4ed8-9b74-425fa1e01c95</t>
@@ -1152,25 +1152,25 @@
     <t>Autismespektrum</t>
   </si>
   <si>
-    <t>Autismespektrum er en dysfunktion eller nedsat funktion i hjernen, der er kendetegnet ved en mangelfuld udvikling af sociale og kommunikative f�rdigheder samt repetitiv og stereotyp adf�rd.</t>
+    <t>Autismespektrum er en dysfunktion eller nedsat funktion i hjernen, der er kendetegnet ved en mangelfuld udvikling af sociale og kommunikative færdigheder samt repetitiv og stereotyp adfærd.</t>
   </si>
   <si>
     <t>cc6a58cf-d3d2-4e5f-b7fe-98b009647eac</t>
   </si>
   <si>
-    <t>Opm�rksomhedsforstyrrelse</t>
-  </si>
-  <si>
-    <t>En opm�rksomhedsforstyrrelse er en dysfunktion eller nedsat funktion i hjernen, der er kendetegnet ved betydelige opm�rksomheds- og koncentrationsproblemer. Begrebet omfatter ADHD og ADD.</t>
+    <t>Opmærksomhedsforstyrrelse</t>
+  </si>
+  <si>
+    <t>En opmærksomhedsforstyrrelse er en dysfunktion eller nedsat funktion i hjernen, der er kendetegnet ved betydelige opmærksomheds- og koncentrationsproblemer. Begrebet omfatter ADHD og ADD.</t>
   </si>
   <si>
     <t>e6a269f5-944a-4ff8-b4d8-6dc2134d9167</t>
   </si>
   <si>
-    <t>Udviklingsforstyrrelse af sansemotoriske f�rdigheder</t>
-  </si>
-  <si>
-    <t>Udviklingsforstyrrelse af sansemotoriske f�rdigheder er en udviklingsforstyrrelse, der er karakteriseret ved alvorlige forstyrrelser i udviklingen af motorisk koordination. Som eksempel p� udviklingsforstyrrelse af motoriske f�rdigheder kan n�vnes fumler-tumlersyndromet, udviklingsm�ssig koordinationsforstyrrelse og udviklingsm�ssig dyspraksi.</t>
+    <t>Udviklingsforstyrrelse af sansemotoriske færdigheder</t>
+  </si>
+  <si>
+    <t>Udviklingsforstyrrelse af sansemotoriske færdigheder er en udviklingsforstyrrelse, der er karakteriseret ved alvorlige forstyrrelser i udviklingen af motorisk koordination. Som eksempel på udviklingsforstyrrelse af motoriske færdigheder kan nævnes fumler-tumlersyndromet, udviklingsmæssig koordinationsforstyrrelse og udviklingsmæssig dyspraksi.</t>
   </si>
   <si>
     <t>59254ffb-8efb-4023-84f8-73e5bcba0bc7</t>
@@ -1179,16 +1179,16 @@
     <t>Hjerneskade</t>
   </si>
   <si>
-    <t>Hjerneskade er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved misdannet eller �delagt hjernev�v.</t>
+    <t>Hjerneskade er en forstyrrelse i overordnede mentale funktioner, der er kendetegnet ved misdannet eller ødelagt hjernevæv.</t>
   </si>
   <si>
     <t>1097d07f-1dba-4cc2-ae3a-399a501c2eb6</t>
   </si>
   <si>
-    <t>Medf�dt hjerneskade</t>
-  </si>
-  <si>
-    <t>En medf�dt hjerneskade er misdannet eller �delagt hjernev�v, som er opst�et f�r eller under f�dslen.</t>
+    <t>Medfødt hjerneskade</t>
+  </si>
+  <si>
+    <t>En medfødt hjerneskade er misdannet eller ødelagt hjernevæv, som er opstået før eller under fødslen.</t>
   </si>
   <si>
     <t>d26f97e8-99ed-46a9-94db-93340f77a950</t>
@@ -1197,16 +1197,16 @@
     <t>Erhvervet hjerneskade</t>
   </si>
   <si>
-    <t>En erhvervet hjerneskade er misdannet eller �delagt hjernev�v, som er kommet til efter f�dslen.</t>
+    <t>En erhvervet hjerneskade er misdannet eller ødelagt hjernevæv, som er kommet til efter fødslen.</t>
   </si>
   <si>
     <t>7ac451dc-773b-4877-baaf-1e6b1d5c8e28</t>
   </si>
   <si>
-    <t>St�ttebehovsniveau</t>
-  </si>
-  <si>
-    <t>St�ttebehov er omfanget af en persons behov for udefrakommende st�tte vurderet p� baggrund af personens funktionsevne inden for forskellige livsomr�der. Omfanget vurderes ud fra, hvor ofte og hvor megen st�tte personen skal have for at kunne overskue og udf�re de aktiviteter, der er relevante for personen. St�ttebehovet siger ikke noget om, hvilken specifik indsats personen har brug for, men det siger noget om omfanget af indsatsen, fordi den skal modsvare behovets omfang.</t>
+    <t>Støttebehovsniveau</t>
+  </si>
+  <si>
+    <t>Støttebehov er omfanget af en persons behov for udefrakommende støtte vurderet på baggrund af personens funktionsevne inden for forskellige livsområder. Omfanget vurderes ud fra, hvor ofte og hvor megen støtte personen skal have for at kunne overskue og udføre de aktiviteter, der er relevante for personen. Støttebehovet siger ikke noget om, hvilken specifik indsats personen har brug for, men det siger noget om omfanget af indsatsen, fordi den skal modsvare behovets omfang.</t>
   </si>
   <si>
     <t>2254dac8-8aa3-4334-8502-9720194f49ad</t>
@@ -1218,55 +1218,55 @@
     <t>401a397b-b3aa-4ca3-8b23-bd8f99dd3f76</t>
   </si>
   <si>
-    <t>Moderat st�ttebehov</t>
+    <t>Moderat støttebehov</t>
   </si>
   <si>
     <t>ae9f388a-91c3-46cf-af55-f81952f2977c</t>
   </si>
   <si>
-    <t>Intet st�ttebehov</t>
+    <t>Intet støttebehov</t>
   </si>
   <si>
     <t>b99a0790-4d70-4152-b149-3fe58b745583</t>
   </si>
   <si>
-    <t>H�jt st�ttebehov</t>
+    <t>Højt støttebehov</t>
   </si>
   <si>
     <t>dd628e73-d6c9-4837-a2b8-aa62d73bd6ae</t>
   </si>
   <si>
-    <t>Let st�ttebehov</t>
+    <t>Let støttebehov</t>
   </si>
   <si>
     <t>e99763d6-6c43-4969-ad52-2b1a7055f9dc</t>
   </si>
   <si>
-    <t>Fuldst�ndigt st�ttebehov</t>
+    <t>Fuldstændigt støttebehov</t>
   </si>
   <si>
     <t>90479ffa-bf46-4b3a-a172-91f2798e2a43</t>
   </si>
   <si>
-    <t>Status p� indsats</t>
+    <t>Status på indsats</t>
   </si>
   <si>
     <t>1e971d84-10a4-4ef8-a8b3-0daa4c7d088a</t>
   </si>
   <si>
-    <t>Tr�f afg�relse om forts�ttelse af indsats</t>
+    <t>Træf afgørelse om fortsættelse af indsats</t>
   </si>
   <si>
     <t>b4c01aa8-82fd-44e4-83ff-ca19ec02c779</t>
   </si>
   <si>
-    <t>Tr�f afg�relse om afslutning af indsats og visiter til ny</t>
+    <t>Træf afgørelse om afslutning af indsats og visiter til ny</t>
   </si>
   <si>
     <t>d7d03656-4c87-4e67-9146-aa5990460f16</t>
   </si>
   <si>
-    <t>Tr�f afg�relse om afslutning af indsats</t>
+    <t>Træf afgørelse om afslutning af indsats</t>
   </si>
   <si>
     <t>b3ddc7d7-f6c1-4d47-8280-456992cbe0a6</t>
@@ -1275,6 +1275,12 @@
     <t>FFB tilstande</t>
   </si>
   <si>
+    <t>FFB tilstande
+Mapset: 58000024148 (FFB tilstande mappet til SNOMED)
+Mapset: 338000019145 (OmrHierarkiFFB)
+Mapset: 68000024145 (TilstandsrelationerFFB)</t>
+  </si>
+  <si>
     <t>740934cd-002b-4b96-b92e-b3562eed9448</t>
   </si>
   <si>
@@ -1287,16 +1293,16 @@
     <t>Mentale funktioner</t>
   </si>
   <si>
-    <t>Mentale funktioner er hjernens funktioner - b�de overordnede mentale funktioner som bevidsthed, energi og handlekraft og specifikke mentale funktioner som hukommelse, sprog og regning.</t>
+    <t>Mentale funktioner er hjernens funktioner - både overordnede mentale funktioner som bevidsthed, energi og handlekraft og specifikke mentale funktioner som hukommelse, sprog og regning.</t>
   </si>
   <si>
     <t>17c35058-eb88-4a7a-8727-74cd12be42c7</t>
   </si>
   <si>
-    <t>Opm�rksomhed og koncentrationsevne</t>
-  </si>
-  <si>
-    <t>Opm�rksomhed og koncentrationsevne er en mental funktion, der er bestemmende for fokusering p� eksterne stimuli eller indre oplevelser s� l�nge som n�dvendigt. Begrebet omfatter fx en persons evne til at fastholde opm�rksomhed, skift i opm�rksomhed, opdeling af opm�rksomhed, hvor der fokuseres p� to eller flere stimuli p� samme tid, samt deltagende opm�rksomhed, hvor to eller flere personer fokuserer p� det samme.</t>
+    <t>Opmærksomhed og koncentrationsevne</t>
+  </si>
+  <si>
+    <t>Opmærksomhed og koncentrationsevne er en mental funktion, der er bestemmende for fokusering på eksterne stimuli eller indre oplevelser så længe som nødvendigt. Begrebet omfatter fx en persons evne til at fastholde opmærksomhed, skift i opmærksomhed, opdeling af opmærksomhed, hvor der fokuseres på to eller flere stimuli på samme tid, samt deltagende opmærksomhed, hvor to eller flere personer fokuserer på det samme.</t>
   </si>
   <si>
     <t>3591c972-5b15-4bbd-86c7-91622cda56e8</t>
@@ -1305,7 +1311,7 @@
     <t>Virkelighedsopfattelse</t>
   </si>
   <si>
-    <t>Virkelighedsopfattelse er den mentale funktion, der er bestemmende for genkendelse og fortolkning af sanseindtryk. Virkelighedsopfattelse adskiller sig fra de fysiske funktioner vedr�rende sanserne ved at have fokus p�, hvordan en person genkender og fortolker sanseindtrykkene og ikke, hvorvidt de sanses eller ej. Begrebet omfatter fx hallucinationer og vrangforestillinger.</t>
+    <t>Virkelighedsopfattelse er den mentale funktion, der er bestemmende for genkendelse og fortolkning af sanseindtryk. Virkelighedsopfattelse adskiller sig fra de fysiske funktioner vedrørende sanserne ved at have fokus på, hvordan en person genkender og fortolker sanseindtrykkene og ikke, hvorvidt de sanses eller ej. Begrebet omfatter fx hallucinationer og vrangforestillinger.</t>
   </si>
   <si>
     <t>4934e45a-0f93-4c23-a767-2b681378700b</t>
@@ -1314,7 +1320,7 @@
     <t>Bevidsthedstilstand</t>
   </si>
   <si>
-    <t>Bevidsthedstilstand er en mental funktion, der er bestemmende for v�genhed. Eksempler p� bevidsthedstilstand kan v�re, at en person er v�gen i perioder, men i andre perioder er i en vegetativ tilstand. Relevante aspekter af bevidsthedstilstand er fx hyppigheden eller varigheden af v�genhed, hvorvidt personen er i koma eller trance eller taber bevidstheden. Begrebet omfatter ikke, hvorvidt en person handler bevidst eller intentionelt og skal heller ikke forveksles med begrebet 'virkelighedsopfattelse' eller 'indsigt i egen situation'.</t>
+    <t>Bevidsthedstilstand er en mental funktion, der er bestemmende for vågenhed. Eksempler på bevidsthedstilstand kan være, at en person er vågen i perioder, men i andre perioder er i en vegetativ tilstand. Relevante aspekter af bevidsthedstilstand er fx hyppigheden eller varigheden af vågenhed, hvorvidt personen er i koma eller trance eller taber bevidstheden. Begrebet omfatter ikke, hvorvidt en person handler bevidst eller intentionelt og skal heller ikke forveksles med begrebet 'virkelighedsopfattelse' eller 'indsigt i egen situation'.</t>
   </si>
   <si>
     <t>52e0b8dd-f5fa-4e1a-b66e-f5e4a41bd313</t>
@@ -1323,7 +1329,7 @@
     <t>Psykosociale funktioner</t>
   </si>
   <si>
-    <t>De psykosociale funktioner er en mental funktion, som udvikles gennem livet, og som er n�dvendig for at danne, indg� i og fastholde relationer med andre mennesker. De psykosociale funktioner danner dermed baggrund for en persons sociale og mellemmenneskelige f�rdigheder. De omfatter fx evnen til at afl�se andres f�lelser eller sociale normer. De omfatter ogs� psykologiske funktioner, som er en foruds�tning for at indg� i relationer, fx selvv�rd og identitetsdannelse.</t>
+    <t>De psykosociale funktioner er en mental funktion, som udvikles gennem livet, og som er nødvendig for at danne, indgå i og fastholde relationer med andre mennesker. De psykosociale funktioner danner dermed baggrund for en persons sociale og mellemmenneskelige færdigheder. De omfatter fx evnen til at aflæse andres følelser eller sociale normer. De omfatter også psykologiske funktioner, som er en forudsætning for at indgå i relationer, fx selvværd og identitetsdannelse.</t>
   </si>
   <si>
     <t>61452fe5-cea2-4d92-b2f1-406e9a5d31cb</t>
@@ -1332,7 +1338,7 @@
     <t>Hukommelse</t>
   </si>
   <si>
-    <t>Hukommelse er en mental funktion, der er bestemmende for registrering, lagring og genkaldelse af information efter behov. Hukommelse er fx korttidshukommelse og langtidshukommelse, herunder genkaldelse af information, der er gemt i langtidshukommelsen og bringes frem i bevidstheden. Eksempler p� hukommelse kan v�re evnen til at huske aftaler, steder og personer, ligesom der kan skelnes mellem fx auditiv, visuel, taktil eller f�lelsesm�ssig hukommelse.</t>
+    <t>Hukommelse er en mental funktion, der er bestemmende for registrering, lagring og genkaldelse af information efter behov. Hukommelse er fx korttidshukommelse og langtidshukommelse, herunder genkaldelse af information, der er gemt i langtidshukommelsen og bringes frem i bevidstheden. Eksempler på hukommelse kan være evnen til at huske aftaler, steder og personer, ligesom der kan skelnes mellem fx auditiv, visuel, taktil eller følelsesmæssig hukommelse.</t>
   </si>
   <si>
     <t>6279a3dc-7085-4157-809c-f96922242b1b</t>
@@ -1341,43 +1347,43 @@
     <t>Indsigt i egen situation</t>
   </si>
   <si>
-    <t>Indsigt i egen situation er en mental funktion, der vedr�rer bevidsthed om og forst�else af en selv og egen adf�rd. Indsigt i egen situation er fx en persons indsigt i en eventuel funktionsneds�ttelse eller socialt problem og konsekvenserne heraf.</t>
+    <t>Indsigt i egen situation er en mental funktion, der vedrører bevidsthed om og forståelse af en selv og egen adfærd. Indsigt i egen situation er fx en persons indsigt i en eventuel funktionsnedsættelse eller socialt problem og konsekvenserne heraf.</t>
   </si>
   <si>
     <t>8028b034-cad2-42df-b51c-aaba9c0bba61</t>
   </si>
   <si>
-    <t>Igangs�tning og motivation</t>
-  </si>
-  <si>
-    <t>Igangs�tning og motivation er en mental funktion, som f�r en person til at opn� tilfredsstillelse af specifikke behov og overordnede m�l p� en vedholdende m�de. Igangs�tning og motivation er fx en persons energiniveau, motivation, appetit og trang samt impulskontrol. Begrebet omfatter dermed en persons evne til at oms�tte en tanke eller f�lelse i handling, hvor man tager initiativ til at igangs�tte en aktivitet og afslutte den. Det at opn� eller bevare h�b som vigtig motivationsfaktor er ogs� omfattet af begrebet.</t>
+    <t>Igangsætning og motivation</t>
+  </si>
+  <si>
+    <t>Igangsætning og motivation er en mental funktion, som får en person til at opnå tilfredsstillelse af specifikke behov og overordnede mål på en vedholdende måde. Igangsætning og motivation er fx en persons energiniveau, motivation, appetit og trang samt impulskontrol. Begrebet omfatter dermed en persons evne til at omsætte en tanke eller følelse i handling, hvor man tager initiativ til at igangsætte en aktivitet og afslutte den. Det at opnå eller bevare håb som vigtig motivationsfaktor er også omfattet af begrebet.</t>
   </si>
   <si>
     <t>9c2173e6-6465-44d3-af16-7c44059193b2</t>
   </si>
   <si>
-    <t>Organisering og planl�gning</t>
-  </si>
-  <si>
-    <t>Organisering og planl�gning er en mental funktion, der vedr�rer helhedsdannelse, systematisering og udvikling af metode til fremgangsm�de eller handling.</t>
+    <t>Organisering og planlægning</t>
+  </si>
+  <si>
+    <t>Organisering og planlægning er en mental funktion, der vedrører helhedsdannelse, systematisering og udvikling af metode til fremgangsmåde eller handling.</t>
   </si>
   <si>
     <t>b93216fa-3843-4a7e-85bc-e3ef35a1967f</t>
   </si>
   <si>
-    <t>Probleml�sning</t>
-  </si>
-  <si>
-    <t>Probleml�sning er en mental funktion, der er bestemmende for identifikation, analyse og integrering af uoverensstemmende eller modstridende informationer til en l�sning. Probleml�sning er dermed en persons evne til at l�se problemer, herunder at identificere, at der er et problem, analysere det og fremkomme med en l�sning.</t>
+    <t>Problemløsning</t>
+  </si>
+  <si>
+    <t>Problemløsning er en mental funktion, der er bestemmende for identifikation, analyse og integrering af uoverensstemmende eller modstridende informationer til en løsning. Problemløsning er dermed en persons evne til at løse problemer, herunder at identificere, at der er et problem, analysere det og fremkomme med en løsning.</t>
   </si>
   <si>
     <t>dccaa419-0bcd-4056-a11a-2e385e23edc6</t>
   </si>
   <si>
-    <t>F�lelser og adf�rd</t>
-  </si>
-  <si>
-    <t>F�lelser og adf�rd er en mental funktion, der er forbundet med f�lelser og en persons tilb�jelighed til at reagere p� bestemte m�der i forskellige situationer. F�lelser og adf�rd er fx, hvorvidt en person har f�lelser, der er afstemt eller passer til den situation, personen er i, og kan regulere sine f�lelser. Begrebet vedr�rer ogs� personens f�lelsesm�ssige sp�ndvidde. F�lelser kan komme til udtryk gennem adf�rd. Eksempler p� adf�rd er ind- og udadreagerende adf�rd, seksuelt kr�nkende adf�rd, selvskadende adf�rd eller selvmordsfors�g.</t>
+    <t>Følelser og adfærd</t>
+  </si>
+  <si>
+    <t>Følelser og adfærd er en mental funktion, der er forbundet med følelser og en persons tilbøjelighed til at reagere på bestemte måder i forskellige situationer. Følelser og adfærd er fx, hvorvidt en person har følelser, der er afstemt eller passer til den situation, personen er i, og kan regulere sine følelser. Begrebet vedrører også personens følelsesmæssige spændvidde. Følelser kan komme til udtryk gennem adfærd. Eksempler på adfærd er ind- og udadreagerende adfærd, seksuelt krænkende adfærd, selvskadende adfærd eller selvmordsforsøg.</t>
   </si>
   <si>
     <t>ef4271c4-f942-4194-a2b0-e9a7045eab22</t>
@@ -1386,7 +1392,7 @@
     <t>Intellektuelle funktioner</t>
   </si>
   <si>
-    <t>Den intellektuelle funktion er en overordnet mental funktion, som kr�ves til forst�else og integrering af forskellige mentale funktioner og deres udvikling over et livsl�b. Begrebet har betydning i forhold til fx indl�ringsevne og intellektuel form�en, herunder en persons skolef�rdigheder. Begrebet omfatter ikke de eksekutive funktioner, s� som organisering og planl�gning, probleml�sning og indsigt i egen situation.</t>
+    <t>Den intellektuelle funktion er en overordnet mental funktion, som kræves til forståelse og integrering af forskellige mentale funktioner og deres udvikling over et livsløb. Begrebet har betydning i forhold til fx indlæringsevne og intellektuel formåen, herunder en persons skolefærdigheder. Begrebet omfatter ikke de eksekutive funktioner, så som organisering og planlægning, problemløsning og indsigt i egen situation.</t>
   </si>
   <si>
     <t>f7c0ef6c-18ba-4d38-9df5-4c891f154a08</t>
@@ -1395,7 +1401,7 @@
     <t>Orienteringsevne</t>
   </si>
   <si>
-    <t>Orienteringsevne en en mental funktion, der er bestemmende for kendskab til og konstatering af relationerne til en selv, til andre, til tid, sted og andre omgivelser. Orienteringsevne er fx en persons evne til at orientere sig i tid og sted, rum og retning og forst� egen identitet og identiteten af personer i personens umiddelbare n�rhed.</t>
+    <t>Orienteringsevne en en mental funktion, der er bestemmende for kendskab til og konstatering af relationerne til en selv, til andre, til tid, sted og andre omgivelser. Orienteringsevne er fx en persons evne til at orientere sig i tid og sted, rum og retning og forstå egen identitet og identiteten af personer i personens umiddelbare nærhed.</t>
   </si>
   <si>
     <t>4fb78b88-d3af-4cfb-84d7-f06daf423317</t>
@@ -1404,16 +1410,16 @@
     <t>Sundhedsforhold</t>
   </si>
   <si>
-    <t>Sundhedsforhold er forhold, der p�virker en persons sundhed.</t>
+    <t>Sundhedsforhold er forhold, der påvirker en persons sundhed.</t>
   </si>
   <si>
     <t>081ab1be-7dc1-41fa-803c-12a146eb0b74</t>
   </si>
   <si>
-    <t>Sundhedsfaglig behandling og tr�ning</t>
-  </si>
-  <si>
-    <t>Sundhedsfaglig behandling og tr�ning er forhold vedr�rende behandling og tr�ning, som er bevilget efter sundhedsloven. Begrebet omfatter tidligere og nuv�rende behandling og tr�ning, der er bevilget efter sundhedsloven, herunder medicinsk behandling. Begrebet omfatter ikke bevillinger efter serviceloven eller alternativ, uautoriseret behandling.</t>
+    <t>Sundhedsfaglig behandling og træning</t>
+  </si>
+  <si>
+    <t>Sundhedsfaglig behandling og træning er forhold vedrørende behandling og træning, som er bevilget efter sundhedsloven. Begrebet omfatter tidligere og nuværende behandling og træning, der er bevilget efter sundhedsloven, herunder medicinsk behandling. Begrebet omfatter ikke bevillinger efter serviceloven eller alternativ, uautoriseret behandling.</t>
   </si>
   <si>
     <t>0b650369-258a-4d01-a811-42b306c2f89d</t>
@@ -1422,7 +1428,7 @@
     <t>Motion</t>
   </si>
   <si>
-    <t>Motion er en handling, hvor en person udf�rer regelm�ssige, fysiske aktiviteter med henblik p� at bevare et godt helbred og holde kroppen i form.</t>
+    <t>Motion er en handling, hvor en person udfører regelmæssige, fysiske aktiviteter med henblik på at bevare et godt helbred og holde kroppen i form.</t>
   </si>
   <si>
     <t>69dbfad7-859a-4596-8737-8054f6b4948f</t>
@@ -1437,10 +1443,10 @@
     <t>83376fdb-f55d-4dd9-944e-b49631a9836f</t>
   </si>
   <si>
-    <t>S�vn</t>
-  </si>
-  <si>
-    <t>S�vn er en tilstand, hvis kvalitet afg�res af s�vnm�ngden og forhold omkring indsovning og gennemsovning, og hvorvidt der er tale om en naturlig s�vn med optimal fysisk og psykisk hvile og afslapning.</t>
+    <t>Søvn</t>
+  </si>
+  <si>
+    <t>Søvn er en tilstand, hvis kvalitet afgøres af søvnmængden og forhold omkring indsovning og gennemsovning, og hvorvidt der er tale om en naturlig søvn med optimal fysisk og psykisk hvile og afslapning.</t>
   </si>
   <si>
     <t>c67aed23-d4f3-4ae6-8886-156c99048e5b</t>
@@ -1449,7 +1455,7 @@
     <t>Kost</t>
   </si>
   <si>
-    <t>Kost er en persons indtagelse af f�demidler og deres sammens�tning. Et relevant aspekt af kost er ogs�, hvorvidt en person spiser og drikker tilstr�kkeligt eller for lidt eller for meget.</t>
+    <t>Kost er en persons indtagelse af fødemidler og deres sammensætning. Et relevant aspekt af kost er også, hvorvidt en person spiser og drikker tilstrækkeligt eller for lidt eller for meget.</t>
   </si>
   <si>
     <t>c8f4475a-8de3-4920-ad0c-eea78c49a68d</t>
@@ -1458,16 +1464,16 @@
     <t>Rusmidler</t>
   </si>
   <si>
-    <t>En persons situation vedr�rende rusmidler er den samlede m�ngde af forhold, der har at g�re med en persons brug af rusmidler. Et eksempel p� en situation vedr�rende rusmidler kan v�re en bekymrende hyppig brug af rusmidler eller selvmedicinering med hash. Eksempler p� problematikker vedr�rende rusmidler kan v�re alkohol- og stofmisbrug eller misbrug af l�gemidler. Et eksempel p� ressourcer vedr�rende rusmidler kan v�re et gennemf�rt behandlingsforl�b.</t>
+    <t>En persons situation vedrørende rusmidler er den samlede mængde af forhold, der har at gøre med en persons brug af rusmidler. Et eksempel på en situation vedrørende rusmidler kan være en bekymrende hyppig brug af rusmidler eller selvmedicinering med hash. Eksempler på problematikker vedrørende rusmidler kan være alkohol- og stofmisbrug eller misbrug af lægemidler. Et eksempel på ressourcer vedrørende rusmidler kan være et gennemført behandlingsforløb.</t>
   </si>
   <si>
     <t>e6f82424-da5a-41d1-bd1a-5796aa79d5f2</t>
   </si>
   <si>
-    <t>D�gnrytme</t>
-  </si>
-  <si>
-    <t>D�gnrytme er den struktur, som en person inddeler d�gnets forskellige aktiviteter i. D�gnrytmen opst�r fx ved at spise, arbejde og sove p� mere eller mindre fastlagte tidspunkter.</t>
+    <t>Døgnrytme</t>
+  </si>
+  <si>
+    <t>Døgnrytme er den struktur, som en person inddeler døgnets forskellige aktiviteter i. Døgnrytmen opstår fx ved at spise, arbejde og sove på mere eller mindre fastlagte tidspunkter.</t>
   </si>
   <si>
     <t>f5b8e809-7689-4952-838c-a069c99408b3</t>
@@ -1476,7 +1482,7 @@
     <t>Tobak</t>
   </si>
   <si>
-    <t>Tobak omfatter b�de cigaretter, pibe, vandpibe, e-cigaretter, snus mv.</t>
+    <t>Tobak omfatter både cigaretter, pibe, vandpibe, e-cigaretter, snus mv.</t>
   </si>
   <si>
     <t>a134c31d-d316-46d4-935e-e500874dbbe1</t>
@@ -1494,16 +1500,16 @@
     <t>Stemme og tale</t>
   </si>
   <si>
-    <t>Stemme og tale er en fysisk funktion, der vedr�rer frembringelse af lyd og tale.</t>
+    <t>Stemme og tale er en fysisk funktion, der vedrører frembringelse af lyd og tale.</t>
   </si>
   <si>
     <t>3b4bcb40-f761-46a5-bc5f-b30ac37c88ed</t>
   </si>
   <si>
-    <t>Bev�gelse</t>
-  </si>
-  <si>
-    <t>Bev�gelse er en fysisk funktion, der vedr�rer bev�gelse af kroppen. Bev�gelse sp�nder bredt fra en persons reflekser, ufrivillige og viljesbestemte bev�gelser til gang, l�b eller andre bev�gelser, som inddrager hele kroppen.</t>
+    <t>Bevægelse</t>
+  </si>
+  <si>
+    <t>Bevægelse er en fysisk funktion, der vedrører bevægelse af kroppen. Bevægelse spænder bredt fra en persons reflekser, ufrivillige og viljesbestemte bevægelser til gang, løb eller andre bevægelser, som inddrager hele kroppen.</t>
   </si>
   <si>
     <t>9959e779-e8ee-47e8-989b-bbff4aae2883</t>
@@ -1512,7 +1518,7 @@
     <t>Syn</t>
   </si>
   <si>
-    <t>Syn er en fysisk funktion, der vedr�rer opfattelse af lys og af form, st�rrelse og farve af visuelle stimuli.</t>
+    <t>Syn er en fysisk funktion, der vedrører opfattelse af lys og af form, størrelse og farve af visuelle stimuli.</t>
   </si>
   <si>
     <t>b37419b3-c5f2-43e9-9e9d-4037b06b3fa5</t>
@@ -1521,16 +1527,16 @@
     <t>Smerte og sansefunktioner</t>
   </si>
   <si>
-    <t>Smerte og sansefunktioner er en fysisk funktion, der vedr�rer opfattelsen af sanseindtryk samt ubehagelige fornemmelser som tegn p� potentiel eller aktuel skade eller tilstand p� dele af kroppen. Sanseindtryk omfatter fx ber�ringssans, temperatursans, lugt- og smagssans samt opfattelsen af kropsdeles position i forhold til hinanden. Smerter omfatter ogs� fantomsmerter.</t>
+    <t>Smerte og sansefunktioner er en fysisk funktion, der vedrører opfattelsen af sanseindtryk samt ubehagelige fornemmelser som tegn på potentiel eller aktuel skade eller tilstand på dele af kroppen. Sanseindtryk omfatter fx berøringssans, temperatursans, lugt- og smagssans samt opfattelsen af kropsdeles position i forhold til hinanden. Smerter omfatter også fantomsmerter.</t>
   </si>
   <si>
     <t>eb3599bc-c0bb-4281-8a1c-bf6eab8ffde3</t>
   </si>
   <si>
-    <t>H�relse</t>
-  </si>
-  <si>
-    <t>H�relse er en fysisk funktion, der vedr�rer opfattelse af lyde og skelnen af lokalisation, tone, styrke og kvalitet af lyde.</t>
+    <t>Hørelse</t>
+  </si>
+  <si>
+    <t>Hørelse er en fysisk funktion, der vedrører opfattelse af lyde og skelnen af lokalisation, tone, styrke og kvalitet af lyde.</t>
   </si>
   <si>
     <t>e1836145-0c20-4e20-971e-d62dfe4ea1a0</t>
@@ -1539,16 +1545,16 @@
     <t>Sociale forhold</t>
   </si>
   <si>
-    <t>Sociale forhold er tilstande, vilk�r, h�ndelser eller andre personlige faktorer, som relaterer til en persons baggrund og historie, er af social karakter og har betydning for en persons funktionsevne. Sociale forhold kan enten beskytte mod eller f�re til, at et socialt problem opst�r.</t>
+    <t>Sociale forhold er tilstande, vilkår, hændelser eller andre personlige faktorer, som relaterer til en persons baggrund og historie, er af social karakter og har betydning for en persons funktionsevne. Sociale forhold kan enten beskytte mod eller føre til, at et socialt problem opstår.</t>
   </si>
   <si>
     <t>08aa68ce-acd6-4e03-b6b5-091811324345</t>
   </si>
   <si>
-    <t>�konomisk situation</t>
-  </si>
-  <si>
-    <t>En persons �konomiske situation er den samlede m�ngde af forhold, der bestemmer, hvordan en person er stillet finansielt. Et eksempel p� �konomisk situation kan v�re, at man er p� kontanthj�lp eller har fast indt�gt, lever af opsparing, har mistet sin indt�gt eller l�ner penge af sit netv�rk. Problematikker omkring den �konomiske situation kan fx omfatte utilstr�kkelige �konomiske ressourcer eller g�ld. Ressourcer i forhold til den �konomiske situation kan fx v�re, at man er trygt stillet �konomisk.</t>
+    <t>Økonomisk situation</t>
+  </si>
+  <si>
+    <t>En persons økonomiske situation er den samlede mængde af forhold, der bestemmer, hvordan en person er stillet finansielt. Et eksempel på økonomisk situation kan være, at man er på kontanthjælp eller har fast indtægt, lever af opsparing, har mistet sin indtægt eller låner penge af sit netværk. Problematikker omkring den økonomiske situation kan fx omfatte utilstrækkelige økonomiske ressourcer eller gæld. Ressourcer i forhold til den økonomiske situation kan fx være, at man er trygt stillet økonomisk.</t>
   </si>
   <si>
     <t>35c56275-0093-4901-9fd8-d06fdb5cb8f3</t>
@@ -1557,7 +1563,7 @@
     <t>Boligsituation</t>
   </si>
   <si>
-    <t>En persons boligsituation er den samlede m�ngde af forhold, der bestemmer, hvordan en person er stillet med hensyn til bolig. Et eksempel p� boligsituation kan fx v�re, at man bor til leje eller er opsagt, bor ude eller hjemme, mangler egen bolig og pt. bor hos personer i netv�rket osv. Problematikker i forhold til boligsituationen kan v�re uhensigtsm�ssig indretning i forhold til beboerens behov, uhensigtsm�ssig brug af boligen eller hjeml�shed, hvor en person ikke har eller ikke kan opholde sig i egen bolig. Ressourcer i forhold til boligsituationen kan v�re, at ens bolig er indrettet hensigtsm�ssigt i forhold til ens funktionsneds�ttelse, eller at man kan blive boende i sin bolig, selvom en funktionsneds�ttelse eller et socialt problem har betydet �ndringer i ens indt�gtsforhold.</t>
+    <t>En persons boligsituation er den samlede mængde af forhold, der bestemmer, hvordan en person er stillet med hensyn til bolig. Et eksempel på boligsituation kan fx være, at man bor til leje eller er opsagt, bor ude eller hjemme, mangler egen bolig og pt. bor hos personer i netværket osv. Problematikker i forhold til boligsituationen kan være uhensigtsmæssig indretning i forhold til beboerens behov, uhensigtsmæssig brug af boligen eller hjemløshed, hvor en person ikke har eller ikke kan opholde sig i egen bolig. Ressourcer i forhold til boligsituationen kan være, at ens bolig er indrettet hensigtsmæssigt i forhold til ens funktionsnedsættelse, eller at man kan blive boende i sin bolig, selvom en funktionsnedsættelse eller et socialt problem har betydet ændringer i ens indtægtsforhold.</t>
   </si>
   <si>
     <t>52efa2e9-e0dc-41eb-8c01-9865e2fdebae</t>
@@ -1566,7 +1572,7 @@
     <t>Interesser</t>
   </si>
   <si>
-    <t>Interesser er de aktiviteter eller objekter, som en person besk�ftiger sig indg�ende med og er optaget af. Interesser kan sp�nde over alle t�nkelige forhold. Eksempler p� problematikker vedr�rende interesser kan v�re, at interessen tager overh�nd og bliver for tidskr�vende eller p� anden vis er uhensigtsm�ssig. Eksempler p� ressourcer vedr�rende interesser kan v�re, at interessen virker afstressende eller motiverende eller p� anden vis bidrager positivt til livskvaliteten.</t>
+    <t>Interesser er de aktiviteter eller objekter, som en person beskæftiger sig indgående med og er optaget af. Interesser kan spænde over alle tænkelige forhold. Eksempler på problematikker vedrørende interesser kan være, at interessen tager overhånd og bliver for tidskrævende eller på anden vis er uhensigtsmæssig. Eksempler på ressourcer vedrørende interesser kan være, at interessen virker afstressende eller motiverende eller på anden vis bidrager positivt til livskvaliteten.</t>
   </si>
   <si>
     <t>7a8f247b-baf8-4552-95bb-acf8ef004b74</t>
@@ -1575,7 +1581,7 @@
     <t>Familiesituation</t>
   </si>
   <si>
-    <t>En persons familiesituation er den samlede m�ngde af forhold, der bestemmer, hvordan en person er stillet med hensyn til familie. Et eksempel p� familiesituation kan v�re, at man er gift eller samlevende, lever alene eller sammen med andre eller har b�rn. Problematikker vedr�rende familiesituation kan fx v�re skilsmisse, u�nsket social isolation, ufrivillig barnl�shed eller en syg partner. Ressourcer vedr�rende familiesituation kan v�re, at ens familiesituation er i overensstemmelse med ens egne �nsker og behov.</t>
+    <t>En persons familiesituation er den samlede mængde af forhold, der bestemmer, hvordan en person er stillet med hensyn til familie. Et eksempel på familiesituation kan være, at man er gift eller samlevende, lever alene eller sammen med andre eller har børn. Problematikker vedrørende familiesituation kan fx være skilsmisse, uønsket social isolation, ufrivillig barnløshed eller en syg partner. Ressourcer vedrørende familiesituation kan være, at ens familiesituation er i overensstemmelse med ens egne ønsker og behov.</t>
   </si>
   <si>
     <t>83cf43f1-6d71-477c-8583-2e28755b41d3</t>
@@ -1587,7 +1593,7 @@
     <t>Traumatiske oplevelser</t>
   </si>
   <si>
-    <t>Traumatiske oplevelser er konkrete oplevelser, der har belastende f�lger for en person. Eksempler p� traumatiske oplevelser er omsorgssvigt, ulykker og overgreb.</t>
+    <t>Traumatiske oplevelser er konkrete oplevelser, der har belastende følger for en person. Eksempler på traumatiske oplevelser er omsorgssvigt, ulykker og overgreb.</t>
   </si>
   <si>
     <t>e993d8c3-b7d7-4d72-9be2-937e5ba38b5a</t>
@@ -1599,7 +1605,7 @@
     <t>Uddannelse og job</t>
   </si>
   <si>
-    <t>En persons uddannelses og job er den samlede m�ngde af forhold, der bestemmer, hvordan en person er stillet med hensyn til uddannelsesniveau og arbejde. Arbejde d�kker bredt, fx b�de ordin�rt arbejde, frivilligt arbejde eller besk�ftigelsestilbud. Et eksempel p� uddannelses- og jobsituation kan v�re en gennemf�rt ungdomsuddannelse, igangv�rende enkeltfagskurser, ledighed, fast arbejde eller frivilligt arbejde. Problematikker i relation til uddannelse og job kan v�re ledighed eller h�jt frav�r fra studierne. Ressourcer i relation til uddannelse og job kan fx v�re, at man har en uddannelse eller gode erfaringer med job og besk�ftigelse.</t>
+    <t>En persons uddannelses og job er den samlede mængde af forhold, der bestemmer, hvordan en person er stillet med hensyn til uddannelsesniveau og arbejde. Arbejde dækker bredt, fx både ordinært arbejde, frivilligt arbejde eller beskæftigelsestilbud. Et eksempel på uddannelses- og jobsituation kan være en gennemført ungdomsuddannelse, igangværende enkeltfagskurser, ledighed, fast arbejde eller frivilligt arbejde. Problematikker i relation til uddannelse og job kan være ledighed eller højt fravær fra studierne. Ressourcer i relation til uddannelse og job kan fx være, at man har en uddannelse eller gode erfaringer med job og beskæftigelse.</t>
   </si>
   <si>
     <t>93433530-b85c-4d04-a4fb-5ae26cf16f1c</t>
@@ -1614,34 +1620,34 @@
     <t>Relationer</t>
   </si>
   <si>
-    <t>Relationer vedr�rer en persons relationer til og interaktion med andre mennesker. Relationer til andre d�kker b�de over evnen til at indg� og bevare relationer til andre mennesker, s�vel som deltagelse i organiseret socialt liv uden for familien, i lokalsamfundet i det sociale liv og som medborger.</t>
+    <t>Relationer vedrører en persons relationer til og interaktion med andre mennesker. Relationer til andre dækker både over evnen til at indgå og bevare relationer til andre mennesker, såvel som deltagelse i organiseret socialt liv uden for familien, i lokalsamfundet i det sociale liv og som medborger.</t>
   </si>
   <si>
     <t>3f9da5ac-9686-4eeb-b517-b46e17fcb1d7</t>
   </si>
   <si>
-    <t>Indg� i samspil og kontakt</t>
-  </si>
-  <si>
-    <t>At indg� i samspil og kontakt er en aktivitet, som best�r i at indg� i enkle eller komplekse relationer med mennesker p� en m�de, der er kontekstuelt og socialt passende. Begrebet har fokus p� evnen til at indg� i relationer. Det vil fx sige at kunne vise hensyn og respekt, n�r det er passende eller reagere p� andres f�lelser og indg� i samspil med andre mennesker (fremmede, venner, sl�gtninge, familiemedlemmer og k�rester) fx ved at kunne give og modtage kritik, reagere p� sociale signaler, anvende passende fysisk kontakt i sammenh�ngen, styre f�lelser og impulser, styre verbale og fysiske aggressioner og handle i overensstemmelse med sociale regler og konventioner.</t>
+    <t>Indgå i samspil og kontakt</t>
+  </si>
+  <si>
+    <t>At indgå i samspil og kontakt er en aktivitet, som består i at indgå i enkle eller komplekse relationer med mennesker på en måde, der er kontekstuelt og socialt passende. Begrebet har fokus på evnen til at indgå i relationer. Det vil fx sige at kunne vise hensyn og respekt, når det er passende eller reagere på andres følelser og indgå i samspil med andre mennesker (fremmede, venner, slægtninge, familiemedlemmer og kærester) fx ved at kunne give og modtage kritik, reagere på sociale signaler, anvende passende fysisk kontakt i sammenhængen, styre følelser og impulser, styre verbale og fysiske aggressioner og handle i overensstemmelse med sociale regler og konventioner.</t>
   </si>
   <si>
     <t>4c082610-b122-4019-96f2-1061e287445e</t>
   </si>
   <si>
-    <t>Varetage relationer til netv�rk</t>
-  </si>
-  <si>
-    <t>At varetage relationer til netv�rk er en handling, der best�r i at skabe og opretholde et netv�rk. Relationerne til de enkelte personer i netv�rket kan b�de v�re af formel og uformel karakter, fx relationer til professionelle fagpersoner og relationer til venner, naboer, bekendte og ligesindede.</t>
+    <t>Varetage relationer til netværk</t>
+  </si>
+  <si>
+    <t>At varetage relationer til netværk er en handling, der består i at skabe og opretholde et netværk. Relationerne til de enkelte personer i netværket kan både være af formel og uformel karakter, fx relationer til professionelle fagpersoner og relationer til venner, naboer, bekendte og ligesindede.</t>
   </si>
   <si>
     <t>dcc6bb77-45af-4625-9c4d-7d7878307220</t>
   </si>
   <si>
-    <t>Deltage i sociale f�llesskaber og fritidsaktiviteter</t>
-  </si>
-  <si>
-    <t>At deltage i sociale f�llesskaber er en handling, der best�r i at deltage i organiseret socialt liv uden for familien, i lokalsamfundet, i det sociale liv og som medborger. Begrebet har fokus p� en persons evne til og mulighed for at deltage i f�llesskaber og frivilligt arbejde, herunder fx rekreative aktiviteter og fritidsaktiviteter, religi�se eller �ndelige f�llesskaber samt politisk liv.</t>
+    <t>Deltage i sociale fællesskaber og fritidsaktiviteter</t>
+  </si>
+  <si>
+    <t>At deltage i sociale fællesskaber er en handling, der består i at deltage i organiseret socialt liv uden for familien, i lokalsamfundet, i det sociale liv og som medborger. Begrebet har fokus på en persons evne til og mulighed for at deltage i fællesskaber og frivilligt arbejde, herunder fx rekreative aktiviteter og fritidsaktiviteter, religiøse eller åndelige fællesskaber samt politisk liv.</t>
   </si>
   <si>
     <t>c2b186f9-9c10-478e-8345-2d2c37ab4c46</t>
@@ -1650,7 +1656,7 @@
     <t>Kommunikation</t>
   </si>
   <si>
-    <t>Kommunikation er en proces, der best�r af en overf�rsel eller udveksling af information. Begrebet rummer almindelige og s�rlige forhold i kommunikation med sprog, tegn og symboler, inklusive modtagelse og fremstilling af meddelelser, f�re en samtale og anvende kommunikationshj�lpemidler og -teknikker.</t>
+    <t>Kommunikation er en proces, der består af en overførsel eller udveksling af information. Begrebet rummer almindelige og særlige forhold i kommunikation med sprog, tegn og symboler, inklusive modtagelse og fremstilling af meddelelser, føre en samtale og anvende kommunikationshjælpemidler og -teknikker.</t>
   </si>
   <si>
     <t>2ba29098-a527-43d5-b858-4c5353669f42</t>
@@ -1659,7 +1665,7 @@
     <t>Fremstille meddelelser</t>
   </si>
   <si>
-    <t>At fremstille meddelelser er en aktivitet, der best�r i at frems�tte meddelelser med bogstavelige og underforst�ede betydninger mundtligt eller ved at anvende fagter, tegn, tegninger eller formaliseret tegnsprog eller skrift. Med formidling af meddelelser menes fx at g�re rede for kendsgerninger eller fort�lle en historie, udtrykke uenighed eller forklare kendsgerninger eller komplekse tanker, samt at kunne meddele sig ved hj�lp af kropssprog, almindelige tegn, symboler og billeder.</t>
+    <t>At fremstille meddelelser er en aktivitet, der består i at fremsætte meddelelser med bogstavelige og underforståede betydninger mundtligt eller ved at anvende fagter, tegn, tegninger eller formaliseret tegnsprog eller skrift. Med formidling af meddelelser menes fx at gøre rede for kendsgerninger eller fortælle en historie, udtrykke uenighed eller forklare kendsgerninger eller komplekse tanker, samt at kunne meddele sig ved hjælp af kropssprog, almindelige tegn, symboler og billeder.</t>
   </si>
   <si>
     <t>986898d0-e2e5-4afa-9cb3-ee7aecaa0143</t>
@@ -1668,16 +1674,16 @@
     <t>Samtale</t>
   </si>
   <si>
-    <t>Samtale er en aktivitet, der best�r i at indlede, opretholde og afslutte udveksling af tanker og ideer frembragt enten i talesprog, tegnsprog eller med andre sprog mellem en eller flere personer.</t>
+    <t>Samtale er en aktivitet, der består i at indlede, opretholde og afslutte udveksling af tanker og ideer frembragt enten i talesprog, tegnsprog eller med andre sprog mellem en eller flere personer.</t>
   </si>
   <si>
     <t>9bbbffef-c404-4ea3-a927-cd22d8027e6d</t>
   </si>
   <si>
-    <t>Forst� meddelelser</t>
-  </si>
-  <si>
-    <t>At forst� meddelelser er en aktivitet, der best�r i at forst� bogstavelige og underforst�ede meninger i talesprog eller i meddelelser, som formidles med fagter, symboler og tegninger i formaliseret tegnsprog eller p� skrift. Med forst� menes fx at skelne om en udtalelse udtrykker en kendsgerning eller er et billedligt udtryk, samt at kunne forst� betydningen af kropssprog, almindelige tegn, symboler og billeder.</t>
+    <t>Forstå meddelelser</t>
+  </si>
+  <si>
+    <t>At forstå meddelelser er en aktivitet, der består i at forstå bogstavelige og underforståede meninger i talesprog eller i meddelelser, som formidles med fagter, symboler og tegninger i formaliseret tegnsprog eller på skrift. Med forstå menes fx at skelne om en udtalelse udtrykker en kendsgerning eller er et billedligt udtryk, samt at kunne forstå betydningen af kropssprog, almindelige tegn, symboler og billeder.</t>
   </si>
   <si>
     <t>a80e8f96-18ba-4ee4-9496-d3ce882c2f85</t>
@@ -1686,7 +1692,7 @@
     <t>Anvende kommunikationsudstyr- og teknikker</t>
   </si>
   <si>
-    <t>At anvende kommunikationsudstyr og -teknikker er en aktivitet, der best�r i at anvende udstyr og teknikker med kommunikationsform�l. Kommunikationsudstyr omfatter ogs� kommunikationshj�lpemidler. Eksempler p� udstyr er fx telefon, sms og computer, et eksempel p� teknik er Braille og mundafl�sning.</t>
+    <t>At anvende kommunikationsudstyr og -teknikker er en aktivitet, der består i at anvende udstyr og teknikker med kommunikationsformål. Kommunikationsudstyr omfatter også kommunikationshjælpemidler. Eksempler på udstyr er fx telefon, sms og computer, et eksempel på teknik er Braille og mundaflæsning.</t>
   </si>
   <si>
     <t>d1495b2c-1452-4e49-8dbe-8193af5d8823</t>
@@ -1695,43 +1701,43 @@
     <t>Mobilitet</t>
   </si>
   <si>
-    <t>Mobilitet er en aktivitet, der vedr�rer bev�gelse og f�rden. Det kan fx v�re �ndring eller opretholdelse af kropsstilling eller -placering eller bev�gelse fra �t sted til et andet, flytning og h�ndtering af genstande, f�rden ved gang, l�b eller klatring og ved anvendelse af forskellige transportmidler.</t>
+    <t>Mobilitet er en aktivitet, der vedrører bevægelse og færden. Det kan fx være ændring eller opretholdelse af kropsstilling eller -placering eller bevægelse fra ét sted til et andet, flytning og håndtering af genstande, færden ved gang, løb eller klatring og ved anvendelse af forskellige transportmidler.</t>
   </si>
   <si>
     <t>320c9aa6-630e-4695-bba2-29ea808fad24</t>
   </si>
   <si>
-    <t>B�re, flytte og h�ndtere genstande</t>
-  </si>
-  <si>
-    <t>At b�re, flytte og h�ndtere genstande er en aktivitet, der best�r i at l�fte en genstand op og flytte noget fra �t sted til et andet ved hj�lp af h�nder, arme eller ben.</t>
+    <t>Bære, flytte og håndtere genstande</t>
+  </si>
+  <si>
+    <t>At bære, flytte og håndtere genstande er en aktivitet, der består i at løfte en genstand op og flytte noget fra ét sted til et andet ved hjælp af hænder, arme eller ben.</t>
   </si>
   <si>
     <t>4977ce08-df4d-4c09-8e03-c2a563862e68</t>
   </si>
   <si>
-    <t>G� og bev�ge sig</t>
-  </si>
-  <si>
-    <t>At g� og bev�ge sig er en aktivitet, der best�r i at bev�ge sig fra et sted til et andet i forskellige omgivelser. Begrebet rummer ogs� f�rden med brug af udstyr, fx k�restol eller gangstativ.</t>
+    <t>Gå og bevæge sig</t>
+  </si>
+  <si>
+    <t>At gå og bevæge sig er en aktivitet, der består i at bevæge sig fra et sted til et andet i forskellige omgivelser. Begrebet rummer også færden med brug af udstyr, fx kørestol eller gangstativ.</t>
   </si>
   <si>
     <t>759ddc8e-57c0-4aa6-8d32-14d8eb51c5dd</t>
   </si>
   <si>
-    <t>�ndre og opretholde kropsstilling</t>
-  </si>
-  <si>
-    <t>At �ndre og opretholde kropsstilling er en aktivitet, der best�r i at skifte kropsstilling eller holde kroppen i samme stilling efter behov. Begrebet rummer ogs� at flytte sig fra et sted til et andet og skifte eller bevare kropsstilling undervejs.</t>
+    <t>Ændre og opretholde kropsstilling</t>
+  </si>
+  <si>
+    <t>At ændre og opretholde kropsstilling er en aktivitet, der består i at skifte kropsstilling eller holde kroppen i samme stilling efter behov. Begrebet rummer også at flytte sig fra et sted til et andet og skifte eller bevare kropsstilling undervejs.</t>
   </si>
   <si>
     <t>eff3385d-01fa-4c9c-9850-52e179243f21</t>
   </si>
   <si>
-    <t>F�rdes med transportmidler</t>
-  </si>
-  <si>
-    <t>At f�rdes med transportmidler en en aktivitet, der best�r i at bruge transportmidler som passager eller chauff�r til at komme omkring.</t>
+    <t>Færdes med transportmidler</t>
+  </si>
+  <si>
+    <t>At færdes med transportmidler en en aktivitet, der består i at bruge transportmidler som passager eller chauffør til at komme omkring.</t>
   </si>
   <si>
     <t>da3f488f-1742-4d00-b247-a7d47500b36b</t>
@@ -1740,7 +1746,7 @@
     <t>Egenomsorg</t>
   </si>
   <si>
-    <t>Egenomsorg er en aktivitet, der vedr�rer praktiske og hygiejnem�ssige handlinger i relation til personen selv. Handlingerne kan fx v�re vaske og t�rre sig, pleje af kroppen og kropsdele, p�kl�dning, spise og drikke og tage vare p� egen sundhed.</t>
+    <t>Egenomsorg er en aktivitet, der vedrører praktiske og hygiejnemæssige handlinger i relation til personen selv. Handlingerne kan fx være vaske og tørre sig, pleje af kroppen og kropsdele, påklædning, spise og drikke og tage vare på egen sundhed.</t>
   </si>
   <si>
     <t>14615a09-bd94-4602-b43a-f6d3d3f9801d</t>
@@ -1749,7 +1755,7 @@
     <t>Drikke</t>
   </si>
   <si>
-    <t>At drikke er en aktivitet, der best�r i at holde fast om en drik, tage drikken op til munden og drikke p� en kulturelt accepteret m�de. Begrebet rummer ogs� at blande, omr�re og sk�nke drikke op, �bne flasker og d�ser og bruge suger�r.</t>
+    <t>At drikke er en aktivitet, der består i at holde fast om en drik, tage drikken op til munden og drikke på en kulturelt accepteret måde. Begrebet rummer også at blande, omrøre og skænke drikke op, åbne flasker og dåser og bruge sugerør.</t>
   </si>
   <si>
     <t>28fbf17e-bca3-45e1-be35-553e3d91f1b7</t>
@@ -1758,16 +1764,16 @@
     <t>Varetage sin seksualitet</t>
   </si>
   <si>
-    <t>At varetage sin seksualitet handler om, hvorvidt en persons funktionsneds�ttelse eller sociale problemer giver begr�nsninger i forhold til at udleve ens seksualitet.</t>
+    <t>At varetage sin seksualitet handler om, hvorvidt en persons funktionsnedsættelse eller sociale problemer giver begrænsninger i forhold til at udleve ens seksualitet.</t>
   </si>
   <si>
     <t>347aa085-4fe2-411f-ac56-5693d164adc3</t>
   </si>
   <si>
-    <t>Kl�de sig af og p�</t>
-  </si>
-  <si>
-    <t>At kl�de sig af og p� er en aktivitet, der best�r i at tage t�j og sko af og p� i r�kkef�lge og i overensstemmelse med den sociale sammenh�ng og de klimatiske forhold.</t>
+    <t>Klæde sig af og på</t>
+  </si>
+  <si>
+    <t>At klæde sig af og på er en aktivitet, der består i at tage tøj og sko af og på i rækkefølge og i overensstemmelse med den sociale sammenhæng og de klimatiske forhold.</t>
   </si>
   <si>
     <t>3a748135-98a8-416a-808d-bff88a8e40ee</t>
@@ -1776,7 +1782,7 @@
     <t>Dyrke interesse</t>
   </si>
   <si>
-    <t>At dyrke en interesse er en handling, der best�r i at bruge tid og energi p� en bestemt aktivitet eller ting, som man er optaget af. Det kan fx v�re at samle p� bestemte ting, spille computerspil eller lave h�ndarbejde.</t>
+    <t>At dyrke en interesse er en handling, der består i at bruge tid og energi på en bestemt aktivitet eller ting, som man er optaget af. Det kan fx være at samle på bestemte ting, spille computerspil eller lave håndarbejde.</t>
   </si>
   <si>
     <t>464a2ab6-a7df-4b3a-b74d-7873f4cfe668</t>
@@ -1785,7 +1791,7 @@
     <t>Spise</t>
   </si>
   <si>
-    <t>At spise er en aktivitet af sammensat karakter i forbindelse med indtagelse af f�de, som er serveret for en, herunder at f� maden op til munden og spise p� en kulturelt accepteret m�de. Begrebet rummer ogs� at sk�re eller bryde maden i stykker, �bne flasker og d�ser, anvende spiseredskaber, deltage i m�ltider og i festligheder.</t>
+    <t>At spise er en aktivitet af sammensat karakter i forbindelse med indtagelse af føde, som er serveret for en, herunder at få maden op til munden og spise på en kulturelt accepteret måde. Begrebet rummer også at skære eller bryde maden i stykker, åbne flasker og dåser, anvende spiseredskaber, deltage i måltider og i festligheder.</t>
   </si>
   <si>
     <t>4a58417e-9a75-43f2-9763-66505050159f</t>
@@ -1794,7 +1800,7 @@
     <t>Varetage egen sundhed</t>
   </si>
   <si>
-    <t>At varetage egen sundhed er en handling, der best�r i at sikre sit velv�re, helbred og fysiske og psykiske velbefindende. Varetagelse af egen sundhed omfatter fx at tage vare p� sig selv ved at v�re opm�rksom p�, at man har brug for og skal g�re det, der er n�dvendigt til varetagelse af egen sundhed, b�de ved at reagere p� risikofaktorer og forebygge sygdom ved fx at ops�ge professionel hj�lp, f�lge medicinsk behandling og l�gelige og andre r�d om sundhed, undg� risikofaktorer som fysiske skader, smitsomme sygdomme, misbrug og seksuelt overf�rbare sygdomme.</t>
+    <t>At varetage egen sundhed er en handling, der består i at sikre sit velvære, helbred og fysiske og psykiske velbefindende. Varetagelse af egen sundhed omfatter fx at tage vare på sig selv ved at være opmærksom på, at man har brug for og skal gøre det, der er nødvendigt til varetagelse af egen sundhed, både ved at reagere på risikofaktorer og forebygge sygdom ved fx at opsøge professionel hjælp, følge medicinsk behandling og lægelige og andre råd om sundhed, undgå risikofaktorer som fysiske skader, smitsomme sygdomme, misbrug og seksuelt overførbare sygdomme.</t>
   </si>
   <si>
     <t>885400cc-dd71-479e-8993-3fc48fdd6710</t>
@@ -1803,16 +1809,16 @@
     <t>Vaske sig</t>
   </si>
   <si>
-    <t>At vaske sig er en aktivitet, der der best�r i at vaske og t�rre sig p� kroppen og kropsdele med anvendelse af vand og passende rensemidler. Eksempler p� vask er bad, brusebad, vaske h�nder og f�dder, ansigt og h�r og t�rre sig med h�ndkl�de.</t>
+    <t>At vaske sig er en aktivitet, der der består i at vaske og tørre sig på kroppen og kropsdele med anvendelse af vand og passende rensemidler. Eksempler på vask er bad, brusebad, vaske hænder og fødder, ansigt og hår og tørre sig med håndklæde.</t>
   </si>
   <si>
     <t>94fb3ea0-92cf-43b1-929b-c95e6fb739a1</t>
   </si>
   <si>
-    <t>G� p� toilettet</t>
-  </si>
-  <si>
-    <t>At g� p� toilettet er en aktivitet, der best�r i at planl�gge og udf�re toiletbes�g til udskillelse af affaldsprodukter og efterf�lgende reng�ring.</t>
+    <t>Gå på toilettet</t>
+  </si>
+  <si>
+    <t>At gå på toilettet er en aktivitet, der består i at planlægge og udføre toiletbesøg til udskillelse af affaldsprodukter og efterfølgende rengøring.</t>
   </si>
   <si>
     <t>b3939f0b-43d9-4e8c-bb2e-50ff8bb7ed03</t>
@@ -1821,7 +1827,7 @@
     <t>Pleje sin krop</t>
   </si>
   <si>
-    <t>At pleje sin krop er en aktivitet, der best�r i at pleje de dele af kroppen, som beh�ver anden pleje end vask og t�rring. Begrebet rummer fx pleje af hud, ansigt, t�nder, h�r, negle og k�nsdele.</t>
+    <t>At pleje sin krop er en aktivitet, der består i at pleje de dele af kroppen, som behøver anden pleje end vask og tørring. Begrebet rummer fx pleje af hud, ansigt, tænder, hår, negle og kønsdele.</t>
   </si>
   <si>
     <t>dfbe6ff6-223b-436a-b864-8ba29bda41e2</t>
@@ -1830,25 +1836,25 @@
     <t>Samfundsliv</t>
   </si>
   <si>
-    <t>Samfundsliv er forhold, der vedr�rer de opgaver og handlinger, som er n�dvendige for at varetage uddannelse, besk�ftigelse og �konomi.</t>
+    <t>Samfundsliv er forhold, der vedrører de opgaver og handlinger, som er nødvendige for at varetage uddannelse, beskæftigelse og økonomi.</t>
   </si>
   <si>
     <t>685e8517-2f5c-4ef8-a7c4-fa2d008fdd9d</t>
   </si>
   <si>
-    <t>Varetage besk�ftigelse</t>
-  </si>
-  <si>
-    <t>Varetage besk�ftigelse er en handling, der best�r i at deltage i alle aspekter af et arbejde, erhverv eller anden for for besk�ftigelse som ansat p� fuldtid eller deltid eller som selvst�ndig. Eksempler p� aspekter er at s�ge et arbejde og f� det, udf�re de n�dvendige opgaver i jobbet, m�de p� arbejde til tiden, lede andre arbejdere eller selv blive ledet samt at udf�re de n�dvendige opgaver alene eller i gruppe.</t>
+    <t>Varetage beskæftigelse</t>
+  </si>
+  <si>
+    <t>Varetage beskæftigelse er en handling, der består i at deltage i alle aspekter af et arbejde, erhverv eller anden for for beskæftigelse som ansat på fuldtid eller deltid eller som selvstændig. Eksempler på aspekter er at søge et arbejde og få det, udføre de nødvendige opgaver i jobbet, møde på arbejde til tiden, lede andre arbejdere eller selv blive ledet samt at udføre de nødvendige opgaver alene eller i gruppe.</t>
   </si>
   <si>
     <t>70443014-3faf-402d-abcf-396bfad32eb9</t>
   </si>
   <si>
-    <t>Varetage �konomi</t>
-  </si>
-  <si>
-    <t>At varetage �konomi er en handling, der best�r i at varetage opgaver i relation til ens �konomi. Begrebet omfatter varetagelse af basale �konomiske transaktioner som fx at betale for varer eller have overblik over faste udgifter, spare op eller benytte netbank.</t>
+    <t>Varetage økonomi</t>
+  </si>
+  <si>
+    <t>At varetage økonomi er en handling, der består i at varetage opgaver i relation til ens økonomi. Begrebet omfatter varetagelse af basale økonomiske transaktioner som fx at betale for varer eller have overblik over faste udgifter, spare op eller benytte netbank.</t>
   </si>
   <si>
     <t>8888edfa-642b-4329-9fe3-a9b180e6d3f4</t>
@@ -1857,16 +1863,16 @@
     <t>Varetage uddannelse</t>
   </si>
   <si>
-    <t>Varetage uddannelse er et struktureret kompetencegivende undervisningsforl�b, der kvalificerer modtageren til fortsat uddannelse eller til at ud�ve et bestemt erhverv eller udf�re en bestemt opgave. Begrebet rummer skolegang, erhvervsuddannelse og videreg�ende uddannelse.</t>
+    <t>Varetage uddannelse er et struktureret kompetencegivende undervisningsforløb, der kvalificerer modtageren til fortsat uddannelse eller til at udøve et bestemt erhverv eller udføre en bestemt opgave. Begrebet rummer skolegang, erhvervsuddannelse og videregående uddannelse.</t>
   </si>
   <si>
     <t>8bef71de-55b5-47fe-b438-18ac769106b3</t>
   </si>
   <si>
-    <t>H�ndtere post</t>
-  </si>
-  <si>
-    <t>At h�ndtere post er en handling, der omfatter at tjekke, om der er fysisk eller digital post og at reagere p� modtaget post og f�lge op herp�.</t>
+    <t>Håndtere post</t>
+  </si>
+  <si>
+    <t>At håndtere post er en handling, der omfatter at tjekke, om der er fysisk eller digital post og at reagere på modtaget post og følge op herpå.</t>
   </si>
   <si>
     <t>fd4b8dd3-5c4b-4257-8c13-ea045617d2f6</t>
@@ -1875,7 +1881,7 @@
     <t>Varetage bolig</t>
   </si>
   <si>
-    <t>At varetage bolig er en handling, der best�r i at leje eller k�be, m�blere, indrette og fastholde et hus, en lejlighed eller anden bolig. Fastholdelse af bolig kan eksempelvis v�re at efterleve en eventuel husorden eller deltage i f�llesopgaver. At varetage bolig inkluderer ogs� at flytte ud af en bolig igen.</t>
+    <t>At varetage bolig er en handling, der består i at leje eller købe, møblere, indrette og fastholde et hus, en lejlighed eller anden bolig. Fastholdelse af bolig kan eksempelvis være at efterleve en eventuel husorden eller deltage i fællesopgaver. At varetage bolig inkluderer også at flytte ud af en bolig igen.</t>
   </si>
   <si>
     <t>eef71492-65f5-4297-aa95-3c3a6866ddef</t>
@@ -1884,16 +1890,16 @@
     <t>Praktiske opgaver</t>
   </si>
   <si>
-    <t>Opgaver i hjemmet er en aktivitet, der vedr�rer huslige og andre dagligdags handlinger og opgaver i relation til husf�relse.</t>
+    <t>Opgaver i hjemmet er en aktivitet, der vedrører huslige og andre dagligdags handlinger og opgaver i relation til husførelse.</t>
   </si>
   <si>
     <t>01770afa-cd17-41fe-a966-b8895e4d55d8</t>
   </si>
   <si>
-    <t>K�be ind</t>
-  </si>
-  <si>
-    <t>Indk�b er en handling, der best�r i at k�be varer og serviceydelser, som er n�dvendige i dagligdagen. Begrebet inkluderer ogs� at instruere og vejlede en anden person i at foretage indk�bene, som fx at v�lge madvarer, drikke, reng�ringsmidler, husholdningsartikler i en forretning, p� et marked eller p� nettet; sammenligne kvalitet og pris af varerne, forhandle og betale for de valgte varer eller ydelser og transportere varerne.</t>
+    <t>Købe ind</t>
+  </si>
+  <si>
+    <t>Indkøb er en handling, der består i at købe varer og serviceydelser, som er nødvendige i dagligdagen. Begrebet inkluderer også at instruere og vejlede en anden person i at foretage indkøbene, som fx at vælge madvarer, drikke, rengøringsmidler, husholdningsartikler i en forretning, på et marked eller på nettet; sammenligne kvalitet og pris af varerne, forhandle og betale for de valgte varer eller ydelser og transportere varerne.</t>
   </si>
   <si>
     <t>4a51d7a7-61e7-48fa-a1d5-9d26337c6c38</t>
@@ -1902,25 +1908,25 @@
     <t>Passe ejendele</t>
   </si>
   <si>
-    <t>Udf�rsel af praktiske opgaver er en handling, der best�r i at vedligeholde og reparere personlige ejendele. Handlingen omfatter fx vedligehold og reparation af bekl�dning, bolig, indbo, k�ret�jer og hj�lpemidler som fx ved at male og tapetsere, reparere m�bler og installationer, sikre at k�ret�jer virker, passe og fodre k�ledyr og husdyr samt vande planter.</t>
+    <t>Udførsel af praktiske opgaver er en handling, der består i at vedligeholde og reparere personlige ejendele. Handlingen omfatter fx vedligehold og reparation af beklædning, bolig, indbo, køretøjer og hjælpemidler som fx ved at male og tapetsere, reparere møbler og installationer, sikre at køretøjer virker, passe og fodre kæledyr og husdyr samt vande planter.</t>
   </si>
   <si>
     <t>58ef570c-1c1e-47be-8bfd-26ed99825762</t>
   </si>
   <si>
-    <t>Udvise hj�lp og omsorg for andre</t>
-  </si>
-  <si>
-    <t>At udvise hj�lp og omsorg for andre er en handling, der best�r i at hj�lpe medlemmer i husstanden og andre. Begrebet rummer ogs� at hj�lpe andre med indl�ring, kommunikation, egenomsorg, f�rden inde og ude samt at v�re opm�rksom p� andres velbefindende. Et eksempel p� at hj�lpe og drage omsorg for andre er varetagelse af for�ldrerollen.</t>
+    <t>Udvise hjælp og omsorg for andre</t>
+  </si>
+  <si>
+    <t>At udvise hjælp og omsorg for andre er en handling, der består i at hjælpe medlemmer i husstanden og andre. Begrebet rummer også at hjælpe andre med indlæring, kommunikation, egenomsorg, færden inde og ude samt at være opmærksom på andres velbefindende. Et eksempel på at hjælpe og drage omsorg for andre er varetagelse af forældrerollen.</t>
   </si>
   <si>
     <t>8f32c948-41c4-49d7-8913-cdeede2e7fe1</t>
   </si>
   <si>
-    <t>G�re rent</t>
-  </si>
-  <si>
-    <t>At g�re rent er en handling, der best�r i at holde ens n�re fysiske omgivelser rene og hygiejniske. Reng�ring kan fx ske ved at st�vsuge, vaske gulv og st�ve af og omfatter typisk oprydning.</t>
+    <t>Gøre rent</t>
+  </si>
+  <si>
+    <t>At gøre rent er en handling, der består i at holde ens nære fysiske omgivelser rene og hygiejniske. Rengøring kan fx ske ved at støvsuge, vaske gulv og støve af og omfatter typisk oprydning.</t>
   </si>
   <si>
     <t>b947f321-7cdb-4b33-9653-f3ff800572b0</t>
@@ -1929,16 +1935,16 @@
     <t>Lave mad</t>
   </si>
   <si>
-    <t>At lave mad er en handling, der best�r i at planl�gge, tilberede og servere enkle eller sammensatte m�ltider. Handlingen kan fx best� i at sammens�tte et m�ltid, udv�lge appetitlig mad og drikke, fremskaffe ingredienser til tilberedning af m�ltider; forberede mad og drikke til tilberedning, lave varm og kold mad og drikke samt at servere maden til sig selv eller andre.</t>
+    <t>At lave mad er en handling, der består i at planlægge, tilberede og servere enkle eller sammensatte måltider. Handlingen kan fx bestå i at sammensætte et måltid, udvælge appetitlig mad og drikke, fremskaffe ingredienser til tilberedning af måltider; forberede mad og drikke til tilberedning, lave varm og kold mad og drikke samt at servere maden til sig selv eller andre.</t>
   </si>
   <si>
     <t>bd67597b-e80f-427f-8cf9-79d01eff91fc</t>
   </si>
   <si>
-    <t>Vaske t�j</t>
-  </si>
-  <si>
-    <t>At vaske t�j er en handling, der best�r i at holde ens t�j rent ved at vaske det, n�r det tr�nger. At vaske t�j omfatter fx at sortere vasket�j, s�tte en vask over, t�rre t�j og l�gge det rene t�j sammen og p� plads.</t>
+    <t>Vaske tøj</t>
+  </si>
+  <si>
+    <t>At vaske tøj er en handling, der består i at holde ens tøj rent ved at vaske det, når det trænger. At vaske tøj omfatter fx at sortere vasketøj, sætte en vask over, tørre tøj og lægge det rene tøj sammen og på plads.</t>
   </si>
   <si>
     <t>a56d59c0-c8fd-468c-85f9-b67f66561b90</t>
@@ -1953,7 +1959,7 @@
     <t>Omgivelser</t>
   </si>
   <si>
-    <t>Omgivelser er en kontekstuel faktor, der omfatter de fysiske, sociale og holdningsm�ssige omgivelser, som en person bor og lever i. Omgivelsesfaktorer omfatter hele den omgivende verden, som danner rammen for en persons tilv�relse, og som kan h�mme eller fremme personens funktionsevne. Omgivelsesfaktorer omfatter de fysiske omgivelser, de menneskeskabte omgivelser, de kulturelle omgivelser, som fx roller, holdninger og v�rdier samt sociale omgivelser, som fx politiske forhold, forordninger og formelle regler. P� det personlige niveau kan omgivelsesfaktorer fx v�re hjem, arbejdsplads og skole og den personlige kontakt med fx familie, bekendte, kollegaer og fremmede. P� det samfundsm�ssige niveau kan omgivelsesfaktorer fx v�re sociale strukturer som organisationer og offentlige institutioner, tjenester, ydelser, f�llesskabsaktiviteter, love og regler samt holdninger og ideologier.</t>
+    <t>Omgivelser er en kontekstuel faktor, der omfatter de fysiske, sociale og holdningsmæssige omgivelser, som en person bor og lever i. Omgivelsesfaktorer omfatter hele den omgivende verden, som danner rammen for en persons tilværelse, og som kan hæmme eller fremme personens funktionsevne. Omgivelsesfaktorer omfatter de fysiske omgivelser, de menneskeskabte omgivelser, de kulturelle omgivelser, som fx roller, holdninger og værdier samt sociale omgivelser, som fx politiske forhold, forordninger og formelle regler. På det personlige niveau kan omgivelsesfaktorer fx være hjem, arbejdsplads og skole og den personlige kontakt med fx familie, bekendte, kollegaer og fremmede. På det samfundsmæssige niveau kan omgivelsesfaktorer fx være sociale strukturer som organisationer og offentlige institutioner, tjenester, ydelser, fællesskabsaktiviteter, love og regler samt holdninger og ideologier.</t>
   </si>
   <si>
     <t>22eef871-6650-426f-8b79-8d40a6c62808</t>
@@ -1962,34 +1968,34 @@
     <t>Holdninger i omgivelserne</t>
   </si>
   <si>
-    <t>Holdninger i omgivelserne er ideologier, v�rdier, normer, faktuelle og religi�se overbevisninger i en persons omgivelser, der aff�der vaner, praksisser og andre synlige konsekvenser, som kan p�virke den enkeltes adf�rd og sociale liv p� alle planer. En persons omgivelser er fx familie, sl�gtninge, venner, bekendte, omsorgsgivere, personlige hj�lpere, fremmede, sundhedspersonale, andre professionelle, samfundet og sociale normer, konventioner og ideologier.</t>
+    <t>Holdninger i omgivelserne er ideologier, værdier, normer, faktuelle og religiøse overbevisninger i en persons omgivelser, der afføder vaner, praksisser og andre synlige konsekvenser, som kan påvirke den enkeltes adfærd og sociale liv på alle planer. En persons omgivelser er fx familie, slægtninge, venner, bekendte, omsorgsgivere, personlige hjælpere, fremmede, sundhedspersonale, andre professionelle, samfundet og sociale normer, konventioner og ideologier.</t>
   </si>
   <si>
     <t>83342ff3-5f2e-4914-b045-e98357685866</t>
   </si>
   <si>
-    <t>Boligomr�de</t>
-  </si>
-  <si>
-    <t>Et boligomr�de er en ramme, der udg�r en persons n�rmilj�, herunder art og betydning af socialgrupper, bebyggelse og infrastruktur i samme geografiske omr�de.</t>
+    <t>Boligområde</t>
+  </si>
+  <si>
+    <t>Et boligområde er en ramme, der udgør en persons nærmiljø, herunder art og betydning af socialgrupper, bebyggelse og infrastruktur i samme geografiske område.</t>
   </si>
   <si>
     <t>df194a84-6e4b-4f14-a194-d8d9d9a1fcad</t>
   </si>
   <si>
-    <t>Personer i netv�rk</t>
-  </si>
-  <si>
-    <t>Netv�rk er en eller flere personer, der giver praktisk eller f�lelsesm�ssig st�tte, omsorg, beskyttelse, hj�lp og kontakt til andre mennesker. Begrebet har fokus p� de personer, der udg�r et netv�rk. Begrebet har fokus p� de personer, der udg�r et netv�rk. Et netv�rk kan v�re privat, professionelt eller best� af frivilligt organiserede personer. Et professionelt netv�rk kan fx best� af skolel�rere, sagsbehandlere, personlige hj�lpere, sundhedspersonale og andre professionelle. Et privat netv�rk er familie, sl�gtninge, venner eller bekendtskaber. Et netv�rk best�ende af frivilligt organiserede personer kan fx udg�res af fodboldtr�nere eller spejderlederer. St�tte mv. gives i hjemmet, p� arbejdspladsen, i skolen, under leg eller i andre forhold i en persons daglige aktivitet. Et velfungerende netv�rk er en ressource for en person, hvor i mod et netv�rk ogs� kan v�re uhensigtsm�ssigt og dermed p�virke en person i negativ retning.</t>
+    <t>Personer i netværk</t>
+  </si>
+  <si>
+    <t>Netværk er en eller flere personer, der giver praktisk eller følelsesmæssig støtte, omsorg, beskyttelse, hjælp og kontakt til andre mennesker. Begrebet har fokus på de personer, der udgør et netværk. Begrebet har fokus på de personer, der udgør et netværk. Et netværk kan være privat, professionelt eller bestå af frivilligt organiserede personer. Et professionelt netværk kan fx bestå af skolelærere, sagsbehandlere, personlige hjælpere, sundhedspersonale og andre professionelle. Et privat netværk er familie, slægtninge, venner eller bekendtskaber. Et netværk bestående af frivilligt organiserede personer kan fx udgøres af fodboldtrænere eller spejderlederer. Støtte mv. gives i hjemmet, på arbejdspladsen, i skolen, under leg eller i andre forhold i en persons daglige aktivitet. Et velfungerende netværk er en ressource for en person, hvor i mod et netværk også kan være uhensigtsmæssigt og dermed påvirke en person i negativ retning.</t>
   </si>
   <si>
     <t>b5257b2d-0fbf-4d00-bf38-d298c8568116</t>
   </si>
   <si>
-    <t>M�ltype</t>
-  </si>
-  <si>
-    <t>M�ltype er en type af m�l, der pr�ciserer forventningen til den bev�gelse, der er frem mod den �nskede tilstand, som m�let er udtryk for. M�ltypen bestemmes ud fra en vurdering af en persons mulighed for at udvikle, fastholde eller begr�nse tab af funktionsevne. M�ltypen siger ikke noget om, hvilket specifikt funktionsevneniveau personen vurderes at opn�. M�ltype kan fx anvendes i forventningsafstemning mellem borger, myndighed og udf�rer i forbindelse med koordinering af den sociale indsats.</t>
+    <t>Måltype</t>
+  </si>
+  <si>
+    <t>Måltype er en type af mål, der præciserer forventningen til den bevægelse, der er frem mod den ønskede tilstand, som målet er udtryk for. Måltypen bestemmes ud fra en vurdering af en persons mulighed for at udvikle, fastholde eller begrænse tab af funktionsevne. Måltypen siger ikke noget om, hvilket specifikt funktionsevneniveau personen vurderes at opnå. Måltype kan fx anvendes i forventningsafstemning mellem borger, myndighed og udfører i forbindelse med koordinering af den sociale indsats.</t>
   </si>
   <si>
     <t>10752a63-00b4-4958-b7f4-9f3a18f74266</t>
@@ -1998,7 +2004,7 @@
     <t>Fastholde funktionsevne</t>
   </si>
   <si>
-    <t>Fastholde funktionsevne er en m�ltype, der er udtryk for en forventning om, at borgeren st�ttes i at fastholde sin funktionsevne i relation til m�let. Fastholde funktionsevne i relation til m�let indeb�rer, at borgeren fortsat kan udf�re de samme aktiviteter og med samme hyppighed som hidtil.</t>
+    <t>Fastholde funktionsevne er en måltype, der er udtryk for en forventning om, at borgeren støttes i at fastholde sin funktionsevne i relation til målet. Fastholde funktionsevne i relation til målet indebærer, at borgeren fortsat kan udføre de samme aktiviteter og med samme hyppighed som hidtil.</t>
   </si>
   <si>
     <t>d41c8072-52f8-42b5-9375-ddbea454d27f</t>
@@ -2007,16 +2013,16 @@
     <t>Udvikle funktionsevne</t>
   </si>
   <si>
-    <t>Udvikle funktionsevne er en m�ltype, der er udtryk for en forventning om, at borgeren st�ttes i at udvikle sin funktionsevne i relation til m�let. Udvikle funktionsevne i relation til m�let indeb�rer, at borgeren opn�r at kunne udf�re flere aktiviteter oftere end hidtil.</t>
+    <t>Udvikle funktionsevne er en måltype, der er udtryk for en forventning om, at borgeren støttes i at udvikle sin funktionsevne i relation til målet. Udvikle funktionsevne i relation til målet indebærer, at borgeren opnår at kunne udføre flere aktiviteter oftere end hidtil.</t>
   </si>
   <si>
     <t>e47c22bd-d88d-48ab-882b-419923e1f44e</t>
   </si>
   <si>
-    <t>Begr�nse tab af funktionsevne</t>
-  </si>
-  <si>
-    <t>Begr�nse tab af funktionsevne er en m�ltype, der er udtryk for en forventning om, at der vil v�re et tab af funktionsevne i relation til m�let, men at borgeren st�ttes i at begr�nse sit tab af funktionsevne i relation til m�let mest muligt. Begr�nse tab af funktionsevne i relation til m�let indeb�rer, at borgeren i mindst mulig grad mister evnen til at udf�re aktiviteter i samme omfang og med samme hyppighed som hidtil.</t>
+    <t>Begrænse tab af funktionsevne</t>
+  </si>
+  <si>
+    <t>Begrænse tab af funktionsevne er en måltype, der er udtryk for en forventning om, at der vil være et tab af funktionsevne i relation til målet, men at borgeren støttes i at begrænse sit tab af funktionsevne i relation til målet mest muligt. Begrænse tab af funktionsevne i relation til målet indebærer, at borgeren i mindst mulig grad mister evnen til at udføre aktiviteter i samme omfang og med samme hyppighed som hidtil.</t>
   </si>
   <si>
     <t>e89d317c-4657-4970-b614-ada2ed220595</t>
@@ -2043,7 +2049,7 @@
     <t>832ae90b-23b5-4063-80aa-0b81bdce680e</t>
   </si>
   <si>
-    <t>Fuldst�ndig nedsat funktionsevne</t>
+    <t>Fuldstændig nedsat funktionsevne</t>
   </si>
   <si>
     <t>b508ff66-6326-4862-a6d7-7bbf184c9823</t>
@@ -2055,7 +2061,7 @@
     <t>cae545f5-2813-4d79-98fc-0a7d770af3cd</t>
   </si>
   <si>
-    <t>Sv�rt nedsat funktionsevne</t>
+    <t>Svært nedsat funktionsevne</t>
   </si>
 </sst>
 </file>
@@ -4177,7 +4183,7 @@
         <v>419</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130">
@@ -4185,13 +4191,13 @@
         <v>44</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131">
@@ -4199,13 +4205,13 @@
         <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132">
@@ -4213,13 +4219,13 @@
         <v>52</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133">
@@ -4227,13 +4233,13 @@
         <v>52</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134">
@@ -4241,13 +4247,13 @@
         <v>52</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135">
@@ -4255,13 +4261,13 @@
         <v>52</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136">
@@ -4269,13 +4275,13 @@
         <v>52</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137">
@@ -4283,13 +4289,13 @@
         <v>52</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D137" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138">
@@ -4297,13 +4303,13 @@
         <v>52</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="139">
@@ -4311,13 +4317,13 @@
         <v>52</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140">
@@ -4325,13 +4331,13 @@
         <v>52</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D140" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141">
@@ -4339,13 +4345,13 @@
         <v>52</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="142">
@@ -4353,13 +4359,13 @@
         <v>52</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="143">
@@ -4367,13 +4373,13 @@
         <v>52</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144">
@@ -4381,13 +4387,13 @@
         <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145">
@@ -4395,13 +4401,13 @@
         <v>52</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146">
@@ -4409,13 +4415,13 @@
         <v>52</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147">
@@ -4423,13 +4429,13 @@
         <v>52</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D147" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148">
@@ -4437,13 +4443,13 @@
         <v>52</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149">
@@ -4451,13 +4457,13 @@
         <v>52</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150">
@@ -4465,13 +4471,13 @@
         <v>52</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151">
@@ -4479,13 +4485,13 @@
         <v>52</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152">
@@ -4493,13 +4499,13 @@
         <v>52</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D152" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153">
@@ -4507,13 +4513,13 @@
         <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154">
@@ -4521,13 +4527,13 @@
         <v>52</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155">
@@ -4535,13 +4541,13 @@
         <v>52</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="156">
@@ -4549,13 +4555,13 @@
         <v>52</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D156" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157">
@@ -4563,13 +4569,13 @@
         <v>52</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158">
@@ -4577,13 +4583,13 @@
         <v>52</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D158" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="159">
@@ -4591,13 +4597,13 @@
         <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D159" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="160">
@@ -4605,13 +4611,13 @@
         <v>52</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161">
@@ -4619,13 +4625,13 @@
         <v>52</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162">
@@ -4633,13 +4639,13 @@
         <v>52</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D162" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163">
@@ -4647,13 +4653,13 @@
         <v>52</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D163" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="164">
@@ -4661,7 +4667,7 @@
         <v>52</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>268</v>
@@ -4675,13 +4681,13 @@
         <v>52</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166">
@@ -4689,7 +4695,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>226</v>
@@ -4703,13 +4709,13 @@
         <v>52</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D167" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="168">
@@ -4717,13 +4723,13 @@
         <v>44</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="169">
@@ -4731,13 +4737,13 @@
         <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="170">
@@ -4745,13 +4751,13 @@
         <v>52</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D170" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="171">
@@ -4759,13 +4765,13 @@
         <v>52</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172">
@@ -4773,13 +4779,13 @@
         <v>52</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D172" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173">
@@ -4787,13 +4793,13 @@
         <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D173" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174">
@@ -4801,13 +4807,13 @@
         <v>52</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D174" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="175">
@@ -4815,13 +4821,13 @@
         <v>52</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="176">
@@ -4829,13 +4835,13 @@
         <v>52</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="177">
@@ -4843,13 +4849,13 @@
         <v>52</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D177" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="178">
@@ -4857,13 +4863,13 @@
         <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D178" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179">
@@ -4871,13 +4877,13 @@
         <v>52</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180">
@@ -4885,13 +4891,13 @@
         <v>52</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181">
@@ -4899,13 +4905,13 @@
         <v>52</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="182">
@@ -4913,13 +4919,13 @@
         <v>52</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D182" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183">
@@ -4927,13 +4933,13 @@
         <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D183" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184">
@@ -4941,13 +4947,13 @@
         <v>52</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D184" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185">
@@ -4955,13 +4961,13 @@
         <v>52</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D185" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="186">
@@ -4969,13 +4975,13 @@
         <v>52</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187">
@@ -4983,13 +4989,13 @@
         <v>52</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188">
@@ -4997,13 +5003,13 @@
         <v>52</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189">
@@ -5011,13 +5017,13 @@
         <v>52</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D189" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="190">
@@ -5025,13 +5031,13 @@
         <v>52</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D190" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191">
@@ -5039,13 +5045,13 @@
         <v>52</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D191" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="192">
@@ -5053,13 +5059,13 @@
         <v>52</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D192" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="193">
@@ -5067,13 +5073,13 @@
         <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194">
@@ -5081,13 +5087,13 @@
         <v>52</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195">
@@ -5095,13 +5101,13 @@
         <v>52</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D195" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="196">
@@ -5109,13 +5115,13 @@
         <v>52</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D196" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="197">
@@ -5123,13 +5129,13 @@
         <v>52</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D197" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="198">
@@ -5137,13 +5143,13 @@
         <v>52</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D198" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="199">
@@ -5151,13 +5157,13 @@
         <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="200">
@@ -5165,13 +5171,13 @@
         <v>52</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="201">
@@ -5179,13 +5185,13 @@
         <v>52</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="202">
@@ -5193,13 +5199,13 @@
         <v>52</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="203">
@@ -5207,13 +5213,13 @@
         <v>52</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="204">
@@ -5221,13 +5227,13 @@
         <v>52</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="205">
@@ -5235,13 +5241,13 @@
         <v>52</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D205" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206">
@@ -5249,13 +5255,13 @@
         <v>44</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D206" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="207">
@@ -5263,13 +5269,13 @@
         <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D207" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="208">
@@ -5277,13 +5283,13 @@
         <v>52</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D208" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="209">
@@ -5291,13 +5297,13 @@
         <v>52</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D209" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="210">
@@ -5305,13 +5311,13 @@
         <v>52</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D210" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="211">
@@ -5319,13 +5325,13 @@
         <v>40</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D211" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="212">
@@ -5333,13 +5339,13 @@
         <v>44</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D212" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="213">
@@ -5347,13 +5353,13 @@
         <v>44</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D213" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="214">
@@ -5361,13 +5367,13 @@
         <v>44</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D214" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="215">
@@ -5375,13 +5381,13 @@
         <v>40</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D215" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="216">
@@ -5389,7 +5395,7 @@
         <v>44</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C216" t="s" s="2">
         <v>399</v>
@@ -5403,13 +5409,13 @@
         <v>44</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D217" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="218">
@@ -5417,13 +5423,13 @@
         <v>44</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="219">
@@ -5431,13 +5437,13 @@
         <v>44</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D219" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="220">
@@ -5445,13 +5451,13 @@
         <v>44</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D220" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="221">
@@ -5459,13 +5465,13 @@
         <v>44</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D221" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="681">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.208.176.2.22</t>
+    <t>urn:oid#urn:oid:1.2.208.176.2.22</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-03T10:45:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -141,10 +141,10 @@
     <t>67b4ac73-dedf-4337-ad56-476b0a55ab03</t>
   </si>
   <si>
-    <t>Social indsats [Servicelov]</t>
-  </si>
-  <si>
-    <t>Indsats, der består af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud, og som skal forebygge eller tilgodese behov, som følger af en nedsat funktionsevne, og som gives med henblik på at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilværelse eller forbedre livskvaliteten.</t>
+    <t>Social indsats</t>
+  </si>
+  <si>
+    <t>En social indsats, er en indsats, der består af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud. En social indsats skal forebygge eller tilgodese behov, som følger af en nedsat funktionsevne. Indsatsen gives med henblik på at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilværelse eller forbedre livskvaliteten. I generelle vendinger er det tale om en social indsats, når 'nogen' leverer 'noget' til 'en modtager' med det beskrevne formål. Mere konkret vil en social indsats bestå af en eller flere specifikke ydelser, som typisk leveres til én borger af ét tilbud. Det kan fx være når et ambulant behandlingstilbud til voksne leverer misbrugsbehandling til en stofmisbruger eller når et socialpædagogisk opholdssted leverer socialpædagogisk behandling til et barn. Der vil typisk være en eller flere bestemte faglige tilgange til leveringen af den sociale indsats, der kan leveres efter en eller flere metoder. En social indsats vil almindeligvis...</t>
   </si>
   <si>
     <t>2</t>
@@ -156,7 +156,7 @@
     <t>Ydelse</t>
   </si>
   <si>
-    <t>Tjeneste, genstand eller beløb, der gives eller modtages</t>
+    <t>En ydelse er en tjeneste, genstand eller et beløb, der gives eller modtages. En ydelse på socialområdet kan i visse tilfælde også bestå af en sanktion, som fx forældrepålæg.</t>
   </si>
   <si>
     <t>3</t>
@@ -168,7 +168,7 @@
     <t>Afklaring</t>
   </si>
   <si>
-    <t>Ydelse, der har til formål at afdække en persons situation</t>
+    <t>Afklaring er en ydelse, der har til formål at afdække en borgers situation.</t>
   </si>
   <si>
     <t>4</t>
@@ -180,7 +180,7 @@
     <t>Pædagogisk udredning</t>
   </si>
   <si>
-    <t>Udredning, hvor en leverandør afdækker en persons funktionsevne i relation til daglige aktiviteter</t>
+    <t>Pædagogisk udredning er en aktivitet, hvor en leverandør afdækker en borgers funktionsevne i relation til daglige aktiviteter. Et centralt aspekt i afdækningen af funktionsevnen er borgerens mestringsevne, som har betydning for, hvordan man begriber, håndterer og handler i forskellige situationer. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>a1eaa022-9e5c-493c-83d3-7cc40b9df9e9</t>
@@ -189,7 +189,7 @@
     <t>Ophold</t>
   </si>
   <si>
-    <t>Ydelse, der har til formål at huse en person.</t>
+    <t>Ophold er en ydelse, der har til formål at huse en borger. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilfælde én ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et tillæg til disse andre ydelser. Det primære fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan være egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask.</t>
   </si>
   <si>
     <t>5af56051-8413-4115-aaa2-83a0767e1137</t>
@@ -198,7 +198,7 @@
     <t>Længerevarende ophold</t>
   </si>
   <si>
-    <t>Ophold, der er tilkendt for en ikke-midlertidig periode.</t>
+    <t>Længerevarende ophold er en ydelse, der har til formål at huse en borger, og som er tilkendt for en ikke-midlertidig periode. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilfælde én ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et tillæg til disse andre ydelser. Det primære fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan være egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf: Serviceloven § 108, Almenboligloven § 54, Friplejeboligloven, Ældreboligloven m.fl.</t>
   </si>
   <si>
     <t>80aa8ea7-4ad8-405f-876a-4c0f89fde06a</t>
@@ -207,7 +207,7 @@
     <t>Midlertidigt ophold</t>
   </si>
   <si>
-    <t>Ophold, der er tilkendt midlertidigt.</t>
+    <t>Midlertidigt ophold er en ydelse, der har til formål at huse en borger, og som tilkendes midlertidigt. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilfælde én ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et tillæg til disse andre ydelser. Det primære fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan være egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf på Børn- og ungeområdet: Serviceloven §§ 52, 58, 66. Vejledende visitationsparagraf på Voksen-området: Serviceloven §§ 107, 109, 110.</t>
   </si>
   <si>
     <t>a81a3fa9-6601-4d1e-a11e-f7444dfd3828</t>
@@ -225,7 +225,7 @@
     <t>Aktivitet og samvær</t>
   </si>
   <si>
-    <t>Ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til formål at fremme socialt samvær eller tilbyde et miljøskift.</t>
+    <t>Aktivitet- og samvær er en ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til formål at fremme socialt samvær eller at tilbyde et miljøskift. I aktivitet og samvær kan der også indgå individuel vejledning, støtte, omsorg og hjælp til at deltage i aktiviteterne. Lovhjemmel: Serviceloven § 104.</t>
   </si>
   <si>
     <t>299af83f-586c-4c17-8af6-c8c47a847d6d</t>
@@ -234,7 +234,7 @@
     <t>Sansestimulerende aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person får stimuleret sine sanser med henblik på evnen til at kunne sortere, organisere og bearbejde sanseindtryk.</t>
+    <t>Sansestimulerende aktiviteter er aktivitet og samvær, hvor en borger får stimuleret sine sanser med henblik på evnen til at kunne sortere, organisere og bearbejde sanseindtryk. Sansestimulerende aktiviteter kan fx være massage, gyngeture, kuglebad og -dyne, sansehave og brug af musik-, lyd- og lysstimuli. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>2c1944be-fe87-4c42-b08e-9cc075c9ef18</t>
@@ -243,7 +243,7 @@
     <t>Oplevelsesaktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person har individuelle oplevelser eller oplevelser sammen med andre personer.</t>
+    <t>Oplevelsesaktiviteter er aktivitet og samvær, hvor en borger har individuelle oplevelser eller oplevelser sammen med andre borgere eller personale. Oplevelser kan fx være natur- og kulturoplevelser. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>66e23d66-1c5f-4070-bed1-8827cc863dcd</t>
@@ -252,7 +252,7 @@
     <t>Fysisk aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, der gennem fysiske bevægelser giver en person mulighed for at bruge sin krop.</t>
+    <t>Fysiske aktiviteter er aktivitet og samvær, der gennem fysiske bevægelser giver en borger mulighed for at bruge sin krop. Det omfatter fx idræts- og motionsaktiviteter og forskellige former for bevægelse, hvor samværet kan være i centrum. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>7e419926-bb04-4829-99c9-95ea20403c2c</t>
@@ -261,7 +261,7 @@
     <t>Social aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, som ved at få en person ind i et fællesskab med andre forebygger eller bryder med social isolation og vedligeholder de sociale relationer.</t>
+    <t>Social aktivitet er aktivitet og samvær, som ved at få en borger ind i et fællesskab med andre, forebygger eller bryder med social isolation og vedligeholder de sociale relationer. Social aktivitet kan fx være at spise, spille spil eller høre musik sammen med andre. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>be5d5058-ef06-42a9-b894-51e44513e717</t>
@@ -270,7 +270,7 @@
     <t>Kreativ aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person kan udfolde sig kreativt.</t>
+    <t>Kreative aktiviteter er aktivitet og samvær, hvor en borger kan udfolde sig kreativt. Aktiviteterne kan foretages alene eller sammen med andre borgere eller personale. Kreative aktiviteter kan fx være madlavning; musik, sang og drama; håndarbejde; maleri eller værkstedsaktiviteter. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>f25674bf-3162-45c3-bde4-6d542bf9629b</t>
@@ -279,7 +279,7 @@
     <t>Kompetenceudviklende aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person eller gruppe af personer undervises i bestemte færdigheder eller kompetencer.</t>
+    <t>Kompetenceudviklende aktiviteter er aktivitet og samvær, hvor en borger eller gruppe af borgere undervises i bestemte færdigheder eller kompetencer. Kompetenceudviklende aktiviteter kan således både sigte på at opnå helt konkrete færdigheder fx i forhold til brug af IT og mobiltelefon eller på at lave mad, eller på mere brede kompetenceløft, der sigter mod evnen til at varetage egen sundhed og livsførelse. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>d8505298-6ea5-4ca8-923d-6e4451cc9a48</t>
@@ -288,7 +288,7 @@
     <t>Beskyttet beskæftigelse</t>
   </si>
   <si>
-    <t>Ydelse, der gennem arbejdslignende, lønnede aktiviteter har til formål at afdække, oparbejde, udvikle eller bevare en persons arbejdsevne og beskæftigelsesrelevante kompetencer.</t>
+    <t>Beskyttet beskæftigelse er en ydelse, der gennem arbejdslignende, lønnede aktiviteter har til formål at afdække, oparbejde, udvikle eller bevare en borgers arbejdsevne og beskæftigelsesrelevante kompetencer. I beskyttet beskæftigelse kan der også indgå individuel vejledning, støtte og hjælp til at deltage i aktiviteterne. Beskyttet beskæftigelse er rettet mod borgere, der ikke kan opnå eller fastholde beskæftigelse på normale vilkår på arbejdsmarkedet, og som ikke kan få indsatser efter anden lovgivning. Lovhjemmel: Serviceloven § 103.</t>
   </si>
   <si>
     <t>55b77d7c-afce-4269-9232-7731ab1ef4fc</t>
@@ -297,7 +297,7 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af servicerende, understøttende arbejdsfunktioner.</t>
+    <t>Service og tjenesteydelser er beskyttet beskæftigelse, der er centreret omkring udførelse af servicerende, understøttende arbejdsfunktioner. I en service og tjenesteydelse vil der ofte indgå kontakt med andre, hvorfor der typisk vil være fokus på at træne dette. Eksempler på service og tjenesteydelser er kantine- og cafédrift, pedel- og rengøringsopgaver samt kontor- og piccolineopgaver, butik- og kundebetjening og vedligeholdelse af grønne områder. Visitationsparagraf: Serviceloven § 103.</t>
   </si>
   <si>
     <t>c429b7a9-5085-472b-b118-a21ca90f769f</t>
@@ -306,7 +306,7 @@
     <t>Praktikforløb</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelse, der har til formål, at en person kan afprøve ressourcer og kompetencer i forhold til et specifikt arbejdsområde eller en given arbejdsplads i en afgrænset periode.</t>
+    <t>Praktikforløb er beskyttet beskæftigelse, der har til formål, at en borger kan afprøve ressourcer og kompetencer i forhold til et specifikt arbejdsområde eller en given arbejdsplads i en afgrænset periode. Praktikforløb kan også foregå i en ekstern virksomhed, fx en dagligvareforretning eller en produktionsvirksomhed. Visitationsparagraf: Serviceloven § 103.</t>
   </si>
   <si>
     <t>fb3d8722-90e0-4a80-ba65-490617ffeb0f</t>
@@ -315,7 +315,7 @@
     <t>Produktion og værksted</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af enkle, afgrænsede arbejdsopgaver som led i en samlet produktion af konkrete produkter.</t>
+    <t>Produktion og værksted er beskyttet beskæftigelse, der er centreret omkring udførelse af enkle, afgrænsede arbejdsopgaver som led i en samlet produktion af konkrete produkter. De konkrete arbejdsopgaver kan fx være fremstilling af produkter, herunder fx kunsthåndværk, optændingsbrænde, grøntsager, produktion af avis og medier. Opgaverne kan eksempelvis omfatte montering, sortering, optælling og pakning og kontrol af produkter. Visitationsparagraf: Serviceloven § 103.</t>
   </si>
   <si>
     <t>1f0ff82b-3243-422f-9651-1d00fd2dcd61</t>
@@ -324,7 +324,7 @@
     <t>Socialpædagogisk støtte</t>
   </si>
   <si>
-    <t>Ydelse, der gennem motivation, vejledning og støtte har til formål at udvikle eller fastholde en persons funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til personens situation.</t>
+    <t>Socialpædagogisk støtte er en ydelse, der gennem motivation, vejledning og støtte har til formål at udvikle eller fastholde en borgers funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til borgerens situation. Socialpædagogisk støtte retter sig blandt andet mod udvikling og vedligeholdelse af færdigheder i forbindelse med almindelig daglig livsførelse, herunder at skabe struktur i hverdagen og understøtte deltagelse i samfundets almene fællesskaber, eksempelvis uddannelse, beskæftigelse og foreningsliv. Socialpædagogisk støtte kan også ydes med det formål at begrænse tabet af funktionsevne og at yde kompensation, omsorg og pleje. Lovhjemmel: Serviceloven § 85.</t>
   </si>
   <si>
     <t>309b778e-52ed-448a-91ae-0650a6cd8b1b</t>
@@ -333,7 +333,7 @@
     <t>Støtte til samfundsdeltagelse</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte, der retter sig mod aktiviteter, der er en forudsætning for at kunne deltage i samfundslivet.</t>
+    <t>Støtte til samfundsdeltagelse er socialpædagogisk støtte, der retter sig mod aktiviteter, der er en forudsætning for at kunne deltage i samfundslivet. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>5</t>
@@ -345,7 +345,7 @@
     <t>Støtte til transport</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons mulighed for selvstændigt at færdes uden for hjemmet.</t>
+    <t>Socialpædagogisk støtte til transport er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod en borgers mulighed for selvstændigt at færdes uden for hjemmet. Støtte til transport omfatter eksempelvis træning i at anvende offentlige transportmidler, fx at tage med bussen til og fra arbejde og uddannelse, behandling og lægebesøg eller aktiviteter af social karakter. Støtte til transport er ikke ledsagelse, men er rettet mod personens evne til at færdes selvstændigt. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>1a2daf63-0510-4bf3-8578-662d4300c965</t>
@@ -354,7 +354,7 @@
     <t>Støtte til uddannelse</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage en uddannelse.</t>
+    <t>Socialpædagogisk støtte til uddannelse er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod en borgersmuligheder for at varetage en uddannelse. Støtte til uddannelse kan fx være at afdække ønsker og muligheder i forbindelse med uddannelse, etablering af hensigtsmæssige rutiner og struktur i forhold til at varetage en uddannelse samt at fastholde motivation og engagement. Herved adskiller støtte til uddannelse sig fra specialpædagogisk støtte under uddannelse efter Lov om specialpædagogisk støtte. Støtte til uddannelse er helt eller delvist sammenfaldende med mentorstøtte efter Lov om aktiv beskæftigelsesindsats § 31.b Med uddannelse menes både ordinær uddannelse såvel som uddannelse på særlige vilkår. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>cb1169ee-8969-46d3-813d-f0dd555bd838</t>
@@ -363,7 +363,7 @@
     <t>Støtte til beskæftigelse</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage et arbejde.</t>
+    <t>Socialpædagogisk støtte til beskæftigelse er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod en borgers muligheder for at varetage et arbejde. Støtte til beskæftigelse kan fx være etablering af hensigtsmæssige rutiner og struktur i forhold til at varetage et arbejde samt at fastholde motivation og engagement. Støtte til beskæftigelse er helt eller delvist sammenfaldende med mentorstøtte efter Lov om aktiv beskæftigelsesindsats § 31.b. Med beskæftigelse menes både ordinær beskæftigelse og beskæftigelse på særlige vilkår. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>e2631dec-fd8b-420e-94db-53fd80e82766</t>
@@ -372,7 +372,7 @@
     <t>Støtte til kontakt til offentlige og private instanser</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod gennemførsel af besøg hos og kontakt til offentlige og private instanser med et specifikt formål.</t>
+    <t>Socialpædagogisk støtte til kontakt til offentlige og private instanser er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod gennemførsel af besøg hos og kontakt til offentlige og private instanser med et specifikt formål. Støtte til kontakt til offentlige og private instanser kan fx være rettet mod at henvende sig hos banken, foreninger, organisationer og offentlige myndigheder. Det kan også være støtte til at gennemføre besøg fx hos lægen eller tandlægen. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>329782cf-a740-4eb7-aa7e-aaaa9a53c99e</t>
@@ -381,7 +381,7 @@
     <t>Støtte til sundhed</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme.</t>
+    <t>Støtte til sundhed er socialpædagogisk støtte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme. Sundhed omfatter både fysisk og mental trivsel. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>3c1639d0-e486-43c6-8add-448b8aff4b8f</t>
@@ -390,7 +390,7 @@
     <t>Støtte til sund levevis</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod livsstilsbetingede forhold.</t>
+    <t>Socialpædagogisk støtte til sund levevis er motivation, vejledning og støtte til sundhed, der retter sig mod livsstilsbetingede forhold. Støtte til sund levevis kan fx være at dyrke motion, etablere en sund døgnrytme, stoppe med at ryge eller motivere borgeren til at spise sundt og hensigtsmæssigt, herunder støtte til måltider. Vejledende visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>72272d03-1774-4a14-b598-5f19b5eac83f</t>
@@ -399,7 +399,7 @@
     <t>Støtte til personlig hygiejne</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod hygiejnemæssige opgaver i relation til personen selv.</t>
+    <t>Socialpædagogisk støtte til personlig hygiejne er motivation, vejledning og støtte til sundhed, der retter sig mod hygiejnemæssige opgaver i relation til borgeren selv. Støtte til personlig hygiejne kan fx være rettet mod etablering af struktur og rutiner i forbindelse med af- og påklædning og bad. Herved adskiller støtte til personlig hygiejne sig fra personlig hjælp efter serviceloven § 83. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>ad7755d2-11bf-468d-958b-2f0c8d9c3742</t>
@@ -408,7 +408,7 @@
     <t>Støtte til psykisk trivsel</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod en persons psykiske velbefindende.</t>
+    <t>Socialpædagogisk støtte til psykisk trivsel er motivation, vejledning og støtte til sundhed, der retter sig mod en borgers psykiske velbefindende. Støtte til psykisk trivsel kan fx være rettet mod en borgers følelsesregulering og handlemønstre, indsigt i og forståelse af egen situation, opbygning af positivt selvværd og identitet. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>bd5fea9a-16ed-4e63-b6a1-8e83caaf9b0b</t>
@@ -417,7 +417,7 @@
     <t>Støtte til seksualitet</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod den måde, som en persons seksualitet kommer til udtryk på.</t>
+    <t>Socialpædagogisk støtte til seksualitet er motivation, vejledning og støtte til sundhed, der retter sig mod den måde, som en borgers seksualitet kommer til udtryk på. Støtte til seksualitet kan fx være støtte til at udtrykke sin seksualitet hensigtsmæssigt eller sætte grænser. Det kan også være støtte til at opsøge specialiseret rådgivning og vejledning i forhold til seksualitet og funktionsnedsættelser. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>e7c8b42e-b882-4629-8e03-65e44b1aa3e3</t>
@@ -426,7 +426,7 @@
     <t>Støtte til behandling</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod en persons behandling.</t>
+    <t>Socialpædagogisk støtte til behandling er motivation, vejledning og støtte til sundhed, der retter sig mod en borgers behandling. Støtte til behandling kan fx være rettet mod, at borgeren fastholder beslutningen om at påbegynde behandling eller opretholder igangværende behandling, herunder fx misbrugsbehandling, psykologisk behandling og medicinsk behandling, Herved adskiller støtte til behandling sig fra ydelser efter Sundhedsloven § 138. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>4ff4a2d4-4cde-4a22-bb37-ecfbd3fd9650</t>
@@ -435,7 +435,7 @@
     <t>Støtte til relationer og fællesskaber</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte, der retter sig mod relationer og fællesskaber, hvor samspillet med andre er et centralt element.</t>
+    <t>Støtte til relationer og fællesskaber er socialpædagogisk støtte, der retter sig mod relationer og fællesskaber, hvor samspillet med andre er et centralt element. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>05cd5e81-1a3a-4bdd-901b-7ec96c12d990</t>
@@ -444,7 +444,7 @@
     <t>Støtte til sociale relationer</t>
   </si>
   <si>
-    <t>Støtte til relationer og fællesskaber, der retter sig mod at udvikle, indgå i og bevare relationer til andre mennesker.</t>
+    <t>Socialpædagogisk støtte til sociale relationer er motivation, vejledning og støtte til relationer og fællesskaber, der retter sig mod at udvikle, indgå i og bevare relationer til andre mennesker. Støtte til sociale relationer kan både være rettet mod en borgers relationer til enkeltpersoner eller på, hvordan en borger indgår i et større fællesskab. Støtte til sociale relationer kan både være hjælp til at håndtere de følelsesmæssige og sociale aspekter ved samværet, fx at håndtere følelser og problemstillinger i sociale sammenhænge, at skabe og fastholde netværk og at holde kontakt med venner og familie eller deltage i og gennemføre aktiviteter sammen med andre. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>ea47a198-7e24-472d-ba5d-132b8b744710</t>
@@ -453,7 +453,7 @@
     <t>Støtte til varetagelse af forældrerollen</t>
   </si>
   <si>
-    <t>Støtte til relationer og fællesskaber, der retter sig mod strukturering og håndtering af opgaver, som er en almindelig del af forældreansvaret, og hvor samværet mellem barn og forælder er centralt.</t>
+    <t>Socialpædagogisk støtte til varetagelse af forældrerollen er motivation, vejledning og støtte til relationer og fællesskaber, der retter sig mod strukturering og håndtering af opgaver, som er en almindelig del af forældreansvaret, og hvor samværet mellem barn og forælder er centralt. Støtten tildeles på baggrund af borgerens nedsatte funktionsevne i forhold til at gennemføre de opgaver, der indgår i varetagelse af forældrerollen og ikke grundet manglende forældreevne. Herved adskiller støtte til varetagelse af forældrerollen sig fra foranstaltninger efter Serviceloven § 52, hvor fokus er på barnets trivsel. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>a63f7092-63d9-4cb5-ace5-655b552fdacc</t>
@@ -462,7 +462,7 @@
     <t>Støtte til praktiske opgaver</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte, der retter sig imod almindelige praktiske opgaver.</t>
+    <t>Støtte til praktiske opgaver er socialpædagogisk støtte, der retter sig imod almindelige praktiske opgaver. Støtte til praktiske opgaver består af motivation, vejledning og støtte til udførelsen af de praktiske opgaver, herunder udvikling og vedligeholdelse af kompetencer til at strukturere, planlægge og udføre de konkrete aktiviteter. Herved adskiller støtte til praktiske opgaver sig fra praktisk hjælp efter § 83. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>638f44df-6bf2-47f8-9935-b8fdc83e5bf5</t>
@@ -471,7 +471,7 @@
     <t>Støtte til daglige opgaver i hjemmet</t>
   </si>
   <si>
-    <t>Støtte til praktiske opgaver, der har hverdagskarakter og retter sig mod en persons hjem.</t>
+    <t>Socialpædagogisk støtte til daglige opgaver i hjemmet er motivation, vejledning og støtte til praktiske opgaver, der har hverdagskarakter og retter sig mod borgerens hjem. Støtte til daglige opgaver i hjemmet kan eksempelvis være støtte til oprydning, tøjvask, rengøring eller indkøb og madlavning. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>c56634ca-6847-4c50-b5c1-c528c1ffc1d8</t>
@@ -480,7 +480,7 @@
     <t>Støtte til etablering i bolig</t>
   </si>
   <si>
-    <t>Støtte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i bolig.</t>
+    <t>Socialpædagogisk støtte til etablering i bolig er motivation, vejledning og støtte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i borgerens bolig. Et eksempel på støtte til etablering i bolig er at søge efter en bolig eller at guide og motivere i forbindelse med ind- og udflytning fx i forbindelse med planlægning, strukturering og gennemførsel af praktiske opgaver og indretning af boligen til borgerens behov. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>d473dea2-4f6d-4f36-a8f0-260f0213f50a</t>
@@ -489,7 +489,7 @@
     <t>Støtte til administration</t>
   </si>
   <si>
-    <t>Støtte til praktiske opgaver af administrativ eller økonomisk karakter.</t>
+    <t>Socialpædagogisk støtte til administration er motivation, vejledning og støtte til praktiske opgaver af administrativ eller økonomisk karakter. Støtte til administration kan fx være rettet mod borgerens håndtering og forståelse af post, herunder digital post og selvbetjeningsløsninger, personlig økonomi, herunder budget, opsparing og regninger, samt opdatering og anvendelse af software eller apps, herunder digitaliserede hjælpemidler. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>21dca9cf-c238-465b-9f12-15351f51b038</t>
@@ -1273,12 +1273,6 @@
   </si>
   <si>
     <t>FFB tilstande</t>
-  </si>
-  <si>
-    <t>FFB tilstande
-Mapset: 58000024148 (FFB tilstande mappet til SNOMED)
-Mapset: 338000019145 (OmrHierarkiFFB)
-Mapset: 68000024145 (TilstandsrelationerFFB)</t>
   </si>
   <si>
     <t>740934cd-002b-4b96-b92e-b3562eed9448</t>
@@ -4183,7 +4177,7 @@
         <v>419</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130">
@@ -4191,13 +4185,13 @@
         <v>44</v>
       </c>
       <c r="B130" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C130" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="D130" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131">
@@ -4205,13 +4199,13 @@
         <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C131" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="D131" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="D131" t="s" s="2">
-        <v>425</v>
       </c>
     </row>
     <row r="132">
@@ -4219,13 +4213,13 @@
         <v>52</v>
       </c>
       <c r="B132" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C132" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="D132" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="D132" t="s" s="2">
-        <v>428</v>
       </c>
     </row>
     <row r="133">
@@ -4233,13 +4227,13 @@
         <v>52</v>
       </c>
       <c r="B133" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C133" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="D133" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="D133" t="s" s="2">
-        <v>431</v>
       </c>
     </row>
     <row r="134">
@@ -4247,13 +4241,13 @@
         <v>52</v>
       </c>
       <c r="B134" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C134" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="D134" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="D134" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="135">
@@ -4261,13 +4255,13 @@
         <v>52</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="D135" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="136">
@@ -4275,13 +4269,13 @@
         <v>52</v>
       </c>
       <c r="B136" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C136" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="D136" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="D136" t="s" s="2">
-        <v>440</v>
       </c>
     </row>
     <row r="137">
@@ -4289,13 +4283,13 @@
         <v>52</v>
       </c>
       <c r="B137" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C137" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="D137" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="138">
@@ -4303,13 +4297,13 @@
         <v>52</v>
       </c>
       <c r="B138" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C138" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="D138" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="139">
@@ -4317,13 +4311,13 @@
         <v>52</v>
       </c>
       <c r="B139" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C139" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="D139" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="D139" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="140">
@@ -4331,13 +4325,13 @@
         <v>52</v>
       </c>
       <c r="B140" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C140" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="D140" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="D140" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="141">
@@ -4345,13 +4339,13 @@
         <v>52</v>
       </c>
       <c r="B141" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C141" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="D141" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="D141" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="142">
@@ -4359,13 +4353,13 @@
         <v>52</v>
       </c>
       <c r="B142" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C142" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="D142" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="D142" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="143">
@@ -4373,13 +4367,13 @@
         <v>52</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="D143" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="D143" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="144">
@@ -4387,13 +4381,13 @@
         <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C144" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="D144" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="D144" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="145">
@@ -4401,13 +4395,13 @@
         <v>52</v>
       </c>
       <c r="B145" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="D145" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="D145" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="146">
@@ -4415,13 +4409,13 @@
         <v>52</v>
       </c>
       <c r="B146" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C146" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="D146" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="147">
@@ -4429,13 +4423,13 @@
         <v>52</v>
       </c>
       <c r="B147" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C147" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="D147" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="D147" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="148">
@@ -4443,13 +4437,13 @@
         <v>52</v>
       </c>
       <c r="B148" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C148" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="D148" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="D148" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="149">
@@ -4457,13 +4451,13 @@
         <v>52</v>
       </c>
       <c r="B149" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C149" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="D149" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="D149" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="150">
@@ -4471,13 +4465,13 @@
         <v>52</v>
       </c>
       <c r="B150" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C150" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="D150" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="D150" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="151">
@@ -4485,13 +4479,13 @@
         <v>52</v>
       </c>
       <c r="B151" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C151" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="D151" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="D151" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="152">
@@ -4499,13 +4493,13 @@
         <v>52</v>
       </c>
       <c r="B152" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C152" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="D152" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="D152" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="153">
@@ -4513,13 +4507,13 @@
         <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C153" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="D153" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="D153" t="s" s="2">
-        <v>491</v>
       </c>
     </row>
     <row r="154">
@@ -4527,13 +4521,13 @@
         <v>52</v>
       </c>
       <c r="B154" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C154" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="D154" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="D154" t="s" s="2">
-        <v>494</v>
       </c>
     </row>
     <row r="155">
@@ -4541,13 +4535,13 @@
         <v>52</v>
       </c>
       <c r="B155" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C155" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="D155" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="D155" t="s" s="2">
-        <v>497</v>
       </c>
     </row>
     <row r="156">
@@ -4555,13 +4549,13 @@
         <v>52</v>
       </c>
       <c r="B156" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C156" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="D156" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="D156" t="s" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="157">
@@ -4569,13 +4563,13 @@
         <v>52</v>
       </c>
       <c r="B157" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C157" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="D157" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="D157" t="s" s="2">
-        <v>503</v>
       </c>
     </row>
     <row r="158">
@@ -4583,13 +4577,13 @@
         <v>52</v>
       </c>
       <c r="B158" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C158" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="D158" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="D158" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="159">
@@ -4597,13 +4591,13 @@
         <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C159" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="D159" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="D159" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
     <row r="160">
@@ -4611,13 +4605,13 @@
         <v>52</v>
       </c>
       <c r="B160" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C160" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="D160" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="D160" t="s" s="2">
-        <v>512</v>
       </c>
     </row>
     <row r="161">
@@ -4625,13 +4619,13 @@
         <v>52</v>
       </c>
       <c r="B161" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C161" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="D161" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="D161" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="162">
@@ -4639,13 +4633,13 @@
         <v>52</v>
       </c>
       <c r="B162" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C162" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="D162" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="D162" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="163">
@@ -4653,13 +4647,13 @@
         <v>52</v>
       </c>
       <c r="B163" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C163" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="D163" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="D163" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="164">
@@ -4667,7 +4661,7 @@
         <v>52</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>268</v>
@@ -4681,13 +4675,13 @@
         <v>52</v>
       </c>
       <c r="B165" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C165" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="D165" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="D165" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="166">
@@ -4695,7 +4689,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>226</v>
@@ -4709,13 +4703,13 @@
         <v>52</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="D167" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="D167" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="168">
@@ -4723,13 +4717,13 @@
         <v>44</v>
       </c>
       <c r="B168" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C168" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="D168" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169">
@@ -4737,13 +4731,13 @@
         <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="D169" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="D169" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="170">
@@ -4751,13 +4745,13 @@
         <v>52</v>
       </c>
       <c r="B170" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C170" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="D170" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="D170" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="171">
@@ -4765,13 +4759,13 @@
         <v>52</v>
       </c>
       <c r="B171" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C171" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="D171" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="D171" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="172">
@@ -4779,13 +4773,13 @@
         <v>52</v>
       </c>
       <c r="B172" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C172" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="D172" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="D172" t="s" s="2">
-        <v>543</v>
       </c>
     </row>
     <row r="173">
@@ -4793,13 +4787,13 @@
         <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C173" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="D173" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="D173" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="174">
@@ -4807,13 +4801,13 @@
         <v>52</v>
       </c>
       <c r="B174" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C174" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="D174" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="D174" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="175">
@@ -4821,13 +4815,13 @@
         <v>52</v>
       </c>
       <c r="B175" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C175" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="D175" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="D175" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="176">
@@ -4835,13 +4829,13 @@
         <v>52</v>
       </c>
       <c r="B176" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C176" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="D176" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="D176" t="s" s="2">
-        <v>555</v>
       </c>
     </row>
     <row r="177">
@@ -4849,13 +4843,13 @@
         <v>52</v>
       </c>
       <c r="B177" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C177" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="D177" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="D177" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="178">
@@ -4863,13 +4857,13 @@
         <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C178" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="D178" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="D178" t="s" s="2">
-        <v>561</v>
       </c>
     </row>
     <row r="179">
@@ -4877,13 +4871,13 @@
         <v>52</v>
       </c>
       <c r="B179" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C179" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="D179" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="D179" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="180">
@@ -4891,13 +4885,13 @@
         <v>52</v>
       </c>
       <c r="B180" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C180" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="D180" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="D180" t="s" s="2">
-        <v>567</v>
       </c>
     </row>
     <row r="181">
@@ -4905,13 +4899,13 @@
         <v>52</v>
       </c>
       <c r="B181" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C181" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="D181" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="D181" t="s" s="2">
-        <v>570</v>
       </c>
     </row>
     <row r="182">
@@ -4919,13 +4913,13 @@
         <v>52</v>
       </c>
       <c r="B182" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C182" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="D182" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="D182" t="s" s="2">
-        <v>573</v>
       </c>
     </row>
     <row r="183">
@@ -4933,13 +4927,13 @@
         <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C183" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="D183" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="D183" t="s" s="2">
-        <v>576</v>
       </c>
     </row>
     <row r="184">
@@ -4947,13 +4941,13 @@
         <v>52</v>
       </c>
       <c r="B184" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C184" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="D184" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="D184" t="s" s="2">
-        <v>579</v>
       </c>
     </row>
     <row r="185">
@@ -4961,13 +4955,13 @@
         <v>52</v>
       </c>
       <c r="B185" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C185" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="D185" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="D185" t="s" s="2">
-        <v>582</v>
       </c>
     </row>
     <row r="186">
@@ -4975,13 +4969,13 @@
         <v>52</v>
       </c>
       <c r="B186" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C186" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="D186" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>585</v>
       </c>
     </row>
     <row r="187">
@@ -4989,13 +4983,13 @@
         <v>52</v>
       </c>
       <c r="B187" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C187" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="D187" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="D187" t="s" s="2">
-        <v>588</v>
       </c>
     </row>
     <row r="188">
@@ -5003,13 +4997,13 @@
         <v>52</v>
       </c>
       <c r="B188" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C188" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="D188" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="D188" t="s" s="2">
-        <v>591</v>
       </c>
     </row>
     <row r="189">
@@ -5017,13 +5011,13 @@
         <v>52</v>
       </c>
       <c r="B189" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C189" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="D189" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="D189" t="s" s="2">
-        <v>594</v>
       </c>
     </row>
     <row r="190">
@@ -5031,13 +5025,13 @@
         <v>52</v>
       </c>
       <c r="B190" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C190" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="D190" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="D190" t="s" s="2">
-        <v>597</v>
       </c>
     </row>
     <row r="191">
@@ -5045,13 +5039,13 @@
         <v>52</v>
       </c>
       <c r="B191" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C191" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="D191" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="D191" t="s" s="2">
-        <v>600</v>
       </c>
     </row>
     <row r="192">
@@ -5059,13 +5053,13 @@
         <v>52</v>
       </c>
       <c r="B192" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C192" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="D192" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="D192" t="s" s="2">
-        <v>603</v>
       </c>
     </row>
     <row r="193">
@@ -5073,13 +5067,13 @@
         <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C193" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="D193" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="D193" t="s" s="2">
-        <v>606</v>
       </c>
     </row>
     <row r="194">
@@ -5087,13 +5081,13 @@
         <v>52</v>
       </c>
       <c r="B194" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C194" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="D194" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="D194" t="s" s="2">
-        <v>609</v>
       </c>
     </row>
     <row r="195">
@@ -5101,13 +5095,13 @@
         <v>52</v>
       </c>
       <c r="B195" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C195" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="D195" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="D195" t="s" s="2">
-        <v>612</v>
       </c>
     </row>
     <row r="196">
@@ -5115,13 +5109,13 @@
         <v>52</v>
       </c>
       <c r="B196" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C196" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="D196" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="D196" t="s" s="2">
-        <v>615</v>
       </c>
     </row>
     <row r="197">
@@ -5129,13 +5123,13 @@
         <v>52</v>
       </c>
       <c r="B197" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C197" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="D197" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="D197" t="s" s="2">
-        <v>618</v>
       </c>
     </row>
     <row r="198">
@@ -5143,13 +5137,13 @@
         <v>52</v>
       </c>
       <c r="B198" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C198" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="D198" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="D198" t="s" s="2">
-        <v>621</v>
       </c>
     </row>
     <row r="199">
@@ -5157,13 +5151,13 @@
         <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C199" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="D199" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="D199" t="s" s="2">
-        <v>624</v>
       </c>
     </row>
     <row r="200">
@@ -5171,13 +5165,13 @@
         <v>52</v>
       </c>
       <c r="B200" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C200" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="D200" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="D200" t="s" s="2">
-        <v>627</v>
       </c>
     </row>
     <row r="201">
@@ -5185,13 +5179,13 @@
         <v>52</v>
       </c>
       <c r="B201" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C201" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="D201" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="D201" t="s" s="2">
-        <v>630</v>
       </c>
     </row>
     <row r="202">
@@ -5199,13 +5193,13 @@
         <v>52</v>
       </c>
       <c r="B202" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C202" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="D202" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="D202" t="s" s="2">
-        <v>633</v>
       </c>
     </row>
     <row r="203">
@@ -5213,13 +5207,13 @@
         <v>52</v>
       </c>
       <c r="B203" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C203" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="D203" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="D203" t="s" s="2">
-        <v>636</v>
       </c>
     </row>
     <row r="204">
@@ -5227,13 +5221,13 @@
         <v>52</v>
       </c>
       <c r="B204" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C204" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="D204" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="D204" t="s" s="2">
-        <v>639</v>
       </c>
     </row>
     <row r="205">
@@ -5241,13 +5235,13 @@
         <v>52</v>
       </c>
       <c r="B205" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C205" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="D205" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="D205" t="s" s="2">
-        <v>642</v>
       </c>
     </row>
     <row r="206">
@@ -5255,13 +5249,13 @@
         <v>44</v>
       </c>
       <c r="B206" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C206" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="D206" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="207">
@@ -5269,13 +5263,13 @@
         <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C207" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="D207" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="D207" t="s" s="2">
-        <v>647</v>
       </c>
     </row>
     <row r="208">
@@ -5283,13 +5277,13 @@
         <v>52</v>
       </c>
       <c r="B208" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C208" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="D208" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="D208" t="s" s="2">
-        <v>650</v>
       </c>
     </row>
     <row r="209">
@@ -5297,13 +5291,13 @@
         <v>52</v>
       </c>
       <c r="B209" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C209" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="D209" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="D209" t="s" s="2">
-        <v>653</v>
       </c>
     </row>
     <row r="210">
@@ -5311,13 +5305,13 @@
         <v>52</v>
       </c>
       <c r="B210" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C210" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="D210" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="D210" t="s" s="2">
-        <v>656</v>
       </c>
     </row>
     <row r="211">
@@ -5325,13 +5319,13 @@
         <v>40</v>
       </c>
       <c r="B211" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C211" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="D211" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="D211" t="s" s="2">
-        <v>659</v>
       </c>
     </row>
     <row r="212">
@@ -5339,13 +5333,13 @@
         <v>44</v>
       </c>
       <c r="B212" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C212" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="D212" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="D212" t="s" s="2">
-        <v>662</v>
       </c>
     </row>
     <row r="213">
@@ -5353,13 +5347,13 @@
         <v>44</v>
       </c>
       <c r="B213" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C213" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="D213" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="D213" t="s" s="2">
-        <v>665</v>
       </c>
     </row>
     <row r="214">
@@ -5367,13 +5361,13 @@
         <v>44</v>
       </c>
       <c r="B214" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C214" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="D214" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="D214" t="s" s="2">
-        <v>668</v>
       </c>
     </row>
     <row r="215">
@@ -5381,13 +5375,13 @@
         <v>40</v>
       </c>
       <c r="B215" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C215" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>670</v>
-      </c>
       <c r="D215" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="216">
@@ -5395,7 +5389,7 @@
         <v>44</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C216" t="s" s="2">
         <v>399</v>
@@ -5409,13 +5403,13 @@
         <v>44</v>
       </c>
       <c r="B217" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C217" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="D217" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="218">
@@ -5423,13 +5417,13 @@
         <v>44</v>
       </c>
       <c r="B218" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C218" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>675</v>
-      </c>
       <c r="D218" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="219">
@@ -5437,13 +5431,13 @@
         <v>44</v>
       </c>
       <c r="B219" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="C219" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="D219" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="220">
@@ -5451,13 +5445,13 @@
         <v>44</v>
       </c>
       <c r="B220" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C220" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>679</v>
-      </c>
       <c r="D220" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="221">
@@ -5465,13 +5459,13 @@
         <v>44</v>
       </c>
       <c r="B221" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C221" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="D221" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="682">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>urn:oid#urn:oid:1.2.208.176.2.22</t>
+    <t>id: urn:oid:1.2.208.176.2.22</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:45:43+02:00</t>
+    <t>2023-07-10T23:08:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Kommunernes Landsforening (http://kl.dk)</t>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -141,10 +141,10 @@
     <t>67b4ac73-dedf-4337-ad56-476b0a55ab03</t>
   </si>
   <si>
-    <t>Social indsats</t>
-  </si>
-  <si>
-    <t>En social indsats, er en indsats, der består af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud. En social indsats skal forebygge eller tilgodese behov, som følger af en nedsat funktionsevne. Indsatsen gives med henblik på at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilværelse eller forbedre livskvaliteten. I generelle vendinger er det tale om en social indsats, når 'nogen' leverer 'noget' til 'en modtager' med det beskrevne formål. Mere konkret vil en social indsats bestå af en eller flere specifikke ydelser, som typisk leveres til én borger af ét tilbud. Det kan fx være når et ambulant behandlingstilbud til voksne leverer misbrugsbehandling til en stofmisbruger eller når et socialpædagogisk opholdssted leverer socialpædagogisk behandling til et barn. Der vil typisk være en eller flere bestemte faglige tilgange til leveringen af den sociale indsats, der kan leveres efter en eller flere metoder. En social indsats vil almindeligvis...</t>
+    <t>Social indsats [Servicelov]</t>
+  </si>
+  <si>
+    <t>Indsats, der består af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud, og som skal forebygge eller tilgodese behov, som følger af en nedsat funktionsevne, og som gives med henblik på at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilværelse eller forbedre livskvaliteten.</t>
   </si>
   <si>
     <t>2</t>
@@ -156,7 +156,7 @@
     <t>Ydelse</t>
   </si>
   <si>
-    <t>En ydelse er en tjeneste, genstand eller et beløb, der gives eller modtages. En ydelse på socialområdet kan i visse tilfælde også bestå af en sanktion, som fx forældrepålæg.</t>
+    <t>Tjeneste, genstand eller beløb, der gives eller modtages</t>
   </si>
   <si>
     <t>3</t>
@@ -168,7 +168,7 @@
     <t>Afklaring</t>
   </si>
   <si>
-    <t>Afklaring er en ydelse, der har til formål at afdække en borgers situation.</t>
+    <t>Ydelse, der har til formål at afdække en persons situation</t>
   </si>
   <si>
     <t>4</t>
@@ -180,7 +180,7 @@
     <t>Pædagogisk udredning</t>
   </si>
   <si>
-    <t>Pædagogisk udredning er en aktivitet, hvor en leverandør afdækker en borgers funktionsevne i relation til daglige aktiviteter. Et centralt aspekt i afdækningen af funktionsevnen er borgerens mestringsevne, som har betydning for, hvordan man begriber, håndterer og handler i forskellige situationer. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Udredning, hvor en leverandør afdækker en persons funktionsevne i relation til daglige aktiviteter</t>
   </si>
   <si>
     <t>a1eaa022-9e5c-493c-83d3-7cc40b9df9e9</t>
@@ -189,7 +189,7 @@
     <t>Ophold</t>
   </si>
   <si>
-    <t>Ophold er en ydelse, der har til formål at huse en borger. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilfælde én ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et tillæg til disse andre ydelser. Det primære fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan være egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask.</t>
+    <t>Ydelse, der har til formål at huse en person.</t>
   </si>
   <si>
     <t>5af56051-8413-4115-aaa2-83a0767e1137</t>
@@ -198,7 +198,7 @@
     <t>Længerevarende ophold</t>
   </si>
   <si>
-    <t>Længerevarende ophold er en ydelse, der har til formål at huse en borger, og som er tilkendt for en ikke-midlertidig periode. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilfælde én ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et tillæg til disse andre ydelser. Det primære fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan være egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf: Serviceloven § 108, Almenboligloven § 54, Friplejeboligloven, Ældreboligloven m.fl.</t>
+    <t>Ophold, der er tilkendt for en ikke-midlertidig periode.</t>
   </si>
   <si>
     <t>80aa8ea7-4ad8-405f-876a-4c0f89fde06a</t>
@@ -207,7 +207,7 @@
     <t>Midlertidigt ophold</t>
   </si>
   <si>
-    <t>Midlertidigt ophold er en ydelse, der har til formål at huse en borger, og som tilkendes midlertidigt. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilfælde én ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et tillæg til disse andre ydelser. Det primære fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan være egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf på Børn- og ungeområdet: Serviceloven §§ 52, 58, 66. Vejledende visitationsparagraf på Voksen-området: Serviceloven §§ 107, 109, 110.</t>
+    <t>Ophold, der er tilkendt midlertidigt.</t>
   </si>
   <si>
     <t>a81a3fa9-6601-4d1e-a11e-f7444dfd3828</t>
@@ -225,7 +225,7 @@
     <t>Aktivitet og samvær</t>
   </si>
   <si>
-    <t>Aktivitet- og samvær er en ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til formål at fremme socialt samvær eller at tilbyde et miljøskift. I aktivitet og samvær kan der også indgå individuel vejledning, støtte, omsorg og hjælp til at deltage i aktiviteterne. Lovhjemmel: Serviceloven § 104.</t>
+    <t>Ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til formål at fremme socialt samvær eller tilbyde et miljøskift.</t>
   </si>
   <si>
     <t>299af83f-586c-4c17-8af6-c8c47a847d6d</t>
@@ -234,7 +234,7 @@
     <t>Sansestimulerende aktivitet</t>
   </si>
   <si>
-    <t>Sansestimulerende aktiviteter er aktivitet og samvær, hvor en borger får stimuleret sine sanser med henblik på evnen til at kunne sortere, organisere og bearbejde sanseindtryk. Sansestimulerende aktiviteter kan fx være massage, gyngeture, kuglebad og -dyne, sansehave og brug af musik-, lyd- og lysstimuli. Visitationsparagraf: Serviceloven § 104.</t>
+    <t>Aktivitet og samvær, hvor en person får stimuleret sine sanser med henblik på evnen til at kunne sortere, organisere og bearbejde sanseindtryk.</t>
   </si>
   <si>
     <t>2c1944be-fe87-4c42-b08e-9cc075c9ef18</t>
@@ -243,7 +243,7 @@
     <t>Oplevelsesaktivitet</t>
   </si>
   <si>
-    <t>Oplevelsesaktiviteter er aktivitet og samvær, hvor en borger har individuelle oplevelser eller oplevelser sammen med andre borgere eller personale. Oplevelser kan fx være natur- og kulturoplevelser. Visitationsparagraf: Serviceloven § 104.</t>
+    <t>Aktivitet og samvær, hvor en person har individuelle oplevelser eller oplevelser sammen med andre personer.</t>
   </si>
   <si>
     <t>66e23d66-1c5f-4070-bed1-8827cc863dcd</t>
@@ -252,7 +252,7 @@
     <t>Fysisk aktivitet</t>
   </si>
   <si>
-    <t>Fysiske aktiviteter er aktivitet og samvær, der gennem fysiske bevægelser giver en borger mulighed for at bruge sin krop. Det omfatter fx idræts- og motionsaktiviteter og forskellige former for bevægelse, hvor samværet kan være i centrum. Visitationsparagraf: Serviceloven § 104.</t>
+    <t>Aktivitet og samvær, der gennem fysiske bevægelser giver en person mulighed for at bruge sin krop.</t>
   </si>
   <si>
     <t>7e419926-bb04-4829-99c9-95ea20403c2c</t>
@@ -261,7 +261,7 @@
     <t>Social aktivitet</t>
   </si>
   <si>
-    <t>Social aktivitet er aktivitet og samvær, som ved at få en borger ind i et fællesskab med andre, forebygger eller bryder med social isolation og vedligeholder de sociale relationer. Social aktivitet kan fx være at spise, spille spil eller høre musik sammen med andre. Visitationsparagraf: Serviceloven § 104.</t>
+    <t>Aktivitet og samvær, som ved at få en person ind i et fællesskab med andre forebygger eller bryder med social isolation og vedligeholder de sociale relationer.</t>
   </si>
   <si>
     <t>be5d5058-ef06-42a9-b894-51e44513e717</t>
@@ -270,7 +270,7 @@
     <t>Kreativ aktivitet</t>
   </si>
   <si>
-    <t>Kreative aktiviteter er aktivitet og samvær, hvor en borger kan udfolde sig kreativt. Aktiviteterne kan foretages alene eller sammen med andre borgere eller personale. Kreative aktiviteter kan fx være madlavning; musik, sang og drama; håndarbejde; maleri eller værkstedsaktiviteter. Visitationsparagraf: Serviceloven § 104.</t>
+    <t>Aktivitet og samvær, hvor en person kan udfolde sig kreativt.</t>
   </si>
   <si>
     <t>f25674bf-3162-45c3-bde4-6d542bf9629b</t>
@@ -279,7 +279,7 @@
     <t>Kompetenceudviklende aktivitet</t>
   </si>
   <si>
-    <t>Kompetenceudviklende aktiviteter er aktivitet og samvær, hvor en borger eller gruppe af borgere undervises i bestemte færdigheder eller kompetencer. Kompetenceudviklende aktiviteter kan således både sigte på at opnå helt konkrete færdigheder fx i forhold til brug af IT og mobiltelefon eller på at lave mad, eller på mere brede kompetenceløft, der sigter mod evnen til at varetage egen sundhed og livsførelse. Visitationsparagraf: Serviceloven § 104.</t>
+    <t>Aktivitet og samvær, hvor en person eller gruppe af personer undervises i bestemte færdigheder eller kompetencer.</t>
   </si>
   <si>
     <t>d8505298-6ea5-4ca8-923d-6e4451cc9a48</t>
@@ -288,7 +288,7 @@
     <t>Beskyttet beskæftigelse</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelse er en ydelse, der gennem arbejdslignende, lønnede aktiviteter har til formål at afdække, oparbejde, udvikle eller bevare en borgers arbejdsevne og beskæftigelsesrelevante kompetencer. I beskyttet beskæftigelse kan der også indgå individuel vejledning, støtte og hjælp til at deltage i aktiviteterne. Beskyttet beskæftigelse er rettet mod borgere, der ikke kan opnå eller fastholde beskæftigelse på normale vilkår på arbejdsmarkedet, og som ikke kan få indsatser efter anden lovgivning. Lovhjemmel: Serviceloven § 103.</t>
+    <t>Ydelse, der gennem arbejdslignende, lønnede aktiviteter har til formål at afdække, oparbejde, udvikle eller bevare en persons arbejdsevne og beskæftigelsesrelevante kompetencer.</t>
   </si>
   <si>
     <t>55b77d7c-afce-4269-9232-7731ab1ef4fc</t>
@@ -297,7 +297,7 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Service og tjenesteydelser er beskyttet beskæftigelse, der er centreret omkring udførelse af servicerende, understøttende arbejdsfunktioner. I en service og tjenesteydelse vil der ofte indgå kontakt med andre, hvorfor der typisk vil være fokus på at træne dette. Eksempler på service og tjenesteydelser er kantine- og cafédrift, pedel- og rengøringsopgaver samt kontor- og piccolineopgaver, butik- og kundebetjening og vedligeholdelse af grønne områder. Visitationsparagraf: Serviceloven § 103.</t>
+    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af servicerende, understøttende arbejdsfunktioner.</t>
   </si>
   <si>
     <t>c429b7a9-5085-472b-b118-a21ca90f769f</t>
@@ -306,7 +306,7 @@
     <t>Praktikforløb</t>
   </si>
   <si>
-    <t>Praktikforløb er beskyttet beskæftigelse, der har til formål, at en borger kan afprøve ressourcer og kompetencer i forhold til et specifikt arbejdsområde eller en given arbejdsplads i en afgrænset periode. Praktikforløb kan også foregå i en ekstern virksomhed, fx en dagligvareforretning eller en produktionsvirksomhed. Visitationsparagraf: Serviceloven § 103.</t>
+    <t>Beskyttet beskæftigelse, der har til formål, at en person kan afprøve ressourcer og kompetencer i forhold til et specifikt arbejdsområde eller en given arbejdsplads i en afgrænset periode.</t>
   </si>
   <si>
     <t>fb3d8722-90e0-4a80-ba65-490617ffeb0f</t>
@@ -315,7 +315,7 @@
     <t>Produktion og værksted</t>
   </si>
   <si>
-    <t>Produktion og værksted er beskyttet beskæftigelse, der er centreret omkring udførelse af enkle, afgrænsede arbejdsopgaver som led i en samlet produktion af konkrete produkter. De konkrete arbejdsopgaver kan fx være fremstilling af produkter, herunder fx kunsthåndværk, optændingsbrænde, grøntsager, produktion af avis og medier. Opgaverne kan eksempelvis omfatte montering, sortering, optælling og pakning og kontrol af produkter. Visitationsparagraf: Serviceloven § 103.</t>
+    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af enkle, afgrænsede arbejdsopgaver som led i en samlet produktion af konkrete produkter.</t>
   </si>
   <si>
     <t>1f0ff82b-3243-422f-9651-1d00fd2dcd61</t>
@@ -324,7 +324,7 @@
     <t>Socialpædagogisk støtte</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte er en ydelse, der gennem motivation, vejledning og støtte har til formål at udvikle eller fastholde en borgers funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til borgerens situation. Socialpædagogisk støtte retter sig blandt andet mod udvikling og vedligeholdelse af færdigheder i forbindelse med almindelig daglig livsførelse, herunder at skabe struktur i hverdagen og understøtte deltagelse i samfundets almene fællesskaber, eksempelvis uddannelse, beskæftigelse og foreningsliv. Socialpædagogisk støtte kan også ydes med det formål at begrænse tabet af funktionsevne og at yde kompensation, omsorg og pleje. Lovhjemmel: Serviceloven § 85.</t>
+    <t>Ydelse, der gennem motivation, vejledning og støtte har til formål at udvikle eller fastholde en persons funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til personens situation.</t>
   </si>
   <si>
     <t>309b778e-52ed-448a-91ae-0650a6cd8b1b</t>
@@ -333,7 +333,7 @@
     <t>Støtte til samfundsdeltagelse</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse er socialpædagogisk støtte, der retter sig mod aktiviteter, der er en forudsætning for at kunne deltage i samfundslivet. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Socialpædagogisk støtte, der retter sig mod aktiviteter, der er en forudsætning for at kunne deltage i samfundslivet.</t>
   </si>
   <si>
     <t>5</t>
@@ -345,7 +345,7 @@
     <t>Støtte til transport</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til transport er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod en borgers mulighed for selvstændigt at færdes uden for hjemmet. Støtte til transport omfatter eksempelvis træning i at anvende offentlige transportmidler, fx at tage med bussen til og fra arbejde og uddannelse, behandling og lægebesøg eller aktiviteter af social karakter. Støtte til transport er ikke ledsagelse, men er rettet mod personens evne til at færdes selvstændigt. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons mulighed for selvstændigt at færdes uden for hjemmet.</t>
   </si>
   <si>
     <t>1a2daf63-0510-4bf3-8578-662d4300c965</t>
@@ -354,7 +354,7 @@
     <t>Støtte til uddannelse</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til uddannelse er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod en borgersmuligheder for at varetage en uddannelse. Støtte til uddannelse kan fx være at afdække ønsker og muligheder i forbindelse med uddannelse, etablering af hensigtsmæssige rutiner og struktur i forhold til at varetage en uddannelse samt at fastholde motivation og engagement. Herved adskiller støtte til uddannelse sig fra specialpædagogisk støtte under uddannelse efter Lov om specialpædagogisk støtte. Støtte til uddannelse er helt eller delvist sammenfaldende med mentorstøtte efter Lov om aktiv beskæftigelsesindsats § 31.b Med uddannelse menes både ordinær uddannelse såvel som uddannelse på særlige vilkår. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage en uddannelse.</t>
   </si>
   <si>
     <t>cb1169ee-8969-46d3-813d-f0dd555bd838</t>
@@ -363,7 +363,7 @@
     <t>Støtte til beskæftigelse</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til beskæftigelse er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod en borgers muligheder for at varetage et arbejde. Støtte til beskæftigelse kan fx være etablering af hensigtsmæssige rutiner og struktur i forhold til at varetage et arbejde samt at fastholde motivation og engagement. Støtte til beskæftigelse er helt eller delvist sammenfaldende med mentorstøtte efter Lov om aktiv beskæftigelsesindsats § 31.b. Med beskæftigelse menes både ordinær beskæftigelse og beskæftigelse på særlige vilkår. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage et arbejde.</t>
   </si>
   <si>
     <t>e2631dec-fd8b-420e-94db-53fd80e82766</t>
@@ -372,7 +372,7 @@
     <t>Støtte til kontakt til offentlige og private instanser</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til kontakt til offentlige og private instanser er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod gennemførsel af besøg hos og kontakt til offentlige og private instanser med et specifikt formål. Støtte til kontakt til offentlige og private instanser kan fx være rettet mod at henvende sig hos banken, foreninger, organisationer og offentlige myndigheder. Det kan også være støtte til at gennemføre besøg fx hos lægen eller tandlægen. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til samfundsdeltagelse, der retter sig mod gennemførsel af besøg hos og kontakt til offentlige og private instanser med et specifikt formål.</t>
   </si>
   <si>
     <t>329782cf-a740-4eb7-aa7e-aaaa9a53c99e</t>
@@ -381,7 +381,7 @@
     <t>Støtte til sundhed</t>
   </si>
   <si>
-    <t>Støtte til sundhed er socialpædagogisk støtte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme. Sundhed omfatter både fysisk og mental trivsel. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Socialpædagogisk støtte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme.</t>
   </si>
   <si>
     <t>3c1639d0-e486-43c6-8add-448b8aff4b8f</t>
@@ -390,7 +390,7 @@
     <t>Støtte til sund levevis</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til sund levevis er motivation, vejledning og støtte til sundhed, der retter sig mod livsstilsbetingede forhold. Støtte til sund levevis kan fx være at dyrke motion, etablere en sund døgnrytme, stoppe med at ryge eller motivere borgeren til at spise sundt og hensigtsmæssigt, herunder støtte til måltider. Vejledende visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til sundhed, der retter sig mod livsstilsbetingede forhold.</t>
   </si>
   <si>
     <t>72272d03-1774-4a14-b598-5f19b5eac83f</t>
@@ -399,7 +399,7 @@
     <t>Støtte til personlig hygiejne</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til personlig hygiejne er motivation, vejledning og støtte til sundhed, der retter sig mod hygiejnemæssige opgaver i relation til borgeren selv. Støtte til personlig hygiejne kan fx være rettet mod etablering af struktur og rutiner i forbindelse med af- og påklædning og bad. Herved adskiller støtte til personlig hygiejne sig fra personlig hjælp efter serviceloven § 83. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til sundhed, der retter sig mod hygiejnemæssige opgaver i relation til personen selv.</t>
   </si>
   <si>
     <t>ad7755d2-11bf-468d-958b-2f0c8d9c3742</t>
@@ -408,7 +408,7 @@
     <t>Støtte til psykisk trivsel</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til psykisk trivsel er motivation, vejledning og støtte til sundhed, der retter sig mod en borgers psykiske velbefindende. Støtte til psykisk trivsel kan fx være rettet mod en borgers følelsesregulering og handlemønstre, indsigt i og forståelse af egen situation, opbygning af positivt selvværd og identitet. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til sundhed, der retter sig mod en persons psykiske velbefindende.</t>
   </si>
   <si>
     <t>bd5fea9a-16ed-4e63-b6a1-8e83caaf9b0b</t>
@@ -417,7 +417,7 @@
     <t>Støtte til seksualitet</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til seksualitet er motivation, vejledning og støtte til sundhed, der retter sig mod den måde, som en borgers seksualitet kommer til udtryk på. Støtte til seksualitet kan fx være støtte til at udtrykke sin seksualitet hensigtsmæssigt eller sætte grænser. Det kan også være støtte til at opsøge specialiseret rådgivning og vejledning i forhold til seksualitet og funktionsnedsættelser. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til sundhed, der retter sig mod den måde, som en persons seksualitet kommer til udtryk på.</t>
   </si>
   <si>
     <t>e7c8b42e-b882-4629-8e03-65e44b1aa3e3</t>
@@ -426,7 +426,7 @@
     <t>Støtte til behandling</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til behandling er motivation, vejledning og støtte til sundhed, der retter sig mod en borgers behandling. Støtte til behandling kan fx være rettet mod, at borgeren fastholder beslutningen om at påbegynde behandling eller opretholder igangværende behandling, herunder fx misbrugsbehandling, psykologisk behandling og medicinsk behandling, Herved adskiller støtte til behandling sig fra ydelser efter Sundhedsloven § 138. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til sundhed, der retter sig mod en persons behandling.</t>
   </si>
   <si>
     <t>4ff4a2d4-4cde-4a22-bb37-ecfbd3fd9650</t>
@@ -435,7 +435,7 @@
     <t>Støtte til relationer og fællesskaber</t>
   </si>
   <si>
-    <t>Støtte til relationer og fællesskaber er socialpædagogisk støtte, der retter sig mod relationer og fællesskaber, hvor samspillet med andre er et centralt element. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Socialpædagogisk støtte, der retter sig mod relationer og fællesskaber, hvor samspillet med andre er et centralt element.</t>
   </si>
   <si>
     <t>05cd5e81-1a3a-4bdd-901b-7ec96c12d990</t>
@@ -444,7 +444,7 @@
     <t>Støtte til sociale relationer</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til sociale relationer er motivation, vejledning og støtte til relationer og fællesskaber, der retter sig mod at udvikle, indgå i og bevare relationer til andre mennesker. Støtte til sociale relationer kan både være rettet mod en borgers relationer til enkeltpersoner eller på, hvordan en borger indgår i et større fællesskab. Støtte til sociale relationer kan både være hjælp til at håndtere de følelsesmæssige og sociale aspekter ved samværet, fx at håndtere følelser og problemstillinger i sociale sammenhænge, at skabe og fastholde netværk og at holde kontakt med venner og familie eller deltage i og gennemføre aktiviteter sammen med andre. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til relationer og fællesskaber, der retter sig mod at udvikle, indgå i og bevare relationer til andre mennesker.</t>
   </si>
   <si>
     <t>ea47a198-7e24-472d-ba5d-132b8b744710</t>
@@ -453,7 +453,7 @@
     <t>Støtte til varetagelse af forældrerollen</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til varetagelse af forældrerollen er motivation, vejledning og støtte til relationer og fællesskaber, der retter sig mod strukturering og håndtering af opgaver, som er en almindelig del af forældreansvaret, og hvor samværet mellem barn og forælder er centralt. Støtten tildeles på baggrund af borgerens nedsatte funktionsevne i forhold til at gennemføre de opgaver, der indgår i varetagelse af forældrerollen og ikke grundet manglende forældreevne. Herved adskiller støtte til varetagelse af forældrerollen sig fra foranstaltninger efter Serviceloven § 52, hvor fokus er på barnets trivsel. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til relationer og fællesskaber, der retter sig mod strukturering og håndtering af opgaver, som er en almindelig del af forældreansvaret, og hvor samværet mellem barn og forælder er centralt.</t>
   </si>
   <si>
     <t>a63f7092-63d9-4cb5-ace5-655b552fdacc</t>
@@ -462,7 +462,7 @@
     <t>Støtte til praktiske opgaver</t>
   </si>
   <si>
-    <t>Støtte til praktiske opgaver er socialpædagogisk støtte, der retter sig imod almindelige praktiske opgaver. Støtte til praktiske opgaver består af motivation, vejledning og støtte til udførelsen af de praktiske opgaver, herunder udvikling og vedligeholdelse af kompetencer til at strukturere, planlægge og udføre de konkrete aktiviteter. Herved adskiller støtte til praktiske opgaver sig fra praktisk hjælp efter § 83. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Socialpædagogisk støtte, der retter sig imod almindelige praktiske opgaver.</t>
   </si>
   <si>
     <t>638f44df-6bf2-47f8-9935-b8fdc83e5bf5</t>
@@ -471,7 +471,7 @@
     <t>Støtte til daglige opgaver i hjemmet</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til daglige opgaver i hjemmet er motivation, vejledning og støtte til praktiske opgaver, der har hverdagskarakter og retter sig mod borgerens hjem. Støtte til daglige opgaver i hjemmet kan eksempelvis være støtte til oprydning, tøjvask, rengøring eller indkøb og madlavning. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til praktiske opgaver, der har hverdagskarakter og retter sig mod en persons hjem.</t>
   </si>
   <si>
     <t>c56634ca-6847-4c50-b5c1-c528c1ffc1d8</t>
@@ -480,7 +480,7 @@
     <t>Støtte til etablering i bolig</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til etablering i bolig er motivation, vejledning og støtte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i borgerens bolig. Et eksempel på støtte til etablering i bolig er at søge efter en bolig eller at guide og motivere i forbindelse med ind- og udflytning fx i forbindelse med planlægning, strukturering og gennemførsel af praktiske opgaver og indretning af boligen til borgerens behov. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i bolig.</t>
   </si>
   <si>
     <t>d473dea2-4f6d-4f36-a8f0-260f0213f50a</t>
@@ -489,7 +489,7 @@
     <t>Støtte til administration</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte til administration er motivation, vejledning og støtte til praktiske opgaver af administrativ eller økonomisk karakter. Støtte til administration kan fx være rettet mod borgerens håndtering og forståelse af post, herunder digital post og selvbetjeningsløsninger, personlig økonomi, herunder budget, opsparing og regninger, samt opdatering og anvendelse af software eller apps, herunder digitaliserede hjælpemidler. Visitationsparagraf: Serviceloven § 85.</t>
+    <t>Støtte til praktiske opgaver af administrativ eller økonomisk karakter.</t>
   </si>
   <si>
     <t>21dca9cf-c238-465b-9f12-15351f51b038</t>
@@ -1273,6 +1273,12 @@
   </si>
   <si>
     <t>FFB tilstande</t>
+  </si>
+  <si>
+    <t>FFB tilstande
+Mapset: 58000024148 (FFB tilstande mappet til SNOMED)
+Mapset: 338000019145 (OmrHierarkiFFB)
+Mapset: 68000024145 (TilstandsrelationerFFB)</t>
   </si>
   <si>
     <t>740934cd-002b-4b96-b92e-b3562eed9448</t>
@@ -4177,7 +4183,7 @@
         <v>419</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130">
@@ -4185,13 +4191,13 @@
         <v>44</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131">
@@ -4199,13 +4205,13 @@
         <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132">
@@ -4213,13 +4219,13 @@
         <v>52</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133">
@@ -4227,13 +4233,13 @@
         <v>52</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134">
@@ -4241,13 +4247,13 @@
         <v>52</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135">
@@ -4255,13 +4261,13 @@
         <v>52</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136">
@@ -4269,13 +4275,13 @@
         <v>52</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137">
@@ -4283,13 +4289,13 @@
         <v>52</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D137" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138">
@@ -4297,13 +4303,13 @@
         <v>52</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="139">
@@ -4311,13 +4317,13 @@
         <v>52</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140">
@@ -4325,13 +4331,13 @@
         <v>52</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D140" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141">
@@ -4339,13 +4345,13 @@
         <v>52</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="142">
@@ -4353,13 +4359,13 @@
         <v>52</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="143">
@@ -4367,13 +4373,13 @@
         <v>52</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144">
@@ -4381,13 +4387,13 @@
         <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145">
@@ -4395,13 +4401,13 @@
         <v>52</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146">
@@ -4409,13 +4415,13 @@
         <v>52</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147">
@@ -4423,13 +4429,13 @@
         <v>52</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D147" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148">
@@ -4437,13 +4443,13 @@
         <v>52</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149">
@@ -4451,13 +4457,13 @@
         <v>52</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150">
@@ -4465,13 +4471,13 @@
         <v>52</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151">
@@ -4479,13 +4485,13 @@
         <v>52</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152">
@@ -4493,13 +4499,13 @@
         <v>52</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D152" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153">
@@ -4507,13 +4513,13 @@
         <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154">
@@ -4521,13 +4527,13 @@
         <v>52</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155">
@@ -4535,13 +4541,13 @@
         <v>52</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="156">
@@ -4549,13 +4555,13 @@
         <v>52</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D156" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157">
@@ -4563,13 +4569,13 @@
         <v>52</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158">
@@ -4577,13 +4583,13 @@
         <v>52</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D158" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="159">
@@ -4591,13 +4597,13 @@
         <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D159" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="160">
@@ -4605,13 +4611,13 @@
         <v>52</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161">
@@ -4619,13 +4625,13 @@
         <v>52</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162">
@@ -4633,13 +4639,13 @@
         <v>52</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D162" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163">
@@ -4647,13 +4653,13 @@
         <v>52</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D163" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="164">
@@ -4661,7 +4667,7 @@
         <v>52</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>268</v>
@@ -4675,13 +4681,13 @@
         <v>52</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166">
@@ -4689,7 +4695,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>226</v>
@@ -4703,13 +4709,13 @@
         <v>52</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D167" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="168">
@@ -4717,13 +4723,13 @@
         <v>44</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="169">
@@ -4731,13 +4737,13 @@
         <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="170">
@@ -4745,13 +4751,13 @@
         <v>52</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D170" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="171">
@@ -4759,13 +4765,13 @@
         <v>52</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172">
@@ -4773,13 +4779,13 @@
         <v>52</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D172" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173">
@@ -4787,13 +4793,13 @@
         <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D173" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174">
@@ -4801,13 +4807,13 @@
         <v>52</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D174" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="175">
@@ -4815,13 +4821,13 @@
         <v>52</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="176">
@@ -4829,13 +4835,13 @@
         <v>52</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="177">
@@ -4843,13 +4849,13 @@
         <v>52</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D177" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="178">
@@ -4857,13 +4863,13 @@
         <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D178" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179">
@@ -4871,13 +4877,13 @@
         <v>52</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180">
@@ -4885,13 +4891,13 @@
         <v>52</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181">
@@ -4899,13 +4905,13 @@
         <v>52</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="182">
@@ -4913,13 +4919,13 @@
         <v>52</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D182" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183">
@@ -4927,13 +4933,13 @@
         <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D183" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184">
@@ -4941,13 +4947,13 @@
         <v>52</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D184" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185">
@@ -4955,13 +4961,13 @@
         <v>52</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D185" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="186">
@@ -4969,13 +4975,13 @@
         <v>52</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187">
@@ -4983,13 +4989,13 @@
         <v>52</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188">
@@ -4997,13 +5003,13 @@
         <v>52</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189">
@@ -5011,13 +5017,13 @@
         <v>52</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D189" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="190">
@@ -5025,13 +5031,13 @@
         <v>52</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D190" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191">
@@ -5039,13 +5045,13 @@
         <v>52</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D191" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="192">
@@ -5053,13 +5059,13 @@
         <v>52</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D192" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="193">
@@ -5067,13 +5073,13 @@
         <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194">
@@ -5081,13 +5087,13 @@
         <v>52</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195">
@@ -5095,13 +5101,13 @@
         <v>52</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D195" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="196">
@@ -5109,13 +5115,13 @@
         <v>52</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D196" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="197">
@@ -5123,13 +5129,13 @@
         <v>52</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D197" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="198">
@@ -5137,13 +5143,13 @@
         <v>52</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D198" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="199">
@@ -5151,13 +5157,13 @@
         <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="200">
@@ -5165,13 +5171,13 @@
         <v>52</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="201">
@@ -5179,13 +5185,13 @@
         <v>52</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="202">
@@ -5193,13 +5199,13 @@
         <v>52</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="203">
@@ -5207,13 +5213,13 @@
         <v>52</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="204">
@@ -5221,13 +5227,13 @@
         <v>52</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="205">
@@ -5235,13 +5241,13 @@
         <v>52</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D205" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206">
@@ -5249,13 +5255,13 @@
         <v>44</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D206" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="207">
@@ -5263,13 +5269,13 @@
         <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D207" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="208">
@@ -5277,13 +5283,13 @@
         <v>52</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D208" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="209">
@@ -5291,13 +5297,13 @@
         <v>52</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D209" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="210">
@@ -5305,13 +5311,13 @@
         <v>52</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D210" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="211">
@@ -5319,13 +5325,13 @@
         <v>40</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D211" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="212">
@@ -5333,13 +5339,13 @@
         <v>44</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D212" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="213">
@@ -5347,13 +5353,13 @@
         <v>44</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D213" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="214">
@@ -5361,13 +5367,13 @@
         <v>44</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D214" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="215">
@@ -5375,13 +5381,13 @@
         <v>40</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D215" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="216">
@@ -5389,7 +5395,7 @@
         <v>44</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C216" t="s" s="2">
         <v>399</v>
@@ -5403,13 +5409,13 @@
         <v>44</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D217" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="218">
@@ -5417,13 +5423,13 @@
         <v>44</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="219">
@@ -5431,13 +5437,13 @@
         <v>44</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D219" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="220">
@@ -5445,13 +5451,13 @@
         <v>44</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D220" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="221">
@@ -5459,13 +5465,13 @@
         <v>44</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D221" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="681">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.208.176.2.22</t>
+    <t>urn:oid#urn:oid:1.2.208.176.2.22</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T23:08:03+02:00</t>
+    <t>2024-06-04T14:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -141,10 +141,10 @@
     <t>67b4ac73-dedf-4337-ad56-476b0a55ab03</t>
   </si>
   <si>
-    <t>Social indsats [Servicelov]</t>
-  </si>
-  <si>
-    <t>Indsats, der består af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud, og som skal forebygge eller tilgodese behov, som følger af en nedsat funktionsevne, og som gives med henblik på at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilværelse eller forbedre livskvaliteten.</t>
+    <t>Social indsats</t>
+  </si>
+  <si>
+    <t>En social indsats, er en indsats, der består af en eller flere ydelser, som leveres til en eller flere borgere af et eller flere tilbud. En social indsats skal forebygge eller tilgodese behov, som følger af en nedsat funktionsevne. Indsatsen gives med henblik på at fremme den enkeltes mulighed for at klare sig selv eller at lette den daglige tilværelse eller forbedre livskvaliteten. I generelle vendinger er det tale om en social indsats, når 'nogen' leverer 'noget' til 'en modtager' med det beskrevne formål. Mere konkret vil en social indsats bestå af en eller flere specifikke ydelser, som typisk leveres til én borger af ét tilbud. Det kan fx være når et ambulant behandlingstilbud til voksne leverer misbrugsbehandling til en stofmisbruger eller når et socialpædagogisk opholdssted leverer socialpædagogisk behandling til et barn. Der vil typisk være en eller flere bestemte faglige tilgange til leveringen af den sociale indsats, der kan leveres efter en eller flere metoder. En social indsats vil almindeligvis...</t>
   </si>
   <si>
     <t>2</t>
@@ -156,7 +156,7 @@
     <t>Ydelse</t>
   </si>
   <si>
-    <t>Tjeneste, genstand eller beløb, der gives eller modtages</t>
+    <t>En ydelse er en tjeneste, genstand eller et beløb, der gives eller modtages. En ydelse på socialområdet kan i visse tilfælde også bestå af en sanktion, som fx forældrepålæg.</t>
   </si>
   <si>
     <t>3</t>
@@ -168,7 +168,7 @@
     <t>Afklaring</t>
   </si>
   <si>
-    <t>Ydelse, der har til formål at afdække en persons situation</t>
+    <t>Afklaring er en ydelse, der har til formål at afdække en borgers situation.</t>
   </si>
   <si>
     <t>4</t>
@@ -180,7 +180,7 @@
     <t>Pædagogisk udredning</t>
   </si>
   <si>
-    <t>Udredning, hvor en leverandør afdækker en persons funktionsevne i relation til daglige aktiviteter</t>
+    <t>Pædagogisk udredning er en aktivitet, hvor en leverandør afdækker en borgers funktionsevne i relation til daglige aktiviteter. Et centralt aspekt i afdækningen af funktionsevnen er borgerens mestringsevne, som har betydning for, hvordan man begriber, håndterer og handler i forskellige situationer. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>a1eaa022-9e5c-493c-83d3-7cc40b9df9e9</t>
@@ -189,7 +189,7 @@
     <t>Ophold</t>
   </si>
   <si>
-    <t>Ydelse, der har til formål at huse en person.</t>
+    <t>Ophold er en ydelse, der har til formål at huse en borger. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilfælde én ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et tillæg til disse andre ydelser. Det primære fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan være egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask.</t>
   </si>
   <si>
     <t>5af56051-8413-4115-aaa2-83a0767e1137</t>
@@ -198,7 +198,7 @@
     <t>Længerevarende ophold</t>
   </si>
   <si>
-    <t>Ophold, der er tilkendt for en ikke-midlertidig periode.</t>
+    <t>Længerevarende ophold er en ydelse, der har til formål at huse en borger, og som er tilkendt for en ikke-midlertidig periode. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilfælde én ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et tillæg til disse andre ydelser. Det primære fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan være egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf: Serviceloven § 108, Almenboligloven § 54, Friplejeboligloven, Ældreboligloven m.fl.</t>
   </si>
   <si>
     <t>80aa8ea7-4ad8-405f-876a-4c0f89fde06a</t>
@@ -207,7 +207,7 @@
     <t>Midlertidigt ophold</t>
   </si>
   <si>
-    <t>Ophold, der er tilkendt midlertidigt.</t>
+    <t>Midlertidigt ophold er en ydelse, der har til formål at huse en borger, og som tilkendes midlertidigt. Ophold leveres typisk af en type af botilbud. Ophold er i langt de fleste tilfælde én ud af flere ydelser, der leveres til borgeren af tilbuddet. Derfor betragtes ophold stort set altid som et tillæg til disse andre ydelser. Det primære fokus for den sociale indsats er ofte disse andre ydelser, der leveres i forbindelse med opholdet. Der kan være egenbetaling for borgerens ophold. Det kan fx omfatte betaling for husleje, el, varme, vand, kost og vask. Vejledende visitationsparagraf på Børn- og ungeområdet: Serviceloven §§ 52, 58, 66. Vejledende visitationsparagraf på Voksen-området: Serviceloven §§ 107, 109, 110.</t>
   </si>
   <si>
     <t>a81a3fa9-6601-4d1e-a11e-f7444dfd3828</t>
@@ -225,7 +225,7 @@
     <t>Aktivitet og samvær</t>
   </si>
   <si>
-    <t>Ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til formål at fremme socialt samvær eller tilbyde et miljøskift.</t>
+    <t>Aktivitet- og samvær er en ydelse, der gennem udviklende eller vedligeholdende aktiviteter har til formål at fremme socialt samvær eller at tilbyde et miljøskift. I aktivitet og samvær kan der også indgå individuel vejledning, støtte, omsorg og hjælp til at deltage i aktiviteterne. Lovhjemmel: Serviceloven § 104.</t>
   </si>
   <si>
     <t>299af83f-586c-4c17-8af6-c8c47a847d6d</t>
@@ -234,7 +234,7 @@
     <t>Sansestimulerende aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person får stimuleret sine sanser med henblik på evnen til at kunne sortere, organisere og bearbejde sanseindtryk.</t>
+    <t>Sansestimulerende aktiviteter er aktivitet og samvær, hvor en borger får stimuleret sine sanser med henblik på evnen til at kunne sortere, organisere og bearbejde sanseindtryk. Sansestimulerende aktiviteter kan fx være massage, gyngeture, kuglebad og -dyne, sansehave og brug af musik-, lyd- og lysstimuli. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>2c1944be-fe87-4c42-b08e-9cc075c9ef18</t>
@@ -243,7 +243,7 @@
     <t>Oplevelsesaktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person har individuelle oplevelser eller oplevelser sammen med andre personer.</t>
+    <t>Oplevelsesaktiviteter er aktivitet og samvær, hvor en borger har individuelle oplevelser eller oplevelser sammen med andre borgere eller personale. Oplevelser kan fx være natur- og kulturoplevelser. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>66e23d66-1c5f-4070-bed1-8827cc863dcd</t>
@@ -252,7 +252,7 @@
     <t>Fysisk aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, der gennem fysiske bevægelser giver en person mulighed for at bruge sin krop.</t>
+    <t>Fysiske aktiviteter er aktivitet og samvær, der gennem fysiske bevægelser giver en borger mulighed for at bruge sin krop. Det omfatter fx idræts- og motionsaktiviteter og forskellige former for bevægelse, hvor samværet kan være i centrum. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>7e419926-bb04-4829-99c9-95ea20403c2c</t>
@@ -261,7 +261,7 @@
     <t>Social aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, som ved at få en person ind i et fællesskab med andre forebygger eller bryder med social isolation og vedligeholder de sociale relationer.</t>
+    <t>Social aktivitet er aktivitet og samvær, som ved at få en borger ind i et fællesskab med andre, forebygger eller bryder med social isolation og vedligeholder de sociale relationer. Social aktivitet kan fx være at spise, spille spil eller høre musik sammen med andre. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>be5d5058-ef06-42a9-b894-51e44513e717</t>
@@ -270,7 +270,7 @@
     <t>Kreativ aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person kan udfolde sig kreativt.</t>
+    <t>Kreative aktiviteter er aktivitet og samvær, hvor en borger kan udfolde sig kreativt. Aktiviteterne kan foretages alene eller sammen med andre borgere eller personale. Kreative aktiviteter kan fx være madlavning; musik, sang og drama; håndarbejde; maleri eller værkstedsaktiviteter. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>f25674bf-3162-45c3-bde4-6d542bf9629b</t>
@@ -279,7 +279,7 @@
     <t>Kompetenceudviklende aktivitet</t>
   </si>
   <si>
-    <t>Aktivitet og samvær, hvor en person eller gruppe af personer undervises i bestemte færdigheder eller kompetencer.</t>
+    <t>Kompetenceudviklende aktiviteter er aktivitet og samvær, hvor en borger eller gruppe af borgere undervises i bestemte færdigheder eller kompetencer. Kompetenceudviklende aktiviteter kan således både sigte på at opnå helt konkrete færdigheder fx i forhold til brug af IT og mobiltelefon eller på at lave mad, eller på mere brede kompetenceløft, der sigter mod evnen til at varetage egen sundhed og livsførelse. Visitationsparagraf: Serviceloven § 104.</t>
   </si>
   <si>
     <t>d8505298-6ea5-4ca8-923d-6e4451cc9a48</t>
@@ -288,7 +288,7 @@
     <t>Beskyttet beskæftigelse</t>
   </si>
   <si>
-    <t>Ydelse, der gennem arbejdslignende, lønnede aktiviteter har til formål at afdække, oparbejde, udvikle eller bevare en persons arbejdsevne og beskæftigelsesrelevante kompetencer.</t>
+    <t>Beskyttet beskæftigelse er en ydelse, der gennem arbejdslignende, lønnede aktiviteter har til formål at afdække, oparbejde, udvikle eller bevare en borgers arbejdsevne og beskæftigelsesrelevante kompetencer. I beskyttet beskæftigelse kan der også indgå individuel vejledning, støtte og hjælp til at deltage i aktiviteterne. Beskyttet beskæftigelse er rettet mod borgere, der ikke kan opnå eller fastholde beskæftigelse på normale vilkår på arbejdsmarkedet, og som ikke kan få indsatser efter anden lovgivning. Lovhjemmel: Serviceloven § 103.</t>
   </si>
   <si>
     <t>55b77d7c-afce-4269-9232-7731ab1ef4fc</t>
@@ -297,7 +297,7 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af servicerende, understøttende arbejdsfunktioner.</t>
+    <t>Service og tjenesteydelser er beskyttet beskæftigelse, der er centreret omkring udførelse af servicerende, understøttende arbejdsfunktioner. I en service og tjenesteydelse vil der ofte indgå kontakt med andre, hvorfor der typisk vil være fokus på at træne dette. Eksempler på service og tjenesteydelser er kantine- og cafédrift, pedel- og rengøringsopgaver samt kontor- og piccolineopgaver, butik- og kundebetjening og vedligeholdelse af grønne områder. Visitationsparagraf: Serviceloven § 103.</t>
   </si>
   <si>
     <t>c429b7a9-5085-472b-b118-a21ca90f769f</t>
@@ -306,7 +306,7 @@
     <t>Praktikforløb</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelse, der har til formål, at en person kan afprøve ressourcer og kompetencer i forhold til et specifikt arbejdsområde eller en given arbejdsplads i en afgrænset periode.</t>
+    <t>Praktikforløb er beskyttet beskæftigelse, der har til formål, at en borger kan afprøve ressourcer og kompetencer i forhold til et specifikt arbejdsområde eller en given arbejdsplads i en afgrænset periode. Praktikforløb kan også foregå i en ekstern virksomhed, fx en dagligvareforretning eller en produktionsvirksomhed. Visitationsparagraf: Serviceloven § 103.</t>
   </si>
   <si>
     <t>fb3d8722-90e0-4a80-ba65-490617ffeb0f</t>
@@ -315,7 +315,7 @@
     <t>Produktion og værksted</t>
   </si>
   <si>
-    <t>Beskyttet beskæftigelse, der er centreret omkring udførelse af enkle, afgrænsede arbejdsopgaver som led i en samlet produktion af konkrete produkter.</t>
+    <t>Produktion og værksted er beskyttet beskæftigelse, der er centreret omkring udførelse af enkle, afgrænsede arbejdsopgaver som led i en samlet produktion af konkrete produkter. De konkrete arbejdsopgaver kan fx være fremstilling af produkter, herunder fx kunsthåndværk, optændingsbrænde, grøntsager, produktion af avis og medier. Opgaverne kan eksempelvis omfatte montering, sortering, optælling og pakning og kontrol af produkter. Visitationsparagraf: Serviceloven § 103.</t>
   </si>
   <si>
     <t>1f0ff82b-3243-422f-9651-1d00fd2dcd61</t>
@@ -324,7 +324,7 @@
     <t>Socialpædagogisk støtte</t>
   </si>
   <si>
-    <t>Ydelse, der gennem motivation, vejledning og støtte har til formål at udvikle eller fastholde en persons funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til personens situation.</t>
+    <t>Socialpædagogisk støtte er en ydelse, der gennem motivation, vejledning og støtte har til formål at udvikle eller fastholde en borgers funktionsevne og muligheder for selvstændighed og selvbestemmelse i forhold til borgerens situation. Socialpædagogisk støtte retter sig blandt andet mod udvikling og vedligeholdelse af færdigheder i forbindelse med almindelig daglig livsførelse, herunder at skabe struktur i hverdagen og understøtte deltagelse i samfundets almene fællesskaber, eksempelvis uddannelse, beskæftigelse og foreningsliv. Socialpædagogisk støtte kan også ydes med det formål at begrænse tabet af funktionsevne og at yde kompensation, omsorg og pleje. Lovhjemmel: Serviceloven § 85.</t>
   </si>
   <si>
     <t>309b778e-52ed-448a-91ae-0650a6cd8b1b</t>
@@ -333,7 +333,7 @@
     <t>Støtte til samfundsdeltagelse</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte, der retter sig mod aktiviteter, der er en forudsætning for at kunne deltage i samfundslivet.</t>
+    <t>Støtte til samfundsdeltagelse er socialpædagogisk støtte, der retter sig mod aktiviteter, der er en forudsætning for at kunne deltage i samfundslivet. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>5</t>
@@ -345,7 +345,7 @@
     <t>Støtte til transport</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons mulighed for selvstændigt at færdes uden for hjemmet.</t>
+    <t>Socialpædagogisk støtte til transport er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod en borgers mulighed for selvstændigt at færdes uden for hjemmet. Støtte til transport omfatter eksempelvis træning i at anvende offentlige transportmidler, fx at tage med bussen til og fra arbejde og uddannelse, behandling og lægebesøg eller aktiviteter af social karakter. Støtte til transport er ikke ledsagelse, men er rettet mod personens evne til at færdes selvstændigt. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>1a2daf63-0510-4bf3-8578-662d4300c965</t>
@@ -354,7 +354,7 @@
     <t>Støtte til uddannelse</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage en uddannelse.</t>
+    <t>Socialpædagogisk støtte til uddannelse er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod en borgersmuligheder for at varetage en uddannelse. Støtte til uddannelse kan fx være at afdække ønsker og muligheder i forbindelse med uddannelse, etablering af hensigtsmæssige rutiner og struktur i forhold til at varetage en uddannelse samt at fastholde motivation og engagement. Herved adskiller støtte til uddannelse sig fra specialpædagogisk støtte under uddannelse efter Lov om specialpædagogisk støtte. Støtte til uddannelse er helt eller delvist sammenfaldende med mentorstøtte efter Lov om aktiv beskæftigelsesindsats § 31.b Med uddannelse menes både ordinær uddannelse såvel som uddannelse på særlige vilkår. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>cb1169ee-8969-46d3-813d-f0dd555bd838</t>
@@ -363,7 +363,7 @@
     <t>Støtte til beskæftigelse</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod en persons muligheder for at varetage et arbejde.</t>
+    <t>Socialpædagogisk støtte til beskæftigelse er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod en borgers muligheder for at varetage et arbejde. Støtte til beskæftigelse kan fx være etablering af hensigtsmæssige rutiner og struktur i forhold til at varetage et arbejde samt at fastholde motivation og engagement. Støtte til beskæftigelse er helt eller delvist sammenfaldende med mentorstøtte efter Lov om aktiv beskæftigelsesindsats § 31.b. Med beskæftigelse menes både ordinær beskæftigelse og beskæftigelse på særlige vilkår. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>e2631dec-fd8b-420e-94db-53fd80e82766</t>
@@ -372,7 +372,7 @@
     <t>Støtte til kontakt til offentlige og private instanser</t>
   </si>
   <si>
-    <t>Støtte til samfundsdeltagelse, der retter sig mod gennemførsel af besøg hos og kontakt til offentlige og private instanser med et specifikt formål.</t>
+    <t>Socialpædagogisk støtte til kontakt til offentlige og private instanser er motivation, vejledning og støtte til samfundsdeltagelse, der retter sig mod gennemførsel af besøg hos og kontakt til offentlige og private instanser med et specifikt formål. Støtte til kontakt til offentlige og private instanser kan fx være rettet mod at henvende sig hos banken, foreninger, organisationer og offentlige myndigheder. Det kan også være støtte til at gennemføre besøg fx hos lægen eller tandlægen. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>329782cf-a740-4eb7-aa7e-aaaa9a53c99e</t>
@@ -381,7 +381,7 @@
     <t>Støtte til sundhed</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme.</t>
+    <t>Støtte til sundhed er socialpædagogisk støtte, der retter sig mod et eller flere aspekter af sundhed og indeholder et element af sundhedsfremme. Sundhed omfatter både fysisk og mental trivsel. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>3c1639d0-e486-43c6-8add-448b8aff4b8f</t>
@@ -390,7 +390,7 @@
     <t>Støtte til sund levevis</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod livsstilsbetingede forhold.</t>
+    <t>Socialpædagogisk støtte til sund levevis er motivation, vejledning og støtte til sundhed, der retter sig mod livsstilsbetingede forhold. Støtte til sund levevis kan fx være at dyrke motion, etablere en sund døgnrytme, stoppe med at ryge eller motivere borgeren til at spise sundt og hensigtsmæssigt, herunder støtte til måltider. Vejledende visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>72272d03-1774-4a14-b598-5f19b5eac83f</t>
@@ -399,7 +399,7 @@
     <t>Støtte til personlig hygiejne</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod hygiejnemæssige opgaver i relation til personen selv.</t>
+    <t>Socialpædagogisk støtte til personlig hygiejne er motivation, vejledning og støtte til sundhed, der retter sig mod hygiejnemæssige opgaver i relation til borgeren selv. Støtte til personlig hygiejne kan fx være rettet mod etablering af struktur og rutiner i forbindelse med af- og påklædning og bad. Herved adskiller støtte til personlig hygiejne sig fra personlig hjælp efter serviceloven § 83. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>ad7755d2-11bf-468d-958b-2f0c8d9c3742</t>
@@ -408,7 +408,7 @@
     <t>Støtte til psykisk trivsel</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod en persons psykiske velbefindende.</t>
+    <t>Socialpædagogisk støtte til psykisk trivsel er motivation, vejledning og støtte til sundhed, der retter sig mod en borgers psykiske velbefindende. Støtte til psykisk trivsel kan fx være rettet mod en borgers følelsesregulering og handlemønstre, indsigt i og forståelse af egen situation, opbygning af positivt selvværd og identitet. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>bd5fea9a-16ed-4e63-b6a1-8e83caaf9b0b</t>
@@ -417,7 +417,7 @@
     <t>Støtte til seksualitet</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod den måde, som en persons seksualitet kommer til udtryk på.</t>
+    <t>Socialpædagogisk støtte til seksualitet er motivation, vejledning og støtte til sundhed, der retter sig mod den måde, som en borgers seksualitet kommer til udtryk på. Støtte til seksualitet kan fx være støtte til at udtrykke sin seksualitet hensigtsmæssigt eller sætte grænser. Det kan også være støtte til at opsøge specialiseret rådgivning og vejledning i forhold til seksualitet og funktionsnedsættelser. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>e7c8b42e-b882-4629-8e03-65e44b1aa3e3</t>
@@ -426,7 +426,7 @@
     <t>Støtte til behandling</t>
   </si>
   <si>
-    <t>Støtte til sundhed, der retter sig mod en persons behandling.</t>
+    <t>Socialpædagogisk støtte til behandling er motivation, vejledning og støtte til sundhed, der retter sig mod en borgers behandling. Støtte til behandling kan fx være rettet mod, at borgeren fastholder beslutningen om at påbegynde behandling eller opretholder igangværende behandling, herunder fx misbrugsbehandling, psykologisk behandling og medicinsk behandling, Herved adskiller støtte til behandling sig fra ydelser efter Sundhedsloven § 138. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>4ff4a2d4-4cde-4a22-bb37-ecfbd3fd9650</t>
@@ -435,7 +435,7 @@
     <t>Støtte til relationer og fællesskaber</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte, der retter sig mod relationer og fællesskaber, hvor samspillet med andre er et centralt element.</t>
+    <t>Støtte til relationer og fællesskaber er socialpædagogisk støtte, der retter sig mod relationer og fællesskaber, hvor samspillet med andre er et centralt element. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>05cd5e81-1a3a-4bdd-901b-7ec96c12d990</t>
@@ -444,7 +444,7 @@
     <t>Støtte til sociale relationer</t>
   </si>
   <si>
-    <t>Støtte til relationer og fællesskaber, der retter sig mod at udvikle, indgå i og bevare relationer til andre mennesker.</t>
+    <t>Socialpædagogisk støtte til sociale relationer er motivation, vejledning og støtte til relationer og fællesskaber, der retter sig mod at udvikle, indgå i og bevare relationer til andre mennesker. Støtte til sociale relationer kan både være rettet mod en borgers relationer til enkeltpersoner eller på, hvordan en borger indgår i et større fællesskab. Støtte til sociale relationer kan både være hjælp til at håndtere de følelsesmæssige og sociale aspekter ved samværet, fx at håndtere følelser og problemstillinger i sociale sammenhænge, at skabe og fastholde netværk og at holde kontakt med venner og familie eller deltage i og gennemføre aktiviteter sammen med andre. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>ea47a198-7e24-472d-ba5d-132b8b744710</t>
@@ -453,7 +453,7 @@
     <t>Støtte til varetagelse af forældrerollen</t>
   </si>
   <si>
-    <t>Støtte til relationer og fællesskaber, der retter sig mod strukturering og håndtering af opgaver, som er en almindelig del af forældreansvaret, og hvor samværet mellem barn og forælder er centralt.</t>
+    <t>Socialpædagogisk støtte til varetagelse af forældrerollen er motivation, vejledning og støtte til relationer og fællesskaber, der retter sig mod strukturering og håndtering af opgaver, som er en almindelig del af forældreansvaret, og hvor samværet mellem barn og forælder er centralt. Støtten tildeles på baggrund af borgerens nedsatte funktionsevne i forhold til at gennemføre de opgaver, der indgår i varetagelse af forældrerollen og ikke grundet manglende forældreevne. Herved adskiller støtte til varetagelse af forældrerollen sig fra foranstaltninger efter Serviceloven § 52, hvor fokus er på barnets trivsel. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>a63f7092-63d9-4cb5-ace5-655b552fdacc</t>
@@ -462,7 +462,7 @@
     <t>Støtte til praktiske opgaver</t>
   </si>
   <si>
-    <t>Socialpædagogisk støtte, der retter sig imod almindelige praktiske opgaver.</t>
+    <t>Støtte til praktiske opgaver er socialpædagogisk støtte, der retter sig imod almindelige praktiske opgaver. Støtte til praktiske opgaver består af motivation, vejledning og støtte til udførelsen af de praktiske opgaver, herunder udvikling og vedligeholdelse af kompetencer til at strukturere, planlægge og udføre de konkrete aktiviteter. Herved adskiller støtte til praktiske opgaver sig fra praktisk hjælp efter § 83. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>638f44df-6bf2-47f8-9935-b8fdc83e5bf5</t>
@@ -471,7 +471,7 @@
     <t>Støtte til daglige opgaver i hjemmet</t>
   </si>
   <si>
-    <t>Støtte til praktiske opgaver, der har hverdagskarakter og retter sig mod en persons hjem.</t>
+    <t>Socialpædagogisk støtte til daglige opgaver i hjemmet er motivation, vejledning og støtte til praktiske opgaver, der har hverdagskarakter og retter sig mod borgerens hjem. Støtte til daglige opgaver i hjemmet kan eksempelvis være støtte til oprydning, tøjvask, rengøring eller indkøb og madlavning. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>c56634ca-6847-4c50-b5c1-c528c1ffc1d8</t>
@@ -480,7 +480,7 @@
     <t>Støtte til etablering i bolig</t>
   </si>
   <si>
-    <t>Støtte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i bolig.</t>
+    <t>Socialpædagogisk støtte til etablering i bolig er motivation, vejledning og støtte til praktiske opgaver, der retter sig mod anskaffelse af og etablering i borgerens bolig. Et eksempel på støtte til etablering i bolig er at søge efter en bolig eller at guide og motivere i forbindelse med ind- og udflytning fx i forbindelse med planlægning, strukturering og gennemførsel af praktiske opgaver og indretning af boligen til borgerens behov. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>d473dea2-4f6d-4f36-a8f0-260f0213f50a</t>
@@ -489,7 +489,7 @@
     <t>Støtte til administration</t>
   </si>
   <si>
-    <t>Støtte til praktiske opgaver af administrativ eller økonomisk karakter.</t>
+    <t>Socialpædagogisk støtte til administration er motivation, vejledning og støtte til praktiske opgaver af administrativ eller økonomisk karakter. Støtte til administration kan fx være rettet mod borgerens håndtering og forståelse af post, herunder digital post og selvbetjeningsløsninger, personlig økonomi, herunder budget, opsparing og regninger, samt opdatering og anvendelse af software eller apps, herunder digitaliserede hjælpemidler. Visitationsparagraf: Serviceloven § 85.</t>
   </si>
   <si>
     <t>21dca9cf-c238-465b-9f12-15351f51b038</t>
@@ -1273,12 +1273,6 @@
   </si>
   <si>
     <t>FFB tilstande</t>
-  </si>
-  <si>
-    <t>FFB tilstande
-Mapset: 58000024148 (FFB tilstande mappet til SNOMED)
-Mapset: 338000019145 (OmrHierarkiFFB)
-Mapset: 68000024145 (TilstandsrelationerFFB)</t>
   </si>
   <si>
     <t>740934cd-002b-4b96-b92e-b3562eed9448</t>
@@ -4183,7 +4177,7 @@
         <v>419</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130">
@@ -4191,13 +4185,13 @@
         <v>44</v>
       </c>
       <c r="B130" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C130" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="D130" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131">
@@ -4205,13 +4199,13 @@
         <v>48</v>
       </c>
       <c r="B131" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C131" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="D131" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="D131" t="s" s="2">
-        <v>425</v>
       </c>
     </row>
     <row r="132">
@@ -4219,13 +4213,13 @@
         <v>52</v>
       </c>
       <c r="B132" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C132" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="D132" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="D132" t="s" s="2">
-        <v>428</v>
       </c>
     </row>
     <row r="133">
@@ -4233,13 +4227,13 @@
         <v>52</v>
       </c>
       <c r="B133" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C133" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="D133" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="D133" t="s" s="2">
-        <v>431</v>
       </c>
     </row>
     <row r="134">
@@ -4247,13 +4241,13 @@
         <v>52</v>
       </c>
       <c r="B134" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C134" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="D134" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="D134" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="135">
@@ -4261,13 +4255,13 @@
         <v>52</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="D135" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="136">
@@ -4275,13 +4269,13 @@
         <v>52</v>
       </c>
       <c r="B136" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C136" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="D136" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="D136" t="s" s="2">
-        <v>440</v>
       </c>
     </row>
     <row r="137">
@@ -4289,13 +4283,13 @@
         <v>52</v>
       </c>
       <c r="B137" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C137" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="D137" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="138">
@@ -4303,13 +4297,13 @@
         <v>52</v>
       </c>
       <c r="B138" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C138" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="D138" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="139">
@@ -4317,13 +4311,13 @@
         <v>52</v>
       </c>
       <c r="B139" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C139" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="D139" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="D139" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="140">
@@ -4331,13 +4325,13 @@
         <v>52</v>
       </c>
       <c r="B140" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C140" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="D140" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="D140" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="141">
@@ -4345,13 +4339,13 @@
         <v>52</v>
       </c>
       <c r="B141" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C141" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="D141" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="D141" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="142">
@@ -4359,13 +4353,13 @@
         <v>52</v>
       </c>
       <c r="B142" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C142" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="D142" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="D142" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="143">
@@ -4373,13 +4367,13 @@
         <v>52</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="D143" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="D143" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="144">
@@ -4387,13 +4381,13 @@
         <v>48</v>
       </c>
       <c r="B144" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C144" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="D144" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="D144" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="145">
@@ -4401,13 +4395,13 @@
         <v>52</v>
       </c>
       <c r="B145" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="D145" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="D145" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="146">
@@ -4415,13 +4409,13 @@
         <v>52</v>
       </c>
       <c r="B146" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C146" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="D146" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>470</v>
       </c>
     </row>
     <row r="147">
@@ -4429,13 +4423,13 @@
         <v>52</v>
       </c>
       <c r="B147" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C147" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="D147" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="D147" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="148">
@@ -4443,13 +4437,13 @@
         <v>52</v>
       </c>
       <c r="B148" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C148" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="D148" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="D148" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="149">
@@ -4457,13 +4451,13 @@
         <v>52</v>
       </c>
       <c r="B149" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C149" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="D149" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="D149" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="150">
@@ -4471,13 +4465,13 @@
         <v>52</v>
       </c>
       <c r="B150" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C150" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="D150" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="D150" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="151">
@@ -4485,13 +4479,13 @@
         <v>52</v>
       </c>
       <c r="B151" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C151" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="D151" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="D151" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="152">
@@ -4499,13 +4493,13 @@
         <v>52</v>
       </c>
       <c r="B152" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C152" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="D152" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="D152" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="153">
@@ -4513,13 +4507,13 @@
         <v>48</v>
       </c>
       <c r="B153" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C153" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="D153" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="D153" t="s" s="2">
-        <v>491</v>
       </c>
     </row>
     <row r="154">
@@ -4527,13 +4521,13 @@
         <v>52</v>
       </c>
       <c r="B154" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C154" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="D154" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="D154" t="s" s="2">
-        <v>494</v>
       </c>
     </row>
     <row r="155">
@@ -4541,13 +4535,13 @@
         <v>52</v>
       </c>
       <c r="B155" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C155" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="D155" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="D155" t="s" s="2">
-        <v>497</v>
       </c>
     </row>
     <row r="156">
@@ -4555,13 +4549,13 @@
         <v>52</v>
       </c>
       <c r="B156" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C156" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="D156" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="D156" t="s" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="157">
@@ -4569,13 +4563,13 @@
         <v>52</v>
       </c>
       <c r="B157" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C157" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="D157" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="D157" t="s" s="2">
-        <v>503</v>
       </c>
     </row>
     <row r="158">
@@ -4583,13 +4577,13 @@
         <v>52</v>
       </c>
       <c r="B158" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C158" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="D158" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="D158" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="159">
@@ -4597,13 +4591,13 @@
         <v>48</v>
       </c>
       <c r="B159" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C159" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="D159" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="D159" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
     <row r="160">
@@ -4611,13 +4605,13 @@
         <v>52</v>
       </c>
       <c r="B160" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C160" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="D160" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="D160" t="s" s="2">
-        <v>512</v>
       </c>
     </row>
     <row r="161">
@@ -4625,13 +4619,13 @@
         <v>52</v>
       </c>
       <c r="B161" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C161" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="D161" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="D161" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="162">
@@ -4639,13 +4633,13 @@
         <v>52</v>
       </c>
       <c r="B162" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C162" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="D162" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="D162" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="163">
@@ -4653,13 +4647,13 @@
         <v>52</v>
       </c>
       <c r="B163" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C163" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="D163" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="D163" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="164">
@@ -4667,7 +4661,7 @@
         <v>52</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>268</v>
@@ -4681,13 +4675,13 @@
         <v>52</v>
       </c>
       <c r="B165" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C165" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="D165" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="D165" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="166">
@@ -4695,7 +4689,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>226</v>
@@ -4709,13 +4703,13 @@
         <v>52</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="D167" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="D167" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="168">
@@ -4723,13 +4717,13 @@
         <v>44</v>
       </c>
       <c r="B168" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C168" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="D168" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169">
@@ -4737,13 +4731,13 @@
         <v>48</v>
       </c>
       <c r="B169" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="D169" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="D169" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="170">
@@ -4751,13 +4745,13 @@
         <v>52</v>
       </c>
       <c r="B170" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C170" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="D170" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="D170" t="s" s="2">
-        <v>537</v>
       </c>
     </row>
     <row r="171">
@@ -4765,13 +4759,13 @@
         <v>52</v>
       </c>
       <c r="B171" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C171" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="D171" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="D171" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="172">
@@ -4779,13 +4773,13 @@
         <v>52</v>
       </c>
       <c r="B172" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C172" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="D172" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="D172" t="s" s="2">
-        <v>543</v>
       </c>
     </row>
     <row r="173">
@@ -4793,13 +4787,13 @@
         <v>48</v>
       </c>
       <c r="B173" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C173" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="D173" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="D173" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="174">
@@ -4807,13 +4801,13 @@
         <v>52</v>
       </c>
       <c r="B174" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C174" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="D174" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="D174" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="175">
@@ -4821,13 +4815,13 @@
         <v>52</v>
       </c>
       <c r="B175" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C175" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="D175" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="D175" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="176">
@@ -4835,13 +4829,13 @@
         <v>52</v>
       </c>
       <c r="B176" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C176" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="D176" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="D176" t="s" s="2">
-        <v>555</v>
       </c>
     </row>
     <row r="177">
@@ -4849,13 +4843,13 @@
         <v>52</v>
       </c>
       <c r="B177" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C177" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="D177" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="D177" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="178">
@@ -4863,13 +4857,13 @@
         <v>48</v>
       </c>
       <c r="B178" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C178" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="D178" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="D178" t="s" s="2">
-        <v>561</v>
       </c>
     </row>
     <row r="179">
@@ -4877,13 +4871,13 @@
         <v>52</v>
       </c>
       <c r="B179" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C179" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="D179" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="D179" t="s" s="2">
-        <v>564</v>
       </c>
     </row>
     <row r="180">
@@ -4891,13 +4885,13 @@
         <v>52</v>
       </c>
       <c r="B180" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C180" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="D180" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="D180" t="s" s="2">
-        <v>567</v>
       </c>
     </row>
     <row r="181">
@@ -4905,13 +4899,13 @@
         <v>52</v>
       </c>
       <c r="B181" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C181" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="D181" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="D181" t="s" s="2">
-        <v>570</v>
       </c>
     </row>
     <row r="182">
@@ -4919,13 +4913,13 @@
         <v>52</v>
       </c>
       <c r="B182" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C182" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="D182" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="D182" t="s" s="2">
-        <v>573</v>
       </c>
     </row>
     <row r="183">
@@ -4933,13 +4927,13 @@
         <v>48</v>
       </c>
       <c r="B183" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C183" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="D183" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="D183" t="s" s="2">
-        <v>576</v>
       </c>
     </row>
     <row r="184">
@@ -4947,13 +4941,13 @@
         <v>52</v>
       </c>
       <c r="B184" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C184" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="D184" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="D184" t="s" s="2">
-        <v>579</v>
       </c>
     </row>
     <row r="185">
@@ -4961,13 +4955,13 @@
         <v>52</v>
       </c>
       <c r="B185" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C185" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="D185" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="D185" t="s" s="2">
-        <v>582</v>
       </c>
     </row>
     <row r="186">
@@ -4975,13 +4969,13 @@
         <v>52</v>
       </c>
       <c r="B186" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="C186" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="D186" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>585</v>
       </c>
     </row>
     <row r="187">
@@ -4989,13 +4983,13 @@
         <v>52</v>
       </c>
       <c r="B187" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C187" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="D187" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="D187" t="s" s="2">
-        <v>588</v>
       </c>
     </row>
     <row r="188">
@@ -5003,13 +4997,13 @@
         <v>52</v>
       </c>
       <c r="B188" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C188" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="D188" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="D188" t="s" s="2">
-        <v>591</v>
       </c>
     </row>
     <row r="189">
@@ -5017,13 +5011,13 @@
         <v>52</v>
       </c>
       <c r="B189" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C189" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="D189" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="D189" t="s" s="2">
-        <v>594</v>
       </c>
     </row>
     <row r="190">
@@ -5031,13 +5025,13 @@
         <v>52</v>
       </c>
       <c r="B190" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C190" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="D190" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="D190" t="s" s="2">
-        <v>597</v>
       </c>
     </row>
     <row r="191">
@@ -5045,13 +5039,13 @@
         <v>52</v>
       </c>
       <c r="B191" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C191" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="D191" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="D191" t="s" s="2">
-        <v>600</v>
       </c>
     </row>
     <row r="192">
@@ -5059,13 +5053,13 @@
         <v>52</v>
       </c>
       <c r="B192" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C192" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="D192" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="D192" t="s" s="2">
-        <v>603</v>
       </c>
     </row>
     <row r="193">
@@ -5073,13 +5067,13 @@
         <v>48</v>
       </c>
       <c r="B193" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C193" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="D193" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="D193" t="s" s="2">
-        <v>606</v>
       </c>
     </row>
     <row r="194">
@@ -5087,13 +5081,13 @@
         <v>52</v>
       </c>
       <c r="B194" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C194" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="D194" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="D194" t="s" s="2">
-        <v>609</v>
       </c>
     </row>
     <row r="195">
@@ -5101,13 +5095,13 @@
         <v>52</v>
       </c>
       <c r="B195" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C195" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="D195" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="D195" t="s" s="2">
-        <v>612</v>
       </c>
     </row>
     <row r="196">
@@ -5115,13 +5109,13 @@
         <v>52</v>
       </c>
       <c r="B196" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C196" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="D196" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="D196" t="s" s="2">
-        <v>615</v>
       </c>
     </row>
     <row r="197">
@@ -5129,13 +5123,13 @@
         <v>52</v>
       </c>
       <c r="B197" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C197" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="D197" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="D197" t="s" s="2">
-        <v>618</v>
       </c>
     </row>
     <row r="198">
@@ -5143,13 +5137,13 @@
         <v>52</v>
       </c>
       <c r="B198" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C198" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="D198" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="D198" t="s" s="2">
-        <v>621</v>
       </c>
     </row>
     <row r="199">
@@ -5157,13 +5151,13 @@
         <v>48</v>
       </c>
       <c r="B199" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C199" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="D199" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="D199" t="s" s="2">
-        <v>624</v>
       </c>
     </row>
     <row r="200">
@@ -5171,13 +5165,13 @@
         <v>52</v>
       </c>
       <c r="B200" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C200" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="D200" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="D200" t="s" s="2">
-        <v>627</v>
       </c>
     </row>
     <row r="201">
@@ -5185,13 +5179,13 @@
         <v>52</v>
       </c>
       <c r="B201" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C201" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="D201" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="D201" t="s" s="2">
-        <v>630</v>
       </c>
     </row>
     <row r="202">
@@ -5199,13 +5193,13 @@
         <v>52</v>
       </c>
       <c r="B202" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C202" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="D202" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="D202" t="s" s="2">
-        <v>633</v>
       </c>
     </row>
     <row r="203">
@@ -5213,13 +5207,13 @@
         <v>52</v>
       </c>
       <c r="B203" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C203" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="D203" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="D203" t="s" s="2">
-        <v>636</v>
       </c>
     </row>
     <row r="204">
@@ -5227,13 +5221,13 @@
         <v>52</v>
       </c>
       <c r="B204" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C204" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="D204" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="D204" t="s" s="2">
-        <v>639</v>
       </c>
     </row>
     <row r="205">
@@ -5241,13 +5235,13 @@
         <v>52</v>
       </c>
       <c r="B205" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C205" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="D205" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="D205" t="s" s="2">
-        <v>642</v>
       </c>
     </row>
     <row r="206">
@@ -5255,13 +5249,13 @@
         <v>44</v>
       </c>
       <c r="B206" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="C206" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="D206" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="207">
@@ -5269,13 +5263,13 @@
         <v>48</v>
       </c>
       <c r="B207" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C207" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="D207" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="D207" t="s" s="2">
-        <v>647</v>
       </c>
     </row>
     <row r="208">
@@ -5283,13 +5277,13 @@
         <v>52</v>
       </c>
       <c r="B208" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C208" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="D208" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="D208" t="s" s="2">
-        <v>650</v>
       </c>
     </row>
     <row r="209">
@@ -5297,13 +5291,13 @@
         <v>52</v>
       </c>
       <c r="B209" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C209" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="D209" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="D209" t="s" s="2">
-        <v>653</v>
       </c>
     </row>
     <row r="210">
@@ -5311,13 +5305,13 @@
         <v>52</v>
       </c>
       <c r="B210" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C210" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="D210" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="D210" t="s" s="2">
-        <v>656</v>
       </c>
     </row>
     <row r="211">
@@ -5325,13 +5319,13 @@
         <v>40</v>
       </c>
       <c r="B211" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C211" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="D211" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="D211" t="s" s="2">
-        <v>659</v>
       </c>
     </row>
     <row r="212">
@@ -5339,13 +5333,13 @@
         <v>44</v>
       </c>
       <c r="B212" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C212" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="D212" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="D212" t="s" s="2">
-        <v>662</v>
       </c>
     </row>
     <row r="213">
@@ -5353,13 +5347,13 @@
         <v>44</v>
       </c>
       <c r="B213" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C213" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="D213" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="D213" t="s" s="2">
-        <v>665</v>
       </c>
     </row>
     <row r="214">
@@ -5367,13 +5361,13 @@
         <v>44</v>
       </c>
       <c r="B214" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C214" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="D214" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="D214" t="s" s="2">
-        <v>668</v>
       </c>
     </row>
     <row r="215">
@@ -5381,13 +5375,13 @@
         <v>40</v>
       </c>
       <c r="B215" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="C215" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>670</v>
-      </c>
       <c r="D215" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="216">
@@ -5395,7 +5389,7 @@
         <v>44</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C216" t="s" s="2">
         <v>399</v>
@@ -5409,13 +5403,13 @@
         <v>44</v>
       </c>
       <c r="B217" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C217" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="D217" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="218">
@@ -5423,13 +5417,13 @@
         <v>44</v>
       </c>
       <c r="B218" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C218" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>675</v>
-      </c>
       <c r="D218" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="219">
@@ -5437,13 +5431,13 @@
         <v>44</v>
       </c>
       <c r="B219" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="C219" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="D219" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="220">
@@ -5451,13 +5445,13 @@
         <v>44</v>
       </c>
       <c r="B220" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C220" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>679</v>
-      </c>
       <c r="D220" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="221">
@@ -5465,13 +5459,13 @@
         <v>44</v>
       </c>
       <c r="B221" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C221" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="D221" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:59:10+02:00</t>
+    <t>2024-06-13T16:58:41+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/CodeSystem-FFB.xlsx
+++ b/term/CodeSystem-FFB.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T16:58:41+02:00</t>
+    <t>2024-10-31T13:18:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Kommunernes Landsforening (http://kl.dk)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -2189,7 +2195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2299,67 +2305,75 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>26</v>
       </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>33</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2376,3096 +2390,3096 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D124" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D125" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D128" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D137" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D140" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D147" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D152" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D156" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D158" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D159" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D162" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D163" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D164" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D166" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D167" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D170" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D172" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D173" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D174" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D177" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D178" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D182" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D183" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D184" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D185" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D189" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D190" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D191" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D192" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D193" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D195" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D196" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D197" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D198" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D205" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D206" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D207" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D208" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D209" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D210" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D211" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D212" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D213" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D214" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D215" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D216" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D217" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D219" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D220" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D221" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
